--- a/excel/contrcat_10102.xlsx
+++ b/excel/contrcat_10102.xlsx
@@ -521,16 +521,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>切捨単位</t>
-    <rPh sb="0" eb="2">
-      <t>キリス</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>扶養家族</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
@@ -982,6 +972,13 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2020,839 +2017,839 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5625,8 +5622,8 @@
   </sheetPr>
   <dimension ref="A1:BN55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AM1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5643,545 +5640,545 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="190"/>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="190"/>
-      <c r="AJ1" s="190"/>
-      <c r="AK1" s="190"/>
-      <c r="AL1" s="190"/>
-      <c r="AM1" s="190"/>
-      <c r="AX1" s="177" t="s">
+      <c r="A1" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="AY1" s="177"/>
-      <c r="AZ1" s="177"/>
-      <c r="BA1" s="177"/>
-      <c r="BB1" s="177"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AX1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
       <c r="BC1" s="23"/>
-      <c r="BD1" s="177" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE1" s="177"/>
-      <c r="BF1" s="177"/>
-      <c r="BG1" s="177"/>
-      <c r="BH1" s="177"/>
-      <c r="BJ1" s="177" t="s">
+      <c r="BD1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="BK1" s="177"/>
-      <c r="BL1" s="177"/>
-      <c r="BM1" s="177"/>
-      <c r="BN1" s="177"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BJ1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="191" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="193"/>
-      <c r="T2" s="63" t="s">
+      <c r="A2" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64" t="s">
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="259"/>
+      <c r="T2" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="41" t="s">
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="292"/>
-      <c r="AZ2" s="292"/>
-      <c r="BA2" s="293" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB2" s="294" t="e">
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="29" t="e">
         <f>ROUNDDOWN(G19/G21,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD2" s="291"/>
-      <c r="BE2" s="292"/>
-      <c r="BF2" s="292"/>
-      <c r="BG2" s="293" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH2" s="294" t="e">
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH2" s="29" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ2" s="291"/>
-      <c r="BK2" s="292"/>
-      <c r="BL2" s="292"/>
-      <c r="BM2" s="293" t="s">
-        <v>52</v>
-      </c>
-      <c r="BN2" s="294" t="e">
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN2" s="29" t="e">
         <f>ROUNDDOWN((AG19/AG21),0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="213" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="132"/>
-      <c r="T3" s="107" t="s">
+      <c r="A3" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="34"/>
-      <c r="AX3" s="295"/>
-      <c r="AY3" s="296"/>
-      <c r="AZ3" s="296"/>
-      <c r="BA3" s="297" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="129"/>
+      <c r="T3" s="216" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="218"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="282"/>
+      <c r="AB3" s="282"/>
+      <c r="AC3" s="282"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="282"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="282"/>
+      <c r="AI3" s="283"/>
+      <c r="AJ3" s="288"/>
+      <c r="AK3" s="289"/>
+      <c r="AL3" s="289"/>
+      <c r="AM3" s="290"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="BB3" s="298" t="e">
+      <c r="BB3" s="33" t="e">
         <f>ROUNDDOWN(G19/G21,-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD3" s="295"/>
-      <c r="BE3" s="296"/>
-      <c r="BF3" s="296"/>
-      <c r="BG3" s="297" t="s">
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="BH3" s="298" t="e">
+      <c r="BH3" s="33" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ3" s="295"/>
-      <c r="BK3" s="296"/>
-      <c r="BL3" s="296"/>
-      <c r="BM3" s="297" t="s">
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="BN3" s="298" t="e">
+      <c r="BN3" s="33" t="e">
         <f>ROUNDDOWN((AG19/AG21),-1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="214" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="T4" s="68" t="s">
+      <c r="A4" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="37"/>
-      <c r="AX4" s="295"/>
-      <c r="AY4" s="296"/>
-      <c r="AZ4" s="296"/>
-      <c r="BA4" s="297" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB4" s="298" t="e">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="75"/>
+      <c r="T4" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="291"/>
+      <c r="AK4" s="292"/>
+      <c r="AL4" s="292"/>
+      <c r="AM4" s="293"/>
+      <c r="AX4" s="30"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB4" s="33" t="e">
         <f>ROUNDDOWN(G19/G21,-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD4" s="295"/>
-      <c r="BE4" s="296"/>
-      <c r="BF4" s="296"/>
-      <c r="BG4" s="297" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH4" s="298" t="e">
+      <c r="BD4" s="30"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH4" s="33" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ4" s="295"/>
-      <c r="BK4" s="296"/>
-      <c r="BL4" s="296"/>
-      <c r="BM4" s="297" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN4" s="298" t="e">
+      <c r="BJ4" s="30"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN4" s="33" t="e">
         <f>ROUNDDOWN((AG19/AG21),-2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="214" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="135"/>
+      <c r="A5" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="75"/>
       <c r="R5" s="13"/>
-      <c r="T5" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="37"/>
-      <c r="AX5" s="295"/>
-      <c r="AY5" s="296"/>
-      <c r="AZ5" s="296"/>
-      <c r="BA5" s="296"/>
-      <c r="BB5" s="298"/>
-      <c r="BD5" s="295"/>
-      <c r="BE5" s="296"/>
-      <c r="BF5" s="296"/>
-      <c r="BG5" s="296"/>
-      <c r="BH5" s="298"/>
-      <c r="BJ5" s="295"/>
-      <c r="BK5" s="296"/>
-      <c r="BL5" s="296"/>
-      <c r="BM5" s="296"/>
-      <c r="BN5" s="298"/>
+      <c r="T5" s="179" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="147"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="291"/>
+      <c r="AK5" s="292"/>
+      <c r="AL5" s="292"/>
+      <c r="AM5" s="293"/>
+      <c r="AX5" s="30"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="33"/>
+      <c r="BD5" s="30"/>
+      <c r="BE5" s="31"/>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="33"/>
+      <c r="BJ5" s="30"/>
+      <c r="BK5" s="31"/>
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="33"/>
     </row>
     <row r="6" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="217" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="92"/>
+      <c r="A6" s="248" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="249"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="121"/>
       <c r="R6" s="13"/>
-      <c r="T6" s="245" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="246"/>
-      <c r="V6" s="246"/>
-      <c r="W6" s="246"/>
-      <c r="X6" s="246"/>
-      <c r="Y6" s="246"/>
-      <c r="Z6" s="246"/>
-      <c r="AA6" s="246"/>
-      <c r="AB6" s="246"/>
-      <c r="AC6" s="246"/>
-      <c r="AD6" s="246"/>
-      <c r="AE6" s="246"/>
-      <c r="AF6" s="246"/>
-      <c r="AG6" s="246"/>
-      <c r="AH6" s="246"/>
-      <c r="AI6" s="247"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="40"/>
-      <c r="AX6" s="295"/>
-      <c r="AY6" s="296"/>
-      <c r="AZ6" s="296"/>
-      <c r="BA6" s="296"/>
-      <c r="BB6" s="298"/>
-      <c r="BD6" s="295"/>
-      <c r="BE6" s="296"/>
-      <c r="BF6" s="296"/>
-      <c r="BG6" s="296"/>
-      <c r="BH6" s="298"/>
-      <c r="BJ6" s="295"/>
-      <c r="BK6" s="296"/>
-      <c r="BL6" s="296"/>
-      <c r="BM6" s="296"/>
-      <c r="BN6" s="298"/>
+      <c r="T6" s="254" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="255"/>
+      <c r="V6" s="255"/>
+      <c r="W6" s="255"/>
+      <c r="X6" s="255"/>
+      <c r="Y6" s="255"/>
+      <c r="Z6" s="255"/>
+      <c r="AA6" s="255"/>
+      <c r="AB6" s="255"/>
+      <c r="AC6" s="255"/>
+      <c r="AD6" s="255"/>
+      <c r="AE6" s="255"/>
+      <c r="AF6" s="255"/>
+      <c r="AG6" s="255"/>
+      <c r="AH6" s="255"/>
+      <c r="AI6" s="256"/>
+      <c r="AJ6" s="294"/>
+      <c r="AK6" s="295"/>
+      <c r="AL6" s="295"/>
+      <c r="AM6" s="296"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="33"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="33"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="33"/>
     </row>
     <row r="7" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="199"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="87">
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="246"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="112"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="250">
         <f>I7-D7-O8</f>
         <v>0</v>
       </c>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="89"/>
+      <c r="P7" s="251"/>
+      <c r="Q7" s="252"/>
       <c r="R7" s="13"/>
-      <c r="T7" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="74"/>
-      <c r="AX7" s="295"/>
-      <c r="AY7" s="296"/>
-      <c r="AZ7" s="296"/>
-      <c r="BA7" s="296"/>
-      <c r="BB7" s="298"/>
-      <c r="BD7" s="295"/>
-      <c r="BE7" s="296"/>
-      <c r="BF7" s="296"/>
-      <c r="BG7" s="296"/>
-      <c r="BH7" s="298"/>
-      <c r="BJ7" s="295"/>
-      <c r="BK7" s="296"/>
-      <c r="BL7" s="296"/>
-      <c r="BM7" s="296"/>
-      <c r="BN7" s="298"/>
+      <c r="T7" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="278"/>
+      <c r="AA7" s="279"/>
+      <c r="AB7" s="279"/>
+      <c r="AC7" s="279"/>
+      <c r="AD7" s="279"/>
+      <c r="AE7" s="279"/>
+      <c r="AF7" s="279"/>
+      <c r="AG7" s="279"/>
+      <c r="AH7" s="279"/>
+      <c r="AI7" s="279"/>
+      <c r="AJ7" s="279"/>
+      <c r="AK7" s="279"/>
+      <c r="AL7" s="279"/>
+      <c r="AM7" s="280"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="33"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="33"/>
+      <c r="BJ7" s="30"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="33"/>
     </row>
     <row r="8" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="196" t="s">
+      <c r="A8" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="197"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="201" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="202"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="169">
+      <c r="H8" s="134"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="126"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="130">
         <f>I8-D8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="171"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="13"/>
-      <c r="T8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" s="248"/>
-      <c r="V8" s="248"/>
-      <c r="W8" s="248"/>
-      <c r="X8" s="248"/>
-      <c r="Y8" s="248"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="249" t="s">
+      <c r="T8" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="77"/>
+      <c r="U8" s="281"/>
+      <c r="V8" s="281"/>
+      <c r="W8" s="281"/>
+      <c r="X8" s="281"/>
+      <c r="Y8" s="281"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="146"/>
+      <c r="AJ8" s="146"/>
+      <c r="AK8" s="146"/>
+      <c r="AL8" s="146"/>
+      <c r="AM8" s="147"/>
       <c r="AR8" s="13"/>
-      <c r="AX8" s="295"/>
-      <c r="AY8" s="296"/>
-      <c r="AZ8" s="296"/>
-      <c r="BA8" s="296"/>
-      <c r="BB8" s="298"/>
-      <c r="BD8" s="295"/>
-      <c r="BE8" s="296"/>
-      <c r="BF8" s="296"/>
-      <c r="BG8" s="296"/>
-      <c r="BH8" s="298"/>
-      <c r="BJ8" s="295"/>
-      <c r="BK8" s="296"/>
-      <c r="BL8" s="296"/>
-      <c r="BM8" s="296"/>
-      <c r="BN8" s="298"/>
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="33"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="31"/>
+      <c r="BF8" s="31"/>
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="33"/>
+      <c r="BJ8" s="30"/>
+      <c r="BK8" s="31"/>
+      <c r="BL8" s="31"/>
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="33"/>
     </row>
     <row r="9" spans="1:66" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
@@ -6189,484 +6186,484 @@
       <c r="C9" s="22"/>
       <c r="R9" s="13"/>
       <c r="AR9" s="13"/>
-      <c r="AX9" s="295"/>
-      <c r="AY9" s="296"/>
-      <c r="AZ9" s="296"/>
-      <c r="BA9" s="296"/>
-      <c r="BB9" s="298"/>
-      <c r="BD9" s="295"/>
-      <c r="BE9" s="296"/>
-      <c r="BF9" s="296"/>
-      <c r="BG9" s="296"/>
-      <c r="BH9" s="298"/>
-      <c r="BJ9" s="295"/>
-      <c r="BK9" s="296"/>
-      <c r="BL9" s="296"/>
-      <c r="BM9" s="296"/>
-      <c r="BN9" s="298"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="33"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="33"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="33"/>
     </row>
     <row r="10" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="132"/>
+      <c r="A10" s="194" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="129"/>
       <c r="R10" s="13"/>
-      <c r="T10" s="194" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" s="250"/>
-      <c r="V10" s="250"/>
-      <c r="W10" s="250"/>
-      <c r="X10" s="250"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="117">
+      <c r="T10" s="244" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="245"/>
+      <c r="V10" s="245"/>
+      <c r="W10" s="245"/>
+      <c r="X10" s="245"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="76">
         <f>Z8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="189"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="78"/>
       <c r="AR10" s="13"/>
-      <c r="AX10" s="295"/>
-      <c r="AY10" s="296"/>
-      <c r="AZ10" s="296"/>
-      <c r="BA10" s="296"/>
-      <c r="BB10" s="298"/>
-      <c r="BD10" s="295"/>
-      <c r="BE10" s="296"/>
-      <c r="BF10" s="296"/>
-      <c r="BG10" s="296"/>
-      <c r="BH10" s="298"/>
-      <c r="BJ10" s="295"/>
-      <c r="BK10" s="296"/>
-      <c r="BL10" s="296"/>
-      <c r="BM10" s="296"/>
-      <c r="BN10" s="298"/>
+      <c r="AX10" s="30"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="33"/>
+      <c r="BD10" s="30"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="33"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="31"/>
+      <c r="BL10" s="31"/>
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="33"/>
     </row>
     <row r="11" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="135"/>
+      <c r="A11" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="75"/>
       <c r="R11" s="13"/>
-      <c r="T11" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="133" t="s">
+      <c r="T11" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="182" t="s">
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="184"/>
-      <c r="AE11" s="185"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="186"/>
-      <c r="AH11" s="186"/>
-      <c r="AI11" s="186"/>
-      <c r="AJ11" s="187"/>
-      <c r="AK11" s="187"/>
-      <c r="AL11" s="187"/>
-      <c r="AM11" s="188"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="73"/>
       <c r="AR11" s="13"/>
-      <c r="AX11" s="295"/>
-      <c r="AY11" s="296"/>
-      <c r="AZ11" s="296"/>
-      <c r="BA11" s="297" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB11" s="298" t="e">
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB11" s="33" t="e">
         <f>ROUNDDOWN(G19/G20,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD11" s="295"/>
-      <c r="BE11" s="296"/>
-      <c r="BF11" s="296"/>
-      <c r="BG11" s="297" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH11" s="298" t="e">
+      <c r="BD11" s="30"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH11" s="33" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ11" s="295"/>
-      <c r="BK11" s="296"/>
-      <c r="BL11" s="296"/>
-      <c r="BM11" s="297" t="s">
-        <v>52</v>
-      </c>
-      <c r="BN11" s="298" t="e">
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN11" s="33" t="e">
         <f>ROUNDDOWN((AG19/AG20),0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="92"/>
+      <c r="A12" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="121"/>
       <c r="R12" s="13"/>
-      <c r="T12" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="252"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="252"/>
-      <c r="X12" s="252"/>
-      <c r="Y12" s="253"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="110" t="s">
+      <c r="T12" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AK12" s="111"/>
-      <c r="AL12" s="111"/>
-      <c r="AM12" s="112"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="214"/>
+      <c r="W12" s="214"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="203"/>
+      <c r="AB12" s="203"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="203"/>
+      <c r="AE12" s="203"/>
+      <c r="AF12" s="203"/>
+      <c r="AG12" s="203"/>
+      <c r="AH12" s="203"/>
+      <c r="AI12" s="204"/>
+      <c r="AJ12" s="222" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK12" s="223"/>
+      <c r="AL12" s="223"/>
+      <c r="AM12" s="224"/>
       <c r="AR12" s="21"/>
-      <c r="AX12" s="295"/>
-      <c r="AY12" s="296"/>
-      <c r="AZ12" s="296"/>
-      <c r="BA12" s="297" t="s">
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="BB12" s="298" t="e">
+      <c r="BB12" s="33" t="e">
         <f>ROUNDDOWN(G19/G20,-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD12" s="295"/>
-      <c r="BE12" s="296"/>
-      <c r="BF12" s="296"/>
-      <c r="BG12" s="297" t="s">
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="BH12" s="298" t="e">
+      <c r="BH12" s="33" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ12" s="295"/>
-      <c r="BK12" s="296"/>
-      <c r="BL12" s="296"/>
-      <c r="BM12" s="297" t="s">
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="BN12" s="298" t="e">
+      <c r="BN12" s="33" t="e">
         <f>ROUNDDOWN((AG19/AG20),-1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="135"/>
+      <c r="A13" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="75"/>
       <c r="R13" s="13"/>
-      <c r="T13" s="254" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" s="255"/>
-      <c r="V13" s="256"/>
-      <c r="W13" s="117" t="str">
+      <c r="T13" s="219" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="220"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="76" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC13" s="257"/>
-      <c r="AD13" s="212"/>
-      <c r="AE13" s="107" t="str">
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="217"/>
+      <c r="AA13" s="218"/>
+      <c r="AB13" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="216" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="99">
+      <c r="AF13" s="217"/>
+      <c r="AG13" s="217"/>
+      <c r="AH13" s="217"/>
+      <c r="AI13" s="218"/>
+      <c r="AJ13" s="205">
         <v>80</v>
       </c>
-      <c r="AK13" s="100"/>
-      <c r="AL13" s="100"/>
-      <c r="AM13" s="101"/>
+      <c r="AK13" s="206"/>
+      <c r="AL13" s="206"/>
+      <c r="AM13" s="207"/>
       <c r="AR13" s="13"/>
-      <c r="AX13" s="295"/>
-      <c r="AY13" s="296"/>
-      <c r="AZ13" s="296"/>
-      <c r="BA13" s="297" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB13" s="298" t="e">
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB13" s="33" t="e">
         <f>ROUNDDOWN(G19/G20,-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD13" s="295"/>
-      <c r="BE13" s="296"/>
-      <c r="BF13" s="296"/>
-      <c r="BG13" s="297" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH13" s="298" t="e">
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH13" s="33" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ13" s="295"/>
-      <c r="BK13" s="296"/>
-      <c r="BL13" s="296"/>
-      <c r="BM13" s="297" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN13" s="298" t="e">
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="31"/>
+      <c r="BM13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN13" s="33" t="e">
         <f>ROUNDDOWN((AG19/AG20),-2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:66" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="133" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="62"/>
+      <c r="A14" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
       <c r="R14" s="13"/>
-      <c r="T14" s="258" t="s">
-        <v>43</v>
-      </c>
-      <c r="U14" s="259"/>
-      <c r="V14" s="259"/>
-      <c r="W14" s="260"/>
-      <c r="X14" s="260"/>
-      <c r="Y14" s="261"/>
-      <c r="Z14" s="82" t="str">
+      <c r="T14" s="239" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="240"/>
+      <c r="V14" s="240"/>
+      <c r="W14" s="230"/>
+      <c r="X14" s="230"/>
+      <c r="Y14" s="231"/>
+      <c r="Z14" s="285" t="str">
         <f>IF(G15&lt;&gt;"",G15,"")</f>
         <v/>
       </c>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="102"/>
-      <c r="AM14" s="103"/>
+      <c r="AA14" s="286"/>
+      <c r="AB14" s="286"/>
+      <c r="AC14" s="286"/>
+      <c r="AD14" s="286"/>
+      <c r="AE14" s="286"/>
+      <c r="AF14" s="286"/>
+      <c r="AG14" s="286"/>
+      <c r="AH14" s="286"/>
+      <c r="AI14" s="287"/>
+      <c r="AJ14" s="205"/>
+      <c r="AK14" s="208"/>
+      <c r="AL14" s="208"/>
+      <c r="AM14" s="209"/>
       <c r="AR14" s="13"/>
-      <c r="AX14" s="299"/>
-      <c r="AY14" s="300"/>
-      <c r="AZ14" s="300"/>
-      <c r="BA14" s="300"/>
-      <c r="BB14" s="301"/>
-      <c r="BD14" s="299"/>
-      <c r="BE14" s="300"/>
-      <c r="BF14" s="300"/>
-      <c r="BG14" s="300"/>
-      <c r="BH14" s="301"/>
-      <c r="BJ14" s="299"/>
-      <c r="BK14" s="300"/>
-      <c r="BL14" s="300"/>
-      <c r="BM14" s="300"/>
-      <c r="BN14" s="301"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="36"/>
+      <c r="BD14" s="34"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="36"/>
+      <c r="BJ14" s="34"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="36"/>
     </row>
     <row r="15" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="174"/>
+      <c r="A15" s="163" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="137"/>
       <c r="R15" s="13"/>
-      <c r="T15" s="196" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15" s="248"/>
-      <c r="V15" s="248"/>
-      <c r="W15" s="248"/>
-      <c r="X15" s="248"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="113" t="str">
+      <c r="T15" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="281"/>
+      <c r="V15" s="281"/>
+      <c r="W15" s="281"/>
+      <c r="X15" s="281"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="225" t="str">
         <f>IF(G16&lt;&gt;"",G16,"")</f>
         <v/>
       </c>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114"/>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="115"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="106"/>
+      <c r="AA15" s="226"/>
+      <c r="AB15" s="226"/>
+      <c r="AC15" s="226"/>
+      <c r="AD15" s="226"/>
+      <c r="AE15" s="226"/>
+      <c r="AF15" s="226"/>
+      <c r="AG15" s="226"/>
+      <c r="AH15" s="226"/>
+      <c r="AI15" s="227"/>
+      <c r="AJ15" s="210"/>
+      <c r="AK15" s="211"/>
+      <c r="AL15" s="211"/>
+      <c r="AM15" s="212"/>
       <c r="AR15" s="20"/>
     </row>
     <row r="16" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="150"/>
+      <c r="A16" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="185"/>
       <c r="R16" s="13"/>
-      <c r="T16" s="262" t="s">
-        <v>41</v>
-      </c>
-      <c r="U16" s="263"/>
-      <c r="V16" s="263"/>
-      <c r="W16" s="263"/>
-      <c r="X16" s="263"/>
-      <c r="Y16" s="264"/>
-      <c r="Z16" s="265" t="s">
+      <c r="T16" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265" t="s">
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
-      <c r="AL16" s="265"/>
-      <c r="AM16" s="265"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
+      <c r="AD16" s="241"/>
+      <c r="AE16" s="241"/>
+      <c r="AF16" s="241"/>
+      <c r="AG16" s="241" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH16" s="241"/>
+      <c r="AI16" s="241"/>
+      <c r="AJ16" s="241"/>
+      <c r="AK16" s="241"/>
+      <c r="AL16" s="241"/>
+      <c r="AM16" s="241"/>
       <c r="AR16" s="13"/>
     </row>
     <row r="17" spans="1:59" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6707,449 +6704,449 @@
       <c r="AR17" s="13"/>
     </row>
     <row r="18" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="219" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="220"/>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="261"/>
+      <c r="C18" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="65"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="92"/>
       <c r="R18" s="13"/>
-      <c r="T18" s="266" t="s">
-        <v>38</v>
-      </c>
-      <c r="U18" s="267"/>
-      <c r="V18" s="268" t="s">
+      <c r="T18" s="232" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="233"/>
+      <c r="V18" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="W18" s="260"/>
-      <c r="X18" s="260"/>
-      <c r="Y18" s="261"/>
-      <c r="Z18" s="116" t="str">
+      <c r="W18" s="230"/>
+      <c r="X18" s="230"/>
+      <c r="Y18" s="231"/>
+      <c r="Z18" s="228" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AA18" s="116"/>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116" t="str">
+      <c r="AA18" s="228"/>
+      <c r="AB18" s="228"/>
+      <c r="AC18" s="228"/>
+      <c r="AD18" s="228"/>
+      <c r="AE18" s="228"/>
+      <c r="AF18" s="228"/>
+      <c r="AG18" s="228" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="116"/>
-      <c r="AJ18" s="116"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="116"/>
+      <c r="AH18" s="228"/>
+      <c r="AI18" s="228"/>
+      <c r="AJ18" s="228"/>
+      <c r="AK18" s="228"/>
+      <c r="AL18" s="228"/>
+      <c r="AM18" s="228"/>
       <c r="AN18" s="13"/>
-      <c r="AO18" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AX18" s="178"/>
-      <c r="AY18" s="179"/>
-      <c r="AZ18" s="179"/>
-      <c r="BA18" s="179"/>
-      <c r="BB18" s="179"/>
+      <c r="AO18" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="60"/>
     </row>
     <row r="19" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="221"/>
-      <c r="B19" s="222"/>
-      <c r="C19" s="223" t="s">
+      <c r="A19" s="262"/>
+      <c r="B19" s="263"/>
+      <c r="C19" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
       <c r="R19" s="13"/>
-      <c r="T19" s="269"/>
-      <c r="U19" s="270"/>
-      <c r="V19" s="271" t="s">
+      <c r="T19" s="234"/>
+      <c r="U19" s="235"/>
+      <c r="V19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="272"/>
-      <c r="X19" s="272"/>
-      <c r="Y19" s="273"/>
-      <c r="Z19" s="85" t="str">
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="148" t="str">
         <f>IF(G19&lt;&gt;"",G19*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="85" t="str">
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="148" t="str">
         <f>IF(G19&lt;&gt;"",G19*(((AJ13-20)/100)),"")</f>
         <v/>
       </c>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="86"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="149"/>
       <c r="AN19" s="17"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AX19" s="180"/>
-      <c r="AY19" s="181"/>
-      <c r="AZ19" s="181"/>
-      <c r="BA19" s="181"/>
-      <c r="BB19" s="181"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
     </row>
     <row r="20" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="221"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="223" t="s">
+      <c r="A20" s="262"/>
+      <c r="B20" s="263"/>
+      <c r="C20" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="70"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="81"/>
       <c r="R20" s="13"/>
-      <c r="T20" s="269"/>
-      <c r="U20" s="270"/>
-      <c r="V20" s="271" t="s">
+      <c r="T20" s="234"/>
+      <c r="U20" s="235"/>
+      <c r="V20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="272"/>
-      <c r="X20" s="272"/>
-      <c r="Y20" s="273"/>
-      <c r="Z20" s="75" t="str">
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="63" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75" t="str">
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
       <c r="AN20" s="13"/>
       <c r="AR20" s="13"/>
     </row>
     <row r="21" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="221"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="223" t="s">
+      <c r="A21" s="262"/>
+      <c r="B21" s="263"/>
+      <c r="C21" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="70"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="81"/>
       <c r="R21" s="13"/>
-      <c r="T21" s="269"/>
-      <c r="U21" s="270"/>
-      <c r="V21" s="271" t="s">
+      <c r="T21" s="234"/>
+      <c r="U21" s="235"/>
+      <c r="V21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="W21" s="272"/>
-      <c r="X21" s="272"/>
-      <c r="Y21" s="273"/>
-      <c r="Z21" s="75" t="str">
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="63" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75" t="str">
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="75"/>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="75"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
       <c r="AN21" s="13"/>
-      <c r="AO21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="28" t="s">
+      <c r="AO21" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="28" t="s">
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="47"/>
     </row>
     <row r="22" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="221"/>
-      <c r="B22" s="222"/>
-      <c r="C22" s="223" t="s">
+      <c r="A22" s="262"/>
+      <c r="B22" s="263"/>
+      <c r="C22" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="204" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="205"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="145" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="272" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="273"/>
+      <c r="I22" s="274"/>
+      <c r="J22" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="139" t="str">
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="269" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BA11:BB14,2,FALSE))=FALSE,VLOOKUP(J22,BA11:BB14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="141"/>
+      <c r="O22" s="270"/>
+      <c r="P22" s="270"/>
+      <c r="Q22" s="271"/>
       <c r="R22" s="13"/>
-      <c r="T22" s="269"/>
-      <c r="U22" s="270"/>
-      <c r="V22" s="271" t="s">
+      <c r="T22" s="234"/>
+      <c r="U22" s="235"/>
+      <c r="V22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="W22" s="272"/>
-      <c r="X22" s="272"/>
-      <c r="Y22" s="273"/>
-      <c r="Z22" s="67" t="str">
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="238" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BG11:BH14,2,FALSE))=FALSE,VLOOKUP(J22,BG11:BH14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67" t="str">
+      <c r="AA22" s="238"/>
+      <c r="AB22" s="238"/>
+      <c r="AC22" s="238"/>
+      <c r="AD22" s="238"/>
+      <c r="AE22" s="238"/>
+      <c r="AF22" s="238"/>
+      <c r="AG22" s="238" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BM11:BN14,2,FALSE))=FALSE,VLOOKUP(J22,BM11:BN14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="67"/>
+      <c r="AH22" s="238"/>
+      <c r="AI22" s="238"/>
+      <c r="AJ22" s="238"/>
+      <c r="AK22" s="238"/>
+      <c r="AL22" s="238"/>
+      <c r="AM22" s="238"/>
       <c r="AN22" s="17"/>
-      <c r="AO22" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
+      <c r="AO22" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="300" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU22" s="300"/>
+      <c r="AV22" s="300"/>
+      <c r="AW22" s="297" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX22" s="297"/>
+      <c r="AY22" s="297"/>
     </row>
     <row r="23" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="226"/>
-      <c r="B23" s="227"/>
-      <c r="C23" s="119" t="s">
+      <c r="A23" s="264"/>
+      <c r="B23" s="265"/>
+      <c r="C23" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="204" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="205"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="142" t="s">
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="272" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="273"/>
+      <c r="I23" s="274"/>
+      <c r="J23" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="136" t="str">
+      <c r="K23" s="276"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="277"/>
+      <c r="N23" s="266" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BA2:BB5,2,FALSE))=FALSE,VLOOKUP(J23,BA2:BB5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="138"/>
+      <c r="O23" s="267"/>
+      <c r="P23" s="267"/>
+      <c r="Q23" s="268"/>
       <c r="R23" s="13"/>
-      <c r="T23" s="274"/>
-      <c r="U23" s="275"/>
-      <c r="V23" s="276" t="s">
+      <c r="T23" s="236"/>
+      <c r="U23" s="237"/>
+      <c r="V23" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="W23" s="277"/>
-      <c r="X23" s="277"/>
-      <c r="Y23" s="278"/>
-      <c r="Z23" s="80" t="str">
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="284" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BG2:BH5,2,FALSE))=FALSE,VLOOKUP(J23,BG2:BH5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="80"/>
-      <c r="AE23" s="80"/>
-      <c r="AF23" s="80"/>
-      <c r="AG23" s="80" t="str">
+      <c r="AA23" s="284"/>
+      <c r="AB23" s="284"/>
+      <c r="AC23" s="284"/>
+      <c r="AD23" s="284"/>
+      <c r="AE23" s="284"/>
+      <c r="AF23" s="284"/>
+      <c r="AG23" s="284" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BM2:BN5,2,FALSE))=FALSE,VLOOKUP(J23,BM2:BN5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH23" s="80"/>
-      <c r="AI23" s="80"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="80"/>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="80"/>
+      <c r="AH23" s="284"/>
+      <c r="AI23" s="284"/>
+      <c r="AJ23" s="284"/>
+      <c r="AK23" s="284"/>
+      <c r="AL23" s="284"/>
+      <c r="AM23" s="284"/>
       <c r="AN23" s="17"/>
     </row>
     <row r="24" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="228" t="s">
+      <c r="A24" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="229"/>
-      <c r="C24" s="63" t="s">
+      <c r="B24" s="167"/>
+      <c r="C24" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="65"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="92"/>
       <c r="R24" s="13"/>
-      <c r="T24" s="279" t="s">
+      <c r="T24" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="280"/>
-      <c r="V24" s="194" t="s">
+      <c r="U24" s="102"/>
+      <c r="V24" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="W24" s="250"/>
-      <c r="X24" s="250"/>
-      <c r="Y24" s="195"/>
-      <c r="Z24" s="63" t="str">
+      <c r="W24" s="245"/>
+      <c r="X24" s="245"/>
+      <c r="Y24" s="246"/>
+      <c r="Z24" s="90" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="63" t="str">
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="91"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="90" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="65"/>
-      <c r="AO24" s="71" t="s">
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="91"/>
+      <c r="AK24" s="91"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="92"/>
+      <c r="AO24" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
       <c r="AW24" s="17"/>
       <c r="AX24" s="17"/>
       <c r="AY24" s="17"/>
@@ -7163,67 +7160,67 @@
       <c r="BG24" s="17"/>
     </row>
     <row r="25" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="230"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="68" t="s">
+      <c r="A25" s="168"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="62"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="118"/>
       <c r="R25" s="13"/>
-      <c r="T25" s="281"/>
-      <c r="U25" s="282"/>
-      <c r="V25" s="254" t="s">
+      <c r="T25" s="103"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="W25" s="255"/>
-      <c r="X25" s="255"/>
-      <c r="Y25" s="256"/>
-      <c r="Z25" s="60" t="str">
+      <c r="W25" s="220"/>
+      <c r="X25" s="220"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="195" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="68" t="str">
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="79" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="70"/>
-      <c r="AO25" s="26" t="s">
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="80"/>
+      <c r="AL25" s="80"/>
+      <c r="AM25" s="81"/>
+      <c r="AO25" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="32" t="str">
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="52" t="str">
         <f>IF(OR(G24="",G25=""),"",(G24/G25))</f>
         <v/>
       </c>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="32"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
       <c r="AW25" s="13"/>
       <c r="AX25" s="13"/>
       <c r="AY25" s="13"/>
@@ -7237,64 +7234,64 @@
       <c r="BG25" s="13"/>
     </row>
     <row r="26" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="230"/>
-      <c r="B26" s="231"/>
-      <c r="C26" s="232" t="s">
+      <c r="A26" s="168"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="70"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="81"/>
       <c r="R26" s="13"/>
-      <c r="T26" s="281"/>
-      <c r="U26" s="282"/>
-      <c r="V26" s="283" t="s">
+      <c r="T26" s="103"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="W26" s="259"/>
-      <c r="X26" s="259"/>
-      <c r="Y26" s="284"/>
-      <c r="Z26" s="47" t="str">
+      <c r="W26" s="240"/>
+      <c r="X26" s="240"/>
+      <c r="Y26" s="243"/>
+      <c r="Z26" s="96" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47" t="str">
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="96"/>
+      <c r="AG26" s="96" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="47"/>
-      <c r="AO26" s="26" t="s">
+      <c r="AH26" s="96"/>
+      <c r="AI26" s="96"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="96"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="96"/>
+      <c r="AO26" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="27"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="27"/>
-      <c r="AU26" s="27"/>
-      <c r="AV26" s="27"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="298"/>
+      <c r="AS26" s="298"/>
+      <c r="AT26" s="298"/>
+      <c r="AU26" s="298"/>
+      <c r="AV26" s="298"/>
       <c r="AW26" s="17"/>
       <c r="AX26" s="17"/>
       <c r="AY26" s="17"/>
@@ -7308,968 +7305,968 @@
       <c r="BG26" s="17"/>
     </row>
     <row r="27" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="230"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="223" t="s">
+      <c r="A27" s="168"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="44" t="str">
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="53" t="str">
         <f>IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G19*AR26,G19*AR25))</f>
         <v/>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
       <c r="R27" s="13"/>
-      <c r="T27" s="281"/>
-      <c r="U27" s="282"/>
-      <c r="V27" s="271" t="s">
+      <c r="T27" s="103"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="272"/>
-      <c r="X27" s="272"/>
-      <c r="Y27" s="273"/>
-      <c r="Z27" s="44" t="str">
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="53" t="str">
         <f>IF(G27&lt;&gt;"",G27*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="44" t="str">
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="53" t="str">
         <f>IF(OR(AG24="",AR25=""),"",IF(AR26&lt;&gt;"",AG19*AR26,AG19*AR25))</f>
         <v/>
       </c>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="46"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="55"/>
       <c r="AO27" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="230"/>
-      <c r="B28" s="231"/>
-      <c r="C28" s="223" t="s">
+      <c r="A28" s="168"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="68" t="str">
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="79" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G20*AR26,G20*AR25))))</f>
         <v/>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="70"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="81"/>
       <c r="R28" s="13"/>
-      <c r="T28" s="281"/>
-      <c r="U28" s="282"/>
-      <c r="V28" s="271" t="s">
+      <c r="T28" s="103"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="272"/>
-      <c r="X28" s="272"/>
-      <c r="Y28" s="273"/>
-      <c r="Z28" s="47" t="str">
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="96" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47" t="str">
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="96"/>
+      <c r="AG28" s="96" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="47"/>
-      <c r="AM28" s="47"/>
+      <c r="AH28" s="96"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="96"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="96"/>
     </row>
     <row r="29" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="230"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="223" t="s">
+      <c r="A29" s="168"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="68" t="str">
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="79" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G21*AR26,G21*AR25))))</f>
         <v/>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="70"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="81"/>
       <c r="R29" s="13"/>
-      <c r="T29" s="281"/>
-      <c r="U29" s="282"/>
-      <c r="V29" s="271" t="s">
+      <c r="T29" s="103"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="W29" s="272"/>
-      <c r="X29" s="272"/>
-      <c r="Y29" s="273"/>
-      <c r="Z29" s="47" t="str">
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="96" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47" t="str">
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="96"/>
+      <c r="AG29" s="96" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="47"/>
-      <c r="AO29" s="71" t="s">
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="96"/>
+      <c r="AJ29" s="96"/>
+      <c r="AK29" s="96"/>
+      <c r="AL29" s="96"/>
+      <c r="AM29" s="96"/>
+      <c r="AO29" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="29"/>
-      <c r="AV29" s="29"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
     </row>
     <row r="30" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="230"/>
-      <c r="B30" s="231"/>
-      <c r="C30" s="223" t="s">
+      <c r="A30" s="168"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="163" t="str">
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="141" t="str">
         <f>IF(G24&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="165"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="143"/>
       <c r="R30" s="13"/>
-      <c r="T30" s="281"/>
-      <c r="U30" s="282"/>
-      <c r="V30" s="271" t="s">
+      <c r="T30" s="103"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="W30" s="272"/>
-      <c r="X30" s="272"/>
-      <c r="Y30" s="273"/>
-      <c r="Z30" s="44" t="str">
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="53" t="str">
         <f>IF(Z24&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="44" t="str">
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="53" t="str">
         <f>IF(AG24&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="46"/>
-      <c r="AO30" s="26" t="s">
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="55"/>
+      <c r="AO30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="32" t="str">
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="52" t="str">
         <f>IF(OR(G32="",G33=""),"",(G32/G33))</f>
         <v/>
       </c>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="32"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
     </row>
     <row r="31" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="234"/>
-      <c r="B31" s="235"/>
-      <c r="C31" s="119" t="s">
+      <c r="A31" s="170"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="93" t="str">
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="196" t="str">
         <f>IF(G24&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="198"/>
       <c r="R31" s="13"/>
-      <c r="T31" s="285"/>
-      <c r="U31" s="286"/>
-      <c r="V31" s="276" t="s">
+      <c r="T31" s="105"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="277"/>
-      <c r="X31" s="277"/>
-      <c r="Y31" s="278"/>
-      <c r="Z31" s="51" t="str">
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="44" t="str">
         <f>IF(Z24&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="51" t="str">
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="44" t="str">
         <f>IF(AG24&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="53"/>
-      <c r="AO31" s="26" t="s">
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="46"/>
+      <c r="AO31" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="27"/>
-      <c r="AS31" s="27"/>
-      <c r="AT31" s="27"/>
-      <c r="AU31" s="27"/>
-      <c r="AV31" s="27"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="298"/>
+      <c r="AS31" s="298"/>
+      <c r="AT31" s="298"/>
+      <c r="AU31" s="298"/>
+      <c r="AV31" s="298"/>
     </row>
     <row r="32" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="229"/>
-      <c r="C32" s="63" t="s">
+      <c r="B32" s="167"/>
+      <c r="C32" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="65"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="92"/>
       <c r="R32" s="13"/>
-      <c r="T32" s="279" t="s">
+      <c r="T32" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="U32" s="280"/>
-      <c r="V32" s="194" t="s">
+      <c r="U32" s="102"/>
+      <c r="V32" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="W32" s="250"/>
-      <c r="X32" s="250"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="63" t="str">
+      <c r="W32" s="245"/>
+      <c r="X32" s="245"/>
+      <c r="Y32" s="246"/>
+      <c r="Z32" s="90" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="63" t="str">
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="91"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="90" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="65"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="91"/>
+      <c r="AK32" s="91"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="92"/>
       <c r="AO32" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="230"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="68" t="s">
+      <c r="A33" s="168"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="70"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="81"/>
       <c r="R33" s="13"/>
-      <c r="T33" s="281"/>
-      <c r="U33" s="282"/>
-      <c r="V33" s="254" t="s">
+      <c r="T33" s="103"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="W33" s="255"/>
-      <c r="X33" s="255"/>
-      <c r="Y33" s="256"/>
-      <c r="Z33" s="60" t="str">
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="221"/>
+      <c r="Z33" s="195" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AA33" s="61"/>
-      <c r="AB33" s="61"/>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="68" t="str">
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="118"/>
+      <c r="AG33" s="79" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="70"/>
+      <c r="AH33" s="80"/>
+      <c r="AI33" s="80"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="80"/>
+      <c r="AL33" s="80"/>
+      <c r="AM33" s="81"/>
     </row>
     <row r="34" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="230"/>
-      <c r="B34" s="231"/>
-      <c r="C34" s="232" t="s">
+      <c r="A34" s="168"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="233"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="70"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="81"/>
       <c r="R34" s="15"/>
-      <c r="T34" s="281"/>
-      <c r="U34" s="282"/>
-      <c r="V34" s="283" t="s">
+      <c r="T34" s="103"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="W34" s="259"/>
-      <c r="X34" s="259"/>
-      <c r="Y34" s="284"/>
-      <c r="Z34" s="47" t="str">
+      <c r="W34" s="240"/>
+      <c r="X34" s="240"/>
+      <c r="Y34" s="243"/>
+      <c r="Z34" s="96" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="47"/>
-      <c r="AG34" s="47" t="str">
+      <c r="AA34" s="96"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="96"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="96" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AH34" s="47"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="47"/>
-      <c r="AL34" s="47"/>
-      <c r="AM34" s="47"/>
+      <c r="AH34" s="96"/>
+      <c r="AI34" s="96"/>
+      <c r="AJ34" s="96"/>
+      <c r="AK34" s="96"/>
+      <c r="AL34" s="96"/>
+      <c r="AM34" s="96"/>
     </row>
     <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="230"/>
-      <c r="B35" s="231"/>
-      <c r="C35" s="223" t="s">
+      <c r="A35" s="168"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="224"/>
-      <c r="E35" s="224"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="44" t="str">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="53" t="str">
         <f>IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G19*AR31,G19*AR30))</f>
         <v/>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="46"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
       <c r="R35" s="15"/>
-      <c r="T35" s="281"/>
-      <c r="U35" s="282"/>
-      <c r="V35" s="271" t="s">
+      <c r="T35" s="103"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="272"/>
-      <c r="X35" s="272"/>
-      <c r="Y35" s="273"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="45"/>
-      <c r="AK35" s="45"/>
-      <c r="AL35" s="45"/>
-      <c r="AM35" s="46"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="54"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="55"/>
     </row>
     <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="230"/>
-      <c r="B36" s="231"/>
-      <c r="C36" s="223" t="s">
+      <c r="A36" s="168"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="224"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="68" t="str">
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="79" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G20*AR31,G20*AR30))))</f>
         <v/>
       </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="70"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="81"/>
       <c r="R36" s="13"/>
-      <c r="T36" s="281"/>
-      <c r="U36" s="282"/>
-      <c r="V36" s="271" t="s">
+      <c r="T36" s="103"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="272"/>
-      <c r="X36" s="272"/>
-      <c r="Y36" s="273"/>
-      <c r="Z36" s="47" t="str">
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="96" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47" t="str">
+      <c r="AA36" s="96"/>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="96"/>
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="96"/>
+      <c r="AG36" s="96" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AH36" s="47"/>
-      <c r="AI36" s="47"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="47"/>
-      <c r="AL36" s="47"/>
-      <c r="AM36" s="47"/>
+      <c r="AH36" s="96"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="96"/>
+      <c r="AK36" s="96"/>
+      <c r="AL36" s="96"/>
+      <c r="AM36" s="96"/>
     </row>
     <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="230"/>
-      <c r="B37" s="231"/>
-      <c r="C37" s="223" t="s">
+      <c r="A37" s="168"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="68" t="str">
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="79" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G21*AR31,G21*AR30))))</f>
         <v/>
       </c>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="70"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="81"/>
       <c r="R37" s="13"/>
-      <c r="T37" s="281"/>
-      <c r="U37" s="282"/>
-      <c r="V37" s="271" t="s">
+      <c r="T37" s="103"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="W37" s="272"/>
-      <c r="X37" s="272"/>
-      <c r="Y37" s="273"/>
-      <c r="Z37" s="47" t="str">
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="96" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47" t="str">
+      <c r="AA37" s="96"/>
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="96"/>
+      <c r="AD37" s="96"/>
+      <c r="AE37" s="96"/>
+      <c r="AF37" s="96"/>
+      <c r="AG37" s="96" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="47"/>
-      <c r="AL37" s="47"/>
-      <c r="AM37" s="47"/>
+      <c r="AH37" s="96"/>
+      <c r="AI37" s="96"/>
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="96"/>
+      <c r="AL37" s="96"/>
+      <c r="AM37" s="96"/>
     </row>
     <row r="38" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="230"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="223" t="s">
+      <c r="A38" s="168"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="163" t="str">
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="141" t="str">
         <f>IF(G32&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="165"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="142"/>
+      <c r="O38" s="142"/>
+      <c r="P38" s="142"/>
+      <c r="Q38" s="143"/>
       <c r="R38" s="13"/>
-      <c r="T38" s="281"/>
-      <c r="U38" s="282"/>
-      <c r="V38" s="271" t="s">
+      <c r="T38" s="103"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="W38" s="272"/>
-      <c r="X38" s="272"/>
-      <c r="Y38" s="273"/>
-      <c r="Z38" s="44" t="str">
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="53" t="str">
         <f>IF(Z32&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="44" t="str">
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="53" t="str">
         <f>IF(AG32&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="45"/>
-      <c r="AM38" s="46"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="55"/>
     </row>
     <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="234"/>
-      <c r="B39" s="235"/>
-      <c r="C39" s="119" t="s">
+      <c r="A39" s="170"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="93" t="str">
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="196" t="str">
         <f>IF(G32&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="95"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="197"/>
+      <c r="P39" s="197"/>
+      <c r="Q39" s="198"/>
       <c r="R39" s="13"/>
-      <c r="T39" s="285"/>
-      <c r="U39" s="286"/>
-      <c r="V39" s="276" t="s">
+      <c r="T39" s="105"/>
+      <c r="U39" s="106"/>
+      <c r="V39" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="W39" s="277"/>
-      <c r="X39" s="277"/>
-      <c r="Y39" s="278"/>
-      <c r="Z39" s="51" t="str">
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="44" t="str">
         <f>IF(Z32&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="51" t="str">
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="44" t="str">
         <f>IF(AG32&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="53"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="46"/>
     </row>
     <row r="40" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="236"/>
-      <c r="B40" s="236"/>
-      <c r="C40" s="236"/>
-      <c r="D40" s="236"/>
-      <c r="E40" s="236"/>
-      <c r="F40" s="236"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="237" t="s">
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="125"/>
-      <c r="H41" s="238"/>
-      <c r="I41" s="124">
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="175">
         <v>30</v>
       </c>
-      <c r="J41" s="125"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="237" t="s">
+      <c r="J41" s="87"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="125"/>
-      <c r="N41" s="238"/>
-      <c r="O41" s="54">
+      <c r="M41" s="87"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="172">
         <v>15</v>
       </c>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="55"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="174"/>
       <c r="R41" s="13"/>
-      <c r="T41" s="287" t="s">
+      <c r="T41" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="U41" s="288"/>
-      <c r="V41" s="288"/>
-      <c r="W41" s="289"/>
-      <c r="X41" s="287" t="s">
+      <c r="U41" s="98"/>
+      <c r="V41" s="98"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Y41" s="288"/>
-      <c r="Z41" s="290"/>
-      <c r="AA41" s="124">
+      <c r="Y41" s="98"/>
+      <c r="Z41" s="99"/>
+      <c r="AA41" s="175">
         <v>30</v>
       </c>
-      <c r="AB41" s="125"/>
-      <c r="AC41" s="126"/>
-      <c r="AD41" s="287" t="s">
+      <c r="AB41" s="87"/>
+      <c r="AC41" s="176"/>
+      <c r="AD41" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="AE41" s="288"/>
-      <c r="AF41" s="290"/>
-      <c r="AG41" s="54">
+      <c r="AE41" s="98"/>
+      <c r="AF41" s="99"/>
+      <c r="AG41" s="172">
         <v>30</v>
       </c>
-      <c r="AH41" s="49"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="41" t="s">
+      <c r="AH41" s="173"/>
+      <c r="AI41" s="174"/>
+      <c r="AJ41" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AK41" s="42"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="43"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="40"/>
     </row>
     <row r="42" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="56" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="56" t="s">
+      <c r="G42" s="84"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="56" t="s">
+      <c r="J42" s="84"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="57"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="121" t="s">
+      <c r="M42" s="84"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="123"/>
+      <c r="P42" s="192"/>
+      <c r="Q42" s="193"/>
       <c r="R42" s="13"/>
-      <c r="T42" s="242" t="s">
+      <c r="T42" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="U42" s="243"/>
-      <c r="V42" s="243"/>
-      <c r="W42" s="244"/>
-      <c r="X42" s="56" t="s">
+      <c r="U42" s="200"/>
+      <c r="V42" s="200"/>
+      <c r="W42" s="201"/>
+      <c r="X42" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="56" t="s">
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="56" t="s">
+      <c r="AB42" s="84"/>
+      <c r="AC42" s="85"/>
+      <c r="AD42" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="121" t="s">
+      <c r="AE42" s="84"/>
+      <c r="AF42" s="85"/>
+      <c r="AG42" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="AH42" s="122"/>
-      <c r="AI42" s="123"/>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="24"/>
-      <c r="AL42" s="24"/>
-      <c r="AM42" s="34"/>
+      <c r="AH42" s="192"/>
+      <c r="AI42" s="193"/>
+      <c r="AJ42" s="288"/>
+      <c r="AK42" s="289"/>
+      <c r="AL42" s="289"/>
+      <c r="AM42" s="290"/>
     </row>
     <row r="43" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="68" t="str">
+      <c r="A43" s="79" t="str">
         <f>IF(D5&lt;&gt;"派遣","見積依頼書","派遣個別契約書")</f>
         <v>見積依頼書</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="160" t="s">
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="160" t="s">
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="233"/>
-      <c r="N43" s="54" t="s">
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="165"/>
+      <c r="N43" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="55"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="174"/>
       <c r="R43" s="13"/>
-      <c r="T43" s="133" t="str">
+      <c r="T43" s="74" t="str">
         <f>IF(Z11="正","欠勤控除対象者",IF(Z11="契","有給対象者","-"))</f>
         <v>欠勤控除対象者</v>
       </c>
-      <c r="U43" s="134"/>
-      <c r="V43" s="134"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="48" t="s">
+      <c r="U43" s="119"/>
+      <c r="V43" s="119"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="54" t="s">
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="173"/>
+      <c r="AA43" s="301"/>
+      <c r="AB43" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="54" t="str">
+      <c r="AC43" s="173"/>
+      <c r="AD43" s="173"/>
+      <c r="AE43" s="174"/>
+      <c r="AF43" s="172" t="str">
         <f>IF(Z11="","",IF(OR(Z11="協力"),"","無"))</f>
         <v>無</v>
       </c>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="35"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="37"/>
+      <c r="AG43" s="173"/>
+      <c r="AH43" s="173"/>
+      <c r="AI43" s="174"/>
+      <c r="AJ43" s="291"/>
+      <c r="AK43" s="292"/>
+      <c r="AL43" s="292"/>
+      <c r="AM43" s="293"/>
     </row>
     <row r="44" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="56" t="s">
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="239" t="s">
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="K44" s="240"/>
-      <c r="L44" s="240"/>
-      <c r="M44" s="241"/>
-      <c r="N44" s="119" t="s">
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="189"/>
+      <c r="N44" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="58"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="85"/>
       <c r="R44" s="13"/>
-      <c r="T44" s="56" t="str">
+      <c r="T44" s="83" t="str">
         <f>IF(Z11="","注文書",IF(Z11="契","契約書","注文書"))</f>
         <v>注文書</v>
       </c>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="58"/>
-      <c r="X44" s="119" t="str">
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="89" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正"),"無","有"))</f>
         <v>無</v>
       </c>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="120"/>
-      <c r="AB44" s="239" t="s">
+      <c r="Y44" s="84"/>
+      <c r="Z44" s="84"/>
+      <c r="AA44" s="177"/>
+      <c r="AB44" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="AC44" s="240"/>
-      <c r="AD44" s="240"/>
-      <c r="AE44" s="241"/>
-      <c r="AF44" s="56" t="s">
+      <c r="AC44" s="188"/>
+      <c r="AD44" s="188"/>
+      <c r="AE44" s="189"/>
+      <c r="AF44" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="58"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="39"/>
-      <c r="AL44" s="39"/>
-      <c r="AM44" s="40"/>
+      <c r="AG44" s="84"/>
+      <c r="AH44" s="84"/>
+      <c r="AI44" s="85"/>
+      <c r="AJ44" s="294"/>
+      <c r="AK44" s="295"/>
+      <c r="AL44" s="295"/>
+      <c r="AM44" s="296"/>
     </row>
     <row r="45" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="13"/>
@@ -8305,65 +8302,65 @@
       <c r="AH45" s="12"/>
     </row>
     <row r="46" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="208"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="152"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="153"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="155"/>
+      <c r="Q46" s="156"/>
       <c r="S46" s="11"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="42"/>
-      <c r="AD46" s="42"/>
-      <c r="AE46" s="43"/>
-      <c r="AF46" s="41"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="43"/>
-      <c r="AJ46" s="41"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="43"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="40"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="39"/>
+      <c r="AM46" s="40"/>
     </row>
     <row r="47" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="209"/>
-      <c r="B47" s="210"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="155"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="155"/>
-      <c r="Q47" s="156"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="158"/>
+      <c r="K47" s="158"/>
+      <c r="L47" s="158"/>
+      <c r="M47" s="158"/>
+      <c r="N47" s="158"/>
+      <c r="O47" s="158"/>
+      <c r="P47" s="158"/>
+      <c r="Q47" s="159"/>
       <c r="T47" s="10"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -8386,23 +8383,23 @@
       <c r="AM47" s="8"/>
     </row>
     <row r="48" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="209"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="155"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="156"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="158"/>
+      <c r="K48" s="158"/>
+      <c r="L48" s="158"/>
+      <c r="M48" s="158"/>
+      <c r="N48" s="158"/>
+      <c r="O48" s="158"/>
+      <c r="P48" s="158"/>
+      <c r="Q48" s="159"/>
       <c r="T48" s="7"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
@@ -8425,23 +8422,23 @@
       <c r="AM48" s="6"/>
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="209"/>
-      <c r="B49" s="210"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="155"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
-      <c r="N49" s="155"/>
-      <c r="O49" s="155"/>
-      <c r="P49" s="155"/>
-      <c r="Q49" s="156"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="158"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="158"/>
+      <c r="P49" s="158"/>
+      <c r="Q49" s="159"/>
       <c r="T49" s="4"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -8464,54 +8461,54 @@
       <c r="AM49" s="6"/>
     </row>
     <row r="50" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="209"/>
-      <c r="B50" s="210"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
-      <c r="N50" s="155"/>
-      <c r="O50" s="155"/>
-      <c r="P50" s="155"/>
-      <c r="Q50" s="156"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="41"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="43"/>
-      <c r="AJ50" s="41"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="43"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="153"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="158"/>
+      <c r="K50" s="158"/>
+      <c r="L50" s="158"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="158"/>
+      <c r="Q50" s="159"/>
+      <c r="AB50" s="289"/>
+      <c r="AC50" s="299"/>
+      <c r="AD50" s="299"/>
+      <c r="AE50" s="299"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="40"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39"/>
+      <c r="AM50" s="40"/>
     </row>
     <row r="51" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="209"/>
-      <c r="B51" s="210"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="155"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="155"/>
-      <c r="L51" s="155"/>
-      <c r="M51" s="155"/>
-      <c r="N51" s="155"/>
-      <c r="O51" s="155"/>
-      <c r="P51" s="155"/>
-      <c r="Q51" s="156"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="158"/>
+      <c r="K51" s="158"/>
+      <c r="L51" s="158"/>
+      <c r="M51" s="158"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="158"/>
+      <c r="Q51" s="159"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -8526,23 +8523,23 @@
       <c r="AM51" s="8"/>
     </row>
     <row r="52" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="209"/>
-      <c r="B52" s="210"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="156"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="158"/>
+      <c r="K52" s="158"/>
+      <c r="L52" s="158"/>
+      <c r="M52" s="158"/>
+      <c r="N52" s="158"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="159"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -8557,23 +8554,23 @@
       <c r="AM52" s="6"/>
     </row>
     <row r="53" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="211"/>
-      <c r="B53" s="212"/>
-      <c r="C53" s="157"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="158"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="158"/>
-      <c r="M53" s="158"/>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
-      <c r="P53" s="158"/>
-      <c r="Q53" s="159"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="161"/>
+      <c r="M53" s="161"/>
+      <c r="N53" s="161"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="161"/>
+      <c r="Q53" s="162"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -8591,6 +8588,246 @@
     <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="264">
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="AR26:AV26"/>
+    <mergeCell ref="AO21:AS21"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="AT22:AV22"/>
+    <mergeCell ref="AR25:AV25"/>
+    <mergeCell ref="AJ42:AM44"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AG38:AM38"/>
+    <mergeCell ref="AF50:AI50"/>
+    <mergeCell ref="AJ50:AM50"/>
+    <mergeCell ref="Z34:AF34"/>
+    <mergeCell ref="Z36:AF36"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="AG36:AM36"/>
+    <mergeCell ref="AG34:AM34"/>
+    <mergeCell ref="Z35:AF35"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AW21:AY21"/>
+    <mergeCell ref="AW22:AY22"/>
+    <mergeCell ref="Z33:AF33"/>
+    <mergeCell ref="AG32:AM32"/>
+    <mergeCell ref="Z29:AF29"/>
+    <mergeCell ref="AG27:AM27"/>
+    <mergeCell ref="AG26:AM26"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AG22:AM22"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="AG28:AM28"/>
+    <mergeCell ref="Z27:AF27"/>
+    <mergeCell ref="Z26:AF26"/>
+    <mergeCell ref="AG24:AM24"/>
+    <mergeCell ref="AG30:AM30"/>
+    <mergeCell ref="AG29:AM29"/>
+    <mergeCell ref="AG31:AM31"/>
+    <mergeCell ref="AG33:AM33"/>
+    <mergeCell ref="AO24:AV24"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AR31:AV31"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="AG23:AM23"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z14:AI14"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG19:AM19"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z7:AM7"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AG21:AM21"/>
+    <mergeCell ref="AG16:AM16"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AG8:AM8"/>
+    <mergeCell ref="Z3:AI3"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AJ3:AM6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:AI6"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:B23"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="G18:Q18"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="Z24:AF24"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AF25"/>
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="AG20:AM20"/>
+    <mergeCell ref="AJ13:AM15"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="Z15:AI15"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="T18:U23"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AG18:AM18"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG25:AM25"/>
+    <mergeCell ref="AJ46:AM46"/>
+    <mergeCell ref="X46:AA46"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="X44:AA44"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:B31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="G28:Q28"/>
+    <mergeCell ref="G19:Q19"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A46:B53"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C46:Q53"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="A32:B39"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="G37:Q37"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G36:Q36"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="AO29:AV29"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G15:Q15"/>
+    <mergeCell ref="T24:U31"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="G27:Q27"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="Z4:AI4"/>
+    <mergeCell ref="Z5:AI5"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="AG37:AM37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="T32:U39"/>
+    <mergeCell ref="AG35:AM35"/>
+    <mergeCell ref="Z32:AF32"/>
+    <mergeCell ref="Z31:AF31"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="V34:Y34"/>
     <mergeCell ref="BJ1:BN1"/>
     <mergeCell ref="AJ41:AM41"/>
     <mergeCell ref="V37:Y37"/>
@@ -8615,246 +8852,6 @@
     <mergeCell ref="Z10:AM10"/>
     <mergeCell ref="T11:Y11"/>
     <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="AG37:AM37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="T32:U39"/>
-    <mergeCell ref="AG35:AM35"/>
-    <mergeCell ref="Z32:AF32"/>
-    <mergeCell ref="Z31:AF31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="AO29:AV29"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G15:Q15"/>
-    <mergeCell ref="T24:U31"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="G27:Q27"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="Z4:AI4"/>
-    <mergeCell ref="Z5:AI5"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="A46:B53"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C46:Q53"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="A32:B39"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G36:Q36"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A24:B31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G39:Q39"/>
-    <mergeCell ref="G28:Q28"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="X46:AA46"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AB46:AE46"/>
-    <mergeCell ref="X44:AA44"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="AG20:AM20"/>
-    <mergeCell ref="AJ13:AM15"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="Z15:AI15"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="T18:U23"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="AG18:AM18"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG25:AM25"/>
-    <mergeCell ref="AJ46:AM46"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="Z24:AF24"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z30:AF30"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AF25"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:AI6"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:B23"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="G18:Q18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="G24:Q24"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="Z7:AM7"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AG21:AM21"/>
-    <mergeCell ref="AG16:AM16"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="AG8:AM8"/>
-    <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="AG23:AM23"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z14:AI14"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG19:AM19"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AJ3:AM6"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AW21:AY21"/>
-    <mergeCell ref="AW22:AY22"/>
-    <mergeCell ref="Z33:AF33"/>
-    <mergeCell ref="AG32:AM32"/>
-    <mergeCell ref="Z29:AF29"/>
-    <mergeCell ref="AG27:AM27"/>
-    <mergeCell ref="AG26:AM26"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AG22:AM22"/>
-    <mergeCell ref="Z28:AF28"/>
-    <mergeCell ref="AG28:AM28"/>
-    <mergeCell ref="Z27:AF27"/>
-    <mergeCell ref="Z26:AF26"/>
-    <mergeCell ref="AG24:AM24"/>
-    <mergeCell ref="AG30:AM30"/>
-    <mergeCell ref="AG29:AM29"/>
-    <mergeCell ref="AG31:AM31"/>
-    <mergeCell ref="AG33:AM33"/>
-    <mergeCell ref="AO24:AV24"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AR31:AV31"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AR26:AV26"/>
-    <mergeCell ref="AO21:AS21"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="AT22:AV22"/>
-    <mergeCell ref="AR25:AV25"/>
-    <mergeCell ref="AJ42:AM44"/>
-    <mergeCell ref="AF46:AI46"/>
-    <mergeCell ref="AG38:AM38"/>
-    <mergeCell ref="AF50:AI50"/>
-    <mergeCell ref="AJ50:AM50"/>
-    <mergeCell ref="Z34:AF34"/>
-    <mergeCell ref="Z36:AF36"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="AG36:AM36"/>
-    <mergeCell ref="AG34:AM34"/>
-    <mergeCell ref="Z35:AF35"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AA42:AC42"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Z8:AE8">

--- a/excel/contrcat_10102.xlsx
+++ b/excel/contrcat_10102.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -48,7 +48,7 @@
     <definedName name="他社決定時の案件内容確認">[1]ダウンリスト!$W$1:$W$3</definedName>
     <definedName name="締め">[1]ダウンリスト!$I$1:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -190,14 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>無</t>
     <rPh sb="0" eb="1">
@@ -978,6 +971,216 @@
     <rPh sb="0" eb="2">
       <t>タンイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>抵触日</t>
+    <rPh sb="0" eb="2">
+      <t>テイショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>組織単位</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>無期雇用者に限定する</t>
+    <rPh sb="0" eb="2">
+      <t>ムキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>派遣契約
+に関する
+通知</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>就業場所</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>所在地</t>
+    <rPh sb="0" eb="3">
+      <t>ショザイチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>指揮命令者</t>
+    <rPh sb="0" eb="2">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>職名・氏名</t>
+    <rPh sb="0" eb="2">
+      <t>ショクメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>派遣先責任者</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セキニンシャ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>派遣元責任者</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セキニンシャ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>苦情の処理・申出先(1)</t>
+    <rPh sb="0" eb="2">
+      <t>クジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モウシデ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>派遣先・職名・氏名</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>派遣元・職名・氏名</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>備考
+(営業)</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備考
+(管理)</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※営業支援費に関する覚書は、都度発行とする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名称・部署</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -998,7 +1201,7 @@
     <numFmt numFmtId="182" formatCode="h:mm;@"/>
     <numFmt numFmtId="183" formatCode="gggee"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1080,8 +1283,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,8 +1310,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1943,46 +2159,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2056,35 +2256,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2095,31 +2277,697 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2134,16 +2982,7 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2167,694 +3006,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -2964,6 +3265,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5620,10 +5926,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN55"/>
+  <dimension ref="A1:BN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5640,3021 +5946,3832 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AX1" s="37" t="s">
+      <c r="A1" s="278" t="s">
         <v>78</v>
       </c>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="37" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="278"/>
+      <c r="T1" s="278"/>
+      <c r="U1" s="278"/>
+      <c r="V1" s="278"/>
+      <c r="W1" s="278"/>
+      <c r="X1" s="278"/>
+      <c r="Y1" s="278"/>
+      <c r="Z1" s="278"/>
+      <c r="AA1" s="278"/>
+      <c r="AB1" s="278"/>
+      <c r="AC1" s="278"/>
+      <c r="AD1" s="278"/>
+      <c r="AE1" s="278"/>
+      <c r="AF1" s="278"/>
+      <c r="AG1" s="278"/>
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="278"/>
+      <c r="AJ1" s="278"/>
+      <c r="AK1" s="278"/>
+      <c r="AL1" s="278"/>
+      <c r="AM1" s="278"/>
+      <c r="AX1" s="264" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BJ1" s="37" t="s">
+      <c r="AY1" s="264"/>
+      <c r="AZ1" s="264"/>
+      <c r="BA1" s="264"/>
+      <c r="BB1" s="264"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
+      <c r="BE1" s="264"/>
+      <c r="BF1" s="264"/>
+      <c r="BG1" s="264"/>
+      <c r="BH1" s="264"/>
+      <c r="BJ1" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK1" s="264"/>
+      <c r="BL1" s="264"/>
+      <c r="BM1" s="264"/>
+      <c r="BN1" s="264"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="257" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="259"/>
-      <c r="T2" s="90" t="s">
+      <c r="A2" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="91" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="126"/>
+      <c r="T2" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="38" t="s">
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" s="29" t="e">
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="46"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="19" t="e">
         <f>ROUNDDOWN(G19/G21,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH2" s="29" t="e">
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH2" s="19" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN2" s="29" t="e">
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN2" s="19" t="e">
         <f>ROUNDDOWN((AG19/AG21),0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="247" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="129"/>
-      <c r="T3" s="216" t="s">
+      <c r="A3" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="283"/>
-      <c r="AJ3" s="288"/>
-      <c r="AK3" s="289"/>
-      <c r="AL3" s="289"/>
-      <c r="AM3" s="290"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB3" s="33" t="e">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="108"/>
+      <c r="T3" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="37"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB3" s="23" t="e">
         <f>ROUNDDOWN(G19/G21,-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH3" s="33" t="e">
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH3" s="23" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN3" s="33" t="e">
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="21"/>
+      <c r="BM3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN3" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG21),-1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="75"/>
-      <c r="T4" s="79" t="s">
+      <c r="A4" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="291"/>
-      <c r="AK4" s="292"/>
-      <c r="AL4" s="292"/>
-      <c r="AM4" s="293"/>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB4" s="33" t="e">
+      <c r="B4" s="132"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
+      <c r="T4" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="258"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="40"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+      <c r="BA4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB4" s="23" t="e">
         <f>ROUNDDOWN(G19/G21,-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH4" s="33" t="e">
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH4" s="23" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ4" s="30"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="BN4" s="33" t="e">
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="21"/>
+      <c r="BM4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN4" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG21),-2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="13"/>
-      <c r="T5" s="179" t="s">
-        <v>67</v>
-      </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="291"/>
-      <c r="AK5" s="292"/>
-      <c r="AL5" s="292"/>
-      <c r="AM5" s="293"/>
-      <c r="AX5" s="30"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="33"/>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="33"/>
-      <c r="BJ5" s="30"/>
-      <c r="BK5" s="31"/>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="33"/>
+      <c r="A5" s="131" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="3"/>
+      <c r="T5" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="259"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="40"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="23"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="23"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="21"/>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="23"/>
     </row>
     <row r="6" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="248" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="13"/>
-      <c r="T6" s="254" t="s">
+      <c r="A6" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="255"/>
-      <c r="V6" s="255"/>
-      <c r="W6" s="255"/>
-      <c r="X6" s="255"/>
-      <c r="Y6" s="255"/>
-      <c r="Z6" s="255"/>
-      <c r="AA6" s="255"/>
-      <c r="AB6" s="255"/>
-      <c r="AC6" s="255"/>
-      <c r="AD6" s="255"/>
-      <c r="AE6" s="255"/>
-      <c r="AF6" s="255"/>
-      <c r="AG6" s="255"/>
-      <c r="AH6" s="255"/>
-      <c r="AI6" s="256"/>
-      <c r="AJ6" s="294"/>
-      <c r="AK6" s="295"/>
-      <c r="AL6" s="295"/>
-      <c r="AM6" s="296"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="31"/>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
-      <c r="BB6" s="33"/>
-      <c r="BD6" s="30"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="33"/>
-      <c r="BJ6" s="30"/>
-      <c r="BK6" s="31"/>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="33"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="43"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="23"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="23"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="23"/>
     </row>
     <row r="7" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="195" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="244" t="s">
+      <c r="A7" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="246"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="250">
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="88"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="234" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="235"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="112">
         <f>I7-D7-O8</f>
         <v>0</v>
       </c>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="252"/>
-      <c r="R7" s="13"/>
-      <c r="T7" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="278"/>
-      <c r="AA7" s="279"/>
-      <c r="AB7" s="279"/>
-      <c r="AC7" s="279"/>
-      <c r="AD7" s="279"/>
-      <c r="AE7" s="279"/>
-      <c r="AF7" s="279"/>
-      <c r="AG7" s="279"/>
-      <c r="AH7" s="279"/>
-      <c r="AI7" s="279"/>
-      <c r="AJ7" s="279"/>
-      <c r="AK7" s="279"/>
-      <c r="AL7" s="279"/>
-      <c r="AM7" s="280"/>
-      <c r="AX7" s="30"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="33"/>
-      <c r="BD7" s="30"/>
-      <c r="BE7" s="31"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="33"/>
-      <c r="BJ7" s="30"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="33"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="3"/>
+      <c r="T7" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="100"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="23"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="23"/>
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="23"/>
     </row>
     <row r="8" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="133" t="s">
+      <c r="A8" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="126"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="130">
+      <c r="H8" s="102"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="240" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="241"/>
+      <c r="N8" s="242"/>
+      <c r="O8" s="243">
         <f>I8-D8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="13"/>
-      <c r="T8" s="133" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="281"/>
-      <c r="V8" s="281"/>
-      <c r="W8" s="281"/>
-      <c r="X8" s="281"/>
-      <c r="Y8" s="281"/>
-      <c r="Z8" s="179"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="146"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="146"/>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="25" t="s">
+      <c r="P8" s="244"/>
+      <c r="Q8" s="245"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="146"/>
-      <c r="AJ8" s="146"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="146"/>
-      <c r="AM8" s="147"/>
-      <c r="AR8" s="13"/>
-      <c r="AX8" s="30"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
-      <c r="BB8" s="33"/>
-      <c r="BD8" s="30"/>
-      <c r="BE8" s="31"/>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="31"/>
-      <c r="BH8" s="33"/>
-      <c r="BJ8" s="30"/>
-      <c r="BK8" s="31"/>
-      <c r="BL8" s="31"/>
-      <c r="BM8" s="31"/>
-      <c r="BN8" s="33"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="103"/>
+      <c r="AR8" s="3"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="23"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="23"/>
+      <c r="BJ8" s="20"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="23"/>
     </row>
     <row r="9" spans="1:66" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="R9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="33"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="33"/>
-      <c r="BJ9" s="30"/>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="33"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="R9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="23"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="23"/>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="23"/>
     </row>
     <row r="10" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="194" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="13"/>
-      <c r="T10" s="244" t="s">
+      <c r="A10" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="245"/>
-      <c r="V10" s="245"/>
-      <c r="W10" s="245"/>
-      <c r="X10" s="245"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="76">
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="185">
         <f>Z8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="78"/>
-      <c r="AR10" s="13"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="33"/>
-      <c r="BD10" s="30"/>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="33"/>
-      <c r="BJ10" s="30"/>
-      <c r="BK10" s="31"/>
-      <c r="BL10" s="31"/>
-      <c r="BM10" s="31"/>
-      <c r="BN10" s="33"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="186"/>
+      <c r="AI10" s="186"/>
+      <c r="AJ10" s="186"/>
+      <c r="AK10" s="186"/>
+      <c r="AL10" s="186"/>
+      <c r="AM10" s="277"/>
+      <c r="AR10" s="3"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="23"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="23"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="23"/>
     </row>
     <row r="11" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="13"/>
-      <c r="T11" s="79" t="s">
+      <c r="A11" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="74" t="s">
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="67" t="s">
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="73"/>
-      <c r="AR11" s="13"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="32" t="s">
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="270" t="s">
         <v>51</v>
       </c>
-      <c r="BB11" s="33" t="e">
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="273"/>
+      <c r="AF11" s="274"/>
+      <c r="AG11" s="274"/>
+      <c r="AH11" s="274"/>
+      <c r="AI11" s="274"/>
+      <c r="AJ11" s="275"/>
+      <c r="AK11" s="275"/>
+      <c r="AL11" s="275"/>
+      <c r="AM11" s="276"/>
+      <c r="AR11" s="3"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB11" s="23" t="e">
         <f>ROUNDDOWN(G19/G20,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH11" s="33" t="e">
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH11" s="23" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ11" s="30"/>
-      <c r="BK11" s="31"/>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN11" s="33" t="e">
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN11" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG20),0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="13"/>
-      <c r="T12" s="213" t="s">
+      <c r="A12" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="214"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="215"/>
-      <c r="Z12" s="202"/>
-      <c r="AA12" s="203"/>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="203"/>
-      <c r="AE12" s="203"/>
-      <c r="AF12" s="203"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="204"/>
-      <c r="AJ12" s="222" t="s">
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="AK12" s="223"/>
-      <c r="AL12" s="223"/>
-      <c r="AM12" s="224"/>
-      <c r="AR12" s="21"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB12" s="33" t="e">
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="166"/>
+      <c r="AJ12" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK12" s="179"/>
+      <c r="AL12" s="179"/>
+      <c r="AM12" s="180"/>
+      <c r="AR12" s="11"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB12" s="23" t="e">
         <f>ROUNDDOWN(G19/G20,-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH12" s="33" t="e">
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH12" s="23" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ12" s="30"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN12" s="33" t="e">
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="21"/>
+      <c r="BM12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN12" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG20),-1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="13"/>
-      <c r="T13" s="219" t="s">
+      <c r="A13" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="U13" s="220"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="76" t="str">
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="158" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="159"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="185" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="217"/>
-      <c r="AA13" s="218"/>
-      <c r="AB13" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="216" t="str">
+      <c r="X13" s="186"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="226" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC13" s="269"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="95" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="AF13" s="217"/>
-      <c r="AG13" s="217"/>
-      <c r="AH13" s="217"/>
-      <c r="AI13" s="218"/>
-      <c r="AJ13" s="205">
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="167">
         <v>80</v>
       </c>
-      <c r="AK13" s="206"/>
-      <c r="AL13" s="206"/>
-      <c r="AM13" s="207"/>
-      <c r="AR13" s="13"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB13" s="33" t="e">
+      <c r="AK13" s="168"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="169"/>
+      <c r="AR13" s="3"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB13" s="23" t="e">
         <f>ROUNDDOWN(G19/G20,-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH13" s="33" t="e">
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH13" s="23" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),-2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ13" s="30"/>
-      <c r="BK13" s="31"/>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="BN13" s="33" t="e">
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="21"/>
+      <c r="BM13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN13" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG20),-2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:66" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="13"/>
-      <c r="T14" s="239" t="s">
+      <c r="A14" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="U14" s="240"/>
-      <c r="V14" s="240"/>
-      <c r="W14" s="230"/>
-      <c r="X14" s="230"/>
-      <c r="Y14" s="231"/>
-      <c r="Z14" s="285" t="str">
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="196" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="89" t="str">
         <f>IF(G15&lt;&gt;"",G15,"")</f>
         <v/>
       </c>
-      <c r="AA14" s="286"/>
-      <c r="AB14" s="286"/>
-      <c r="AC14" s="286"/>
-      <c r="AD14" s="286"/>
-      <c r="AE14" s="286"/>
-      <c r="AF14" s="286"/>
-      <c r="AG14" s="286"/>
-      <c r="AH14" s="286"/>
-      <c r="AI14" s="287"/>
-      <c r="AJ14" s="205"/>
-      <c r="AK14" s="208"/>
-      <c r="AL14" s="208"/>
-      <c r="AM14" s="209"/>
-      <c r="AR14" s="13"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="36"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="35"/>
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="36"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="35"/>
-      <c r="BL14" s="35"/>
-      <c r="BM14" s="35"/>
-      <c r="BN14" s="36"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="167"/>
+      <c r="AK14" s="170"/>
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="171"/>
+      <c r="AR14" s="3"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="26"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="26"/>
+      <c r="BJ14" s="24"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="26"/>
     </row>
     <row r="15" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="163" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="13"/>
-      <c r="T15" s="133" t="s">
+      <c r="A15" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="U15" s="281"/>
-      <c r="V15" s="281"/>
-      <c r="W15" s="281"/>
-      <c r="X15" s="281"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="225" t="str">
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="247"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="247"/>
+      <c r="N15" s="247"/>
+      <c r="O15" s="247"/>
+      <c r="P15" s="247"/>
+      <c r="Q15" s="248"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="181" t="str">
         <f>IF(G16&lt;&gt;"",G16,"")</f>
         <v/>
       </c>
-      <c r="AA15" s="226"/>
-      <c r="AB15" s="226"/>
-      <c r="AC15" s="226"/>
-      <c r="AD15" s="226"/>
-      <c r="AE15" s="226"/>
-      <c r="AF15" s="226"/>
-      <c r="AG15" s="226"/>
-      <c r="AH15" s="226"/>
-      <c r="AI15" s="227"/>
-      <c r="AJ15" s="210"/>
-      <c r="AK15" s="211"/>
-      <c r="AL15" s="211"/>
-      <c r="AM15" s="212"/>
-      <c r="AR15" s="20"/>
+      <c r="AA15" s="182"/>
+      <c r="AB15" s="182"/>
+      <c r="AC15" s="182"/>
+      <c r="AD15" s="182"/>
+      <c r="AE15" s="182"/>
+      <c r="AF15" s="182"/>
+      <c r="AG15" s="182"/>
+      <c r="AH15" s="182"/>
+      <c r="AI15" s="183"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="173"/>
+      <c r="AL15" s="173"/>
+      <c r="AM15" s="174"/>
+      <c r="AR15" s="10"/>
     </row>
     <row r="16" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="184"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="13"/>
-      <c r="T16" s="138" t="s">
+      <c r="A16" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="241" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="225"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="241"/>
-      <c r="AB16" s="241"/>
-      <c r="AC16" s="241"/>
-      <c r="AD16" s="241"/>
-      <c r="AE16" s="241"/>
-      <c r="AF16" s="241"/>
-      <c r="AG16" s="241" t="s">
+      <c r="U16" s="256"/>
+      <c r="V16" s="256"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="257"/>
+      <c r="Z16" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="AH16" s="241"/>
-      <c r="AI16" s="241"/>
-      <c r="AJ16" s="241"/>
-      <c r="AK16" s="241"/>
-      <c r="AL16" s="241"/>
-      <c r="AM16" s="241"/>
-      <c r="AR16" s="13"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="101"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="101"/>
+      <c r="AR16" s="3"/>
     </row>
     <row r="17" spans="1:59" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AR17" s="13"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AR17" s="3"/>
     </row>
     <row r="18" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="260" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="261"/>
-      <c r="C18" s="186" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="13"/>
-      <c r="T18" s="232" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="233"/>
-      <c r="V18" s="229" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="230"/>
-      <c r="X18" s="230"/>
-      <c r="Y18" s="231"/>
-      <c r="Z18" s="228" t="str">
+      <c r="A18" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="136"/>
+      <c r="C18" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="190" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="191"/>
+      <c r="V18" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="184" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AA18" s="228"/>
-      <c r="AB18" s="228"/>
-      <c r="AC18" s="228"/>
-      <c r="AD18" s="228"/>
-      <c r="AE18" s="228"/>
-      <c r="AF18" s="228"/>
-      <c r="AG18" s="228" t="str">
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="184"/>
+      <c r="AG18" s="184" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AH18" s="228"/>
-      <c r="AI18" s="228"/>
-      <c r="AJ18" s="228"/>
-      <c r="AK18" s="228"/>
-      <c r="AL18" s="228"/>
-      <c r="AM18" s="228"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="60"/>
-      <c r="AZ18" s="60"/>
-      <c r="BA18" s="60"/>
-      <c r="BB18" s="60"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="184"/>
+      <c r="AJ18" s="184"/>
+      <c r="AK18" s="184"/>
+      <c r="AL18" s="184"/>
+      <c r="AM18" s="184"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AX18" s="265"/>
+      <c r="AY18" s="266"/>
+      <c r="AZ18" s="266"/>
+      <c r="BA18" s="266"/>
+      <c r="BB18" s="266"/>
     </row>
     <row r="19" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="262"/>
-      <c r="B19" s="263"/>
-      <c r="C19" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="13"/>
-      <c r="T19" s="234"/>
-      <c r="U19" s="235"/>
-      <c r="V19" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="148" t="str">
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="93" t="str">
         <f>IF(G19&lt;&gt;"",G19*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="148" t="str">
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="93" t="str">
         <f>IF(G19&lt;&gt;"",G19*(((AJ13-20)/100)),"")</f>
         <v/>
       </c>
-      <c r="AH19" s="149"/>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149"/>
-      <c r="AM19" s="149"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AX19" s="267"/>
+      <c r="AY19" s="268"/>
+      <c r="AZ19" s="268"/>
+      <c r="BA19" s="268"/>
+      <c r="BB19" s="268"/>
     </row>
     <row r="20" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="262"/>
-      <c r="B20" s="263"/>
-      <c r="C20" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="13"/>
-      <c r="T20" s="234"/>
-      <c r="U20" s="235"/>
-      <c r="V20" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="63" t="str">
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="211" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="192"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="92" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63" t="str">
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="13"/>
-      <c r="AR20" s="13"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="3"/>
+      <c r="AR20" s="3"/>
     </row>
     <row r="21" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="262"/>
-      <c r="B21" s="263"/>
-      <c r="C21" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="13"/>
-      <c r="T21" s="234"/>
-      <c r="U21" s="235"/>
-      <c r="V21" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="63" t="str">
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="92" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63" t="str">
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="63"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="47" t="s">
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="92"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AU21" s="47"/>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="47" t="s">
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="47"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
     </row>
     <row r="22" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="262"/>
-      <c r="B22" s="263"/>
-      <c r="C22" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="272" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="273"/>
-      <c r="I22" s="274"/>
-      <c r="J22" s="180" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="269" t="str">
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="148"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="221"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="222"/>
+      <c r="N22" s="144" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BA11:BB14,2,FALSE))=FALSE,VLOOKUP(J22,BA11:BB14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O22" s="270"/>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="271"/>
-      <c r="R22" s="13"/>
-      <c r="T22" s="234"/>
-      <c r="U22" s="235"/>
-      <c r="V22" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="238" t="str">
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="192"/>
+      <c r="U22" s="193"/>
+      <c r="V22" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="76" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BG11:BH14,2,FALSE))=FALSE,VLOOKUP(J22,BG11:BH14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA22" s="238"/>
-      <c r="AB22" s="238"/>
-      <c r="AC22" s="238"/>
-      <c r="AD22" s="238"/>
-      <c r="AE22" s="238"/>
-      <c r="AF22" s="238"/>
-      <c r="AG22" s="238" t="str">
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BM11:BN14,2,FALSE))=FALSE,VLOOKUP(J22,BM11:BN14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH22" s="238"/>
-      <c r="AI22" s="238"/>
-      <c r="AJ22" s="238"/>
-      <c r="AK22" s="238"/>
-      <c r="AL22" s="238"/>
-      <c r="AM22" s="238"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="300" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU22" s="300"/>
-      <c r="AV22" s="300"/>
-      <c r="AW22" s="297" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX22" s="297"/>
-      <c r="AY22" s="297"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP22" s="33"/>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
     </row>
     <row r="23" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="264"/>
-      <c r="B23" s="265"/>
-      <c r="C23" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="272" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="273"/>
-      <c r="I23" s="274"/>
-      <c r="J23" s="275" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="276"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="277"/>
-      <c r="N23" s="266" t="str">
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="148"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="141" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BA2:BB5,2,FALSE))=FALSE,VLOOKUP(J23,BA2:BB5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O23" s="267"/>
-      <c r="P23" s="267"/>
-      <c r="Q23" s="268"/>
-      <c r="R23" s="13"/>
-      <c r="T23" s="236"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="284" t="str">
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="195"/>
+      <c r="V23" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="81" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BG2:BH5,2,FALSE))=FALSE,VLOOKUP(J23,BG2:BH5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA23" s="284"/>
-      <c r="AB23" s="284"/>
-      <c r="AC23" s="284"/>
-      <c r="AD23" s="284"/>
-      <c r="AE23" s="284"/>
-      <c r="AF23" s="284"/>
-      <c r="AG23" s="284" t="str">
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BM2:BN5,2,FALSE))=FALSE,VLOOKUP(J23,BM2:BN5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH23" s="284"/>
-      <c r="AI23" s="284"/>
-      <c r="AJ23" s="284"/>
-      <c r="AK23" s="284"/>
-      <c r="AL23" s="284"/>
-      <c r="AM23" s="284"/>
-      <c r="AN23" s="17"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="7"/>
     </row>
     <row r="24" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="166" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="13"/>
-      <c r="T24" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" s="102"/>
-      <c r="V24" s="244" t="s">
-        <v>25</v>
-      </c>
-      <c r="W24" s="245"/>
-      <c r="X24" s="245"/>
-      <c r="Y24" s="246"/>
-      <c r="Z24" s="90" t="str">
+      <c r="A24" s="214" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="215"/>
+      <c r="C24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="249" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="250"/>
+      <c r="V24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="72" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="91"/>
-      <c r="AC24" s="91"/>
-      <c r="AD24" s="91"/>
-      <c r="AE24" s="91"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="90" t="str">
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="72" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="91"/>
-      <c r="AJ24" s="91"/>
-      <c r="AK24" s="91"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="92"/>
-      <c r="AO24" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="17"/>
-      <c r="BA24" s="17"/>
-      <c r="BB24" s="17"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="17"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="74"/>
+      <c r="AO24" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
     </row>
     <row r="25" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="168"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="13"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="219" t="s">
-        <v>23</v>
-      </c>
-      <c r="W25" s="220"/>
-      <c r="X25" s="220"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="195" t="str">
+      <c r="A25" s="216"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="3"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="252"/>
+      <c r="V25" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="159"/>
+      <c r="X25" s="159"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="69" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="79" t="str">
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="77" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="81"/>
-      <c r="AO25" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="52" t="str">
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="79"/>
+      <c r="AO25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP25" s="75"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="35" t="str">
         <f>IF(OR(G24="",G25=""),"",(G24/G25))</f>
         <v/>
       </c>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
-      <c r="BF25" s="13"/>
-      <c r="BG25" s="13"/>
+      <c r="AS25" s="35"/>
+      <c r="AT25" s="35"/>
+      <c r="AU25" s="35"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
     </row>
     <row r="26" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="168"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="190" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="13"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="242" t="s">
-        <v>22</v>
-      </c>
-      <c r="W26" s="240"/>
-      <c r="X26" s="240"/>
-      <c r="Y26" s="243"/>
-      <c r="Z26" s="96" t="str">
+      <c r="A26" s="216"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="252"/>
+      <c r="V26" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="50" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
-      <c r="AG26" s="96" t="str">
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AH26" s="96"/>
-      <c r="AI26" s="96"/>
-      <c r="AJ26" s="96"/>
-      <c r="AK26" s="96"/>
-      <c r="AL26" s="96"/>
-      <c r="AM26" s="96"/>
-      <c r="AO26" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="298"/>
-      <c r="AS26" s="298"/>
-      <c r="AT26" s="298"/>
-      <c r="AU26" s="298"/>
-      <c r="AV26" s="298"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="17"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AO26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
     </row>
     <row r="27" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="168"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="53" t="str">
+      <c r="A27" s="216"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="47" t="str">
         <f>IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G19*AR26,G19*AR25))</f>
         <v/>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="13"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="53" t="str">
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="3"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="252"/>
+      <c r="V27" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="47" t="str">
         <f>IF(G27&lt;&gt;"",G27*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="53" t="str">
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="47" t="str">
         <f>IF(OR(AG24="",AR25=""),"",IF(AR26&lt;&gt;"",AG19*AR26,AG19*AR25))</f>
         <v/>
       </c>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="55"/>
-      <c r="AO27" s="16" t="s">
-        <v>24</v>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="49"/>
+      <c r="AO27" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="168"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="79" t="str">
+      <c r="A28" s="216"/>
+      <c r="B28" s="217"/>
+      <c r="C28" s="211" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="77" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G20*AR26,G20*AR25))))</f>
         <v/>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="13"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="96" t="str">
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="252"/>
+      <c r="V28" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="50" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="96"/>
-      <c r="AG28" s="96" t="str">
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AH28" s="96"/>
-      <c r="AI28" s="96"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="96"/>
-      <c r="AL28" s="96"/>
-      <c r="AM28" s="96"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
     </row>
     <row r="29" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="168"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="79" t="str">
+      <c r="A29" s="216"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="77" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G21*AR26,G21*AR25))))</f>
         <v/>
       </c>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="13"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="96" t="str">
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="252"/>
+      <c r="V29" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="50" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="96"/>
-      <c r="AG29" s="96" t="str">
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AH29" s="96"/>
-      <c r="AI29" s="96"/>
-      <c r="AJ29" s="96"/>
-      <c r="AK29" s="96"/>
-      <c r="AL29" s="96"/>
-      <c r="AM29" s="96"/>
-      <c r="AO29" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="48"/>
-      <c r="AV29" s="48"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="50"/>
+      <c r="AO29" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
     </row>
     <row r="30" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="168"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="141" t="str">
+      <c r="A30" s="216"/>
+      <c r="B30" s="217"/>
+      <c r="C30" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="212"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="231" t="str">
         <f>IF(G24&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="13"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="53" t="str">
+      <c r="H30" s="232"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="232"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="232"/>
+      <c r="Q30" s="233"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="252"/>
+      <c r="V30" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="47" t="str">
         <f>IF(Z24&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="53" t="str">
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="47" t="str">
         <f>IF(AG24&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="55"/>
-      <c r="AO30" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="52" t="str">
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="49"/>
+      <c r="AO30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP30" s="75"/>
+      <c r="AQ30" s="75"/>
+      <c r="AR30" s="35" t="str">
         <f>IF(OR(G32="",G33=""),"",(G32/G33))</f>
         <v/>
       </c>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="35"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="35"/>
     </row>
     <row r="31" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="170"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="196" t="str">
+      <c r="A31" s="218"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="121" t="str">
         <f>IF(G24&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
-      <c r="P31" s="197"/>
-      <c r="Q31" s="198"/>
-      <c r="R31" s="13"/>
-      <c r="T31" s="105"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="44" t="str">
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="3"/>
+      <c r="T31" s="253"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="54" t="str">
         <f>IF(Z24&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="44" t="str">
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="54" t="str">
         <f>IF(AG24&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="46"/>
-      <c r="AO31" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="298"/>
-      <c r="AS31" s="298"/>
-      <c r="AT31" s="298"/>
-      <c r="AU31" s="298"/>
-      <c r="AV31" s="298"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="56"/>
+      <c r="AO31" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="30"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="30"/>
+      <c r="AV31" s="30"/>
     </row>
     <row r="32" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="90" t="s">
+      <c r="A32" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="13"/>
-      <c r="T32" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="U32" s="102"/>
-      <c r="V32" s="244" t="s">
+      <c r="B32" s="215"/>
+      <c r="C32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="3"/>
+      <c r="T32" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="W32" s="245"/>
-      <c r="X32" s="245"/>
-      <c r="Y32" s="246"/>
-      <c r="Z32" s="90" t="str">
+      <c r="U32" s="250"/>
+      <c r="V32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="72" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="91"/>
-      <c r="AC32" s="91"/>
-      <c r="AD32" s="91"/>
-      <c r="AE32" s="91"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="90" t="str">
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="72" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="91"/>
-      <c r="AJ32" s="91"/>
-      <c r="AK32" s="91"/>
-      <c r="AL32" s="91"/>
-      <c r="AM32" s="92"/>
-      <c r="AO32" s="16" t="s">
-        <v>24</v>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="74"/>
+      <c r="AO32" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="168"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="13"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="219" t="s">
-        <v>23</v>
-      </c>
-      <c r="W33" s="220"/>
-      <c r="X33" s="220"/>
-      <c r="Y33" s="221"/>
-      <c r="Z33" s="195" t="str">
+      <c r="A33" s="216"/>
+      <c r="B33" s="217"/>
+      <c r="C33" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="3"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="252"/>
+      <c r="V33" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="W33" s="159"/>
+      <c r="X33" s="159"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="69" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="118"/>
-      <c r="AG33" s="79" t="str">
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="77" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="80"/>
-      <c r="AJ33" s="80"/>
-      <c r="AK33" s="80"/>
-      <c r="AL33" s="80"/>
-      <c r="AM33" s="81"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="79"/>
     </row>
     <row r="34" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="168"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="190" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="15"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="242" t="s">
-        <v>22</v>
-      </c>
-      <c r="W34" s="240"/>
-      <c r="X34" s="240"/>
-      <c r="Y34" s="243"/>
-      <c r="Z34" s="96" t="str">
+      <c r="A34" s="216"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="5"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="252"/>
+      <c r="V34" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="154"/>
+      <c r="X34" s="154"/>
+      <c r="Y34" s="155"/>
+      <c r="Z34" s="50" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AA34" s="96"/>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="96"/>
-      <c r="AD34" s="96"/>
-      <c r="AE34" s="96"/>
-      <c r="AF34" s="96"/>
-      <c r="AG34" s="96" t="str">
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AH34" s="96"/>
-      <c r="AI34" s="96"/>
-      <c r="AJ34" s="96"/>
-      <c r="AK34" s="96"/>
-      <c r="AL34" s="96"/>
-      <c r="AM34" s="96"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
     </row>
     <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="168"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="53" t="str">
+      <c r="A35" s="216"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="47" t="str">
         <f>IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G19*AR31,G19*AR30))</f>
         <v/>
       </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="15"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="55"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="5"/>
+      <c r="T35" s="251"/>
+      <c r="U35" s="252"/>
+      <c r="V35" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="49"/>
     </row>
     <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="168"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="79" t="str">
+      <c r="A36" s="216"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="211" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="212"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="77" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G20*AR31,G20*AR30))))</f>
         <v/>
       </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="13"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="96" t="str">
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="3"/>
+      <c r="T36" s="251"/>
+      <c r="U36" s="252"/>
+      <c r="V36" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="50" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96" t="str">
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="50"/>
+      <c r="AL36" s="50"/>
+      <c r="AM36" s="50"/>
     </row>
     <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="168"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="79" t="str">
+      <c r="A37" s="216"/>
+      <c r="B37" s="217"/>
+      <c r="C37" s="211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="212"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="77" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G21*AR31,G21*AR30))))</f>
         <v/>
       </c>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="13"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="104"/>
-      <c r="V37" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="96" t="str">
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="3"/>
+      <c r="T37" s="251"/>
+      <c r="U37" s="252"/>
+      <c r="V37" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="50" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="96" t="str">
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AH37" s="96"/>
-      <c r="AI37" s="96"/>
-      <c r="AJ37" s="96"/>
-      <c r="AK37" s="96"/>
-      <c r="AL37" s="96"/>
-      <c r="AM37" s="96"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
+      <c r="AM37" s="50"/>
     </row>
     <row r="38" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="168"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="141" t="str">
+      <c r="A38" s="216"/>
+      <c r="B38" s="217"/>
+      <c r="C38" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="212"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="231" t="str">
         <f>IF(G32&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="142"/>
-      <c r="L38" s="142"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="142"/>
-      <c r="O38" s="142"/>
-      <c r="P38" s="142"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="13"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="104"/>
-      <c r="V38" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="53" t="str">
+      <c r="H38" s="232"/>
+      <c r="I38" s="232"/>
+      <c r="J38" s="232"/>
+      <c r="K38" s="232"/>
+      <c r="L38" s="232"/>
+      <c r="M38" s="232"/>
+      <c r="N38" s="232"/>
+      <c r="O38" s="232"/>
+      <c r="P38" s="232"/>
+      <c r="Q38" s="233"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="251"/>
+      <c r="U38" s="252"/>
+      <c r="V38" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="47" t="str">
         <f>IF(Z32&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="55"/>
-      <c r="AG38" s="53" t="str">
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="47" t="str">
         <f>IF(AG32&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="55"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="49"/>
     </row>
     <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="170"/>
-      <c r="B39" s="171"/>
-      <c r="C39" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="196" t="str">
+      <c r="A39" s="218"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="121" t="str">
         <f>IF(G32&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="197"/>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="198"/>
-      <c r="R39" s="13"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="44" t="str">
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="3"/>
+      <c r="T39" s="253"/>
+      <c r="U39" s="254"/>
+      <c r="V39" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="54" t="str">
         <f>IF(Z32&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="44" t="str">
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="54" t="str">
         <f>IF(AG32&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="46"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="56"/>
     </row>
     <row r="40" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="86" t="s">
+      <c r="A41" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="87"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="175">
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="228" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="206"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="205">
         <v>30</v>
       </c>
-      <c r="J41" s="87"/>
-      <c r="K41" s="176"/>
-      <c r="L41" s="86" t="s">
+      <c r="J41" s="206"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="228" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="206"/>
+      <c r="N41" s="229"/>
+      <c r="O41" s="63">
+        <v>15</v>
+      </c>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="260" t="s">
+        <v>15</v>
+      </c>
+      <c r="U41" s="261"/>
+      <c r="V41" s="261"/>
+      <c r="W41" s="263"/>
+      <c r="X41" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="87"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="172">
-        <v>15</v>
-      </c>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="13"/>
-      <c r="T41" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41" s="98"/>
-      <c r="V41" s="98"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y41" s="98"/>
-      <c r="Z41" s="99"/>
-      <c r="AA41" s="175">
+      <c r="Y41" s="261"/>
+      <c r="Z41" s="262"/>
+      <c r="AA41" s="205">
         <v>30</v>
       </c>
-      <c r="AB41" s="87"/>
-      <c r="AC41" s="176"/>
-      <c r="AD41" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE41" s="98"/>
-      <c r="AF41" s="99"/>
-      <c r="AG41" s="172">
+      <c r="AB41" s="206"/>
+      <c r="AC41" s="207"/>
+      <c r="AD41" s="260" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE41" s="261"/>
+      <c r="AF41" s="262"/>
+      <c r="AG41" s="63">
         <v>30</v>
       </c>
-      <c r="AH41" s="173"/>
-      <c r="AI41" s="174"/>
-      <c r="AJ41" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK41" s="39"/>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="40"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="46"/>
     </row>
     <row r="42" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="66"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="66"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="66"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="83" t="s">
+      <c r="P42" s="203"/>
+      <c r="Q42" s="204"/>
+      <c r="R42" s="3"/>
+      <c r="T42" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="83" t="s">
+      <c r="U42" s="162"/>
+      <c r="V42" s="162"/>
+      <c r="W42" s="163"/>
+      <c r="X42" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="84"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="83" t="s">
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="84"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="191" t="s">
-        <v>12</v>
-      </c>
-      <c r="P42" s="192"/>
-      <c r="Q42" s="193"/>
-      <c r="R42" s="13"/>
-      <c r="T42" s="199" t="s">
-        <v>11</v>
-      </c>
-      <c r="U42" s="200"/>
-      <c r="V42" s="200"/>
-      <c r="W42" s="201"/>
-      <c r="X42" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="85"/>
-      <c r="AD42" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE42" s="84"/>
-      <c r="AF42" s="85"/>
-      <c r="AG42" s="191" t="s">
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AH42" s="192"/>
-      <c r="AI42" s="193"/>
-      <c r="AJ42" s="288"/>
-      <c r="AK42" s="289"/>
-      <c r="AL42" s="289"/>
-      <c r="AM42" s="290"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="202" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH42" s="203"/>
+      <c r="AI42" s="204"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="27"/>
+      <c r="AM42" s="37"/>
     </row>
     <row r="43" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="79" t="str">
+      <c r="A43" s="77" t="str">
         <f>IF(D5&lt;&gt;"派遣","見積依頼書","派遣個別契約書")</f>
         <v>見積依頼書</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="163" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="163" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="165"/>
-      <c r="N43" s="172" t="s">
-        <v>1</v>
-      </c>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="13"/>
-      <c r="T43" s="74" t="str">
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="3"/>
+      <c r="T43" s="128" t="str">
         <f>IF(Z11="正","欠勤控除対象者",IF(Z11="契","有給対象者","-"))</f>
         <v>欠勤控除対象者</v>
       </c>
-      <c r="U43" s="119"/>
-      <c r="V43" s="119"/>
-      <c r="W43" s="75"/>
-      <c r="X43" s="186" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="173"/>
-      <c r="AA43" s="301"/>
-      <c r="AB43" s="172" t="s">
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="173"/>
-      <c r="AD43" s="173"/>
-      <c r="AE43" s="174"/>
-      <c r="AF43" s="172" t="str">
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="63" t="str">
         <f>IF(Z11="","",IF(OR(Z11="協力"),"","無"))</f>
         <v>無</v>
       </c>
-      <c r="AG43" s="173"/>
-      <c r="AH43" s="173"/>
-      <c r="AI43" s="174"/>
-      <c r="AJ43" s="291"/>
-      <c r="AK43" s="292"/>
-      <c r="AL43" s="292"/>
-      <c r="AM43" s="293"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="64"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="40"/>
     </row>
     <row r="44" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="179" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="83" t="s">
+      <c r="A44" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="188"/>
-      <c r="L44" s="188"/>
-      <c r="M44" s="189"/>
-      <c r="N44" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="13"/>
-      <c r="T44" s="83" t="str">
+      <c r="K44" s="198"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="3"/>
+      <c r="T44" s="65" t="str">
         <f>IF(Z11="","注文書",IF(Z11="契","契約書","注文書"))</f>
         <v>注文書</v>
       </c>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="89" t="str">
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="200" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正"),"無","有"))</f>
         <v>無</v>
       </c>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="84"/>
-      <c r="AA44" s="177"/>
-      <c r="AB44" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="188"/>
-      <c r="AD44" s="188"/>
-      <c r="AE44" s="189"/>
-      <c r="AF44" s="83" t="s">
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="201"/>
+      <c r="AB44" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="AG44" s="84"/>
-      <c r="AH44" s="84"/>
-      <c r="AI44" s="85"/>
-      <c r="AJ44" s="294"/>
-      <c r="AK44" s="295"/>
-      <c r="AL44" s="295"/>
-      <c r="AM44" s="296"/>
+      <c r="AC44" s="198"/>
+      <c r="AD44" s="198"/>
+      <c r="AE44" s="199"/>
+      <c r="AF44" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="67"/>
+      <c r="AJ44" s="41"/>
+      <c r="AK44" s="42"/>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="43"/>
     </row>
     <row r="45" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
     </row>
     <row r="46" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="151"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="155"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="156"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
-      <c r="AA46" s="40"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="39"/>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="40"/>
-      <c r="AF46" s="38"/>
-      <c r="AG46" s="39"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="40"/>
-      <c r="AJ46" s="38"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="39"/>
-      <c r="AM46" s="40"/>
+      <c r="A46" s="279" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="279"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="279" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="279"/>
+      <c r="F46" s="279"/>
+      <c r="G46" s="279"/>
+      <c r="H46" s="280" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="280"/>
+      <c r="J46" s="280"/>
+      <c r="K46" s="280"/>
+      <c r="L46" s="280"/>
+      <c r="M46" s="280"/>
+      <c r="N46" s="280"/>
+      <c r="O46" s="280"/>
+      <c r="P46" s="280"/>
+      <c r="Q46" s="280"/>
+      <c r="R46" s="281"/>
+      <c r="S46" s="281"/>
+      <c r="T46" s="281"/>
+      <c r="U46" s="281"/>
+      <c r="V46" s="281"/>
+      <c r="W46" s="281"/>
+      <c r="X46" s="281"/>
+      <c r="Y46" s="281"/>
+      <c r="Z46" s="281"/>
+      <c r="AA46" s="281"/>
+      <c r="AB46" s="281"/>
+      <c r="AC46" s="281"/>
+      <c r="AD46" s="281"/>
+      <c r="AE46" s="281"/>
+      <c r="AF46" s="281"/>
+      <c r="AG46" s="281"/>
+      <c r="AH46" s="281"/>
+      <c r="AI46" s="281"/>
+      <c r="AJ46" s="281"/>
+      <c r="AK46" s="281"/>
+      <c r="AL46" s="281"/>
+      <c r="AM46" s="281"/>
     </row>
     <row r="47" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="152"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="158"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="158"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="158"/>
-      <c r="P47" s="158"/>
-      <c r="Q47" s="159"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="8"/>
-      <c r="AJ47" s="10"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="8"/>
+      <c r="A47" s="282" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="283"/>
+      <c r="C47" s="283"/>
+      <c r="D47" s="284" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="284"/>
+      <c r="F47" s="284"/>
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284" t="s">
+        <v>98</v>
+      </c>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="284"/>
+      <c r="P47" s="284"/>
+      <c r="Q47" s="284"/>
+      <c r="R47" s="308"/>
+      <c r="S47" s="309"/>
+      <c r="T47" s="309"/>
+      <c r="U47" s="309"/>
+      <c r="V47" s="309"/>
+      <c r="W47" s="309"/>
+      <c r="X47" s="309"/>
+      <c r="Y47" s="309"/>
+      <c r="Z47" s="309"/>
+      <c r="AA47" s="309"/>
+      <c r="AB47" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC47" s="314"/>
+      <c r="AD47" s="309"/>
+      <c r="AE47" s="309"/>
+      <c r="AF47" s="309"/>
+      <c r="AG47" s="309"/>
+      <c r="AH47" s="309"/>
+      <c r="AI47" s="309"/>
+      <c r="AJ47" s="309"/>
+      <c r="AK47" s="309"/>
+      <c r="AL47" s="309"/>
+      <c r="AM47" s="310"/>
     </row>
     <row r="48" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="152"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="157"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="158"/>
-      <c r="P48" s="158"/>
-      <c r="Q48" s="159"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="7"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="6"/>
+      <c r="A48" s="283"/>
+      <c r="B48" s="283"/>
+      <c r="C48" s="283"/>
+      <c r="D48" s="285"/>
+      <c r="E48" s="285"/>
+      <c r="F48" s="285"/>
+      <c r="G48" s="285"/>
+      <c r="H48" s="285"/>
+      <c r="I48" s="285"/>
+      <c r="J48" s="285"/>
+      <c r="K48" s="285"/>
+      <c r="L48" s="285"/>
+      <c r="M48" s="285"/>
+      <c r="N48" s="285"/>
+      <c r="O48" s="285"/>
+      <c r="P48" s="285"/>
+      <c r="Q48" s="285"/>
+      <c r="R48" s="311"/>
+      <c r="S48" s="312"/>
+      <c r="T48" s="312"/>
+      <c r="U48" s="312"/>
+      <c r="V48" s="312"/>
+      <c r="W48" s="312"/>
+      <c r="X48" s="312"/>
+      <c r="Y48" s="312"/>
+      <c r="Z48" s="312"/>
+      <c r="AA48" s="312"/>
+      <c r="AB48" s="315"/>
+      <c r="AC48" s="312"/>
+      <c r="AD48" s="312"/>
+      <c r="AE48" s="312"/>
+      <c r="AF48" s="312"/>
+      <c r="AG48" s="312"/>
+      <c r="AH48" s="312"/>
+      <c r="AI48" s="312"/>
+      <c r="AJ48" s="312"/>
+      <c r="AK48" s="312"/>
+      <c r="AL48" s="312"/>
+      <c r="AM48" s="313"/>
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="152"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="159"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="6"/>
-      <c r="AJ49" s="7"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="6"/>
+      <c r="A49" s="283"/>
+      <c r="B49" s="283"/>
+      <c r="C49" s="283"/>
+      <c r="D49" s="285"/>
+      <c r="E49" s="285"/>
+      <c r="F49" s="285"/>
+      <c r="G49" s="285"/>
+      <c r="H49" s="285"/>
+      <c r="I49" s="285"/>
+      <c r="J49" s="285"/>
+      <c r="K49" s="285" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" s="285"/>
+      <c r="M49" s="285"/>
+      <c r="N49" s="285"/>
+      <c r="O49" s="285"/>
+      <c r="P49" s="285"/>
+      <c r="Q49" s="285"/>
+      <c r="R49" s="286"/>
+      <c r="S49" s="286"/>
+      <c r="T49" s="286"/>
+      <c r="U49" s="286"/>
+      <c r="V49" s="286"/>
+      <c r="W49" s="286"/>
+      <c r="X49" s="286"/>
+      <c r="Y49" s="286"/>
+      <c r="Z49" s="286"/>
+      <c r="AA49" s="286"/>
+      <c r="AB49" s="286"/>
+      <c r="AC49" s="286"/>
+      <c r="AD49" s="286"/>
+      <c r="AE49" s="286"/>
+      <c r="AF49" s="286"/>
+      <c r="AG49" s="286"/>
+      <c r="AH49" s="286"/>
+      <c r="AI49" s="286"/>
+      <c r="AJ49" s="286"/>
+      <c r="AK49" s="286"/>
+      <c r="AL49" s="286"/>
+      <c r="AM49" s="286"/>
     </row>
     <row r="50" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="152"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="158"/>
-      <c r="M50" s="158"/>
-      <c r="N50" s="158"/>
-      <c r="O50" s="158"/>
-      <c r="P50" s="158"/>
-      <c r="Q50" s="159"/>
-      <c r="AB50" s="289"/>
-      <c r="AC50" s="299"/>
-      <c r="AD50" s="299"/>
-      <c r="AE50" s="299"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="38"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="40"/>
+      <c r="A50" s="283"/>
+      <c r="B50" s="283"/>
+      <c r="C50" s="283"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="285"/>
+      <c r="F50" s="285"/>
+      <c r="G50" s="285"/>
+      <c r="H50" s="285"/>
+      <c r="I50" s="285"/>
+      <c r="J50" s="285"/>
+      <c r="K50" s="285"/>
+      <c r="L50" s="285"/>
+      <c r="M50" s="285"/>
+      <c r="N50" s="285"/>
+      <c r="O50" s="285"/>
+      <c r="P50" s="285"/>
+      <c r="Q50" s="285"/>
+      <c r="R50" s="286"/>
+      <c r="S50" s="286"/>
+      <c r="T50" s="286"/>
+      <c r="U50" s="286"/>
+      <c r="V50" s="286"/>
+      <c r="W50" s="286"/>
+      <c r="X50" s="286"/>
+      <c r="Y50" s="286"/>
+      <c r="Z50" s="286"/>
+      <c r="AA50" s="286"/>
+      <c r="AB50" s="286"/>
+      <c r="AC50" s="286"/>
+      <c r="AD50" s="286"/>
+      <c r="AE50" s="286"/>
+      <c r="AF50" s="286"/>
+      <c r="AG50" s="286"/>
+      <c r="AH50" s="286"/>
+      <c r="AI50" s="286"/>
+      <c r="AJ50" s="286"/>
+      <c r="AK50" s="286"/>
+      <c r="AL50" s="286"/>
+      <c r="AM50" s="286"/>
     </row>
     <row r="51" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="152"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="158"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="158"/>
-      <c r="K51" s="158"/>
-      <c r="L51" s="158"/>
-      <c r="M51" s="158"/>
-      <c r="N51" s="158"/>
-      <c r="O51" s="158"/>
-      <c r="P51" s="158"/>
-      <c r="Q51" s="159"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="8"/>
-      <c r="AJ51" s="10"/>
-      <c r="AK51" s="9"/>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="8"/>
+      <c r="A51" s="283"/>
+      <c r="B51" s="283"/>
+      <c r="C51" s="283"/>
+      <c r="D51" s="285"/>
+      <c r="E51" s="285"/>
+      <c r="F51" s="285"/>
+      <c r="G51" s="285"/>
+      <c r="H51" s="285"/>
+      <c r="I51" s="285"/>
+      <c r="J51" s="285"/>
+      <c r="K51" s="285" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" s="285"/>
+      <c r="M51" s="285"/>
+      <c r="N51" s="285"/>
+      <c r="O51" s="285"/>
+      <c r="P51" s="285"/>
+      <c r="Q51" s="285"/>
+      <c r="R51" s="286"/>
+      <c r="S51" s="286"/>
+      <c r="T51" s="286"/>
+      <c r="U51" s="286"/>
+      <c r="V51" s="286"/>
+      <c r="W51" s="286"/>
+      <c r="X51" s="286"/>
+      <c r="Y51" s="286"/>
+      <c r="Z51" s="286"/>
+      <c r="AA51" s="286"/>
+      <c r="AB51" s="286"/>
+      <c r="AC51" s="286"/>
+      <c r="AD51" s="286"/>
+      <c r="AE51" s="286"/>
+      <c r="AF51" s="286"/>
+      <c r="AG51" s="286"/>
+      <c r="AH51" s="286"/>
+      <c r="AI51" s="286"/>
+      <c r="AJ51" s="286"/>
+      <c r="AK51" s="286"/>
+      <c r="AL51" s="286"/>
+      <c r="AM51" s="286"/>
     </row>
     <row r="52" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="152"/>
-      <c r="B52" s="153"/>
-      <c r="C52" s="157"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="158"/>
-      <c r="N52" s="158"/>
-      <c r="O52" s="158"/>
-      <c r="P52" s="158"/>
-      <c r="Q52" s="159"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="6"/>
+      <c r="A52" s="283"/>
+      <c r="B52" s="283"/>
+      <c r="C52" s="283"/>
+      <c r="D52" s="285"/>
+      <c r="E52" s="285"/>
+      <c r="F52" s="285"/>
+      <c r="G52" s="285"/>
+      <c r="H52" s="285"/>
+      <c r="I52" s="285"/>
+      <c r="J52" s="285"/>
+      <c r="K52" s="285"/>
+      <c r="L52" s="285"/>
+      <c r="M52" s="285"/>
+      <c r="N52" s="285"/>
+      <c r="O52" s="285"/>
+      <c r="P52" s="285"/>
+      <c r="Q52" s="285"/>
+      <c r="R52" s="286"/>
+      <c r="S52" s="286"/>
+      <c r="T52" s="286"/>
+      <c r="U52" s="286"/>
+      <c r="V52" s="286"/>
+      <c r="W52" s="286"/>
+      <c r="X52" s="286"/>
+      <c r="Y52" s="286"/>
+      <c r="Z52" s="286"/>
+      <c r="AA52" s="286"/>
+      <c r="AB52" s="286"/>
+      <c r="AC52" s="286"/>
+      <c r="AD52" s="286"/>
+      <c r="AE52" s="286"/>
+      <c r="AF52" s="286"/>
+      <c r="AG52" s="286"/>
+      <c r="AH52" s="286"/>
+      <c r="AI52" s="286"/>
+      <c r="AJ52" s="286"/>
+      <c r="AK52" s="286"/>
+      <c r="AL52" s="286"/>
+      <c r="AM52" s="286"/>
     </row>
     <row r="53" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="161"/>
-      <c r="M53" s="161"/>
-      <c r="N53" s="161"/>
-      <c r="O53" s="161"/>
-      <c r="P53" s="161"/>
-      <c r="Q53" s="162"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3"/>
-      <c r="AM53" s="2"/>
+      <c r="A53" s="283"/>
+      <c r="B53" s="283"/>
+      <c r="C53" s="283"/>
+      <c r="D53" s="285"/>
+      <c r="E53" s="285"/>
+      <c r="F53" s="285"/>
+      <c r="G53" s="285"/>
+      <c r="H53" s="285"/>
+      <c r="I53" s="285"/>
+      <c r="J53" s="285"/>
+      <c r="K53" s="285" t="s">
+        <v>87</v>
+      </c>
+      <c r="L53" s="285"/>
+      <c r="M53" s="285"/>
+      <c r="N53" s="285"/>
+      <c r="O53" s="285"/>
+      <c r="P53" s="285"/>
+      <c r="Q53" s="285"/>
+      <c r="R53" s="316"/>
+      <c r="S53" s="317"/>
+      <c r="T53" s="317"/>
+      <c r="U53" s="317"/>
+      <c r="V53" s="317"/>
+      <c r="W53" s="317"/>
+      <c r="X53" s="317"/>
+      <c r="Y53" s="317"/>
+      <c r="Z53" s="317"/>
+      <c r="AA53" s="317"/>
+      <c r="AB53" s="317"/>
+      <c r="AC53" s="317"/>
+      <c r="AD53" s="317"/>
+      <c r="AE53" s="317"/>
+      <c r="AF53" s="317"/>
+      <c r="AG53" s="317"/>
+      <c r="AH53" s="317"/>
+      <c r="AI53" s="317"/>
+      <c r="AJ53" s="317"/>
+      <c r="AK53" s="317"/>
+      <c r="AL53" s="317"/>
+      <c r="AM53" s="318"/>
     </row>
-    <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="283"/>
+      <c r="B54" s="283"/>
+      <c r="C54" s="283"/>
+      <c r="D54" s="285" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="285"/>
+      <c r="F54" s="285"/>
+      <c r="G54" s="285"/>
+      <c r="H54" s="285"/>
+      <c r="I54" s="285"/>
+      <c r="J54" s="285"/>
+      <c r="K54" s="285" t="s">
+        <v>89</v>
+      </c>
+      <c r="L54" s="285"/>
+      <c r="M54" s="285"/>
+      <c r="N54" s="285"/>
+      <c r="O54" s="285"/>
+      <c r="P54" s="285"/>
+      <c r="Q54" s="285"/>
+      <c r="R54" s="316"/>
+      <c r="S54" s="317"/>
+      <c r="T54" s="317"/>
+      <c r="U54" s="317"/>
+      <c r="V54" s="317"/>
+      <c r="W54" s="317"/>
+      <c r="X54" s="317"/>
+      <c r="Y54" s="317"/>
+      <c r="Z54" s="317"/>
+      <c r="AA54" s="317"/>
+      <c r="AB54" s="324" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC54" s="322"/>
+      <c r="AD54" s="317"/>
+      <c r="AE54" s="317"/>
+      <c r="AF54" s="317"/>
+      <c r="AG54" s="317"/>
+      <c r="AH54" s="317"/>
+      <c r="AI54" s="317"/>
+      <c r="AJ54" s="317"/>
+      <c r="AK54" s="317"/>
+      <c r="AL54" s="317"/>
+      <c r="AM54" s="318"/>
+    </row>
+    <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="283"/>
+      <c r="B55" s="283"/>
+      <c r="C55" s="283"/>
+      <c r="D55" s="285" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="285"/>
+      <c r="F55" s="285"/>
+      <c r="G55" s="285"/>
+      <c r="H55" s="285"/>
+      <c r="I55" s="285"/>
+      <c r="J55" s="285"/>
+      <c r="K55" s="285" t="s">
+        <v>89</v>
+      </c>
+      <c r="L55" s="285"/>
+      <c r="M55" s="285"/>
+      <c r="N55" s="285"/>
+      <c r="O55" s="285"/>
+      <c r="P55" s="285"/>
+      <c r="Q55" s="285"/>
+      <c r="R55" s="316"/>
+      <c r="S55" s="317"/>
+      <c r="T55" s="317"/>
+      <c r="U55" s="317"/>
+      <c r="V55" s="317"/>
+      <c r="W55" s="317"/>
+      <c r="X55" s="317"/>
+      <c r="Y55" s="317"/>
+      <c r="Z55" s="317"/>
+      <c r="AA55" s="317"/>
+      <c r="AB55" s="324" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC55" s="322"/>
+      <c r="AD55" s="317"/>
+      <c r="AE55" s="317"/>
+      <c r="AF55" s="317"/>
+      <c r="AG55" s="317"/>
+      <c r="AH55" s="317"/>
+      <c r="AI55" s="317"/>
+      <c r="AJ55" s="317"/>
+      <c r="AK55" s="317"/>
+      <c r="AL55" s="317"/>
+      <c r="AM55" s="318"/>
+    </row>
+    <row r="56" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="283"/>
+      <c r="B56" s="283"/>
+      <c r="C56" s="283"/>
+      <c r="D56" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="285"/>
+      <c r="F56" s="285"/>
+      <c r="G56" s="285"/>
+      <c r="H56" s="285"/>
+      <c r="I56" s="285"/>
+      <c r="J56" s="285"/>
+      <c r="K56" s="285" t="s">
+        <v>89</v>
+      </c>
+      <c r="L56" s="285"/>
+      <c r="M56" s="285"/>
+      <c r="N56" s="285"/>
+      <c r="O56" s="285"/>
+      <c r="P56" s="285"/>
+      <c r="Q56" s="285"/>
+      <c r="R56" s="316"/>
+      <c r="S56" s="317"/>
+      <c r="T56" s="317"/>
+      <c r="U56" s="317"/>
+      <c r="V56" s="317"/>
+      <c r="W56" s="317"/>
+      <c r="X56" s="317"/>
+      <c r="Y56" s="317"/>
+      <c r="Z56" s="317"/>
+      <c r="AA56" s="317"/>
+      <c r="AB56" s="324" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC56" s="322"/>
+      <c r="AD56" s="317"/>
+      <c r="AE56" s="317"/>
+      <c r="AF56" s="317"/>
+      <c r="AG56" s="317"/>
+      <c r="AH56" s="317"/>
+      <c r="AI56" s="317"/>
+      <c r="AJ56" s="317"/>
+      <c r="AK56" s="317"/>
+      <c r="AL56" s="317"/>
+      <c r="AM56" s="318"/>
+    </row>
+    <row r="57" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="283"/>
+      <c r="B57" s="283"/>
+      <c r="C57" s="283"/>
+      <c r="D57" s="285" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="285"/>
+      <c r="F57" s="285"/>
+      <c r="G57" s="285"/>
+      <c r="H57" s="285"/>
+      <c r="I57" s="285"/>
+      <c r="J57" s="285"/>
+      <c r="K57" s="285" t="s">
+        <v>93</v>
+      </c>
+      <c r="L57" s="285"/>
+      <c r="M57" s="285"/>
+      <c r="N57" s="285"/>
+      <c r="O57" s="285"/>
+      <c r="P57" s="285"/>
+      <c r="Q57" s="285"/>
+      <c r="R57" s="316"/>
+      <c r="S57" s="317"/>
+      <c r="T57" s="317"/>
+      <c r="U57" s="317"/>
+      <c r="V57" s="317"/>
+      <c r="W57" s="317"/>
+      <c r="X57" s="317"/>
+      <c r="Y57" s="317"/>
+      <c r="Z57" s="317"/>
+      <c r="AA57" s="317"/>
+      <c r="AB57" s="324" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC57" s="322"/>
+      <c r="AD57" s="317"/>
+      <c r="AE57" s="317"/>
+      <c r="AF57" s="317"/>
+      <c r="AG57" s="317"/>
+      <c r="AH57" s="317"/>
+      <c r="AI57" s="317"/>
+      <c r="AJ57" s="317"/>
+      <c r="AK57" s="317"/>
+      <c r="AL57" s="317"/>
+      <c r="AM57" s="318"/>
+    </row>
+    <row r="58" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="283"/>
+      <c r="B58" s="283"/>
+      <c r="C58" s="283"/>
+      <c r="D58" s="287"/>
+      <c r="E58" s="287"/>
+      <c r="F58" s="287"/>
+      <c r="G58" s="287"/>
+      <c r="H58" s="287"/>
+      <c r="I58" s="287"/>
+      <c r="J58" s="287"/>
+      <c r="K58" s="287" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" s="287"/>
+      <c r="M58" s="287"/>
+      <c r="N58" s="287"/>
+      <c r="O58" s="287"/>
+      <c r="P58" s="287"/>
+      <c r="Q58" s="287"/>
+      <c r="R58" s="319"/>
+      <c r="S58" s="320"/>
+      <c r="T58" s="320"/>
+      <c r="U58" s="320"/>
+      <c r="V58" s="320"/>
+      <c r="W58" s="320"/>
+      <c r="X58" s="320"/>
+      <c r="Y58" s="320"/>
+      <c r="Z58" s="320"/>
+      <c r="AA58" s="320"/>
+      <c r="AB58" s="325" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="323"/>
+      <c r="AD58" s="320"/>
+      <c r="AE58" s="320"/>
+      <c r="AF58" s="320"/>
+      <c r="AG58" s="320"/>
+      <c r="AH58" s="320"/>
+      <c r="AI58" s="320"/>
+      <c r="AJ58" s="320"/>
+      <c r="AK58" s="320"/>
+      <c r="AL58" s="320"/>
+      <c r="AM58" s="321"/>
+    </row>
+    <row r="59" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="281"/>
+      <c r="B59" s="281"/>
+      <c r="C59" s="288"/>
+      <c r="D59" s="289"/>
+      <c r="E59" s="289"/>
+      <c r="F59" s="289"/>
+      <c r="G59" s="289"/>
+      <c r="H59" s="289"/>
+      <c r="I59" s="289"/>
+      <c r="J59" s="289"/>
+      <c r="K59" s="289"/>
+      <c r="L59" s="289"/>
+      <c r="M59" s="289"/>
+      <c r="N59" s="289"/>
+      <c r="O59" s="289"/>
+      <c r="P59" s="289"/>
+      <c r="Q59" s="288"/>
+      <c r="R59" s="281"/>
+      <c r="S59" s="288"/>
+      <c r="T59" s="288"/>
+      <c r="U59" s="288"/>
+      <c r="V59" s="288"/>
+      <c r="W59" s="288"/>
+      <c r="X59" s="288"/>
+      <c r="Y59" s="288"/>
+      <c r="Z59" s="288"/>
+      <c r="AA59" s="288"/>
+      <c r="AB59" s="288"/>
+      <c r="AC59" s="288"/>
+      <c r="AD59" s="288"/>
+      <c r="AE59" s="288"/>
+      <c r="AF59" s="288"/>
+      <c r="AG59" s="288"/>
+      <c r="AH59" s="288"/>
+      <c r="AI59" s="288"/>
+      <c r="AJ59" s="288"/>
+      <c r="AK59" s="288"/>
+      <c r="AL59" s="288"/>
+      <c r="AM59" s="288"/>
+    </row>
+    <row r="60" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="300" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="301"/>
+      <c r="C60" s="306" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="290"/>
+      <c r="E60" s="290"/>
+      <c r="F60" s="290"/>
+      <c r="G60" s="290"/>
+      <c r="H60" s="290"/>
+      <c r="I60" s="290"/>
+      <c r="J60" s="290"/>
+      <c r="K60" s="290"/>
+      <c r="L60" s="290"/>
+      <c r="M60" s="290"/>
+      <c r="N60" s="290"/>
+      <c r="O60" s="290"/>
+      <c r="P60" s="290"/>
+      <c r="Q60" s="291"/>
+      <c r="R60" s="281"/>
+      <c r="S60" s="292"/>
+      <c r="T60" s="282" t="s">
+        <v>96</v>
+      </c>
+      <c r="U60" s="283"/>
+      <c r="V60" s="307" t="s">
+        <v>97</v>
+      </c>
+      <c r="W60" s="293"/>
+      <c r="X60" s="293"/>
+      <c r="Y60" s="293"/>
+      <c r="Z60" s="293"/>
+      <c r="AA60" s="293"/>
+      <c r="AB60" s="293"/>
+      <c r="AC60" s="293"/>
+      <c r="AD60" s="293"/>
+      <c r="AE60" s="293"/>
+      <c r="AF60" s="293"/>
+      <c r="AG60" s="293"/>
+      <c r="AH60" s="293"/>
+      <c r="AI60" s="293"/>
+      <c r="AJ60" s="293"/>
+      <c r="AK60" s="293"/>
+      <c r="AL60" s="293"/>
+      <c r="AM60" s="293"/>
+    </row>
+    <row r="61" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="302"/>
+      <c r="B61" s="303"/>
+      <c r="C61" s="294"/>
+      <c r="D61" s="295"/>
+      <c r="E61" s="295"/>
+      <c r="F61" s="295"/>
+      <c r="G61" s="295"/>
+      <c r="H61" s="295"/>
+      <c r="I61" s="295"/>
+      <c r="J61" s="295"/>
+      <c r="K61" s="295"/>
+      <c r="L61" s="295"/>
+      <c r="M61" s="295"/>
+      <c r="N61" s="295"/>
+      <c r="O61" s="295"/>
+      <c r="P61" s="295"/>
+      <c r="Q61" s="296"/>
+      <c r="R61" s="281"/>
+      <c r="S61" s="281"/>
+      <c r="T61" s="283"/>
+      <c r="U61" s="283"/>
+      <c r="V61" s="293"/>
+      <c r="W61" s="293"/>
+      <c r="X61" s="293"/>
+      <c r="Y61" s="293"/>
+      <c r="Z61" s="293"/>
+      <c r="AA61" s="293"/>
+      <c r="AB61" s="293"/>
+      <c r="AC61" s="293"/>
+      <c r="AD61" s="293"/>
+      <c r="AE61" s="293"/>
+      <c r="AF61" s="293"/>
+      <c r="AG61" s="293"/>
+      <c r="AH61" s="293"/>
+      <c r="AI61" s="293"/>
+      <c r="AJ61" s="293"/>
+      <c r="AK61" s="293"/>
+      <c r="AL61" s="293"/>
+      <c r="AM61" s="293"/>
+    </row>
+    <row r="62" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="302"/>
+      <c r="B62" s="303"/>
+      <c r="C62" s="294"/>
+      <c r="D62" s="295"/>
+      <c r="E62" s="295"/>
+      <c r="F62" s="295"/>
+      <c r="G62" s="295"/>
+      <c r="H62" s="295"/>
+      <c r="I62" s="295"/>
+      <c r="J62" s="295"/>
+      <c r="K62" s="295"/>
+      <c r="L62" s="295"/>
+      <c r="M62" s="295"/>
+      <c r="N62" s="295"/>
+      <c r="O62" s="295"/>
+      <c r="P62" s="295"/>
+      <c r="Q62" s="296"/>
+      <c r="R62" s="281"/>
+      <c r="S62" s="281"/>
+      <c r="T62" s="283"/>
+      <c r="U62" s="283"/>
+      <c r="V62" s="293"/>
+      <c r="W62" s="293"/>
+      <c r="X62" s="293"/>
+      <c r="Y62" s="293"/>
+      <c r="Z62" s="293"/>
+      <c r="AA62" s="293"/>
+      <c r="AB62" s="293"/>
+      <c r="AC62" s="293"/>
+      <c r="AD62" s="293"/>
+      <c r="AE62" s="293"/>
+      <c r="AF62" s="293"/>
+      <c r="AG62" s="293"/>
+      <c r="AH62" s="293"/>
+      <c r="AI62" s="293"/>
+      <c r="AJ62" s="293"/>
+      <c r="AK62" s="293"/>
+      <c r="AL62" s="293"/>
+      <c r="AM62" s="293"/>
+    </row>
+    <row r="63" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="302"/>
+      <c r="B63" s="303"/>
+      <c r="C63" s="294"/>
+      <c r="D63" s="295"/>
+      <c r="E63" s="295"/>
+      <c r="F63" s="295"/>
+      <c r="G63" s="295"/>
+      <c r="H63" s="295"/>
+      <c r="I63" s="295"/>
+      <c r="J63" s="295"/>
+      <c r="K63" s="295"/>
+      <c r="L63" s="295"/>
+      <c r="M63" s="295"/>
+      <c r="N63" s="295"/>
+      <c r="O63" s="295"/>
+      <c r="P63" s="295"/>
+      <c r="Q63" s="296"/>
+      <c r="R63" s="281"/>
+      <c r="S63" s="281"/>
+      <c r="T63" s="283"/>
+      <c r="U63" s="283"/>
+      <c r="V63" s="293"/>
+      <c r="W63" s="293"/>
+      <c r="X63" s="293"/>
+      <c r="Y63" s="293"/>
+      <c r="Z63" s="293"/>
+      <c r="AA63" s="293"/>
+      <c r="AB63" s="293"/>
+      <c r="AC63" s="293"/>
+      <c r="AD63" s="293"/>
+      <c r="AE63" s="293"/>
+      <c r="AF63" s="293"/>
+      <c r="AG63" s="293"/>
+      <c r="AH63" s="293"/>
+      <c r="AI63" s="293"/>
+      <c r="AJ63" s="293"/>
+      <c r="AK63" s="293"/>
+      <c r="AL63" s="293"/>
+      <c r="AM63" s="293"/>
+    </row>
+    <row r="64" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="302"/>
+      <c r="B64" s="303"/>
+      <c r="C64" s="294"/>
+      <c r="D64" s="295"/>
+      <c r="E64" s="295"/>
+      <c r="F64" s="295"/>
+      <c r="G64" s="295"/>
+      <c r="H64" s="295"/>
+      <c r="I64" s="295"/>
+      <c r="J64" s="295"/>
+      <c r="K64" s="295"/>
+      <c r="L64" s="295"/>
+      <c r="M64" s="295"/>
+      <c r="N64" s="295"/>
+      <c r="O64" s="295"/>
+      <c r="P64" s="295"/>
+      <c r="Q64" s="296"/>
+      <c r="R64" s="281"/>
+      <c r="S64" s="281"/>
+      <c r="T64" s="283"/>
+      <c r="U64" s="283"/>
+      <c r="V64" s="293"/>
+      <c r="W64" s="293"/>
+      <c r="X64" s="293"/>
+      <c r="Y64" s="293"/>
+      <c r="Z64" s="293"/>
+      <c r="AA64" s="293"/>
+      <c r="AB64" s="293"/>
+      <c r="AC64" s="293"/>
+      <c r="AD64" s="293"/>
+      <c r="AE64" s="293"/>
+      <c r="AF64" s="293"/>
+      <c r="AG64" s="293"/>
+      <c r="AH64" s="293"/>
+      <c r="AI64" s="293"/>
+      <c r="AJ64" s="293"/>
+      <c r="AK64" s="293"/>
+      <c r="AL64" s="293"/>
+      <c r="AM64" s="293"/>
+    </row>
+    <row r="65" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="302"/>
+      <c r="B65" s="303"/>
+      <c r="C65" s="294"/>
+      <c r="D65" s="295"/>
+      <c r="E65" s="295"/>
+      <c r="F65" s="295"/>
+      <c r="G65" s="295"/>
+      <c r="H65" s="295"/>
+      <c r="I65" s="295"/>
+      <c r="J65" s="295"/>
+      <c r="K65" s="295"/>
+      <c r="L65" s="295"/>
+      <c r="M65" s="295"/>
+      <c r="N65" s="295"/>
+      <c r="O65" s="295"/>
+      <c r="P65" s="295"/>
+      <c r="Q65" s="296"/>
+      <c r="R65" s="281"/>
+      <c r="S65" s="281"/>
+      <c r="T65" s="283"/>
+      <c r="U65" s="283"/>
+      <c r="V65" s="293"/>
+      <c r="W65" s="293"/>
+      <c r="X65" s="293"/>
+      <c r="Y65" s="293"/>
+      <c r="Z65" s="293"/>
+      <c r="AA65" s="293"/>
+      <c r="AB65" s="293"/>
+      <c r="AC65" s="293"/>
+      <c r="AD65" s="293"/>
+      <c r="AE65" s="293"/>
+      <c r="AF65" s="293"/>
+      <c r="AG65" s="293"/>
+      <c r="AH65" s="293"/>
+      <c r="AI65" s="293"/>
+      <c r="AJ65" s="293"/>
+      <c r="AK65" s="293"/>
+      <c r="AL65" s="293"/>
+      <c r="AM65" s="293"/>
+    </row>
+    <row r="66" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="302"/>
+      <c r="B66" s="303"/>
+      <c r="C66" s="294"/>
+      <c r="D66" s="295"/>
+      <c r="E66" s="295"/>
+      <c r="F66" s="295"/>
+      <c r="G66" s="295"/>
+      <c r="H66" s="295"/>
+      <c r="I66" s="295"/>
+      <c r="J66" s="295"/>
+      <c r="K66" s="295"/>
+      <c r="L66" s="295"/>
+      <c r="M66" s="295"/>
+      <c r="N66" s="295"/>
+      <c r="O66" s="295"/>
+      <c r="P66" s="295"/>
+      <c r="Q66" s="296"/>
+      <c r="R66" s="281"/>
+      <c r="S66" s="281"/>
+      <c r="T66" s="283"/>
+      <c r="U66" s="283"/>
+      <c r="V66" s="293"/>
+      <c r="W66" s="293"/>
+      <c r="X66" s="293"/>
+      <c r="Y66" s="293"/>
+      <c r="Z66" s="293"/>
+      <c r="AA66" s="293"/>
+      <c r="AB66" s="293"/>
+      <c r="AC66" s="293"/>
+      <c r="AD66" s="293"/>
+      <c r="AE66" s="293"/>
+      <c r="AF66" s="293"/>
+      <c r="AG66" s="293"/>
+      <c r="AH66" s="293"/>
+      <c r="AI66" s="293"/>
+      <c r="AJ66" s="293"/>
+      <c r="AK66" s="293"/>
+      <c r="AL66" s="293"/>
+      <c r="AM66" s="293"/>
+    </row>
+    <row r="67" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="304"/>
+      <c r="B67" s="305"/>
+      <c r="C67" s="297"/>
+      <c r="D67" s="298"/>
+      <c r="E67" s="298"/>
+      <c r="F67" s="298"/>
+      <c r="G67" s="298"/>
+      <c r="H67" s="298"/>
+      <c r="I67" s="298"/>
+      <c r="J67" s="298"/>
+      <c r="K67" s="298"/>
+      <c r="L67" s="298"/>
+      <c r="M67" s="298"/>
+      <c r="N67" s="298"/>
+      <c r="O67" s="298"/>
+      <c r="P67" s="298"/>
+      <c r="Q67" s="299"/>
+      <c r="R67" s="281"/>
+      <c r="S67" s="281"/>
+      <c r="T67" s="283"/>
+      <c r="U67" s="283"/>
+      <c r="V67" s="293"/>
+      <c r="W67" s="293"/>
+      <c r="X67" s="293"/>
+      <c r="Y67" s="293"/>
+      <c r="Z67" s="293"/>
+      <c r="AA67" s="293"/>
+      <c r="AB67" s="293"/>
+      <c r="AC67" s="293"/>
+      <c r="AD67" s="293"/>
+      <c r="AE67" s="293"/>
+      <c r="AF67" s="293"/>
+      <c r="AG67" s="293"/>
+      <c r="AH67" s="293"/>
+      <c r="AI67" s="293"/>
+      <c r="AJ67" s="293"/>
+      <c r="AK67" s="293"/>
+      <c r="AL67" s="293"/>
+      <c r="AM67" s="293"/>
+    </row>
   </sheetData>
-  <mergeCells count="264">
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AR26:AV26"/>
-    <mergeCell ref="AO21:AS21"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="AT22:AV22"/>
-    <mergeCell ref="AR25:AV25"/>
-    <mergeCell ref="AJ42:AM44"/>
-    <mergeCell ref="AF46:AI46"/>
-    <mergeCell ref="AG38:AM38"/>
-    <mergeCell ref="AF50:AI50"/>
-    <mergeCell ref="AJ50:AM50"/>
-    <mergeCell ref="Z34:AF34"/>
-    <mergeCell ref="Z36:AF36"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="AG36:AM36"/>
-    <mergeCell ref="AG34:AM34"/>
-    <mergeCell ref="Z35:AF35"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AW21:AY21"/>
-    <mergeCell ref="AW22:AY22"/>
-    <mergeCell ref="Z33:AF33"/>
-    <mergeCell ref="AG32:AM32"/>
-    <mergeCell ref="Z29:AF29"/>
-    <mergeCell ref="AG27:AM27"/>
-    <mergeCell ref="AG26:AM26"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AG22:AM22"/>
-    <mergeCell ref="Z28:AF28"/>
-    <mergeCell ref="AG28:AM28"/>
-    <mergeCell ref="Z27:AF27"/>
-    <mergeCell ref="Z26:AF26"/>
-    <mergeCell ref="AG24:AM24"/>
-    <mergeCell ref="AG30:AM30"/>
-    <mergeCell ref="AG29:AM29"/>
-    <mergeCell ref="AG31:AM31"/>
-    <mergeCell ref="AG33:AM33"/>
-    <mergeCell ref="AO24:AV24"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AR31:AV31"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="AG23:AM23"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z14:AI14"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG19:AM19"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="Z7:AM7"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AG21:AM21"/>
-    <mergeCell ref="AG16:AM16"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="AG8:AM8"/>
-    <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AJ3:AM6"/>
+  <mergeCells count="292">
+    <mergeCell ref="A60:B67"/>
+    <mergeCell ref="C60:Q67"/>
+    <mergeCell ref="T60:U67"/>
+    <mergeCell ref="V60:AM67"/>
+    <mergeCell ref="AC47:AM48"/>
+    <mergeCell ref="R47:AA48"/>
+    <mergeCell ref="AB47:AB48"/>
+    <mergeCell ref="R54:AA54"/>
+    <mergeCell ref="AC54:AM54"/>
+    <mergeCell ref="R55:AA55"/>
+    <mergeCell ref="AC55:AM55"/>
+    <mergeCell ref="R56:AA56"/>
+    <mergeCell ref="AC56:AM56"/>
+    <mergeCell ref="R57:AA57"/>
+    <mergeCell ref="AC57:AM57"/>
+    <mergeCell ref="R58:AA58"/>
+    <mergeCell ref="AC58:AM58"/>
+    <mergeCell ref="A47:C58"/>
+    <mergeCell ref="D47:J53"/>
+    <mergeCell ref="K47:Q48"/>
+    <mergeCell ref="K49:Q50"/>
+    <mergeCell ref="R49:AM50"/>
+    <mergeCell ref="K51:Q52"/>
+    <mergeCell ref="R51:AM52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:AM53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="D57:J58"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="AG39:AM39"/>
+    <mergeCell ref="AO18:AS18"/>
+    <mergeCell ref="AO19:AS19"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AR30:AV30"/>
+    <mergeCell ref="Z38:AF38"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AM10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="AG37:AM37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="T32:U39"/>
+    <mergeCell ref="AG35:AM35"/>
+    <mergeCell ref="Z32:AF32"/>
+    <mergeCell ref="Z31:AF31"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="AO29:AV29"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G15:Q15"/>
+    <mergeCell ref="T24:U31"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="G27:Q27"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="Z4:AI4"/>
+    <mergeCell ref="Z5:AI5"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="A32:B39"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="G37:Q37"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G36:Q36"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:Q46"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="G28:Q28"/>
+    <mergeCell ref="G19:Q19"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:B31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="X44:AA44"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="AG20:AM20"/>
+    <mergeCell ref="AJ13:AM15"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="Z15:AI15"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="T18:U23"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AG18:AM18"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG25:AM25"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="Z24:AF24"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AF25"/>
+    <mergeCell ref="G24:Q24"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="O7:Q7"/>
@@ -8679,179 +9796,69 @@
     <mergeCell ref="G18:Q18"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J23:M23"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="Z24:AF24"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z30:AF30"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AF25"/>
-    <mergeCell ref="G24:Q24"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="AG20:AM20"/>
-    <mergeCell ref="AJ13:AM15"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="Z15:AI15"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="T18:U23"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="AG18:AM18"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG25:AM25"/>
-    <mergeCell ref="AJ46:AM46"/>
-    <mergeCell ref="X46:AA46"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AB46:AE46"/>
-    <mergeCell ref="X44:AA44"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:B31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G39:Q39"/>
-    <mergeCell ref="G28:Q28"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A46:B53"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C46:Q53"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="A32:B39"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G36:Q36"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="AO29:AV29"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G15:Q15"/>
-    <mergeCell ref="T24:U31"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="G27:Q27"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="Z4:AI4"/>
-    <mergeCell ref="Z5:AI5"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="AG37:AM37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="T32:U39"/>
-    <mergeCell ref="AG35:AM35"/>
-    <mergeCell ref="Z32:AF32"/>
-    <mergeCell ref="Z31:AF31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="AG39:AM39"/>
-    <mergeCell ref="AO18:AS18"/>
-    <mergeCell ref="AO19:AS19"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AR30:AV30"/>
-    <mergeCell ref="Z38:AF38"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AM10"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="AG23:AM23"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z14:AI14"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG19:AM19"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z7:AM7"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AG21:AM21"/>
+    <mergeCell ref="AG16:AM16"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AG8:AM8"/>
+    <mergeCell ref="Z3:AI3"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AJ3:AM6"/>
+    <mergeCell ref="AW21:AY21"/>
+    <mergeCell ref="AW22:AY22"/>
+    <mergeCell ref="Z33:AF33"/>
+    <mergeCell ref="AG32:AM32"/>
+    <mergeCell ref="Z29:AF29"/>
+    <mergeCell ref="AG27:AM27"/>
+    <mergeCell ref="AG26:AM26"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AG22:AM22"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="AG28:AM28"/>
+    <mergeCell ref="Z27:AF27"/>
+    <mergeCell ref="Z26:AF26"/>
+    <mergeCell ref="AG24:AM24"/>
+    <mergeCell ref="AG30:AM30"/>
+    <mergeCell ref="AG29:AM29"/>
+    <mergeCell ref="AG31:AM31"/>
+    <mergeCell ref="AG33:AM33"/>
+    <mergeCell ref="AO24:AV24"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AR31:AV31"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="AR26:AV26"/>
+    <mergeCell ref="AO21:AS21"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="AT22:AV22"/>
+    <mergeCell ref="AR25:AV25"/>
+    <mergeCell ref="AJ42:AM44"/>
+    <mergeCell ref="AG38:AM38"/>
+    <mergeCell ref="Z34:AF34"/>
+    <mergeCell ref="Z36:AF36"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="AG36:AM36"/>
+    <mergeCell ref="AG34:AM34"/>
+    <mergeCell ref="Z35:AF35"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AA42:AC42"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Z8:AE8">

--- a/excel/contrcat_10102.xlsx
+++ b/excel/contrcat_10102.xlsx
@@ -284,13 +284,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>寺西COO</t>
-    <rPh sb="0" eb="2">
-      <t>テラニシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>月次</t>
     <rPh sb="0" eb="2">
       <t>ゲツジ</t>
@@ -1181,6 +1174,16 @@
   </si>
   <si>
     <t>・</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理本部</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホンブ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2256,899 +2259,899 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5928,8 +5931,8 @@
   </sheetPr>
   <dimension ref="A1:BN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:Q20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ42" sqref="AJ42:AM44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5946,121 +5949,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="278" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="278"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
-      <c r="N1" s="278"/>
-      <c r="O1" s="278"/>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="278"/>
-      <c r="S1" s="278"/>
-      <c r="T1" s="278"/>
-      <c r="U1" s="278"/>
-      <c r="V1" s="278"/>
-      <c r="W1" s="278"/>
-      <c r="X1" s="278"/>
-      <c r="Y1" s="278"/>
-      <c r="Z1" s="278"/>
-      <c r="AA1" s="278"/>
-      <c r="AB1" s="278"/>
-      <c r="AC1" s="278"/>
-      <c r="AD1" s="278"/>
-      <c r="AE1" s="278"/>
-      <c r="AF1" s="278"/>
-      <c r="AG1" s="278"/>
-      <c r="AH1" s="278"/>
-      <c r="AI1" s="278"/>
-      <c r="AJ1" s="278"/>
-      <c r="AK1" s="278"/>
-      <c r="AL1" s="278"/>
-      <c r="AM1" s="278"/>
-      <c r="AX1" s="264" t="s">
+      <c r="A1" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" s="264"/>
-      <c r="AZ1" s="264"/>
-      <c r="BA1" s="264"/>
-      <c r="BB1" s="264"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AX1" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
       <c r="BC1" s="13"/>
-      <c r="BD1" s="264" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE1" s="264"/>
-      <c r="BF1" s="264"/>
-      <c r="BG1" s="264"/>
-      <c r="BH1" s="264"/>
-      <c r="BJ1" s="264" t="s">
+      <c r="BD1" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="BK1" s="264"/>
-      <c r="BL1" s="264"/>
-      <c r="BM1" s="264"/>
-      <c r="BN1" s="264"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BJ1" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="126"/>
-      <c r="T2" s="72" t="s">
+      <c r="A2" s="285" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="73" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="287"/>
+      <c r="T2" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="44" t="s">
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="46"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="76"/>
       <c r="AX2" s="16"/>
       <c r="AY2" s="17"/>
       <c r="AZ2" s="17"/>
       <c r="BA2" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BB2" s="19" t="e">
         <f>ROUNDDOWN(G19/G21,0)</f>
@@ -6070,7 +6073,7 @@
       <c r="BE2" s="17"/>
       <c r="BF2" s="17"/>
       <c r="BG2" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BH2" s="19" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),0)</f>
@@ -6080,7 +6083,7 @@
       <c r="BK2" s="17"/>
       <c r="BL2" s="17"/>
       <c r="BM2" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BN2" s="19" t="e">
         <f>ROUNDDOWN((AG19/AG21),0)</f>
@@ -6088,52 +6091,52 @@
       </c>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108"/>
-      <c r="T3" s="95" t="s">
+      <c r="A3" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="37"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="168"/>
+      <c r="T3" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="311"/>
+      <c r="AA3" s="311"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="311"/>
+      <c r="AD3" s="311"/>
+      <c r="AE3" s="311"/>
+      <c r="AF3" s="311"/>
+      <c r="AG3" s="311"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="312"/>
+      <c r="AJ3" s="313"/>
+      <c r="AK3" s="314"/>
+      <c r="AL3" s="314"/>
+      <c r="AM3" s="315"/>
       <c r="AX3" s="20"/>
       <c r="AY3" s="21"/>
       <c r="AZ3" s="21"/>
       <c r="BA3" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BB3" s="23" t="e">
         <f>ROUNDDOWN(G19/G21,-1)</f>
@@ -6143,7 +6146,7 @@
       <c r="BE3" s="21"/>
       <c r="BF3" s="21"/>
       <c r="BG3" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BH3" s="23" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),-1)</f>
@@ -6153,7 +6156,7 @@
       <c r="BK3" s="21"/>
       <c r="BL3" s="21"/>
       <c r="BM3" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BN3" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG21),-1)</f>
@@ -6161,52 +6164,52 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="130"/>
-      <c r="T4" s="77" t="s">
+      <c r="A4" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="258"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="40"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="111"/>
+      <c r="T4" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="316"/>
+      <c r="AK4" s="317"/>
+      <c r="AL4" s="317"/>
+      <c r="AM4" s="318"/>
       <c r="AX4" s="20"/>
       <c r="AY4" s="21"/>
       <c r="AZ4" s="21"/>
       <c r="BA4" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BB4" s="23" t="e">
         <f>ROUNDDOWN(G19/G21,-2)</f>
@@ -6216,7 +6219,7 @@
       <c r="BE4" s="21"/>
       <c r="BF4" s="21"/>
       <c r="BG4" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BH4" s="23" t="e">
         <f>ROUNDDOWN((G19/G21)*(AJ13/100),-2)</f>
@@ -6226,7 +6229,7 @@
       <c r="BK4" s="21"/>
       <c r="BL4" s="21"/>
       <c r="BM4" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BN4" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG21),-2)</f>
@@ -6234,48 +6237,48 @@
       </c>
     </row>
     <row r="5" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="130"/>
+      <c r="A5" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="147"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="111"/>
       <c r="R5" s="3"/>
-      <c r="T5" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="259"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="40"/>
+      <c r="T5" s="205" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="185"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="185"/>
+      <c r="AG5" s="185"/>
+      <c r="AH5" s="185"/>
+      <c r="AI5" s="186"/>
+      <c r="AJ5" s="316"/>
+      <c r="AK5" s="317"/>
+      <c r="AL5" s="317"/>
+      <c r="AM5" s="318"/>
       <c r="AX5" s="20"/>
       <c r="AY5" s="21"/>
       <c r="AZ5" s="21"/>
@@ -6293,48 +6296,48 @@
       <c r="BN5" s="23"/>
     </row>
     <row r="6" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="117"/>
+      <c r="A6" s="276" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="277"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="160"/>
       <c r="R6" s="3"/>
-      <c r="T6" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="43"/>
+      <c r="T6" s="282" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" s="283"/>
+      <c r="V6" s="283"/>
+      <c r="W6" s="283"/>
+      <c r="X6" s="283"/>
+      <c r="Y6" s="283"/>
+      <c r="Z6" s="283"/>
+      <c r="AA6" s="283"/>
+      <c r="AB6" s="283"/>
+      <c r="AC6" s="283"/>
+      <c r="AD6" s="283"/>
+      <c r="AE6" s="283"/>
+      <c r="AF6" s="283"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="283"/>
+      <c r="AI6" s="284"/>
+      <c r="AJ6" s="319"/>
+      <c r="AK6" s="320"/>
+      <c r="AL6" s="320"/>
+      <c r="AM6" s="321"/>
       <c r="AX6" s="20"/>
       <c r="AY6" s="21"/>
       <c r="AZ6" s="21"/>
@@ -6352,55 +6355,55 @@
       <c r="BN6" s="23"/>
     </row>
     <row r="7" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="86" t="s">
+      <c r="A7" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="234" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="235"/>
-      <c r="N7" s="236"/>
-      <c r="O7" s="112">
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="272" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="274"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="151"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="278">
         <f>I7-D7-O8</f>
         <v>0</v>
       </c>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="114"/>
+      <c r="P7" s="279"/>
+      <c r="Q7" s="280"/>
       <c r="R7" s="3"/>
-      <c r="T7" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="100"/>
+      <c r="T7" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="308"/>
+      <c r="AA7" s="309"/>
+      <c r="AB7" s="309"/>
+      <c r="AC7" s="309"/>
+      <c r="AD7" s="309"/>
+      <c r="AE7" s="309"/>
+      <c r="AF7" s="309"/>
+      <c r="AG7" s="309"/>
+      <c r="AH7" s="309"/>
+      <c r="AI7" s="309"/>
+      <c r="AJ7" s="309"/>
+      <c r="AK7" s="309"/>
+      <c r="AL7" s="309"/>
+      <c r="AM7" s="310"/>
       <c r="AX7" s="20"/>
       <c r="AY7" s="21"/>
       <c r="AZ7" s="21"/>
@@ -6418,57 +6421,57 @@
       <c r="BN7" s="23"/>
     </row>
     <row r="8" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="84" t="s">
+      <c r="A8" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="240" t="s">
+      <c r="B8" s="185"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="241"/>
-      <c r="N8" s="242"/>
-      <c r="O8" s="243">
+      <c r="H8" s="173"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="164" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="165"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="169">
         <f>I8-D8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="245"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
       <c r="R8" s="3"/>
-      <c r="T8" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
+      <c r="T8" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="303"/>
+      <c r="V8" s="303"/>
+      <c r="W8" s="303"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="303"/>
+      <c r="Z8" s="205"/>
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185"/>
+      <c r="AE8" s="185"/>
       <c r="AF8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="103"/>
+        <v>56</v>
+      </c>
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185"/>
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="185"/>
+      <c r="AK8" s="185"/>
+      <c r="AL8" s="185"/>
+      <c r="AM8" s="186"/>
       <c r="AR8" s="3"/>
       <c r="AX8" s="20"/>
       <c r="AY8" s="21"/>
@@ -6509,51 +6512,51 @@
       <c r="BN9" s="23"/>
     </row>
     <row r="10" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="108"/>
+      <c r="A10" s="229" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="168"/>
       <c r="R10" s="3"/>
-      <c r="T10" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="185">
+      <c r="T10" s="272" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="273"/>
+      <c r="V10" s="273"/>
+      <c r="W10" s="273"/>
+      <c r="X10" s="273"/>
+      <c r="Y10" s="274"/>
+      <c r="Z10" s="112">
         <f>Z8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="186"/>
-      <c r="AH10" s="186"/>
-      <c r="AI10" s="186"/>
-      <c r="AJ10" s="186"/>
-      <c r="AK10" s="186"/>
-      <c r="AL10" s="186"/>
-      <c r="AM10" s="277"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="114"/>
       <c r="AR10" s="3"/>
       <c r="AX10" s="20"/>
       <c r="AY10" s="21"/>
@@ -6572,58 +6575,58 @@
       <c r="BN10" s="23"/>
     </row>
     <row r="11" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="130"/>
+      <c r="A11" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="111"/>
       <c r="R11" s="3"/>
-      <c r="T11" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="128" t="s">
+      <c r="T11" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="270" t="s">
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="273"/>
-      <c r="AF11" s="274"/>
-      <c r="AG11" s="274"/>
-      <c r="AH11" s="274"/>
-      <c r="AI11" s="274"/>
-      <c r="AJ11" s="275"/>
-      <c r="AK11" s="275"/>
-      <c r="AL11" s="275"/>
-      <c r="AM11" s="276"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="107"/>
+      <c r="AI11" s="107"/>
+      <c r="AJ11" s="108"/>
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="109"/>
       <c r="AR11" s="3"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="21"/>
       <c r="AZ11" s="21"/>
       <c r="BA11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BB11" s="23" t="e">
         <f>ROUNDDOWN(G19/G20,0)</f>
@@ -6633,7 +6636,7 @@
       <c r="BE11" s="21"/>
       <c r="BF11" s="21"/>
       <c r="BG11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BH11" s="23" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),0)</f>
@@ -6643,7 +6646,7 @@
       <c r="BK11" s="21"/>
       <c r="BL11" s="21"/>
       <c r="BM11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BN11" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG20),0)</f>
@@ -6651,56 +6654,56 @@
       </c>
     </row>
     <row r="12" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="128" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="117"/>
+      <c r="A12" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="160"/>
       <c r="R12" s="3"/>
-      <c r="T12" s="175" t="s">
-        <v>48</v>
-      </c>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="176"/>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="178" t="s">
+      <c r="T12" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="179"/>
-      <c r="AL12" s="179"/>
-      <c r="AM12" s="180"/>
+      <c r="U12" s="245"/>
+      <c r="V12" s="245"/>
+      <c r="W12" s="245"/>
+      <c r="X12" s="245"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="233"/>
+      <c r="AA12" s="234"/>
+      <c r="AB12" s="234"/>
+      <c r="AC12" s="234"/>
+      <c r="AD12" s="234"/>
+      <c r="AE12" s="234"/>
+      <c r="AF12" s="234"/>
+      <c r="AG12" s="234"/>
+      <c r="AH12" s="234"/>
+      <c r="AI12" s="235"/>
+      <c r="AJ12" s="253" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK12" s="254"/>
+      <c r="AL12" s="254"/>
+      <c r="AM12" s="255"/>
       <c r="AR12" s="11"/>
       <c r="AX12" s="20"/>
       <c r="AY12" s="21"/>
       <c r="AZ12" s="21"/>
       <c r="BA12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BB12" s="23" t="e">
         <f>ROUNDDOWN(G19/G20,-1)</f>
@@ -6710,7 +6713,7 @@
       <c r="BE12" s="21"/>
       <c r="BF12" s="21"/>
       <c r="BG12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BH12" s="23" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),-1)</f>
@@ -6720,7 +6723,7 @@
       <c r="BK12" s="21"/>
       <c r="BL12" s="21"/>
       <c r="BM12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BN12" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG20),-1)</f>
@@ -6728,64 +6731,64 @@
       </c>
     </row>
     <row r="13" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="130"/>
+      <c r="A13" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="111"/>
       <c r="R13" s="3"/>
-      <c r="T13" s="158" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="159"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="185" t="str">
+      <c r="T13" s="250" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="251"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="112" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="186"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="226" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC13" s="269"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="95" t="str">
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="248"/>
+      <c r="AA13" s="249"/>
+      <c r="AB13" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="247" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="167">
+      <c r="AF13" s="248"/>
+      <c r="AG13" s="248"/>
+      <c r="AH13" s="248"/>
+      <c r="AI13" s="249"/>
+      <c r="AJ13" s="236">
         <v>80</v>
       </c>
-      <c r="AK13" s="168"/>
-      <c r="AL13" s="168"/>
-      <c r="AM13" s="169"/>
+      <c r="AK13" s="237"/>
+      <c r="AL13" s="237"/>
+      <c r="AM13" s="238"/>
       <c r="AR13" s="3"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="21"/>
       <c r="AZ13" s="21"/>
       <c r="BA13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BB13" s="23" t="e">
         <f>ROUNDDOWN(G19/G20,-2)</f>
@@ -6795,7 +6798,7 @@
       <c r="BE13" s="21"/>
       <c r="BF13" s="21"/>
       <c r="BG13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BH13" s="23" t="e">
         <f>ROUNDDOWN((G19/G20)*(AJ13/100),-2)</f>
@@ -6805,7 +6808,7 @@
       <c r="BK13" s="21"/>
       <c r="BL13" s="21"/>
       <c r="BM13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BN13" s="23" t="e">
         <f>ROUNDDOWN((AG19/AG20),-2)</f>
@@ -6813,51 +6816,51 @@
       </c>
     </row>
     <row r="14" spans="1:66" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
+      <c r="A14" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="157"/>
       <c r="R14" s="3"/>
-      <c r="T14" s="196" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="189"/>
-      <c r="Z14" s="89" t="str">
+      <c r="T14" s="270" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
+      <c r="W14" s="261"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="262"/>
+      <c r="Z14" s="305" t="str">
         <f>IF(G15&lt;&gt;"",G15,"")</f>
         <v/>
       </c>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="170"/>
-      <c r="AL14" s="170"/>
-      <c r="AM14" s="171"/>
+      <c r="AA14" s="306"/>
+      <c r="AB14" s="306"/>
+      <c r="AC14" s="306"/>
+      <c r="AD14" s="306"/>
+      <c r="AE14" s="306"/>
+      <c r="AF14" s="306"/>
+      <c r="AG14" s="306"/>
+      <c r="AH14" s="306"/>
+      <c r="AI14" s="307"/>
+      <c r="AJ14" s="236"/>
+      <c r="AK14" s="239"/>
+      <c r="AL14" s="239"/>
+      <c r="AM14" s="240"/>
       <c r="AR14" s="3"/>
       <c r="AX14" s="24"/>
       <c r="AY14" s="25"/>
@@ -6876,100 +6879,100 @@
       <c r="BN14" s="26"/>
     </row>
     <row r="15" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="247"/>
-      <c r="N15" s="247"/>
-      <c r="O15" s="247"/>
-      <c r="P15" s="247"/>
-      <c r="Q15" s="248"/>
+      <c r="A15" s="189" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="176"/>
       <c r="R15" s="3"/>
-      <c r="T15" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="181" t="str">
+      <c r="T15" s="172" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="303"/>
+      <c r="V15" s="303"/>
+      <c r="W15" s="303"/>
+      <c r="X15" s="303"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="256" t="str">
         <f>IF(G16&lt;&gt;"",G16,"")</f>
         <v/>
       </c>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="182"/>
-      <c r="AE15" s="182"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
-      <c r="AJ15" s="172"/>
-      <c r="AK15" s="173"/>
-      <c r="AL15" s="173"/>
-      <c r="AM15" s="174"/>
+      <c r="AA15" s="257"/>
+      <c r="AB15" s="257"/>
+      <c r="AC15" s="257"/>
+      <c r="AD15" s="257"/>
+      <c r="AE15" s="257"/>
+      <c r="AF15" s="257"/>
+      <c r="AG15" s="257"/>
+      <c r="AH15" s="257"/>
+      <c r="AI15" s="258"/>
+      <c r="AJ15" s="241"/>
+      <c r="AK15" s="242"/>
+      <c r="AL15" s="242"/>
+      <c r="AM15" s="243"/>
       <c r="AR15" s="10"/>
     </row>
     <row r="16" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="225"/>
+      <c r="A16" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="212"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="212"/>
+      <c r="O16" s="212"/>
+      <c r="P16" s="212"/>
+      <c r="Q16" s="213"/>
       <c r="R16" s="3"/>
-      <c r="T16" s="255" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" s="256"/>
-      <c r="V16" s="256"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="257"/>
-      <c r="Z16" s="101" t="s">
+      <c r="T16" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101" t="s">
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="178"/>
+      <c r="Y16" s="179"/>
+      <c r="Z16" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="101"/>
-      <c r="AJ16" s="101"/>
-      <c r="AK16" s="101"/>
-      <c r="AL16" s="101"/>
-      <c r="AM16" s="101"/>
+      <c r="AA16" s="271"/>
+      <c r="AB16" s="271"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="271"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="271" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" s="271"/>
+      <c r="AI16" s="271"/>
+      <c r="AJ16" s="271"/>
+      <c r="AK16" s="271"/>
+      <c r="AL16" s="271"/>
+      <c r="AM16" s="271"/>
       <c r="AR16" s="3"/>
     </row>
     <row r="17" spans="1:59" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7010,449 +7013,449 @@
       <c r="AR17" s="3"/>
     </row>
     <row r="18" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="136"/>
-      <c r="C18" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="74"/>
+      <c r="A18" s="288" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="289"/>
+      <c r="C18" s="214" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="128"/>
       <c r="R18" s="3"/>
-      <c r="T18" s="190" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" s="191"/>
-      <c r="V18" s="187" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="189"/>
-      <c r="Z18" s="184" t="str">
+      <c r="T18" s="263" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="264"/>
+      <c r="V18" s="260" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="261"/>
+      <c r="X18" s="261"/>
+      <c r="Y18" s="262"/>
+      <c r="Z18" s="259" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="184"/>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="184"/>
-      <c r="AG18" s="184" t="str">
+      <c r="AA18" s="259"/>
+      <c r="AB18" s="259"/>
+      <c r="AC18" s="259"/>
+      <c r="AD18" s="259"/>
+      <c r="AE18" s="259"/>
+      <c r="AF18" s="259"/>
+      <c r="AG18" s="259" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="184"/>
-      <c r="AJ18" s="184"/>
-      <c r="AK18" s="184"/>
-      <c r="AL18" s="184"/>
-      <c r="AM18" s="184"/>
+      <c r="AH18" s="259"/>
+      <c r="AI18" s="259"/>
+      <c r="AJ18" s="259"/>
+      <c r="AK18" s="259"/>
+      <c r="AL18" s="259"/>
+      <c r="AM18" s="259"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AX18" s="265"/>
-      <c r="AY18" s="266"/>
-      <c r="AZ18" s="266"/>
-      <c r="BA18" s="266"/>
-      <c r="BB18" s="266"/>
+      <c r="AO18" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="96"/>
+      <c r="AZ18" s="96"/>
+      <c r="BA18" s="96"/>
+      <c r="BB18" s="96"/>
     </row>
     <row r="19" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="137"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="211" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
+      <c r="A19" s="290"/>
+      <c r="B19" s="291"/>
+      <c r="C19" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="91"/>
       <c r="R19" s="3"/>
-      <c r="T19" s="192"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="93" t="str">
+      <c r="T19" s="265"/>
+      <c r="U19" s="266"/>
+      <c r="V19" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="187" t="str">
         <f>IF(G19&lt;&gt;"",G19*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="93" t="str">
+      <c r="AA19" s="188"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="188"/>
+      <c r="AD19" s="188"/>
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="188"/>
+      <c r="AG19" s="187" t="str">
         <f>IF(G19&lt;&gt;"",G19*(((AJ13-20)/100)),"")</f>
         <v/>
       </c>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="94"/>
+      <c r="AH19" s="188"/>
+      <c r="AI19" s="188"/>
+      <c r="AJ19" s="188"/>
+      <c r="AK19" s="188"/>
+      <c r="AL19" s="188"/>
+      <c r="AM19" s="188"/>
       <c r="AN19" s="7"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AX19" s="267"/>
-      <c r="AY19" s="268"/>
-      <c r="AZ19" s="268"/>
-      <c r="BA19" s="268"/>
-      <c r="BB19" s="268"/>
+      <c r="AO19" s="85"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AX19" s="97"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="98"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="98"/>
     </row>
     <row r="20" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="137"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="211" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
+      <c r="A20" s="290"/>
+      <c r="B20" s="291"/>
+      <c r="C20" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
       <c r="R20" s="3"/>
-      <c r="T20" s="192"/>
-      <c r="U20" s="193"/>
-      <c r="V20" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="92" t="str">
+      <c r="T20" s="265"/>
+      <c r="U20" s="266"/>
+      <c r="V20" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="99" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92" t="str">
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
       <c r="AN20" s="3"/>
       <c r="AR20" s="3"/>
     </row>
     <row r="21" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="137"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="79"/>
+      <c r="A21" s="290"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="117"/>
       <c r="R21" s="3"/>
-      <c r="T21" s="192"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="92" t="str">
+      <c r="T21" s="265"/>
+      <c r="U21" s="266"/>
+      <c r="V21" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="99" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="92" t="str">
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="92"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="31" t="s">
+      <c r="AO21" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31" t="s">
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
     </row>
     <row r="22" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="137"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="148"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="220" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="221"/>
-      <c r="L22" s="221"/>
-      <c r="M22" s="222"/>
-      <c r="N22" s="144" t="str">
+      <c r="A22" s="290"/>
+      <c r="B22" s="291"/>
+      <c r="C22" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="226" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="227"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="208" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="297" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BA11:BB14,2,FALSE))=FALSE,VLOOKUP(J22,BA11:BB14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="146"/>
+      <c r="O22" s="298"/>
+      <c r="P22" s="298"/>
+      <c r="Q22" s="299"/>
       <c r="R22" s="3"/>
-      <c r="T22" s="192"/>
-      <c r="U22" s="193"/>
-      <c r="V22" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="76" t="str">
+      <c r="T22" s="265"/>
+      <c r="U22" s="266"/>
+      <c r="V22" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="269" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BG11:BH14,2,FALSE))=FALSE,VLOOKUP(J22,BG11:BH14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76" t="str">
+      <c r="AA22" s="269"/>
+      <c r="AB22" s="269"/>
+      <c r="AC22" s="269"/>
+      <c r="AD22" s="269"/>
+      <c r="AE22" s="269"/>
+      <c r="AF22" s="269"/>
+      <c r="AG22" s="269" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BM11:BN14,2,FALSE))=FALSE,VLOOKUP(J22,BM11:BN14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="76"/>
+      <c r="AH22" s="269"/>
+      <c r="AI22" s="269"/>
+      <c r="AJ22" s="269"/>
+      <c r="AK22" s="269"/>
+      <c r="AL22" s="269"/>
+      <c r="AM22" s="269"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
+      <c r="AO22" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="324" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU22" s="324"/>
+      <c r="AV22" s="324"/>
+      <c r="AW22" s="322" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX22" s="322"/>
+      <c r="AY22" s="322"/>
     </row>
     <row r="23" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="139"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="148"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="141" t="str">
+      <c r="A23" s="292"/>
+      <c r="B23" s="293"/>
+      <c r="C23" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="226" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="227"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="300" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="302"/>
+      <c r="N23" s="294" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BA2:BB5,2,FALSE))=FALSE,VLOOKUP(J23,BA2:BB5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="143"/>
+      <c r="O23" s="295"/>
+      <c r="P23" s="295"/>
+      <c r="Q23" s="296"/>
       <c r="R23" s="3"/>
-      <c r="T23" s="194"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="81" t="str">
+      <c r="T23" s="267"/>
+      <c r="U23" s="268"/>
+      <c r="V23" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="304" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BG2:BH5,2,FALSE))=FALSE,VLOOKUP(J23,BG2:BH5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81" t="str">
+      <c r="AA23" s="304"/>
+      <c r="AB23" s="304"/>
+      <c r="AC23" s="304"/>
+      <c r="AD23" s="304"/>
+      <c r="AE23" s="304"/>
+      <c r="AF23" s="304"/>
+      <c r="AG23" s="304" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BM2:BN5,2,FALSE))=FALSE,VLOOKUP(J23,BM2:BN5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
+      <c r="AH23" s="304"/>
+      <c r="AI23" s="304"/>
+      <c r="AJ23" s="304"/>
+      <c r="AK23" s="304"/>
+      <c r="AL23" s="304"/>
+      <c r="AM23" s="304"/>
       <c r="AN23" s="7"/>
     </row>
     <row r="24" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="214" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="215"/>
-      <c r="C24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="74"/>
+      <c r="A24" s="192" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="193"/>
+      <c r="C24" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="128"/>
       <c r="R24" s="3"/>
-      <c r="T24" s="249" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="250"/>
-      <c r="V24" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="72" t="str">
+      <c r="T24" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" s="138"/>
+      <c r="V24" s="272" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" s="273"/>
+      <c r="X24" s="273"/>
+      <c r="Y24" s="274"/>
+      <c r="Z24" s="126" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="72" t="str">
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="126" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="74"/>
-      <c r="AO24" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="32"/>
+      <c r="AH24" s="127"/>
+      <c r="AI24" s="127"/>
+      <c r="AJ24" s="127"/>
+      <c r="AK24" s="127"/>
+      <c r="AL24" s="127"/>
+      <c r="AM24" s="128"/>
+      <c r="AO24" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="84"/>
       <c r="AW24" s="7"/>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
@@ -7466,67 +7469,67 @@
       <c r="BG24" s="7"/>
     </row>
     <row r="25" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="216"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
+      <c r="A25" s="194"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="157"/>
       <c r="R25" s="3"/>
-      <c r="T25" s="251"/>
-      <c r="U25" s="252"/>
-      <c r="V25" s="158" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="69" t="str">
+      <c r="T25" s="139"/>
+      <c r="U25" s="140"/>
+      <c r="V25" s="250" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="251"/>
+      <c r="X25" s="251"/>
+      <c r="Y25" s="252"/>
+      <c r="Z25" s="225" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="77" t="str">
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="156"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="115" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="78"/>
-      <c r="AM25" s="79"/>
-      <c r="AO25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP25" s="75"/>
-      <c r="AQ25" s="75"/>
-      <c r="AR25" s="35" t="str">
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="116"/>
+      <c r="AJ25" s="116"/>
+      <c r="AK25" s="116"/>
+      <c r="AL25" s="116"/>
+      <c r="AM25" s="117"/>
+      <c r="AO25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP25" s="87"/>
+      <c r="AQ25" s="87"/>
+      <c r="AR25" s="88" t="str">
         <f>IF(OR(G24="",G25=""),"",(G24/G25))</f>
         <v/>
       </c>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
+      <c r="AS25" s="88"/>
+      <c r="AT25" s="88"/>
+      <c r="AU25" s="88"/>
+      <c r="AV25" s="88"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
@@ -7540,64 +7543,64 @@
       <c r="BG25" s="3"/>
     </row>
     <row r="26" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="216"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="156" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="79"/>
+      <c r="A26" s="194"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="117"/>
       <c r="R26" s="3"/>
-      <c r="T26" s="251"/>
-      <c r="U26" s="252"/>
-      <c r="V26" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="50" t="str">
+      <c r="T26" s="139"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="132" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50" t="str">
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="132" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="50"/>
-      <c r="AO26" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="30"/>
-      <c r="AV26" s="30"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="132"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="132"/>
+      <c r="AO26" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP26" s="86"/>
+      <c r="AQ26" s="86"/>
+      <c r="AR26" s="323"/>
+      <c r="AS26" s="323"/>
+      <c r="AT26" s="323"/>
+      <c r="AU26" s="323"/>
+      <c r="AV26" s="323"/>
       <c r="AW26" s="7"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
@@ -7611,721 +7614,721 @@
       <c r="BG26" s="7"/>
     </row>
     <row r="27" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="216"/>
-      <c r="B27" s="217"/>
-      <c r="C27" s="211" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="212"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="47" t="str">
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="89" t="str">
         <f>IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G19*AR26,G19*AR25))</f>
         <v/>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="49"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
       <c r="R27" s="3"/>
-      <c r="T27" s="251"/>
-      <c r="U27" s="252"/>
-      <c r="V27" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="47" t="str">
+      <c r="T27" s="139"/>
+      <c r="U27" s="140"/>
+      <c r="V27" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="89" t="str">
         <f>IF(G27&lt;&gt;"",G27*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="47" t="str">
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="89" t="str">
         <f>IF(OR(AG24="",AR25=""),"",IF(AR26&lt;&gt;"",AG19*AR26,AG19*AR25))</f>
         <v/>
       </c>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="49"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="91"/>
       <c r="AO27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="216"/>
-      <c r="B28" s="217"/>
-      <c r="C28" s="211" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="77" t="str">
+      <c r="A28" s="194"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="115" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G20*AR26,G20*AR25))))</f>
         <v/>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="79"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="117"/>
       <c r="R28" s="3"/>
-      <c r="T28" s="251"/>
-      <c r="U28" s="252"/>
-      <c r="V28" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="50" t="str">
+      <c r="T28" s="139"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="132" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50" t="str">
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="132"/>
+      <c r="AG28" s="132" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="132"/>
+      <c r="AL28" s="132"/>
+      <c r="AM28" s="132"/>
     </row>
     <row r="29" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="216"/>
-      <c r="B29" s="217"/>
-      <c r="C29" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="212"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="77" t="str">
+      <c r="A29" s="194"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="115" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G21*AR26,G21*AR25))))</f>
         <v/>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="117"/>
       <c r="R29" s="3"/>
-      <c r="T29" s="251"/>
-      <c r="U29" s="252"/>
-      <c r="V29" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="50" t="str">
+      <c r="T29" s="139"/>
+      <c r="U29" s="140"/>
+      <c r="V29" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="132" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50" t="str">
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="132" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AO29" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="132"/>
+      <c r="AL29" s="132"/>
+      <c r="AM29" s="132"/>
+      <c r="AO29" s="149" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP29" s="84"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
     </row>
     <row r="30" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="216"/>
-      <c r="B30" s="217"/>
-      <c r="C30" s="211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="231" t="str">
+      <c r="A30" s="194"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="180" t="str">
         <f>IF(G24&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H30" s="232"/>
-      <c r="I30" s="232"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="232"/>
-      <c r="L30" s="232"/>
-      <c r="M30" s="232"/>
-      <c r="N30" s="232"/>
-      <c r="O30" s="232"/>
-      <c r="P30" s="232"/>
-      <c r="Q30" s="233"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182"/>
       <c r="R30" s="3"/>
-      <c r="T30" s="251"/>
-      <c r="U30" s="252"/>
-      <c r="V30" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="47" t="str">
+      <c r="T30" s="139"/>
+      <c r="U30" s="140"/>
+      <c r="V30" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="89" t="str">
         <f>IF(Z24&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="47" t="str">
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="89" t="str">
         <f>IF(AG24&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="49"/>
-      <c r="AO30" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP30" s="75"/>
-      <c r="AQ30" s="75"/>
-      <c r="AR30" s="35" t="str">
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="90"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="90"/>
+      <c r="AM30" s="91"/>
+      <c r="AO30" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="88" t="str">
         <f>IF(OR(G32="",G33=""),"",(G32/G33))</f>
         <v/>
       </c>
-      <c r="AS30" s="35"/>
-      <c r="AT30" s="35"/>
-      <c r="AU30" s="35"/>
-      <c r="AV30" s="35"/>
+      <c r="AS30" s="88"/>
+      <c r="AT30" s="88"/>
+      <c r="AU30" s="88"/>
+      <c r="AV30" s="88"/>
     </row>
     <row r="31" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="218"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="121" t="str">
+      <c r="A31" s="196"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="222" t="str">
         <f>IF(G24&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="123"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="223"/>
+      <c r="Q31" s="224"/>
       <c r="R31" s="3"/>
-      <c r="T31" s="253"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="54" t="str">
+      <c r="T31" s="141"/>
+      <c r="U31" s="142"/>
+      <c r="V31" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="80" t="str">
         <f>IF(Z24&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="54" t="str">
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="80" t="str">
         <f>IF(AG24&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="56"/>
-      <c r="AO31" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP31" s="29"/>
-      <c r="AQ31" s="29"/>
-      <c r="AR31" s="30"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="30"/>
-      <c r="AV31" s="30"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="82"/>
+      <c r="AO31" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP31" s="86"/>
+      <c r="AQ31" s="86"/>
+      <c r="AR31" s="323"/>
+      <c r="AS31" s="323"/>
+      <c r="AT31" s="323"/>
+      <c r="AU31" s="323"/>
+      <c r="AV31" s="323"/>
     </row>
     <row r="32" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="214" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="215"/>
-      <c r="C32" s="72" t="s">
+      <c r="A32" s="192" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="74"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="128"/>
       <c r="R32" s="3"/>
-      <c r="T32" s="249" t="s">
-        <v>25</v>
-      </c>
-      <c r="U32" s="250"/>
-      <c r="V32" s="86" t="s">
+      <c r="T32" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="72" t="str">
+      <c r="U32" s="138"/>
+      <c r="V32" s="272" t="s">
+        <v>23</v>
+      </c>
+      <c r="W32" s="273"/>
+      <c r="X32" s="273"/>
+      <c r="Y32" s="274"/>
+      <c r="Z32" s="126" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="74"/>
-      <c r="AG32" s="72" t="str">
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="126" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="74"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="127"/>
+      <c r="AJ32" s="127"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="128"/>
       <c r="AO32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="216"/>
-      <c r="B33" s="217"/>
-      <c r="C33" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="79"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="117"/>
       <c r="R33" s="3"/>
-      <c r="T33" s="251"/>
-      <c r="U33" s="252"/>
-      <c r="V33" s="158" t="s">
-        <v>22</v>
-      </c>
-      <c r="W33" s="159"/>
-      <c r="X33" s="159"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="69" t="str">
+      <c r="T33" s="139"/>
+      <c r="U33" s="140"/>
+      <c r="V33" s="250" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="251"/>
+      <c r="X33" s="251"/>
+      <c r="Y33" s="252"/>
+      <c r="Z33" s="225" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="70"/>
-      <c r="AC33" s="70"/>
-      <c r="AD33" s="70"/>
-      <c r="AE33" s="70"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="77" t="str">
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="156"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="115" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="78"/>
-      <c r="AK33" s="78"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="79"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="116"/>
+      <c r="AJ33" s="116"/>
+      <c r="AK33" s="116"/>
+      <c r="AL33" s="116"/>
+      <c r="AM33" s="117"/>
     </row>
     <row r="34" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="216"/>
-      <c r="B34" s="217"/>
-      <c r="C34" s="156" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="79"/>
+      <c r="A34" s="194"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="117"/>
       <c r="R34" s="5"/>
-      <c r="T34" s="251"/>
-      <c r="U34" s="252"/>
-      <c r="V34" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="154"/>
-      <c r="X34" s="154"/>
-      <c r="Y34" s="155"/>
-      <c r="Z34" s="50" t="str">
+      <c r="T34" s="139"/>
+      <c r="U34" s="140"/>
+      <c r="V34" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="144"/>
+      <c r="X34" s="144"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="132" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50" t="str">
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="132"/>
+      <c r="AE34" s="132"/>
+      <c r="AF34" s="132"/>
+      <c r="AG34" s="132" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="50"/>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="50"/>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="50"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="132"/>
+      <c r="AK34" s="132"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="132"/>
     </row>
     <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="216"/>
-      <c r="B35" s="217"/>
-      <c r="C35" s="211" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="47" t="str">
+      <c r="A35" s="194"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="89" t="str">
         <f>IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G19*AR31,G19*AR30))</f>
         <v/>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="49"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="91"/>
       <c r="R35" s="5"/>
-      <c r="T35" s="251"/>
-      <c r="U35" s="252"/>
-      <c r="V35" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="49"/>
+      <c r="T35" s="139"/>
+      <c r="U35" s="140"/>
+      <c r="V35" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="90"/>
+      <c r="AE35" s="90"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="89"/>
+      <c r="AH35" s="90"/>
+      <c r="AI35" s="90"/>
+      <c r="AJ35" s="90"/>
+      <c r="AK35" s="90"/>
+      <c r="AL35" s="90"/>
+      <c r="AM35" s="91"/>
     </row>
     <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="216"/>
-      <c r="B36" s="217"/>
-      <c r="C36" s="211" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="212"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="77" t="str">
+      <c r="A36" s="194"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="115" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G20*AR31,G20*AR30))))</f>
         <v/>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="79"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="117"/>
       <c r="R36" s="3"/>
-      <c r="T36" s="251"/>
-      <c r="U36" s="252"/>
-      <c r="V36" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="50" t="str">
+      <c r="T36" s="139"/>
+      <c r="U36" s="140"/>
+      <c r="V36" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="132" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50" t="str">
+      <c r="AA36" s="132"/>
+      <c r="AB36" s="132"/>
+      <c r="AC36" s="132"/>
+      <c r="AD36" s="132"/>
+      <c r="AE36" s="132"/>
+      <c r="AF36" s="132"/>
+      <c r="AG36" s="132" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AH36" s="50"/>
-      <c r="AI36" s="50"/>
-      <c r="AJ36" s="50"/>
-      <c r="AK36" s="50"/>
-      <c r="AL36" s="50"/>
-      <c r="AM36" s="50"/>
+      <c r="AH36" s="132"/>
+      <c r="AI36" s="132"/>
+      <c r="AJ36" s="132"/>
+      <c r="AK36" s="132"/>
+      <c r="AL36" s="132"/>
+      <c r="AM36" s="132"/>
     </row>
     <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="216"/>
-      <c r="B37" s="217"/>
-      <c r="C37" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="212"/>
-      <c r="E37" s="212"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="77" t="str">
+      <c r="A37" s="194"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="115" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G21*AR31,G21*AR30))))</f>
         <v/>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="79"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="117"/>
       <c r="R37" s="3"/>
-      <c r="T37" s="251"/>
-      <c r="U37" s="252"/>
-      <c r="V37" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="W37" s="61"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="50" t="str">
+      <c r="T37" s="139"/>
+      <c r="U37" s="140"/>
+      <c r="V37" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="132" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50" t="str">
+      <c r="AA37" s="132"/>
+      <c r="AB37" s="132"/>
+      <c r="AC37" s="132"/>
+      <c r="AD37" s="132"/>
+      <c r="AE37" s="132"/>
+      <c r="AF37" s="132"/>
+      <c r="AG37" s="132" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
-      <c r="AM37" s="50"/>
+      <c r="AH37" s="132"/>
+      <c r="AI37" s="132"/>
+      <c r="AJ37" s="132"/>
+      <c r="AK37" s="132"/>
+      <c r="AL37" s="132"/>
+      <c r="AM37" s="132"/>
     </row>
     <row r="38" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="216"/>
-      <c r="B38" s="217"/>
-      <c r="C38" s="211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="212"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="231" t="str">
+      <c r="A38" s="194"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="180" t="str">
         <f>IF(G32&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H38" s="232"/>
-      <c r="I38" s="232"/>
-      <c r="J38" s="232"/>
-      <c r="K38" s="232"/>
-      <c r="L38" s="232"/>
-      <c r="M38" s="232"/>
-      <c r="N38" s="232"/>
-      <c r="O38" s="232"/>
-      <c r="P38" s="232"/>
-      <c r="Q38" s="233"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="182"/>
       <c r="R38" s="3"/>
-      <c r="T38" s="251"/>
-      <c r="U38" s="252"/>
-      <c r="V38" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="47" t="str">
+      <c r="T38" s="139"/>
+      <c r="U38" s="140"/>
+      <c r="V38" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="89" t="str">
         <f>IF(Z32&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="47" t="str">
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
+      <c r="AF38" s="91"/>
+      <c r="AG38" s="89" t="str">
         <f>IF(AG32&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="48"/>
-      <c r="AJ38" s="48"/>
-      <c r="AK38" s="48"/>
-      <c r="AL38" s="48"/>
-      <c r="AM38" s="49"/>
+      <c r="AH38" s="90"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="90"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="90"/>
+      <c r="AM38" s="91"/>
     </row>
     <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="218"/>
-      <c r="B39" s="219"/>
-      <c r="C39" s="200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="121" t="str">
+      <c r="A39" s="196"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="222" t="str">
         <f>IF(G32&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="123"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="223"/>
+      <c r="L39" s="223"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="223"/>
+      <c r="O39" s="223"/>
+      <c r="P39" s="223"/>
+      <c r="Q39" s="224"/>
       <c r="R39" s="3"/>
-      <c r="T39" s="253"/>
-      <c r="U39" s="254"/>
-      <c r="V39" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="54" t="str">
+      <c r="T39" s="141"/>
+      <c r="U39" s="142"/>
+      <c r="V39" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="94"/>
+      <c r="Z39" s="80" t="str">
         <f>IF(Z32&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="55"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="54" t="str">
+      <c r="AA39" s="81"/>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="81"/>
+      <c r="AF39" s="82"/>
+      <c r="AG39" s="80" t="str">
         <f>IF(AG32&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="56"/>
+      <c r="AH39" s="81"/>
+      <c r="AI39" s="81"/>
+      <c r="AJ39" s="81"/>
+      <c r="AK39" s="81"/>
+      <c r="AL39" s="81"/>
+      <c r="AM39" s="82"/>
     </row>
     <row r="40" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
@@ -8336,243 +8339,243 @@
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="123"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="201">
+        <v>30</v>
+      </c>
+      <c r="J41" s="123"/>
+      <c r="K41" s="202"/>
+      <c r="L41" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="123"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="198">
         <v>15</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="228" t="s">
+      <c r="P41" s="199"/>
+      <c r="Q41" s="200"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="206"/>
-      <c r="H41" s="229"/>
-      <c r="I41" s="205">
+      <c r="U41" s="134"/>
+      <c r="V41" s="134"/>
+      <c r="W41" s="136"/>
+      <c r="X41" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y41" s="134"/>
+      <c r="Z41" s="135"/>
+      <c r="AA41" s="201">
         <v>30</v>
       </c>
-      <c r="J41" s="206"/>
-      <c r="K41" s="207"/>
-      <c r="L41" s="228" t="s">
-        <v>13</v>
-      </c>
-      <c r="M41" s="206"/>
-      <c r="N41" s="229"/>
-      <c r="O41" s="63">
-        <v>15</v>
-      </c>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="3"/>
-      <c r="T41" s="260" t="s">
-        <v>15</v>
-      </c>
-      <c r="U41" s="261"/>
-      <c r="V41" s="261"/>
-      <c r="W41" s="263"/>
-      <c r="X41" s="260" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y41" s="261"/>
-      <c r="Z41" s="262"/>
-      <c r="AA41" s="205">
+      <c r="AB41" s="123"/>
+      <c r="AC41" s="202"/>
+      <c r="AD41" s="133" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE41" s="134"/>
+      <c r="AF41" s="135"/>
+      <c r="AG41" s="198">
         <v>30</v>
       </c>
-      <c r="AB41" s="206"/>
-      <c r="AC41" s="207"/>
-      <c r="AD41" s="260" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE41" s="261"/>
-      <c r="AF41" s="262"/>
-      <c r="AG41" s="63">
-        <v>30</v>
-      </c>
-      <c r="AH41" s="52"/>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK41" s="45"/>
-      <c r="AL41" s="45"/>
-      <c r="AM41" s="46"/>
+      <c r="AH41" s="199"/>
+      <c r="AI41" s="200"/>
+      <c r="AJ41" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK41" s="75"/>
+      <c r="AL41" s="75"/>
+      <c r="AM41" s="76"/>
     </row>
     <row r="42" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="65" t="s">
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="65" t="s">
+      <c r="G42" s="120"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="65" t="s">
+      <c r="J42" s="120"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="66"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="202" t="s">
+      <c r="M42" s="120"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="203"/>
-      <c r="Q42" s="204"/>
+      <c r="P42" s="220"/>
+      <c r="Q42" s="221"/>
       <c r="R42" s="3"/>
-      <c r="T42" s="161" t="s">
+      <c r="T42" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="162"/>
-      <c r="V42" s="162"/>
-      <c r="W42" s="163"/>
-      <c r="X42" s="65" t="s">
+      <c r="U42" s="231"/>
+      <c r="V42" s="231"/>
+      <c r="W42" s="232"/>
+      <c r="X42" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="65" t="s">
+      <c r="Y42" s="120"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="65" t="s">
+      <c r="AB42" s="120"/>
+      <c r="AC42" s="121"/>
+      <c r="AD42" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="67"/>
-      <c r="AG42" s="202" t="s">
+      <c r="AE42" s="120"/>
+      <c r="AF42" s="121"/>
+      <c r="AG42" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="AH42" s="203"/>
-      <c r="AI42" s="204"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="37"/>
+      <c r="AH42" s="220"/>
+      <c r="AI42" s="221"/>
+      <c r="AJ42" s="313"/>
+      <c r="AK42" s="314"/>
+      <c r="AL42" s="314"/>
+      <c r="AM42" s="315"/>
     </row>
     <row r="43" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="77" t="str">
+      <c r="A43" s="115" t="str">
         <f>IF(D5&lt;&gt;"派遣","見積依頼書","派遣個別契約書")</f>
         <v>見積依頼書</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="133" t="s">
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="133" t="s">
+      <c r="G43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="63" t="s">
+      <c r="K43" s="190"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="64"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="199"/>
+      <c r="Q43" s="200"/>
       <c r="R43" s="3"/>
-      <c r="T43" s="128" t="str">
+      <c r="T43" s="110" t="str">
         <f>IF(Z11="正","欠勤控除対象者",IF(Z11="契","有給対象者","-"))</f>
         <v>欠勤控除対象者</v>
       </c>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="130"/>
-      <c r="X43" s="51" t="s">
+      <c r="U43" s="158"/>
+      <c r="V43" s="158"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="63" t="s">
+      <c r="Y43" s="199"/>
+      <c r="Z43" s="199"/>
+      <c r="AA43" s="325"/>
+      <c r="AB43" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="64"/>
-      <c r="AF43" s="63" t="str">
+      <c r="AC43" s="199"/>
+      <c r="AD43" s="199"/>
+      <c r="AE43" s="200"/>
+      <c r="AF43" s="198" t="str">
         <f>IF(Z11="","",IF(OR(Z11="協力"),"","無"))</f>
         <v>無</v>
       </c>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="52"/>
-      <c r="AI43" s="64"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="39"/>
-      <c r="AL43" s="39"/>
-      <c r="AM43" s="40"/>
+      <c r="AG43" s="199"/>
+      <c r="AH43" s="199"/>
+      <c r="AI43" s="200"/>
+      <c r="AJ43" s="316"/>
+      <c r="AK43" s="317"/>
+      <c r="AL43" s="317"/>
+      <c r="AM43" s="318"/>
     </row>
     <row r="44" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="65" t="s">
+      <c r="B44" s="185"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="185"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="201"/>
-      <c r="J44" s="197" t="s">
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="198"/>
-      <c r="L44" s="198"/>
-      <c r="M44" s="199"/>
-      <c r="N44" s="200" t="s">
+      <c r="K44" s="216"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="217"/>
+      <c r="N44" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="67"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="121"/>
       <c r="R44" s="3"/>
-      <c r="T44" s="65" t="str">
+      <c r="T44" s="119" t="str">
         <f>IF(Z11="","注文書",IF(Z11="契","契約書","注文書"))</f>
         <v>注文書</v>
       </c>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="200" t="str">
+      <c r="U44" s="120"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="121"/>
+      <c r="X44" s="125" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正"),"無","有"))</f>
         <v>無</v>
       </c>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="201"/>
-      <c r="AB44" s="197" t="s">
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="203"/>
+      <c r="AB44" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="AC44" s="198"/>
-      <c r="AD44" s="198"/>
-      <c r="AE44" s="199"/>
-      <c r="AF44" s="65" t="s">
+      <c r="AC44" s="216"/>
+      <c r="AD44" s="216"/>
+      <c r="AE44" s="217"/>
+      <c r="AF44" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="41"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="43"/>
+      <c r="AG44" s="120"/>
+      <c r="AH44" s="120"/>
+      <c r="AI44" s="121"/>
+      <c r="AJ44" s="319"/>
+      <c r="AK44" s="320"/>
+      <c r="AL44" s="320"/>
+      <c r="AM44" s="321"/>
     </row>
     <row r="45" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="3"/>
@@ -8608,965 +8611,1233 @@
       <c r="AH45" s="2"/>
     </row>
     <row r="46" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="279" t="s">
+      <c r="A46" s="206" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="206"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="279"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="279" t="s">
+      <c r="E46" s="206"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="279"/>
-      <c r="F46" s="279"/>
-      <c r="G46" s="279"/>
-      <c r="H46" s="280" t="s">
-        <v>83</v>
-      </c>
-      <c r="I46" s="280"/>
-      <c r="J46" s="280"/>
-      <c r="K46" s="280"/>
-      <c r="L46" s="280"/>
-      <c r="M46" s="280"/>
-      <c r="N46" s="280"/>
-      <c r="O46" s="280"/>
-      <c r="P46" s="280"/>
-      <c r="Q46" s="280"/>
-      <c r="R46" s="281"/>
-      <c r="S46" s="281"/>
-      <c r="T46" s="281"/>
-      <c r="U46" s="281"/>
-      <c r="V46" s="281"/>
-      <c r="W46" s="281"/>
-      <c r="X46" s="281"/>
-      <c r="Y46" s="281"/>
-      <c r="Z46" s="281"/>
-      <c r="AA46" s="281"/>
-      <c r="AB46" s="281"/>
-      <c r="AC46" s="281"/>
-      <c r="AD46" s="281"/>
-      <c r="AE46" s="281"/>
-      <c r="AF46" s="281"/>
-      <c r="AG46" s="281"/>
-      <c r="AH46" s="281"/>
-      <c r="AI46" s="281"/>
-      <c r="AJ46" s="281"/>
-      <c r="AK46" s="281"/>
-      <c r="AL46" s="281"/>
-      <c r="AM46" s="281"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="207"/>
+      <c r="K46" s="207"/>
+      <c r="L46" s="207"/>
+      <c r="M46" s="207"/>
+      <c r="N46" s="207"/>
+      <c r="O46" s="207"/>
+      <c r="P46" s="207"/>
+      <c r="Q46" s="207"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27"/>
     </row>
     <row r="47" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="282" t="s">
+      <c r="A47" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="283"/>
-      <c r="C47" s="283"/>
-      <c r="D47" s="284" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="284"/>
-      <c r="F47" s="284"/>
-      <c r="G47" s="284"/>
-      <c r="H47" s="284"/>
-      <c r="I47" s="284"/>
-      <c r="J47" s="284"/>
-      <c r="K47" s="284" t="s">
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="L47" s="284"/>
-      <c r="M47" s="284"/>
-      <c r="N47" s="284"/>
-      <c r="O47" s="284"/>
-      <c r="P47" s="284"/>
-      <c r="Q47" s="284"/>
-      <c r="R47" s="308"/>
-      <c r="S47" s="309"/>
-      <c r="T47" s="309"/>
-      <c r="U47" s="309"/>
-      <c r="V47" s="309"/>
-      <c r="W47" s="309"/>
-      <c r="X47" s="309"/>
-      <c r="Y47" s="309"/>
-      <c r="Z47" s="309"/>
-      <c r="AA47" s="309"/>
-      <c r="AB47" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC47" s="314"/>
-      <c r="AD47" s="309"/>
-      <c r="AE47" s="309"/>
-      <c r="AF47" s="309"/>
-      <c r="AG47" s="309"/>
-      <c r="AH47" s="309"/>
-      <c r="AI47" s="309"/>
-      <c r="AJ47" s="309"/>
-      <c r="AK47" s="309"/>
-      <c r="AL47" s="309"/>
-      <c r="AM47" s="310"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="54"/>
     </row>
     <row r="48" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="283"/>
-      <c r="B48" s="283"/>
-      <c r="C48" s="283"/>
-      <c r="D48" s="285"/>
-      <c r="E48" s="285"/>
-      <c r="F48" s="285"/>
-      <c r="G48" s="285"/>
-      <c r="H48" s="285"/>
-      <c r="I48" s="285"/>
-      <c r="J48" s="285"/>
-      <c r="K48" s="285"/>
-      <c r="L48" s="285"/>
-      <c r="M48" s="285"/>
-      <c r="N48" s="285"/>
-      <c r="O48" s="285"/>
-      <c r="P48" s="285"/>
-      <c r="Q48" s="285"/>
-      <c r="R48" s="311"/>
-      <c r="S48" s="312"/>
-      <c r="T48" s="312"/>
-      <c r="U48" s="312"/>
-      <c r="V48" s="312"/>
-      <c r="W48" s="312"/>
-      <c r="X48" s="312"/>
-      <c r="Y48" s="312"/>
-      <c r="Z48" s="312"/>
-      <c r="AA48" s="312"/>
-      <c r="AB48" s="315"/>
-      <c r="AC48" s="312"/>
-      <c r="AD48" s="312"/>
-      <c r="AE48" s="312"/>
-      <c r="AF48" s="312"/>
-      <c r="AG48" s="312"/>
-      <c r="AH48" s="312"/>
-      <c r="AI48" s="312"/>
-      <c r="AJ48" s="312"/>
-      <c r="AK48" s="312"/>
-      <c r="AL48" s="312"/>
-      <c r="AM48" s="313"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="60"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="55"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="55"/>
+      <c r="AM48" s="56"/>
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="283"/>
-      <c r="B49" s="283"/>
-      <c r="C49" s="283"/>
-      <c r="D49" s="285"/>
-      <c r="E49" s="285"/>
-      <c r="F49" s="285"/>
-      <c r="G49" s="285"/>
-      <c r="H49" s="285"/>
-      <c r="I49" s="285"/>
-      <c r="J49" s="285"/>
-      <c r="K49" s="285" t="s">
-        <v>82</v>
-      </c>
-      <c r="L49" s="285"/>
-      <c r="M49" s="285"/>
-      <c r="N49" s="285"/>
-      <c r="O49" s="285"/>
-      <c r="P49" s="285"/>
-      <c r="Q49" s="285"/>
-      <c r="R49" s="286"/>
-      <c r="S49" s="286"/>
-      <c r="T49" s="286"/>
-      <c r="U49" s="286"/>
-      <c r="V49" s="286"/>
-      <c r="W49" s="286"/>
-      <c r="X49" s="286"/>
-      <c r="Y49" s="286"/>
-      <c r="Z49" s="286"/>
-      <c r="AA49" s="286"/>
-      <c r="AB49" s="286"/>
-      <c r="AC49" s="286"/>
-      <c r="AD49" s="286"/>
-      <c r="AE49" s="286"/>
-      <c r="AF49" s="286"/>
-      <c r="AG49" s="286"/>
-      <c r="AH49" s="286"/>
-      <c r="AI49" s="286"/>
-      <c r="AJ49" s="286"/>
-      <c r="AK49" s="286"/>
-      <c r="AL49" s="286"/>
-      <c r="AM49" s="286"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="71"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="71"/>
+      <c r="AJ49" s="71"/>
+      <c r="AK49" s="71"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="71"/>
     </row>
     <row r="50" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="283"/>
-      <c r="B50" s="283"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="285"/>
-      <c r="E50" s="285"/>
-      <c r="F50" s="285"/>
-      <c r="G50" s="285"/>
-      <c r="H50" s="285"/>
-      <c r="I50" s="285"/>
-      <c r="J50" s="285"/>
-      <c r="K50" s="285"/>
-      <c r="L50" s="285"/>
-      <c r="M50" s="285"/>
-      <c r="N50" s="285"/>
-      <c r="O50" s="285"/>
-      <c r="P50" s="285"/>
-      <c r="Q50" s="285"/>
-      <c r="R50" s="286"/>
-      <c r="S50" s="286"/>
-      <c r="T50" s="286"/>
-      <c r="U50" s="286"/>
-      <c r="V50" s="286"/>
-      <c r="W50" s="286"/>
-      <c r="X50" s="286"/>
-      <c r="Y50" s="286"/>
-      <c r="Z50" s="286"/>
-      <c r="AA50" s="286"/>
-      <c r="AB50" s="286"/>
-      <c r="AC50" s="286"/>
-      <c r="AD50" s="286"/>
-      <c r="AE50" s="286"/>
-      <c r="AF50" s="286"/>
-      <c r="AG50" s="286"/>
-      <c r="AH50" s="286"/>
-      <c r="AI50" s="286"/>
-      <c r="AJ50" s="286"/>
-      <c r="AK50" s="286"/>
-      <c r="AL50" s="286"/>
-      <c r="AM50" s="286"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="71"/>
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="71"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="71"/>
+      <c r="AI50" s="71"/>
+      <c r="AJ50" s="71"/>
+      <c r="AK50" s="71"/>
+      <c r="AL50" s="71"/>
+      <c r="AM50" s="71"/>
     </row>
     <row r="51" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="283"/>
-      <c r="B51" s="283"/>
-      <c r="C51" s="283"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="285"/>
-      <c r="F51" s="285"/>
-      <c r="G51" s="285"/>
-      <c r="H51" s="285"/>
-      <c r="I51" s="285"/>
-      <c r="J51" s="285"/>
-      <c r="K51" s="285" t="s">
-        <v>86</v>
-      </c>
-      <c r="L51" s="285"/>
-      <c r="M51" s="285"/>
-      <c r="N51" s="285"/>
-      <c r="O51" s="285"/>
-      <c r="P51" s="285"/>
-      <c r="Q51" s="285"/>
-      <c r="R51" s="286"/>
-      <c r="S51" s="286"/>
-      <c r="T51" s="286"/>
-      <c r="U51" s="286"/>
-      <c r="V51" s="286"/>
-      <c r="W51" s="286"/>
-      <c r="X51" s="286"/>
-      <c r="Y51" s="286"/>
-      <c r="Z51" s="286"/>
-      <c r="AA51" s="286"/>
-      <c r="AB51" s="286"/>
-      <c r="AC51" s="286"/>
-      <c r="AD51" s="286"/>
-      <c r="AE51" s="286"/>
-      <c r="AF51" s="286"/>
-      <c r="AG51" s="286"/>
-      <c r="AH51" s="286"/>
-      <c r="AI51" s="286"/>
-      <c r="AJ51" s="286"/>
-      <c r="AK51" s="286"/>
-      <c r="AL51" s="286"/>
-      <c r="AM51" s="286"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="71"/>
+      <c r="AB51" s="71"/>
+      <c r="AC51" s="71"/>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="71"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="71"/>
+      <c r="AH51" s="71"/>
+      <c r="AI51" s="71"/>
+      <c r="AJ51" s="71"/>
+      <c r="AK51" s="71"/>
+      <c r="AL51" s="71"/>
+      <c r="AM51" s="71"/>
     </row>
     <row r="52" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="283"/>
-      <c r="B52" s="283"/>
-      <c r="C52" s="283"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="285"/>
-      <c r="F52" s="285"/>
-      <c r="G52" s="285"/>
-      <c r="H52" s="285"/>
-      <c r="I52" s="285"/>
-      <c r="J52" s="285"/>
-      <c r="K52" s="285"/>
-      <c r="L52" s="285"/>
-      <c r="M52" s="285"/>
-      <c r="N52" s="285"/>
-      <c r="O52" s="285"/>
-      <c r="P52" s="285"/>
-      <c r="Q52" s="285"/>
-      <c r="R52" s="286"/>
-      <c r="S52" s="286"/>
-      <c r="T52" s="286"/>
-      <c r="U52" s="286"/>
-      <c r="V52" s="286"/>
-      <c r="W52" s="286"/>
-      <c r="X52" s="286"/>
-      <c r="Y52" s="286"/>
-      <c r="Z52" s="286"/>
-      <c r="AA52" s="286"/>
-      <c r="AB52" s="286"/>
-      <c r="AC52" s="286"/>
-      <c r="AD52" s="286"/>
-      <c r="AE52" s="286"/>
-      <c r="AF52" s="286"/>
-      <c r="AG52" s="286"/>
-      <c r="AH52" s="286"/>
-      <c r="AI52" s="286"/>
-      <c r="AJ52" s="286"/>
-      <c r="AK52" s="286"/>
-      <c r="AL52" s="286"/>
-      <c r="AM52" s="286"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="71"/>
+      <c r="AA52" s="71"/>
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="71"/>
+      <c r="AF52" s="71"/>
+      <c r="AG52" s="71"/>
+      <c r="AH52" s="71"/>
+      <c r="AI52" s="71"/>
+      <c r="AJ52" s="71"/>
+      <c r="AK52" s="71"/>
+      <c r="AL52" s="71"/>
+      <c r="AM52" s="71"/>
     </row>
     <row r="53" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="283"/>
-      <c r="B53" s="283"/>
-      <c r="C53" s="283"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="285"/>
-      <c r="F53" s="285"/>
-      <c r="G53" s="285"/>
-      <c r="H53" s="285"/>
-      <c r="I53" s="285"/>
-      <c r="J53" s="285"/>
-      <c r="K53" s="285" t="s">
-        <v>87</v>
-      </c>
-      <c r="L53" s="285"/>
-      <c r="M53" s="285"/>
-      <c r="N53" s="285"/>
-      <c r="O53" s="285"/>
-      <c r="P53" s="285"/>
-      <c r="Q53" s="285"/>
-      <c r="R53" s="316"/>
-      <c r="S53" s="317"/>
-      <c r="T53" s="317"/>
-      <c r="U53" s="317"/>
-      <c r="V53" s="317"/>
-      <c r="W53" s="317"/>
-      <c r="X53" s="317"/>
-      <c r="Y53" s="317"/>
-      <c r="Z53" s="317"/>
-      <c r="AA53" s="317"/>
-      <c r="AB53" s="317"/>
-      <c r="AC53" s="317"/>
-      <c r="AD53" s="317"/>
-      <c r="AE53" s="317"/>
-      <c r="AF53" s="317"/>
-      <c r="AG53" s="317"/>
-      <c r="AH53" s="317"/>
-      <c r="AI53" s="317"/>
-      <c r="AJ53" s="317"/>
-      <c r="AK53" s="317"/>
-      <c r="AL53" s="317"/>
-      <c r="AM53" s="318"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="62"/>
+      <c r="AE53" s="62"/>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="62"/>
+      <c r="AH53" s="62"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="62"/>
+      <c r="AK53" s="62"/>
+      <c r="AL53" s="62"/>
+      <c r="AM53" s="64"/>
     </row>
     <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="283"/>
-      <c r="B54" s="283"/>
-      <c r="C54" s="283"/>
-      <c r="D54" s="285" t="s">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="285"/>
-      <c r="F54" s="285"/>
-      <c r="G54" s="285"/>
-      <c r="H54" s="285"/>
-      <c r="I54" s="285"/>
-      <c r="J54" s="285"/>
-      <c r="K54" s="285" t="s">
-        <v>89</v>
-      </c>
-      <c r="L54" s="285"/>
-      <c r="M54" s="285"/>
-      <c r="N54" s="285"/>
-      <c r="O54" s="285"/>
-      <c r="P54" s="285"/>
-      <c r="Q54" s="285"/>
-      <c r="R54" s="316"/>
-      <c r="S54" s="317"/>
-      <c r="T54" s="317"/>
-      <c r="U54" s="317"/>
-      <c r="V54" s="317"/>
-      <c r="W54" s="317"/>
-      <c r="X54" s="317"/>
-      <c r="Y54" s="317"/>
-      <c r="Z54" s="317"/>
-      <c r="AA54" s="317"/>
-      <c r="AB54" s="324" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC54" s="322"/>
-      <c r="AD54" s="317"/>
-      <c r="AE54" s="317"/>
-      <c r="AF54" s="317"/>
-      <c r="AG54" s="317"/>
-      <c r="AH54" s="317"/>
-      <c r="AI54" s="317"/>
-      <c r="AJ54" s="317"/>
-      <c r="AK54" s="317"/>
-      <c r="AL54" s="317"/>
-      <c r="AM54" s="318"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="62"/>
+      <c r="AB54" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC54" s="63"/>
+      <c r="AD54" s="62"/>
+      <c r="AE54" s="62"/>
+      <c r="AF54" s="62"/>
+      <c r="AG54" s="62"/>
+      <c r="AH54" s="62"/>
+      <c r="AI54" s="62"/>
+      <c r="AJ54" s="62"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="62"/>
+      <c r="AM54" s="64"/>
     </row>
     <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="283"/>
-      <c r="B55" s="283"/>
-      <c r="C55" s="283"/>
-      <c r="D55" s="285" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="285"/>
-      <c r="F55" s="285"/>
-      <c r="G55" s="285"/>
-      <c r="H55" s="285"/>
-      <c r="I55" s="285"/>
-      <c r="J55" s="285"/>
-      <c r="K55" s="285" t="s">
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="L55" s="285"/>
-      <c r="M55" s="285"/>
-      <c r="N55" s="285"/>
-      <c r="O55" s="285"/>
-      <c r="P55" s="285"/>
-      <c r="Q55" s="285"/>
-      <c r="R55" s="316"/>
-      <c r="S55" s="317"/>
-      <c r="T55" s="317"/>
-      <c r="U55" s="317"/>
-      <c r="V55" s="317"/>
-      <c r="W55" s="317"/>
-      <c r="X55" s="317"/>
-      <c r="Y55" s="317"/>
-      <c r="Z55" s="317"/>
-      <c r="AA55" s="317"/>
-      <c r="AB55" s="324" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC55" s="322"/>
-      <c r="AD55" s="317"/>
-      <c r="AE55" s="317"/>
-      <c r="AF55" s="317"/>
-      <c r="AG55" s="317"/>
-      <c r="AH55" s="317"/>
-      <c r="AI55" s="317"/>
-      <c r="AJ55" s="317"/>
-      <c r="AK55" s="317"/>
-      <c r="AL55" s="317"/>
-      <c r="AM55" s="318"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC55" s="63"/>
+      <c r="AD55" s="62"/>
+      <c r="AE55" s="62"/>
+      <c r="AF55" s="62"/>
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="62"/>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="62"/>
+      <c r="AL55" s="62"/>
+      <c r="AM55" s="64"/>
     </row>
     <row r="56" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="283"/>
-      <c r="B56" s="283"/>
-      <c r="C56" s="283"/>
-      <c r="D56" s="285" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="285"/>
-      <c r="F56" s="285"/>
-      <c r="G56" s="285"/>
-      <c r="H56" s="285"/>
-      <c r="I56" s="285"/>
-      <c r="J56" s="285"/>
-      <c r="K56" s="285" t="s">
-        <v>89</v>
-      </c>
-      <c r="L56" s="285"/>
-      <c r="M56" s="285"/>
-      <c r="N56" s="285"/>
-      <c r="O56" s="285"/>
-      <c r="P56" s="285"/>
-      <c r="Q56" s="285"/>
-      <c r="R56" s="316"/>
-      <c r="S56" s="317"/>
-      <c r="T56" s="317"/>
-      <c r="U56" s="317"/>
-      <c r="V56" s="317"/>
-      <c r="W56" s="317"/>
-      <c r="X56" s="317"/>
-      <c r="Y56" s="317"/>
-      <c r="Z56" s="317"/>
-      <c r="AA56" s="317"/>
-      <c r="AB56" s="324" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC56" s="322"/>
-      <c r="AD56" s="317"/>
-      <c r="AE56" s="317"/>
-      <c r="AF56" s="317"/>
-      <c r="AG56" s="317"/>
-      <c r="AH56" s="317"/>
-      <c r="AI56" s="317"/>
-      <c r="AJ56" s="317"/>
-      <c r="AK56" s="317"/>
-      <c r="AL56" s="317"/>
-      <c r="AM56" s="318"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC56" s="63"/>
+      <c r="AD56" s="62"/>
+      <c r="AE56" s="62"/>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="62"/>
+      <c r="AI56" s="62"/>
+      <c r="AJ56" s="62"/>
+      <c r="AK56" s="62"/>
+      <c r="AL56" s="62"/>
+      <c r="AM56" s="64"/>
     </row>
     <row r="57" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="283"/>
-      <c r="B57" s="283"/>
-      <c r="C57" s="283"/>
-      <c r="D57" s="285" t="s">
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="285"/>
-      <c r="F57" s="285"/>
-      <c r="G57" s="285"/>
-      <c r="H57" s="285"/>
-      <c r="I57" s="285"/>
-      <c r="J57" s="285"/>
-      <c r="K57" s="285" t="s">
-        <v>93</v>
-      </c>
-      <c r="L57" s="285"/>
-      <c r="M57" s="285"/>
-      <c r="N57" s="285"/>
-      <c r="O57" s="285"/>
-      <c r="P57" s="285"/>
-      <c r="Q57" s="285"/>
-      <c r="R57" s="316"/>
-      <c r="S57" s="317"/>
-      <c r="T57" s="317"/>
-      <c r="U57" s="317"/>
-      <c r="V57" s="317"/>
-      <c r="W57" s="317"/>
-      <c r="X57" s="317"/>
-      <c r="Y57" s="317"/>
-      <c r="Z57" s="317"/>
-      <c r="AA57" s="317"/>
-      <c r="AB57" s="324" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC57" s="322"/>
-      <c r="AD57" s="317"/>
-      <c r="AE57" s="317"/>
-      <c r="AF57" s="317"/>
-      <c r="AG57" s="317"/>
-      <c r="AH57" s="317"/>
-      <c r="AI57" s="317"/>
-      <c r="AJ57" s="317"/>
-      <c r="AK57" s="317"/>
-      <c r="AL57" s="317"/>
-      <c r="AM57" s="318"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="62"/>
+      <c r="AB57" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC57" s="63"/>
+      <c r="AD57" s="62"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="62"/>
+      <c r="AI57" s="62"/>
+      <c r="AJ57" s="62"/>
+      <c r="AK57" s="62"/>
+      <c r="AL57" s="62"/>
+      <c r="AM57" s="64"/>
     </row>
     <row r="58" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="283"/>
-      <c r="B58" s="283"/>
-      <c r="C58" s="283"/>
-      <c r="D58" s="287"/>
-      <c r="E58" s="287"/>
-      <c r="F58" s="287"/>
-      <c r="G58" s="287"/>
-      <c r="H58" s="287"/>
-      <c r="I58" s="287"/>
-      <c r="J58" s="287"/>
-      <c r="K58" s="287" t="s">
-        <v>94</v>
-      </c>
-      <c r="L58" s="287"/>
-      <c r="M58" s="287"/>
-      <c r="N58" s="287"/>
-      <c r="O58" s="287"/>
-      <c r="P58" s="287"/>
-      <c r="Q58" s="287"/>
-      <c r="R58" s="319"/>
-      <c r="S58" s="320"/>
-      <c r="T58" s="320"/>
-      <c r="U58" s="320"/>
-      <c r="V58" s="320"/>
-      <c r="W58" s="320"/>
-      <c r="X58" s="320"/>
-      <c r="Y58" s="320"/>
-      <c r="Z58" s="320"/>
-      <c r="AA58" s="320"/>
-      <c r="AB58" s="325" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC58" s="323"/>
-      <c r="AD58" s="320"/>
-      <c r="AE58" s="320"/>
-      <c r="AF58" s="320"/>
-      <c r="AG58" s="320"/>
-      <c r="AH58" s="320"/>
-      <c r="AI58" s="320"/>
-      <c r="AJ58" s="320"/>
-      <c r="AK58" s="320"/>
-      <c r="AL58" s="320"/>
-      <c r="AM58" s="321"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="66"/>
+      <c r="W58" s="66"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="66"/>
+      <c r="Z58" s="66"/>
+      <c r="AA58" s="66"/>
+      <c r="AB58" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="66"/>
+      <c r="AE58" s="66"/>
+      <c r="AF58" s="66"/>
+      <c r="AG58" s="66"/>
+      <c r="AH58" s="66"/>
+      <c r="AI58" s="66"/>
+      <c r="AJ58" s="66"/>
+      <c r="AK58" s="66"/>
+      <c r="AL58" s="66"/>
+      <c r="AM58" s="68"/>
     </row>
     <row r="59" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="281"/>
-      <c r="B59" s="281"/>
-      <c r="C59" s="288"/>
-      <c r="D59" s="289"/>
-      <c r="E59" s="289"/>
-      <c r="F59" s="289"/>
-      <c r="G59" s="289"/>
-      <c r="H59" s="289"/>
-      <c r="I59" s="289"/>
-      <c r="J59" s="289"/>
-      <c r="K59" s="289"/>
-      <c r="L59" s="289"/>
-      <c r="M59" s="289"/>
-      <c r="N59" s="289"/>
-      <c r="O59" s="289"/>
-      <c r="P59" s="289"/>
-      <c r="Q59" s="288"/>
-      <c r="R59" s="281"/>
-      <c r="S59" s="288"/>
-      <c r="T59" s="288"/>
-      <c r="U59" s="288"/>
-      <c r="V59" s="288"/>
-      <c r="W59" s="288"/>
-      <c r="X59" s="288"/>
-      <c r="Y59" s="288"/>
-      <c r="Z59" s="288"/>
-      <c r="AA59" s="288"/>
-      <c r="AB59" s="288"/>
-      <c r="AC59" s="288"/>
-      <c r="AD59" s="288"/>
-      <c r="AE59" s="288"/>
-      <c r="AF59" s="288"/>
-      <c r="AG59" s="288"/>
-      <c r="AH59" s="288"/>
-      <c r="AI59" s="288"/>
-      <c r="AJ59" s="288"/>
-      <c r="AK59" s="288"/>
-      <c r="AL59" s="288"/>
-      <c r="AM59" s="288"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="28"/>
+      <c r="AK59" s="28"/>
+      <c r="AL59" s="28"/>
+      <c r="AM59" s="28"/>
     </row>
     <row r="60" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="300" t="s">
+      <c r="A60" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="301"/>
-      <c r="C60" s="306" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="290"/>
-      <c r="E60" s="290"/>
-      <c r="F60" s="290"/>
-      <c r="G60" s="290"/>
-      <c r="H60" s="290"/>
-      <c r="I60" s="290"/>
-      <c r="J60" s="290"/>
-      <c r="K60" s="290"/>
-      <c r="L60" s="290"/>
-      <c r="M60" s="290"/>
-      <c r="N60" s="290"/>
-      <c r="O60" s="290"/>
-      <c r="P60" s="290"/>
-      <c r="Q60" s="291"/>
-      <c r="R60" s="281"/>
-      <c r="S60" s="292"/>
-      <c r="T60" s="282" t="s">
+      <c r="U60" s="49"/>
+      <c r="V60" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="U60" s="283"/>
-      <c r="V60" s="307" t="s">
-        <v>97</v>
-      </c>
-      <c r="W60" s="293"/>
-      <c r="X60" s="293"/>
-      <c r="Y60" s="293"/>
-      <c r="Z60" s="293"/>
-      <c r="AA60" s="293"/>
-      <c r="AB60" s="293"/>
-      <c r="AC60" s="293"/>
-      <c r="AD60" s="293"/>
-      <c r="AE60" s="293"/>
-      <c r="AF60" s="293"/>
-      <c r="AG60" s="293"/>
-      <c r="AH60" s="293"/>
-      <c r="AI60" s="293"/>
-      <c r="AJ60" s="293"/>
-      <c r="AK60" s="293"/>
-      <c r="AL60" s="293"/>
-      <c r="AM60" s="293"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="51"/>
+      <c r="AC60" s="51"/>
+      <c r="AD60" s="51"/>
+      <c r="AE60" s="51"/>
+      <c r="AF60" s="51"/>
+      <c r="AG60" s="51"/>
+      <c r="AH60" s="51"/>
+      <c r="AI60" s="51"/>
+      <c r="AJ60" s="51"/>
+      <c r="AK60" s="51"/>
+      <c r="AL60" s="51"/>
+      <c r="AM60" s="51"/>
     </row>
     <row r="61" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="302"/>
-      <c r="B61" s="303"/>
-      <c r="C61" s="294"/>
-      <c r="D61" s="295"/>
-      <c r="E61" s="295"/>
-      <c r="F61" s="295"/>
-      <c r="G61" s="295"/>
-      <c r="H61" s="295"/>
-      <c r="I61" s="295"/>
-      <c r="J61" s="295"/>
-      <c r="K61" s="295"/>
-      <c r="L61" s="295"/>
-      <c r="M61" s="295"/>
-      <c r="N61" s="295"/>
-      <c r="O61" s="295"/>
-      <c r="P61" s="295"/>
-      <c r="Q61" s="296"/>
-      <c r="R61" s="281"/>
-      <c r="S61" s="281"/>
-      <c r="T61" s="283"/>
-      <c r="U61" s="283"/>
-      <c r="V61" s="293"/>
-      <c r="W61" s="293"/>
-      <c r="X61" s="293"/>
-      <c r="Y61" s="293"/>
-      <c r="Z61" s="293"/>
-      <c r="AA61" s="293"/>
-      <c r="AB61" s="293"/>
-      <c r="AC61" s="293"/>
-      <c r="AD61" s="293"/>
-      <c r="AE61" s="293"/>
-      <c r="AF61" s="293"/>
-      <c r="AG61" s="293"/>
-      <c r="AH61" s="293"/>
-      <c r="AI61" s="293"/>
-      <c r="AJ61" s="293"/>
-      <c r="AK61" s="293"/>
-      <c r="AL61" s="293"/>
-      <c r="AM61" s="293"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="51"/>
     </row>
     <row r="62" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="302"/>
-      <c r="B62" s="303"/>
-      <c r="C62" s="294"/>
-      <c r="D62" s="295"/>
-      <c r="E62" s="295"/>
-      <c r="F62" s="295"/>
-      <c r="G62" s="295"/>
-      <c r="H62" s="295"/>
-      <c r="I62" s="295"/>
-      <c r="J62" s="295"/>
-      <c r="K62" s="295"/>
-      <c r="L62" s="295"/>
-      <c r="M62" s="295"/>
-      <c r="N62" s="295"/>
-      <c r="O62" s="295"/>
-      <c r="P62" s="295"/>
-      <c r="Q62" s="296"/>
-      <c r="R62" s="281"/>
-      <c r="S62" s="281"/>
-      <c r="T62" s="283"/>
-      <c r="U62" s="283"/>
-      <c r="V62" s="293"/>
-      <c r="W62" s="293"/>
-      <c r="X62" s="293"/>
-      <c r="Y62" s="293"/>
-      <c r="Z62" s="293"/>
-      <c r="AA62" s="293"/>
-      <c r="AB62" s="293"/>
-      <c r="AC62" s="293"/>
-      <c r="AD62" s="293"/>
-      <c r="AE62" s="293"/>
-      <c r="AF62" s="293"/>
-      <c r="AG62" s="293"/>
-      <c r="AH62" s="293"/>
-      <c r="AI62" s="293"/>
-      <c r="AJ62" s="293"/>
-      <c r="AK62" s="293"/>
-      <c r="AL62" s="293"/>
-      <c r="AM62" s="293"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="51"/>
+      <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="51"/>
+      <c r="AJ62" s="51"/>
+      <c r="AK62" s="51"/>
+      <c r="AL62" s="51"/>
+      <c r="AM62" s="51"/>
     </row>
     <row r="63" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="302"/>
-      <c r="B63" s="303"/>
-      <c r="C63" s="294"/>
-      <c r="D63" s="295"/>
-      <c r="E63" s="295"/>
-      <c r="F63" s="295"/>
-      <c r="G63" s="295"/>
-      <c r="H63" s="295"/>
-      <c r="I63" s="295"/>
-      <c r="J63" s="295"/>
-      <c r="K63" s="295"/>
-      <c r="L63" s="295"/>
-      <c r="M63" s="295"/>
-      <c r="N63" s="295"/>
-      <c r="O63" s="295"/>
-      <c r="P63" s="295"/>
-      <c r="Q63" s="296"/>
-      <c r="R63" s="281"/>
-      <c r="S63" s="281"/>
-      <c r="T63" s="283"/>
-      <c r="U63" s="283"/>
-      <c r="V63" s="293"/>
-      <c r="W63" s="293"/>
-      <c r="X63" s="293"/>
-      <c r="Y63" s="293"/>
-      <c r="Z63" s="293"/>
-      <c r="AA63" s="293"/>
-      <c r="AB63" s="293"/>
-      <c r="AC63" s="293"/>
-      <c r="AD63" s="293"/>
-      <c r="AE63" s="293"/>
-      <c r="AF63" s="293"/>
-      <c r="AG63" s="293"/>
-      <c r="AH63" s="293"/>
-      <c r="AI63" s="293"/>
-      <c r="AJ63" s="293"/>
-      <c r="AK63" s="293"/>
-      <c r="AL63" s="293"/>
-      <c r="AM63" s="293"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="51"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="51"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+      <c r="AH63" s="51"/>
+      <c r="AI63" s="51"/>
+      <c r="AJ63" s="51"/>
+      <c r="AK63" s="51"/>
+      <c r="AL63" s="51"/>
+      <c r="AM63" s="51"/>
     </row>
     <row r="64" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="302"/>
-      <c r="B64" s="303"/>
-      <c r="C64" s="294"/>
-      <c r="D64" s="295"/>
-      <c r="E64" s="295"/>
-      <c r="F64" s="295"/>
-      <c r="G64" s="295"/>
-      <c r="H64" s="295"/>
-      <c r="I64" s="295"/>
-      <c r="J64" s="295"/>
-      <c r="K64" s="295"/>
-      <c r="L64" s="295"/>
-      <c r="M64" s="295"/>
-      <c r="N64" s="295"/>
-      <c r="O64" s="295"/>
-      <c r="P64" s="295"/>
-      <c r="Q64" s="296"/>
-      <c r="R64" s="281"/>
-      <c r="S64" s="281"/>
-      <c r="T64" s="283"/>
-      <c r="U64" s="283"/>
-      <c r="V64" s="293"/>
-      <c r="W64" s="293"/>
-      <c r="X64" s="293"/>
-      <c r="Y64" s="293"/>
-      <c r="Z64" s="293"/>
-      <c r="AA64" s="293"/>
-      <c r="AB64" s="293"/>
-      <c r="AC64" s="293"/>
-      <c r="AD64" s="293"/>
-      <c r="AE64" s="293"/>
-      <c r="AF64" s="293"/>
-      <c r="AG64" s="293"/>
-      <c r="AH64" s="293"/>
-      <c r="AI64" s="293"/>
-      <c r="AJ64" s="293"/>
-      <c r="AK64" s="293"/>
-      <c r="AL64" s="293"/>
-      <c r="AM64" s="293"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="51"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="51"/>
+      <c r="AI64" s="51"/>
+      <c r="AJ64" s="51"/>
+      <c r="AK64" s="51"/>
+      <c r="AL64" s="51"/>
+      <c r="AM64" s="51"/>
     </row>
     <row r="65" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="302"/>
-      <c r="B65" s="303"/>
-      <c r="C65" s="294"/>
-      <c r="D65" s="295"/>
-      <c r="E65" s="295"/>
-      <c r="F65" s="295"/>
-      <c r="G65" s="295"/>
-      <c r="H65" s="295"/>
-      <c r="I65" s="295"/>
-      <c r="J65" s="295"/>
-      <c r="K65" s="295"/>
-      <c r="L65" s="295"/>
-      <c r="M65" s="295"/>
-      <c r="N65" s="295"/>
-      <c r="O65" s="295"/>
-      <c r="P65" s="295"/>
-      <c r="Q65" s="296"/>
-      <c r="R65" s="281"/>
-      <c r="S65" s="281"/>
-      <c r="T65" s="283"/>
-      <c r="U65" s="283"/>
-      <c r="V65" s="293"/>
-      <c r="W65" s="293"/>
-      <c r="X65" s="293"/>
-      <c r="Y65" s="293"/>
-      <c r="Z65" s="293"/>
-      <c r="AA65" s="293"/>
-      <c r="AB65" s="293"/>
-      <c r="AC65" s="293"/>
-      <c r="AD65" s="293"/>
-      <c r="AE65" s="293"/>
-      <c r="AF65" s="293"/>
-      <c r="AG65" s="293"/>
-      <c r="AH65" s="293"/>
-      <c r="AI65" s="293"/>
-      <c r="AJ65" s="293"/>
-      <c r="AK65" s="293"/>
-      <c r="AL65" s="293"/>
-      <c r="AM65" s="293"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="51"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="51"/>
+      <c r="AE65" s="51"/>
+      <c r="AF65" s="51"/>
+      <c r="AG65" s="51"/>
+      <c r="AH65" s="51"/>
+      <c r="AI65" s="51"/>
+      <c r="AJ65" s="51"/>
+      <c r="AK65" s="51"/>
+      <c r="AL65" s="51"/>
+      <c r="AM65" s="51"/>
     </row>
     <row r="66" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="302"/>
-      <c r="B66" s="303"/>
-      <c r="C66" s="294"/>
-      <c r="D66" s="295"/>
-      <c r="E66" s="295"/>
-      <c r="F66" s="295"/>
-      <c r="G66" s="295"/>
-      <c r="H66" s="295"/>
-      <c r="I66" s="295"/>
-      <c r="J66" s="295"/>
-      <c r="K66" s="295"/>
-      <c r="L66" s="295"/>
-      <c r="M66" s="295"/>
-      <c r="N66" s="295"/>
-      <c r="O66" s="295"/>
-      <c r="P66" s="295"/>
-      <c r="Q66" s="296"/>
-      <c r="R66" s="281"/>
-      <c r="S66" s="281"/>
-      <c r="T66" s="283"/>
-      <c r="U66" s="283"/>
-      <c r="V66" s="293"/>
-      <c r="W66" s="293"/>
-      <c r="X66" s="293"/>
-      <c r="Y66" s="293"/>
-      <c r="Z66" s="293"/>
-      <c r="AA66" s="293"/>
-      <c r="AB66" s="293"/>
-      <c r="AC66" s="293"/>
-      <c r="AD66" s="293"/>
-      <c r="AE66" s="293"/>
-      <c r="AF66" s="293"/>
-      <c r="AG66" s="293"/>
-      <c r="AH66" s="293"/>
-      <c r="AI66" s="293"/>
-      <c r="AJ66" s="293"/>
-      <c r="AK66" s="293"/>
-      <c r="AL66" s="293"/>
-      <c r="AM66" s="293"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="51"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="51"/>
+      <c r="AE66" s="51"/>
+      <c r="AF66" s="51"/>
+      <c r="AG66" s="51"/>
+      <c r="AH66" s="51"/>
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="51"/>
+      <c r="AK66" s="51"/>
+      <c r="AL66" s="51"/>
+      <c r="AM66" s="51"/>
     </row>
     <row r="67" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="304"/>
-      <c r="B67" s="305"/>
-      <c r="C67" s="297"/>
-      <c r="D67" s="298"/>
-      <c r="E67" s="298"/>
-      <c r="F67" s="298"/>
-      <c r="G67" s="298"/>
-      <c r="H67" s="298"/>
-      <c r="I67" s="298"/>
-      <c r="J67" s="298"/>
-      <c r="K67" s="298"/>
-      <c r="L67" s="298"/>
-      <c r="M67" s="298"/>
-      <c r="N67" s="298"/>
-      <c r="O67" s="298"/>
-      <c r="P67" s="298"/>
-      <c r="Q67" s="299"/>
-      <c r="R67" s="281"/>
-      <c r="S67" s="281"/>
-      <c r="T67" s="283"/>
-      <c r="U67" s="283"/>
-      <c r="V67" s="293"/>
-      <c r="W67" s="293"/>
-      <c r="X67" s="293"/>
-      <c r="Y67" s="293"/>
-      <c r="Z67" s="293"/>
-      <c r="AA67" s="293"/>
-      <c r="AB67" s="293"/>
-      <c r="AC67" s="293"/>
-      <c r="AD67" s="293"/>
-      <c r="AE67" s="293"/>
-      <c r="AF67" s="293"/>
-      <c r="AG67" s="293"/>
-      <c r="AH67" s="293"/>
-      <c r="AI67" s="293"/>
-      <c r="AJ67" s="293"/>
-      <c r="AK67" s="293"/>
-      <c r="AL67" s="293"/>
-      <c r="AM67" s="293"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="51"/>
+      <c r="W67" s="51"/>
+      <c r="X67" s="51"/>
+      <c r="Y67" s="51"/>
+      <c r="Z67" s="51"/>
+      <c r="AA67" s="51"/>
+      <c r="AB67" s="51"/>
+      <c r="AC67" s="51"/>
+      <c r="AD67" s="51"/>
+      <c r="AE67" s="51"/>
+      <c r="AF67" s="51"/>
+      <c r="AG67" s="51"/>
+      <c r="AH67" s="51"/>
+      <c r="AI67" s="51"/>
+      <c r="AJ67" s="51"/>
+      <c r="AK67" s="51"/>
+      <c r="AL67" s="51"/>
+      <c r="AM67" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="292">
+    <mergeCell ref="AO21:AS21"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="AT22:AV22"/>
+    <mergeCell ref="AR25:AV25"/>
+    <mergeCell ref="AJ42:AM44"/>
+    <mergeCell ref="AG38:AM38"/>
+    <mergeCell ref="Z34:AF34"/>
+    <mergeCell ref="Z36:AF36"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="AG36:AM36"/>
+    <mergeCell ref="AG34:AM34"/>
+    <mergeCell ref="Z35:AF35"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AW21:AY21"/>
+    <mergeCell ref="AW22:AY22"/>
+    <mergeCell ref="Z33:AF33"/>
+    <mergeCell ref="AG32:AM32"/>
+    <mergeCell ref="Z29:AF29"/>
+    <mergeCell ref="AG27:AM27"/>
+    <mergeCell ref="AG26:AM26"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AG22:AM22"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="AG28:AM28"/>
+    <mergeCell ref="Z27:AF27"/>
+    <mergeCell ref="Z26:AF26"/>
+    <mergeCell ref="AG24:AM24"/>
+    <mergeCell ref="AG30:AM30"/>
+    <mergeCell ref="AG29:AM29"/>
+    <mergeCell ref="AG31:AM31"/>
+    <mergeCell ref="AG33:AM33"/>
+    <mergeCell ref="AO24:AV24"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AR31:AV31"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="AR26:AV26"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="AG23:AM23"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z14:AI14"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG19:AM19"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z7:AM7"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AG21:AM21"/>
+    <mergeCell ref="AG16:AM16"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AG8:AM8"/>
+    <mergeCell ref="Z3:AI3"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AJ3:AM6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:AI6"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:B23"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="G18:Q18"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="AG25:AM25"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="Z24:AF24"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AF25"/>
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="AG20:AM20"/>
+    <mergeCell ref="AJ13:AM15"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="Z15:AI15"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="T18:U23"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AG18:AM18"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="X44:AA44"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:B31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:Q46"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="G28:Q28"/>
+    <mergeCell ref="G19:Q19"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="A32:B39"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="G37:Q37"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G36:Q36"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="AO29:AV29"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G15:Q15"/>
+    <mergeCell ref="T24:U31"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="G27:Q27"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="Z4:AI4"/>
+    <mergeCell ref="Z5:AI5"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="AG37:AM37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="T32:U39"/>
+    <mergeCell ref="AG35:AM35"/>
+    <mergeCell ref="Z32:AF32"/>
+    <mergeCell ref="Z31:AF31"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="AG39:AM39"/>
+    <mergeCell ref="AO18:AS18"/>
+    <mergeCell ref="AO19:AS19"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AR30:AV30"/>
+    <mergeCell ref="Z38:AF38"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AM10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:AM53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="D57:J58"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
     <mergeCell ref="A60:B67"/>
     <mergeCell ref="C60:Q67"/>
     <mergeCell ref="T60:U67"/>
@@ -9591,274 +9862,6 @@
     <mergeCell ref="R49:AM50"/>
     <mergeCell ref="K51:Q52"/>
     <mergeCell ref="R51:AM52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:AM53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="D57:J58"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="AG39:AM39"/>
-    <mergeCell ref="AO18:AS18"/>
-    <mergeCell ref="AO19:AS19"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AR30:AV30"/>
-    <mergeCell ref="Z38:AF38"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AM10"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="AG37:AM37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="T32:U39"/>
-    <mergeCell ref="AG35:AM35"/>
-    <mergeCell ref="Z32:AF32"/>
-    <mergeCell ref="Z31:AF31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="AO29:AV29"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G15:Q15"/>
-    <mergeCell ref="T24:U31"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="G27:Q27"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="Z4:AI4"/>
-    <mergeCell ref="Z5:AI5"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="A32:B39"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G36:Q36"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:Q46"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G39:Q39"/>
-    <mergeCell ref="G28:Q28"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:B31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="X44:AA44"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="AG20:AM20"/>
-    <mergeCell ref="AJ13:AM15"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="Z15:AI15"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="T18:U23"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="AG18:AM18"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG25:AM25"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="Z24:AF24"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z30:AF30"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AF25"/>
-    <mergeCell ref="G24:Q24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:AI6"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:B23"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="G18:Q18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="AG23:AM23"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z14:AI14"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG19:AM19"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="Z7:AM7"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AG21:AM21"/>
-    <mergeCell ref="AG16:AM16"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="AG8:AM8"/>
-    <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AJ3:AM6"/>
-    <mergeCell ref="AW21:AY21"/>
-    <mergeCell ref="AW22:AY22"/>
-    <mergeCell ref="Z33:AF33"/>
-    <mergeCell ref="AG32:AM32"/>
-    <mergeCell ref="Z29:AF29"/>
-    <mergeCell ref="AG27:AM27"/>
-    <mergeCell ref="AG26:AM26"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AG22:AM22"/>
-    <mergeCell ref="Z28:AF28"/>
-    <mergeCell ref="AG28:AM28"/>
-    <mergeCell ref="Z27:AF27"/>
-    <mergeCell ref="Z26:AF26"/>
-    <mergeCell ref="AG24:AM24"/>
-    <mergeCell ref="AG30:AM30"/>
-    <mergeCell ref="AG29:AM29"/>
-    <mergeCell ref="AG31:AM31"/>
-    <mergeCell ref="AG33:AM33"/>
-    <mergeCell ref="AO24:AV24"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AR31:AV31"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AR26:AV26"/>
-    <mergeCell ref="AO21:AS21"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="AT22:AV22"/>
-    <mergeCell ref="AR25:AV25"/>
-    <mergeCell ref="AJ42:AM44"/>
-    <mergeCell ref="AG38:AM38"/>
-    <mergeCell ref="Z34:AF34"/>
-    <mergeCell ref="Z36:AF36"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="AG36:AM36"/>
-    <mergeCell ref="AG34:AM34"/>
-    <mergeCell ref="Z35:AF35"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AA42:AC42"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Z8:AE8">

--- a/excel/contrcat_10102.xlsx
+++ b/excel/contrcat_10102.xlsx
@@ -48,7 +48,7 @@
     <definedName name="他社決定時の案件内容確認">[1]ダウンリスト!$W$1:$W$3</definedName>
     <definedName name="締め">[1]ダウンリスト!$I$1:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
   <si>
     <t>無</t>
     <rPh sb="0" eb="1">
@@ -1003,12 +1003,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>派遣契約
-に関する
-通知</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>就業場所</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
@@ -1155,34 +1149,85 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※営業支援費に関する覚書は、都度発行とする</t>
+    <t>管理本部</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホンブ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>名称・部署</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブショ</t>
-    </rPh>
+    <t>派遣契約
+に関する
+通知</t>
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="3"/>
+    <t>名称お・部署</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="3"/>
+    <t>派遣先電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>管理本部</t>
+    <t>派遣元電話番号</t>
     <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホンブ</t>
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>※営業支援費に関する覚書は、都度発行とする</t>
+    <rPh sb="1" eb="3">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オボエガキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1294,7 +1339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,6 +1364,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="70">
     <border>
@@ -2181,7 +2231,7 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2269,14 +2319,779 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2326,9 +3141,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2353,806 +3165,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5929,10 +6033,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN67"/>
+  <dimension ref="A1:BN71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ42" sqref="AJ42:AM44"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5949,116 +6053,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="283" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AX1" s="73" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="283"/>
+      <c r="K1" s="283"/>
+      <c r="L1" s="283"/>
+      <c r="M1" s="283"/>
+      <c r="N1" s="283"/>
+      <c r="O1" s="283"/>
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="283"/>
+      <c r="S1" s="283"/>
+      <c r="T1" s="283"/>
+      <c r="U1" s="283"/>
+      <c r="V1" s="283"/>
+      <c r="W1" s="283"/>
+      <c r="X1" s="283"/>
+      <c r="Y1" s="283"/>
+      <c r="Z1" s="283"/>
+      <c r="AA1" s="283"/>
+      <c r="AB1" s="283"/>
+      <c r="AC1" s="283"/>
+      <c r="AD1" s="283"/>
+      <c r="AE1" s="283"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="283"/>
+      <c r="AH1" s="283"/>
+      <c r="AI1" s="283"/>
+      <c r="AJ1" s="283"/>
+      <c r="AK1" s="283"/>
+      <c r="AL1" s="283"/>
+      <c r="AM1" s="283"/>
+      <c r="AX1" s="267" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
+      <c r="AY1" s="267"/>
+      <c r="AZ1" s="267"/>
+      <c r="BA1" s="267"/>
+      <c r="BB1" s="267"/>
       <c r="BC1" s="13"/>
-      <c r="BD1" s="73" t="s">
+      <c r="BD1" s="267" t="s">
         <v>75</v>
       </c>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BJ1" s="73" t="s">
+      <c r="BE1" s="267"/>
+      <c r="BF1" s="267"/>
+      <c r="BG1" s="267"/>
+      <c r="BH1" s="267"/>
+      <c r="BJ1" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
+      <c r="BK1" s="267"/>
+      <c r="BL1" s="267"/>
+      <c r="BM1" s="267"/>
+      <c r="BN1" s="267"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="285" t="s">
+      <c r="A2" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="287"/>
-      <c r="T2" s="126" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="127" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="74" t="s">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="76"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="108"/>
       <c r="AX2" s="16"/>
       <c r="AY2" s="17"/>
       <c r="AZ2" s="17"/>
@@ -6091,47 +6195,47 @@
       </c>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="275" t="s">
+      <c r="A3" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="168"/>
-      <c r="T3" s="247" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="111"/>
+      <c r="T3" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="249"/>
-      <c r="Z3" s="311"/>
-      <c r="AA3" s="311"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="311"/>
-      <c r="AD3" s="311"/>
-      <c r="AE3" s="311"/>
-      <c r="AF3" s="311"/>
-      <c r="AG3" s="311"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="312"/>
-      <c r="AJ3" s="313"/>
-      <c r="AK3" s="314"/>
-      <c r="AL3" s="314"/>
-      <c r="AM3" s="315"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="38"/>
       <c r="AX3" s="20"/>
       <c r="AY3" s="21"/>
       <c r="AZ3" s="21"/>
@@ -6164,47 +6268,47 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="111"/>
-      <c r="T4" s="115" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="133"/>
+      <c r="T4" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="316"/>
-      <c r="AK4" s="317"/>
-      <c r="AL4" s="317"/>
-      <c r="AM4" s="318"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="261"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="41"/>
       <c r="AX4" s="20"/>
       <c r="AY4" s="21"/>
       <c r="AZ4" s="21"/>
@@ -6237,48 +6341,48 @@
       </c>
     </row>
     <row r="5" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="111"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="133"/>
       <c r="R5" s="3"/>
-      <c r="T5" s="205" t="s">
+      <c r="T5" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="185"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="185"/>
-      <c r="AG5" s="185"/>
-      <c r="AH5" s="185"/>
-      <c r="AI5" s="186"/>
-      <c r="AJ5" s="316"/>
-      <c r="AK5" s="317"/>
-      <c r="AL5" s="317"/>
-      <c r="AM5" s="318"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="262"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="41"/>
       <c r="AX5" s="20"/>
       <c r="AY5" s="21"/>
       <c r="AZ5" s="21"/>
@@ -6296,48 +6400,48 @@
       <c r="BN5" s="23"/>
     </row>
     <row r="6" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="276" t="s">
+      <c r="A6" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="160"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="120"/>
       <c r="R6" s="3"/>
-      <c r="T6" s="282" t="s">
+      <c r="T6" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="283"/>
-      <c r="V6" s="283"/>
-      <c r="W6" s="283"/>
-      <c r="X6" s="283"/>
-      <c r="Y6" s="283"/>
-      <c r="Z6" s="283"/>
-      <c r="AA6" s="283"/>
-      <c r="AB6" s="283"/>
-      <c r="AC6" s="283"/>
-      <c r="AD6" s="283"/>
-      <c r="AE6" s="283"/>
-      <c r="AF6" s="283"/>
-      <c r="AG6" s="283"/>
-      <c r="AH6" s="283"/>
-      <c r="AI6" s="284"/>
-      <c r="AJ6" s="319"/>
-      <c r="AK6" s="320"/>
-      <c r="AL6" s="320"/>
-      <c r="AM6" s="321"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="44"/>
       <c r="AX6" s="20"/>
       <c r="AY6" s="21"/>
       <c r="AZ6" s="21"/>
@@ -6355,55 +6459,55 @@
       <c r="BN6" s="23"/>
     </row>
     <row r="7" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="272" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="274"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="150" t="s">
+      <c r="H7" s="88"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="278">
+      <c r="M7" s="238"/>
+      <c r="N7" s="239"/>
+      <c r="O7" s="115">
         <f>I7-D7-O8</f>
         <v>0</v>
       </c>
-      <c r="P7" s="279"/>
-      <c r="Q7" s="280"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="117"/>
       <c r="R7" s="3"/>
-      <c r="T7" s="126" t="s">
+      <c r="T7" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="308"/>
-      <c r="AA7" s="309"/>
-      <c r="AB7" s="309"/>
-      <c r="AC7" s="309"/>
-      <c r="AD7" s="309"/>
-      <c r="AE7" s="309"/>
-      <c r="AF7" s="309"/>
-      <c r="AG7" s="309"/>
-      <c r="AH7" s="309"/>
-      <c r="AI7" s="309"/>
-      <c r="AJ7" s="309"/>
-      <c r="AK7" s="309"/>
-      <c r="AL7" s="309"/>
-      <c r="AM7" s="310"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="100"/>
       <c r="AX7" s="20"/>
       <c r="AY7" s="21"/>
       <c r="AZ7" s="21"/>
@@ -6421,57 +6525,57 @@
       <c r="BN7" s="23"/>
     </row>
     <row r="8" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="172" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="173"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="164" t="s">
+      <c r="H8" s="102"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="165"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="169">
+      <c r="M8" s="244"/>
+      <c r="N8" s="245"/>
+      <c r="O8" s="246">
         <f>I8-D8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="171"/>
+      <c r="P8" s="247"/>
+      <c r="Q8" s="248"/>
       <c r="R8" s="3"/>
-      <c r="T8" s="172" t="s">
+      <c r="T8" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="U8" s="303"/>
-      <c r="V8" s="303"/>
-      <c r="W8" s="303"/>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="303"/>
-      <c r="Z8" s="205"/>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="185"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
       <c r="AF8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="185"/>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="185"/>
-      <c r="AK8" s="185"/>
-      <c r="AL8" s="185"/>
-      <c r="AM8" s="186"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="103"/>
       <c r="AR8" s="3"/>
       <c r="AX8" s="20"/>
       <c r="AY8" s="21"/>
@@ -6512,51 +6616,51 @@
       <c r="BN9" s="23"/>
     </row>
     <row r="10" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="229" t="s">
+      <c r="A10" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="167"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="168"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="3"/>
-      <c r="T10" s="272" t="s">
+      <c r="T10" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="273"/>
-      <c r="V10" s="273"/>
-      <c r="W10" s="273"/>
-      <c r="X10" s="273"/>
-      <c r="Y10" s="274"/>
-      <c r="Z10" s="112">
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="185">
         <f>Z8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="114"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="186"/>
+      <c r="AI10" s="186"/>
+      <c r="AJ10" s="186"/>
+      <c r="AK10" s="186"/>
+      <c r="AL10" s="186"/>
+      <c r="AM10" s="282"/>
       <c r="AR10" s="3"/>
       <c r="AX10" s="20"/>
       <c r="AY10" s="21"/>
@@ -6575,52 +6679,52 @@
       <c r="BN10" s="23"/>
     </row>
     <row r="11" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="111"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="133"/>
       <c r="R11" s="3"/>
-      <c r="T11" s="115" t="s">
+      <c r="T11" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="110" t="s">
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="103" t="s">
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="107"/>
-      <c r="AI11" s="107"/>
-      <c r="AJ11" s="108"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="108"/>
-      <c r="AM11" s="109"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="277"/>
+      <c r="AE11" s="278"/>
+      <c r="AF11" s="279"/>
+      <c r="AG11" s="279"/>
+      <c r="AH11" s="279"/>
+      <c r="AI11" s="279"/>
+      <c r="AJ11" s="280"/>
+      <c r="AK11" s="280"/>
+      <c r="AL11" s="280"/>
+      <c r="AM11" s="281"/>
       <c r="AR11" s="3"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="21"/>
@@ -6654,50 +6758,50 @@
       </c>
     </row>
     <row r="12" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="160"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="120"/>
       <c r="R12" s="3"/>
-      <c r="T12" s="244" t="s">
+      <c r="T12" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="245"/>
-      <c r="V12" s="245"/>
-      <c r="W12" s="245"/>
-      <c r="X12" s="245"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="233"/>
-      <c r="AA12" s="234"/>
-      <c r="AB12" s="234"/>
-      <c r="AC12" s="234"/>
-      <c r="AD12" s="234"/>
-      <c r="AE12" s="234"/>
-      <c r="AF12" s="234"/>
-      <c r="AG12" s="234"/>
-      <c r="AH12" s="234"/>
-      <c r="AI12" s="235"/>
-      <c r="AJ12" s="253" t="s">
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="166"/>
+      <c r="AJ12" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="AK12" s="254"/>
-      <c r="AL12" s="254"/>
-      <c r="AM12" s="255"/>
+      <c r="AK12" s="179"/>
+      <c r="AL12" s="179"/>
+      <c r="AM12" s="180"/>
       <c r="AR12" s="11"/>
       <c r="AX12" s="20"/>
       <c r="AY12" s="21"/>
@@ -6731,58 +6835,58 @@
       </c>
     </row>
     <row r="13" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="111"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="133"/>
       <c r="R13" s="3"/>
-      <c r="T13" s="250" t="s">
+      <c r="T13" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="251"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="112" t="str">
+      <c r="U13" s="162"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="185" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="248"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="100" t="s">
+      <c r="X13" s="186"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="247" t="str">
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="274"/>
+      <c r="AE13" s="95" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="AF13" s="248"/>
-      <c r="AG13" s="248"/>
-      <c r="AH13" s="248"/>
-      <c r="AI13" s="249"/>
-      <c r="AJ13" s="236">
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="167">
         <v>80</v>
       </c>
-      <c r="AK13" s="237"/>
-      <c r="AL13" s="237"/>
-      <c r="AM13" s="238"/>
+      <c r="AK13" s="168"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="169"/>
       <c r="AR13" s="3"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="21"/>
@@ -6816,51 +6920,51 @@
       </c>
     </row>
     <row r="14" spans="1:66" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="157"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="69"/>
       <c r="R14" s="3"/>
-      <c r="T14" s="270" t="s">
+      <c r="T14" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="261"/>
-      <c r="X14" s="261"/>
-      <c r="Y14" s="262"/>
-      <c r="Z14" s="305" t="str">
+      <c r="U14" s="157"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="89" t="str">
         <f>IF(G15&lt;&gt;"",G15,"")</f>
         <v/>
       </c>
-      <c r="AA14" s="306"/>
-      <c r="AB14" s="306"/>
-      <c r="AC14" s="306"/>
-      <c r="AD14" s="306"/>
-      <c r="AE14" s="306"/>
-      <c r="AF14" s="306"/>
-      <c r="AG14" s="306"/>
-      <c r="AH14" s="306"/>
-      <c r="AI14" s="307"/>
-      <c r="AJ14" s="236"/>
-      <c r="AK14" s="239"/>
-      <c r="AL14" s="239"/>
-      <c r="AM14" s="240"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="167"/>
+      <c r="AK14" s="170"/>
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="171"/>
       <c r="AR14" s="3"/>
       <c r="AX14" s="24"/>
       <c r="AY14" s="25"/>
@@ -6879,100 +6983,100 @@
       <c r="BN14" s="26"/>
     </row>
     <row r="15" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="190"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="176"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="250"/>
+      <c r="I15" s="250"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="250"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="250"/>
+      <c r="N15" s="250"/>
+      <c r="O15" s="250"/>
+      <c r="P15" s="250"/>
+      <c r="Q15" s="251"/>
       <c r="R15" s="3"/>
-      <c r="T15" s="172" t="s">
+      <c r="T15" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="303"/>
-      <c r="V15" s="303"/>
-      <c r="W15" s="303"/>
-      <c r="X15" s="303"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="256" t="str">
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="181" t="str">
         <f>IF(G16&lt;&gt;"",G16,"")</f>
         <v/>
       </c>
-      <c r="AA15" s="257"/>
-      <c r="AB15" s="257"/>
-      <c r="AC15" s="257"/>
-      <c r="AD15" s="257"/>
-      <c r="AE15" s="257"/>
-      <c r="AF15" s="257"/>
-      <c r="AG15" s="257"/>
-      <c r="AH15" s="257"/>
-      <c r="AI15" s="258"/>
-      <c r="AJ15" s="241"/>
-      <c r="AK15" s="242"/>
-      <c r="AL15" s="242"/>
-      <c r="AM15" s="243"/>
+      <c r="AA15" s="182"/>
+      <c r="AB15" s="182"/>
+      <c r="AC15" s="182"/>
+      <c r="AD15" s="182"/>
+      <c r="AE15" s="182"/>
+      <c r="AF15" s="182"/>
+      <c r="AG15" s="182"/>
+      <c r="AH15" s="182"/>
+      <c r="AI15" s="183"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="173"/>
+      <c r="AL15" s="173"/>
+      <c r="AM15" s="174"/>
       <c r="AR15" s="10"/>
     </row>
     <row r="16" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="212"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="212"/>
-      <c r="O16" s="212"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="213"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="229"/>
+      <c r="K16" s="229"/>
+      <c r="L16" s="229"/>
+      <c r="M16" s="229"/>
+      <c r="N16" s="229"/>
+      <c r="O16" s="229"/>
+      <c r="P16" s="229"/>
+      <c r="Q16" s="230"/>
       <c r="R16" s="3"/>
-      <c r="T16" s="177" t="s">
+      <c r="T16" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="U16" s="178"/>
-      <c r="V16" s="178"/>
-      <c r="W16" s="178"/>
-      <c r="X16" s="178"/>
-      <c r="Y16" s="179"/>
-      <c r="Z16" s="271" t="s">
+      <c r="U16" s="259"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="259"/>
+      <c r="X16" s="259"/>
+      <c r="Y16" s="260"/>
+      <c r="Z16" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" s="271"/>
-      <c r="AB16" s="271"/>
-      <c r="AC16" s="271"/>
-      <c r="AD16" s="271"/>
-      <c r="AE16" s="271"/>
-      <c r="AF16" s="271"/>
-      <c r="AG16" s="271" t="s">
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="AH16" s="271"/>
-      <c r="AI16" s="271"/>
-      <c r="AJ16" s="271"/>
-      <c r="AK16" s="271"/>
-      <c r="AL16" s="271"/>
-      <c r="AM16" s="271"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="101"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="101"/>
       <c r="AR16" s="3"/>
     </row>
     <row r="17" spans="1:59" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7013,449 +7117,449 @@
       <c r="AR17" s="3"/>
     </row>
     <row r="18" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="288" t="s">
+      <c r="A18" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="289"/>
-      <c r="C18" s="214" t="s">
+      <c r="B18" s="139"/>
+      <c r="C18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="128"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
       <c r="R18" s="3"/>
-      <c r="T18" s="263" t="s">
+      <c r="T18" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="264"/>
-      <c r="V18" s="260" t="s">
+      <c r="U18" s="191"/>
+      <c r="V18" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="261"/>
-      <c r="X18" s="261"/>
-      <c r="Y18" s="262"/>
-      <c r="Z18" s="259" t="str">
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="184" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AA18" s="259"/>
-      <c r="AB18" s="259"/>
-      <c r="AC18" s="259"/>
-      <c r="AD18" s="259"/>
-      <c r="AE18" s="259"/>
-      <c r="AF18" s="259"/>
-      <c r="AG18" s="259" t="str">
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="184"/>
+      <c r="AG18" s="184" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AH18" s="259"/>
-      <c r="AI18" s="259"/>
-      <c r="AJ18" s="259"/>
-      <c r="AK18" s="259"/>
-      <c r="AL18" s="259"/>
-      <c r="AM18" s="259"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="184"/>
+      <c r="AJ18" s="184"/>
+      <c r="AK18" s="184"/>
+      <c r="AL18" s="184"/>
+      <c r="AM18" s="184"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="83" t="s">
+      <c r="AO18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="96"/>
-      <c r="AZ18" s="96"/>
-      <c r="BA18" s="96"/>
-      <c r="BB18" s="96"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AX18" s="268"/>
+      <c r="AY18" s="269"/>
+      <c r="AZ18" s="269"/>
+      <c r="BA18" s="269"/>
+      <c r="BB18" s="269"/>
     </row>
     <row r="19" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="290"/>
-      <c r="B19" s="291"/>
-      <c r="C19" s="129" t="s">
+      <c r="A19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="3"/>
-      <c r="T19" s="265"/>
-      <c r="U19" s="266"/>
-      <c r="V19" s="77" t="s">
+      <c r="T19" s="192"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="187" t="str">
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="93" t="str">
         <f>IF(G19&lt;&gt;"",G19*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA19" s="188"/>
-      <c r="AB19" s="188"/>
-      <c r="AC19" s="188"/>
-      <c r="AD19" s="188"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="188"/>
-      <c r="AG19" s="187" t="str">
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="93" t="str">
         <f>IF(G19&lt;&gt;"",G19*(((AJ13-20)/100)),"")</f>
         <v/>
       </c>
-      <c r="AH19" s="188"/>
-      <c r="AI19" s="188"/>
-      <c r="AJ19" s="188"/>
-      <c r="AK19" s="188"/>
-      <c r="AL19" s="188"/>
-      <c r="AM19" s="188"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
       <c r="AN19" s="7"/>
-      <c r="AO19" s="85"/>
-      <c r="AP19" s="85"/>
-      <c r="AQ19" s="85"/>
-      <c r="AR19" s="85"/>
-      <c r="AS19" s="85"/>
-      <c r="AX19" s="97"/>
-      <c r="AY19" s="98"/>
-      <c r="AZ19" s="98"/>
-      <c r="BA19" s="98"/>
-      <c r="BB19" s="98"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AX19" s="270"/>
+      <c r="AY19" s="271"/>
+      <c r="AZ19" s="271"/>
+      <c r="BA19" s="271"/>
+      <c r="BB19" s="271"/>
     </row>
     <row r="20" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="290"/>
-      <c r="B20" s="291"/>
-      <c r="C20" s="129" t="s">
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="117"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
       <c r="R20" s="3"/>
-      <c r="T20" s="265"/>
-      <c r="U20" s="266"/>
-      <c r="V20" s="77" t="s">
+      <c r="T20" s="192"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="99" t="str">
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="92" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99" t="str">
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
       <c r="AN20" s="3"/>
       <c r="AR20" s="3"/>
     </row>
     <row r="21" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="290"/>
-      <c r="B21" s="291"/>
-      <c r="C21" s="129" t="s">
+      <c r="A21" s="140"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="117"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
       <c r="R21" s="3"/>
-      <c r="T21" s="265"/>
-      <c r="U21" s="266"/>
-      <c r="V21" s="77" t="s">
+      <c r="T21" s="192"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="99" t="str">
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="92" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99" t="str">
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="99"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="92"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="83" t="s">
+      <c r="AO21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="83" t="s">
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83" t="s">
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
     </row>
     <row r="22" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="290"/>
-      <c r="B22" s="291"/>
-      <c r="C22" s="129" t="s">
+      <c r="A22" s="140"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="226" t="s">
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="227"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="208" t="s">
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="297" t="str">
+      <c r="K22" s="226"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="227"/>
+      <c r="N22" s="147" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BA11:BB14,2,FALSE))=FALSE,VLOOKUP(J22,BA11:BB14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O22" s="298"/>
-      <c r="P22" s="298"/>
-      <c r="Q22" s="299"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="149"/>
       <c r="R22" s="3"/>
-      <c r="T22" s="265"/>
-      <c r="U22" s="266"/>
-      <c r="V22" s="77" t="s">
+      <c r="T22" s="192"/>
+      <c r="U22" s="193"/>
+      <c r="V22" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="269" t="str">
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="75" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BG11:BH14,2,FALSE))=FALSE,VLOOKUP(J22,BG11:BH14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA22" s="269"/>
-      <c r="AB22" s="269"/>
-      <c r="AC22" s="269"/>
-      <c r="AD22" s="269"/>
-      <c r="AE22" s="269"/>
-      <c r="AF22" s="269"/>
-      <c r="AG22" s="269" t="str">
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BM11:BN14,2,FALSE))=FALSE,VLOOKUP(J22,BM11:BN14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH22" s="269"/>
-      <c r="AI22" s="269"/>
-      <c r="AJ22" s="269"/>
-      <c r="AK22" s="269"/>
-      <c r="AL22" s="269"/>
-      <c r="AM22" s="269"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="85" t="s">
+      <c r="AO22" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="324" t="s">
+      <c r="AP22" s="33"/>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AU22" s="324"/>
-      <c r="AV22" s="324"/>
-      <c r="AW22" s="322" t="s">
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="AX22" s="322"/>
-      <c r="AY22" s="322"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
     </row>
     <row r="23" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="292"/>
-      <c r="B23" s="293"/>
-      <c r="C23" s="125" t="s">
+      <c r="A23" s="142"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="226" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="227"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="300" t="s">
+      <c r="H23" s="151"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="301"/>
-      <c r="L23" s="301"/>
-      <c r="M23" s="302"/>
-      <c r="N23" s="294" t="str">
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="144" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BA2:BB5,2,FALSE))=FALSE,VLOOKUP(J23,BA2:BB5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O23" s="295"/>
-      <c r="P23" s="295"/>
-      <c r="Q23" s="296"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="146"/>
       <c r="R23" s="3"/>
-      <c r="T23" s="267"/>
-      <c r="U23" s="268"/>
-      <c r="V23" s="92" t="s">
+      <c r="T23" s="194"/>
+      <c r="U23" s="195"/>
+      <c r="V23" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="304" t="str">
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="81" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BG2:BH5,2,FALSE))=FALSE,VLOOKUP(J23,BG2:BH5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA23" s="304"/>
-      <c r="AB23" s="304"/>
-      <c r="AC23" s="304"/>
-      <c r="AD23" s="304"/>
-      <c r="AE23" s="304"/>
-      <c r="AF23" s="304"/>
-      <c r="AG23" s="304" t="str">
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BM2:BN5,2,FALSE))=FALSE,VLOOKUP(J23,BM2:BN5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH23" s="304"/>
-      <c r="AI23" s="304"/>
-      <c r="AJ23" s="304"/>
-      <c r="AK23" s="304"/>
-      <c r="AL23" s="304"/>
-      <c r="AM23" s="304"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81"/>
       <c r="AN23" s="7"/>
     </row>
     <row r="24" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="193"/>
-      <c r="C24" s="126" t="s">
+      <c r="B24" s="218"/>
+      <c r="C24" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="128"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="72"/>
       <c r="R24" s="3"/>
-      <c r="T24" s="137" t="s">
+      <c r="T24" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="U24" s="138"/>
-      <c r="V24" s="272" t="s">
+      <c r="U24" s="253"/>
+      <c r="V24" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="W24" s="273"/>
-      <c r="X24" s="273"/>
-      <c r="Y24" s="274"/>
-      <c r="Z24" s="126" t="str">
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="70" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="126" t="str">
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="70" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="127"/>
-      <c r="AJ24" s="127"/>
-      <c r="AK24" s="127"/>
-      <c r="AL24" s="127"/>
-      <c r="AM24" s="128"/>
-      <c r="AO24" s="149" t="s">
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="72"/>
+      <c r="AO24" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="84"/>
-      <c r="AR24" s="84"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="84"/>
-      <c r="AU24" s="84"/>
-      <c r="AV24" s="84"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
       <c r="AW24" s="7"/>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
@@ -7469,67 +7573,67 @@
       <c r="BG24" s="7"/>
     </row>
     <row r="25" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="194"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="115" t="s">
+      <c r="A25" s="219"/>
+      <c r="B25" s="220"/>
+      <c r="C25" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="157"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="69"/>
       <c r="R25" s="3"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="140"/>
-      <c r="V25" s="250" t="s">
+      <c r="T25" s="254"/>
+      <c r="U25" s="255"/>
+      <c r="V25" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="251"/>
-      <c r="X25" s="251"/>
-      <c r="Y25" s="252"/>
-      <c r="Z25" s="225" t="str">
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="163"/>
+      <c r="Z25" s="67" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="115" t="str">
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="76" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="116"/>
-      <c r="AJ25" s="116"/>
-      <c r="AK25" s="116"/>
-      <c r="AL25" s="116"/>
-      <c r="AM25" s="117"/>
-      <c r="AO25" s="86" t="s">
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="77"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="78"/>
+      <c r="AO25" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="88" t="str">
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="35" t="str">
         <f>IF(OR(G24="",G25=""),"",(G24/G25))</f>
         <v/>
       </c>
-      <c r="AS25" s="88"/>
-      <c r="AT25" s="88"/>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="88"/>
+      <c r="AS25" s="35"/>
+      <c r="AT25" s="35"/>
+      <c r="AU25" s="35"/>
+      <c r="AV25" s="35"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
@@ -7543,64 +7647,64 @@
       <c r="BG25" s="3"/>
     </row>
     <row r="26" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="194"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="218" t="s">
+      <c r="A26" s="219"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="117"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="78"/>
       <c r="R26" s="3"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="143" t="s">
+      <c r="T26" s="254"/>
+      <c r="U26" s="255"/>
+      <c r="V26" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="132" t="str">
+      <c r="W26" s="157"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="48" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="132" t="str">
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="132"/>
-      <c r="AJ26" s="132"/>
-      <c r="AK26" s="132"/>
-      <c r="AL26" s="132"/>
-      <c r="AM26" s="132"/>
-      <c r="AO26" s="86" t="s">
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AO26" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="323"/>
-      <c r="AS26" s="323"/>
-      <c r="AT26" s="323"/>
-      <c r="AU26" s="323"/>
-      <c r="AV26" s="323"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="80"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
       <c r="AW26" s="7"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
@@ -7614,721 +7718,721 @@
       <c r="BG26" s="7"/>
     </row>
     <row r="27" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="129" t="s">
+      <c r="A27" s="219"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="89" t="str">
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="45" t="str">
         <f>IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G19*AR26,G19*AR25))</f>
         <v/>
       </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="3"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="77" t="s">
+      <c r="T27" s="254"/>
+      <c r="U27" s="255"/>
+      <c r="V27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="89" t="str">
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="45" t="str">
         <f>IF(G27&lt;&gt;"",G27*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="89" t="str">
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="45" t="str">
         <f>IF(OR(AG24="",AR25=""),"",IF(AR26&lt;&gt;"",AG19*AR26,AG19*AR25))</f>
         <v/>
       </c>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="91"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="47"/>
       <c r="AO27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="194"/>
-      <c r="B28" s="195"/>
-      <c r="C28" s="129" t="s">
+      <c r="A28" s="219"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="115" t="str">
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="76" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G20*AR26,G20*AR25))))</f>
         <v/>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="117"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
       <c r="R28" s="3"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="77" t="s">
+      <c r="T28" s="254"/>
+      <c r="U28" s="255"/>
+      <c r="V28" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="132" t="str">
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="48" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="132" t="str">
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="132"/>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132"/>
-      <c r="AM28" s="132"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
     </row>
     <row r="29" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="194"/>
-      <c r="B29" s="195"/>
-      <c r="C29" s="129" t="s">
+      <c r="A29" s="219"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="115" t="str">
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="76" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G21*AR26,G21*AR25))))</f>
         <v/>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="117"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="78"/>
       <c r="R29" s="3"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="140"/>
-      <c r="V29" s="77" t="s">
+      <c r="T29" s="254"/>
+      <c r="U29" s="255"/>
+      <c r="V29" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="132" t="str">
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="48" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="132"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="132" t="str">
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="132"/>
-      <c r="AJ29" s="132"/>
-      <c r="AK29" s="132"/>
-      <c r="AL29" s="132"/>
-      <c r="AM29" s="132"/>
-      <c r="AO29" s="149" t="s">
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AO29" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="AP29" s="84"/>
-      <c r="AQ29" s="84"/>
-      <c r="AR29" s="84"/>
-      <c r="AS29" s="84"/>
-      <c r="AT29" s="84"/>
-      <c r="AU29" s="84"/>
-      <c r="AV29" s="84"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
     </row>
     <row r="30" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="194"/>
-      <c r="B30" s="195"/>
-      <c r="C30" s="129" t="s">
+      <c r="A30" s="219"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="180" t="str">
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="234" t="str">
         <f>IF(G24&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="235"/>
+      <c r="M30" s="235"/>
+      <c r="N30" s="235"/>
+      <c r="O30" s="235"/>
+      <c r="P30" s="235"/>
+      <c r="Q30" s="236"/>
       <c r="R30" s="3"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="140"/>
-      <c r="V30" s="77" t="s">
+      <c r="T30" s="254"/>
+      <c r="U30" s="255"/>
+      <c r="V30" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="89" t="str">
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="45" t="str">
         <f>IF(Z24&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="89" t="str">
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="45" t="str">
         <f>IF(AG24&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="90"/>
-      <c r="AM30" s="91"/>
-      <c r="AO30" s="86" t="s">
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="47"/>
+      <c r="AO30" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="88" t="str">
+      <c r="AP30" s="74"/>
+      <c r="AQ30" s="74"/>
+      <c r="AR30" s="35" t="str">
         <f>IF(OR(G32="",G33=""),"",(G32/G33))</f>
         <v/>
       </c>
-      <c r="AS30" s="88"/>
-      <c r="AT30" s="88"/>
-      <c r="AU30" s="88"/>
-      <c r="AV30" s="88"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="35"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="35"/>
     </row>
     <row r="31" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="196"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="125" t="s">
+      <c r="A31" s="221"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="222" t="str">
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="124" t="str">
         <f>IF(G24&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223"/>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="223"/>
-      <c r="P31" s="223"/>
-      <c r="Q31" s="224"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
       <c r="R31" s="3"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="142"/>
-      <c r="V31" s="92" t="s">
+      <c r="T31" s="256"/>
+      <c r="U31" s="257"/>
+      <c r="V31" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="80" t="str">
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="52" t="str">
         <f>IF(Z24&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="80" t="str">
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="52" t="str">
         <f>IF(AG24&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="81"/>
-      <c r="AM31" s="82"/>
-      <c r="AO31" s="86" t="s">
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="54"/>
+      <c r="AO31" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AP31" s="86"/>
-      <c r="AQ31" s="86"/>
-      <c r="AR31" s="323"/>
-      <c r="AS31" s="323"/>
-      <c r="AT31" s="323"/>
-      <c r="AU31" s="323"/>
-      <c r="AV31" s="323"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="80"/>
+      <c r="AS31" s="80"/>
+      <c r="AT31" s="80"/>
+      <c r="AU31" s="80"/>
+      <c r="AV31" s="80"/>
     </row>
     <row r="32" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="193"/>
-      <c r="C32" s="126" t="s">
+      <c r="B32" s="218"/>
+      <c r="C32" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="128"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="72"/>
       <c r="R32" s="3"/>
-      <c r="T32" s="137" t="s">
+      <c r="T32" s="252" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="138"/>
-      <c r="V32" s="272" t="s">
+      <c r="U32" s="253"/>
+      <c r="V32" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="W32" s="273"/>
-      <c r="X32" s="273"/>
-      <c r="Y32" s="274"/>
-      <c r="Z32" s="126" t="str">
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="70" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="126" t="str">
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="70" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="127"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="128"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="72"/>
       <c r="AO32" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="194"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="115" t="s">
+      <c r="A33" s="219"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="117"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="78"/>
       <c r="R33" s="3"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="140"/>
-      <c r="V33" s="250" t="s">
+      <c r="T33" s="254"/>
+      <c r="U33" s="255"/>
+      <c r="V33" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="251"/>
-      <c r="X33" s="251"/>
-      <c r="Y33" s="252"/>
-      <c r="Z33" s="225" t="str">
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="163"/>
+      <c r="Z33" s="67" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="115" t="str">
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="76" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="116"/>
-      <c r="AJ33" s="116"/>
-      <c r="AK33" s="116"/>
-      <c r="AL33" s="116"/>
-      <c r="AM33" s="117"/>
+      <c r="AH33" s="77"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="77"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="78"/>
     </row>
     <row r="34" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="194"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="218" t="s">
+      <c r="A34" s="219"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="117"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="78"/>
       <c r="R34" s="5"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="140"/>
-      <c r="V34" s="143" t="s">
+      <c r="T34" s="254"/>
+      <c r="U34" s="255"/>
+      <c r="V34" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="144"/>
-      <c r="X34" s="144"/>
-      <c r="Y34" s="145"/>
-      <c r="Z34" s="132" t="str">
+      <c r="W34" s="157"/>
+      <c r="X34" s="157"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="48" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AA34" s="132"/>
-      <c r="AB34" s="132"/>
-      <c r="AC34" s="132"/>
-      <c r="AD34" s="132"/>
-      <c r="AE34" s="132"/>
-      <c r="AF34" s="132"/>
-      <c r="AG34" s="132" t="str">
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AH34" s="132"/>
-      <c r="AI34" s="132"/>
-      <c r="AJ34" s="132"/>
-      <c r="AK34" s="132"/>
-      <c r="AL34" s="132"/>
-      <c r="AM34" s="132"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48"/>
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="48"/>
     </row>
     <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="194"/>
-      <c r="B35" s="195"/>
-      <c r="C35" s="129" t="s">
+      <c r="A35" s="219"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="89" t="str">
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="45" t="str">
         <f>IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G19*AR31,G19*AR30))</f>
         <v/>
       </c>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="91"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="47"/>
       <c r="R35" s="5"/>
-      <c r="T35" s="139"/>
-      <c r="U35" s="140"/>
-      <c r="V35" s="77" t="s">
+      <c r="T35" s="254"/>
+      <c r="U35" s="255"/>
+      <c r="V35" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="90"/>
-      <c r="AF35" s="91"/>
-      <c r="AG35" s="89"/>
-      <c r="AH35" s="90"/>
-      <c r="AI35" s="90"/>
-      <c r="AJ35" s="90"/>
-      <c r="AK35" s="90"/>
-      <c r="AL35" s="90"/>
-      <c r="AM35" s="91"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="46"/>
+      <c r="AI35" s="46"/>
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="46"/>
+      <c r="AL35" s="46"/>
+      <c r="AM35" s="47"/>
     </row>
     <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="194"/>
-      <c r="B36" s="195"/>
-      <c r="C36" s="129" t="s">
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="115" t="str">
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="76" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G20*AR31,G20*AR30))))</f>
         <v/>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="117"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="78"/>
       <c r="R36" s="3"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="140"/>
-      <c r="V36" s="77" t="s">
+      <c r="T36" s="254"/>
+      <c r="U36" s="255"/>
+      <c r="V36" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="132" t="str">
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="48" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AA36" s="132"/>
-      <c r="AB36" s="132"/>
-      <c r="AC36" s="132"/>
-      <c r="AD36" s="132"/>
-      <c r="AE36" s="132"/>
-      <c r="AF36" s="132"/>
-      <c r="AG36" s="132" t="str">
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="48"/>
+      <c r="AG36" s="48" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AH36" s="132"/>
-      <c r="AI36" s="132"/>
-      <c r="AJ36" s="132"/>
-      <c r="AK36" s="132"/>
-      <c r="AL36" s="132"/>
-      <c r="AM36" s="132"/>
+      <c r="AH36" s="48"/>
+      <c r="AI36" s="48"/>
+      <c r="AJ36" s="48"/>
+      <c r="AK36" s="48"/>
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="48"/>
     </row>
     <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="194"/>
-      <c r="B37" s="195"/>
-      <c r="C37" s="129" t="s">
+      <c r="A37" s="219"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="115" t="str">
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="76" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G21*AR31,G21*AR30))))</f>
         <v/>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="117"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="78"/>
       <c r="R37" s="3"/>
-      <c r="T37" s="139"/>
-      <c r="U37" s="140"/>
-      <c r="V37" s="77" t="s">
+      <c r="T37" s="254"/>
+      <c r="U37" s="255"/>
+      <c r="V37" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="132" t="str">
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="48" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AA37" s="132"/>
-      <c r="AB37" s="132"/>
-      <c r="AC37" s="132"/>
-      <c r="AD37" s="132"/>
-      <c r="AE37" s="132"/>
-      <c r="AF37" s="132"/>
-      <c r="AG37" s="132" t="str">
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AH37" s="132"/>
-      <c r="AI37" s="132"/>
-      <c r="AJ37" s="132"/>
-      <c r="AK37" s="132"/>
-      <c r="AL37" s="132"/>
-      <c r="AM37" s="132"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="48"/>
     </row>
     <row r="38" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="194"/>
-      <c r="B38" s="195"/>
-      <c r="C38" s="129" t="s">
+      <c r="A38" s="219"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="180" t="str">
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="234" t="str">
         <f>IF(G32&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H38" s="181"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="181"/>
-      <c r="M38" s="181"/>
-      <c r="N38" s="181"/>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="182"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="235"/>
+      <c r="M38" s="235"/>
+      <c r="N38" s="235"/>
+      <c r="O38" s="235"/>
+      <c r="P38" s="235"/>
+      <c r="Q38" s="236"/>
       <c r="R38" s="3"/>
-      <c r="T38" s="139"/>
-      <c r="U38" s="140"/>
-      <c r="V38" s="77" t="s">
+      <c r="T38" s="254"/>
+      <c r="U38" s="255"/>
+      <c r="V38" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="89" t="str">
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="45" t="str">
         <f>IF(Z32&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA38" s="90"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="91"/>
-      <c r="AG38" s="89" t="str">
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="45" t="str">
         <f>IF(AG32&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH38" s="90"/>
-      <c r="AI38" s="90"/>
-      <c r="AJ38" s="90"/>
-      <c r="AK38" s="90"/>
-      <c r="AL38" s="90"/>
-      <c r="AM38" s="91"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="47"/>
     </row>
     <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="196"/>
-      <c r="B39" s="197"/>
-      <c r="C39" s="125" t="s">
+      <c r="A39" s="221"/>
+      <c r="B39" s="222"/>
+      <c r="C39" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="222" t="str">
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="124" t="str">
         <f>IF(G32&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H39" s="223"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="223"/>
-      <c r="L39" s="223"/>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="223"/>
-      <c r="P39" s="223"/>
-      <c r="Q39" s="224"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="126"/>
       <c r="R39" s="3"/>
-      <c r="T39" s="141"/>
-      <c r="U39" s="142"/>
-      <c r="V39" s="92" t="s">
+      <c r="T39" s="256"/>
+      <c r="U39" s="257"/>
+      <c r="V39" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="80" t="str">
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="52" t="str">
         <f>IF(Z32&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="81"/>
-      <c r="AF39" s="82"/>
-      <c r="AG39" s="80" t="str">
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="52" t="str">
         <f>IF(AG32&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH39" s="81"/>
-      <c r="AI39" s="81"/>
-      <c r="AJ39" s="81"/>
-      <c r="AK39" s="81"/>
-      <c r="AL39" s="81"/>
-      <c r="AM39" s="82"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="54"/>
     </row>
     <row r="40" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
@@ -8339,243 +8443,243 @@
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="122" t="s">
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="123"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="201">
+      <c r="G41" s="206"/>
+      <c r="H41" s="232"/>
+      <c r="I41" s="205">
         <v>30</v>
       </c>
-      <c r="J41" s="123"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="122" t="s">
+      <c r="J41" s="206"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="123"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="198">
+      <c r="M41" s="206"/>
+      <c r="N41" s="232"/>
+      <c r="O41" s="61">
         <v>15</v>
       </c>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="200"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="62"/>
       <c r="R41" s="3"/>
-      <c r="T41" s="133" t="s">
+      <c r="T41" s="263" t="s">
         <v>14</v>
       </c>
-      <c r="U41" s="134"/>
-      <c r="V41" s="134"/>
-      <c r="W41" s="136"/>
-      <c r="X41" s="133" t="s">
+      <c r="U41" s="264"/>
+      <c r="V41" s="264"/>
+      <c r="W41" s="266"/>
+      <c r="X41" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="Y41" s="134"/>
-      <c r="Z41" s="135"/>
-      <c r="AA41" s="201">
+      <c r="Y41" s="264"/>
+      <c r="Z41" s="265"/>
+      <c r="AA41" s="205">
         <v>30</v>
       </c>
-      <c r="AB41" s="123"/>
-      <c r="AC41" s="202"/>
-      <c r="AD41" s="133" t="s">
+      <c r="AB41" s="206"/>
+      <c r="AC41" s="207"/>
+      <c r="AD41" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="AE41" s="134"/>
-      <c r="AF41" s="135"/>
-      <c r="AG41" s="198">
+      <c r="AE41" s="264"/>
+      <c r="AF41" s="265"/>
+      <c r="AG41" s="61">
         <v>30</v>
       </c>
-      <c r="AH41" s="199"/>
-      <c r="AI41" s="200"/>
-      <c r="AJ41" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK41" s="75"/>
-      <c r="AL41" s="75"/>
-      <c r="AM41" s="76"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="62"/>
+      <c r="AJ41" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="107"/>
+      <c r="AL41" s="107"/>
+      <c r="AM41" s="108"/>
     </row>
     <row r="42" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="119" t="s">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="119" t="s">
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="120"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="119" t="s">
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="120"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="219" t="s">
+      <c r="M42" s="64"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="220"/>
-      <c r="Q42" s="221"/>
+      <c r="P42" s="203"/>
+      <c r="Q42" s="204"/>
       <c r="R42" s="3"/>
-      <c r="T42" s="230" t="s">
+      <c r="T42" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="231"/>
-      <c r="V42" s="231"/>
-      <c r="W42" s="232"/>
-      <c r="X42" s="119" t="s">
+      <c r="U42" s="209"/>
+      <c r="V42" s="209"/>
+      <c r="W42" s="210"/>
+      <c r="X42" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="120"/>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="119" t="s">
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="120"/>
-      <c r="AC42" s="121"/>
-      <c r="AD42" s="119" t="s">
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="120"/>
-      <c r="AF42" s="121"/>
-      <c r="AG42" s="219" t="s">
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="AH42" s="220"/>
-      <c r="AI42" s="221"/>
-      <c r="AJ42" s="313"/>
-      <c r="AK42" s="314"/>
-      <c r="AL42" s="314"/>
-      <c r="AM42" s="315"/>
+      <c r="AH42" s="203"/>
+      <c r="AI42" s="204"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="38"/>
     </row>
     <row r="43" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="115" t="str">
+      <c r="A43" s="76" t="str">
         <f>IF(D5&lt;&gt;"派遣","見積依頼書","派遣個別契約書")</f>
         <v>見積依頼書</v>
       </c>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="189" t="s">
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="189" t="s">
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="233"/>
+      <c r="J43" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="190"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="198" t="s">
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="O43" s="199"/>
-      <c r="P43" s="199"/>
-      <c r="Q43" s="200"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="62"/>
       <c r="R43" s="3"/>
-      <c r="T43" s="110" t="str">
+      <c r="T43" s="131" t="str">
         <f>IF(Z11="正","欠勤控除対象者",IF(Z11="契","有給対象者","-"))</f>
         <v>欠勤控除対象者</v>
       </c>
-      <c r="U43" s="158"/>
-      <c r="V43" s="158"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="214" t="s">
+      <c r="U43" s="132"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="133"/>
+      <c r="X43" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="199"/>
-      <c r="Z43" s="199"/>
-      <c r="AA43" s="325"/>
-      <c r="AB43" s="198" t="s">
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AC43" s="199"/>
-      <c r="AD43" s="199"/>
-      <c r="AE43" s="200"/>
-      <c r="AF43" s="198" t="str">
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="62"/>
+      <c r="AF43" s="61" t="str">
         <f>IF(Z11="","",IF(OR(Z11="協力"),"","無"))</f>
         <v>無</v>
       </c>
-      <c r="AG43" s="199"/>
-      <c r="AH43" s="199"/>
-      <c r="AI43" s="200"/>
-      <c r="AJ43" s="316"/>
-      <c r="AK43" s="317"/>
-      <c r="AL43" s="317"/>
-      <c r="AM43" s="318"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="40"/>
+      <c r="AL43" s="40"/>
+      <c r="AM43" s="41"/>
     </row>
     <row r="44" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="205" t="s">
+      <c r="A44" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="185"/>
-      <c r="C44" s="185"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="119" t="s">
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="203"/>
-      <c r="J44" s="215" t="s">
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="216"/>
-      <c r="L44" s="216"/>
-      <c r="M44" s="217"/>
-      <c r="N44" s="125" t="s">
+      <c r="K44" s="198"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="121"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="65"/>
       <c r="R44" s="3"/>
-      <c r="T44" s="119" t="str">
+      <c r="T44" s="63" t="str">
         <f>IF(Z11="","注文書",IF(Z11="契","契約書","注文書"))</f>
         <v>注文書</v>
       </c>
-      <c r="U44" s="120"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="121"/>
-      <c r="X44" s="125" t="str">
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="200" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正"),"無","有"))</f>
         <v>無</v>
       </c>
-      <c r="Y44" s="120"/>
-      <c r="Z44" s="120"/>
-      <c r="AA44" s="203"/>
-      <c r="AB44" s="215" t="s">
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="201"/>
+      <c r="AB44" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="AC44" s="216"/>
-      <c r="AD44" s="216"/>
-      <c r="AE44" s="217"/>
-      <c r="AF44" s="119" t="s">
+      <c r="AC44" s="198"/>
+      <c r="AD44" s="198"/>
+      <c r="AE44" s="199"/>
+      <c r="AF44" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="AG44" s="120"/>
-      <c r="AH44" s="120"/>
-      <c r="AI44" s="121"/>
-      <c r="AJ44" s="319"/>
-      <c r="AK44" s="320"/>
-      <c r="AL44" s="320"/>
-      <c r="AM44" s="321"/>
+      <c r="AG44" s="64"/>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="42"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="43"/>
+      <c r="AM44" s="44"/>
     </row>
     <row r="45" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="3"/>
@@ -8611,29 +8715,29 @@
       <c r="AH45" s="2"/>
     </row>
     <row r="46" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="206" t="s">
+      <c r="A46" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="206"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="206" t="s">
+      <c r="B46" s="223"/>
+      <c r="C46" s="223"/>
+      <c r="D46" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="206"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="206"/>
-      <c r="H46" s="207" t="s">
+      <c r="E46" s="223"/>
+      <c r="F46" s="223"/>
+      <c r="G46" s="223"/>
+      <c r="H46" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="207"/>
-      <c r="J46" s="207"/>
-      <c r="K46" s="207"/>
-      <c r="L46" s="207"/>
-      <c r="M46" s="207"/>
-      <c r="N46" s="207"/>
-      <c r="O46" s="207"/>
-      <c r="P46" s="207"/>
-      <c r="Q46" s="207"/>
+      <c r="I46" s="224"/>
+      <c r="J46" s="224"/>
+      <c r="K46" s="224"/>
+      <c r="L46" s="224"/>
+      <c r="M46" s="224"/>
+      <c r="N46" s="224"/>
+      <c r="O46" s="224"/>
+      <c r="P46" s="224"/>
+      <c r="Q46" s="224"/>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
@@ -8658,936 +8762,1329 @@
       <c r="AM46" s="27"/>
     </row>
     <row r="47" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="303" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="304"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69" t="s">
+      <c r="E47" s="314"/>
+      <c r="F47" s="314"/>
+      <c r="G47" s="314"/>
+      <c r="H47" s="314"/>
+      <c r="I47" s="314"/>
+      <c r="J47" s="314"/>
+      <c r="K47" s="314" t="s">
         <v>97</v>
       </c>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="69"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="54"/>
+      <c r="L47" s="314"/>
+      <c r="M47" s="314"/>
+      <c r="N47" s="314"/>
+      <c r="O47" s="314"/>
+      <c r="P47" s="314"/>
+      <c r="Q47" s="314"/>
+      <c r="R47" s="311"/>
+      <c r="S47" s="307"/>
+      <c r="T47" s="307"/>
+      <c r="U47" s="307"/>
+      <c r="V47" s="307"/>
+      <c r="W47" s="307"/>
+      <c r="X47" s="307"/>
+      <c r="Y47" s="307"/>
+      <c r="Z47" s="307"/>
+      <c r="AA47" s="307"/>
+      <c r="AB47" s="307"/>
+      <c r="AC47" s="306"/>
+      <c r="AD47" s="307"/>
+      <c r="AE47" s="307"/>
+      <c r="AF47" s="307"/>
+      <c r="AG47" s="307"/>
+      <c r="AH47" s="307"/>
+      <c r="AI47" s="307"/>
+      <c r="AJ47" s="307"/>
+      <c r="AK47" s="307"/>
+      <c r="AL47" s="307"/>
+      <c r="AM47" s="308"/>
     </row>
     <row r="48" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="60"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="55"/>
-      <c r="AE48" s="55"/>
-      <c r="AF48" s="55"/>
-      <c r="AG48" s="55"/>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="55"/>
-      <c r="AJ48" s="55"/>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="56"/>
+      <c r="A48" s="304"/>
+      <c r="B48" s="304"/>
+      <c r="C48" s="304"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="284"/>
+      <c r="J48" s="284"/>
+      <c r="K48" s="284"/>
+      <c r="L48" s="284"/>
+      <c r="M48" s="284"/>
+      <c r="N48" s="284"/>
+      <c r="O48" s="284"/>
+      <c r="P48" s="284"/>
+      <c r="Q48" s="284"/>
+      <c r="R48" s="312"/>
+      <c r="S48" s="309"/>
+      <c r="T48" s="309"/>
+      <c r="U48" s="309"/>
+      <c r="V48" s="309"/>
+      <c r="W48" s="309"/>
+      <c r="X48" s="309"/>
+      <c r="Y48" s="309"/>
+      <c r="Z48" s="309"/>
+      <c r="AA48" s="309"/>
+      <c r="AB48" s="309"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="309"/>
+      <c r="AE48" s="309"/>
+      <c r="AF48" s="309"/>
+      <c r="AG48" s="309"/>
+      <c r="AH48" s="309"/>
+      <c r="AI48" s="309"/>
+      <c r="AJ48" s="309"/>
+      <c r="AK48" s="309"/>
+      <c r="AL48" s="309"/>
+      <c r="AM48" s="310"/>
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70" t="s">
+      <c r="A49" s="304"/>
+      <c r="B49" s="304"/>
+      <c r="C49" s="304"/>
+      <c r="D49" s="284"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="284"/>
+      <c r="G49" s="284"/>
+      <c r="H49" s="284"/>
+      <c r="I49" s="284"/>
+      <c r="J49" s="284"/>
+      <c r="K49" s="284" t="s">
         <v>81</v>
       </c>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
-      <c r="AA49" s="71"/>
-      <c r="AB49" s="71"/>
-      <c r="AC49" s="71"/>
-      <c r="AD49" s="71"/>
-      <c r="AE49" s="71"/>
-      <c r="AF49" s="71"/>
-      <c r="AG49" s="71"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71"/>
-      <c r="AJ49" s="71"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="71"/>
-      <c r="AM49" s="71"/>
+      <c r="L49" s="284"/>
+      <c r="M49" s="284"/>
+      <c r="N49" s="284"/>
+      <c r="O49" s="284"/>
+      <c r="P49" s="284"/>
+      <c r="Q49" s="284"/>
+      <c r="R49" s="315"/>
+      <c r="S49" s="315"/>
+      <c r="T49" s="315"/>
+      <c r="U49" s="315"/>
+      <c r="V49" s="315"/>
+      <c r="W49" s="315"/>
+      <c r="X49" s="315"/>
+      <c r="Y49" s="315"/>
+      <c r="Z49" s="315"/>
+      <c r="AA49" s="315"/>
+      <c r="AB49" s="315"/>
+      <c r="AC49" s="315"/>
+      <c r="AD49" s="315"/>
+      <c r="AE49" s="315"/>
+      <c r="AF49" s="315"/>
+      <c r="AG49" s="315"/>
+      <c r="AH49" s="315"/>
+      <c r="AI49" s="315"/>
+      <c r="AJ49" s="315"/>
+      <c r="AK49" s="315"/>
+      <c r="AL49" s="315"/>
+      <c r="AM49" s="315"/>
     </row>
     <row r="50" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
-      <c r="AA50" s="71"/>
-      <c r="AB50" s="71"/>
-      <c r="AC50" s="71"/>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71"/>
-      <c r="AJ50" s="71"/>
-      <c r="AK50" s="71"/>
-      <c r="AL50" s="71"/>
-      <c r="AM50" s="71"/>
+      <c r="A50" s="304"/>
+      <c r="B50" s="304"/>
+      <c r="C50" s="304"/>
+      <c r="D50" s="284"/>
+      <c r="E50" s="284"/>
+      <c r="F50" s="284"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="284"/>
+      <c r="J50" s="284"/>
+      <c r="K50" s="284"/>
+      <c r="L50" s="284"/>
+      <c r="M50" s="284"/>
+      <c r="N50" s="284"/>
+      <c r="O50" s="284"/>
+      <c r="P50" s="284"/>
+      <c r="Q50" s="284"/>
+      <c r="R50" s="315"/>
+      <c r="S50" s="315"/>
+      <c r="T50" s="315"/>
+      <c r="U50" s="315"/>
+      <c r="V50" s="315"/>
+      <c r="W50" s="315"/>
+      <c r="X50" s="315"/>
+      <c r="Y50" s="315"/>
+      <c r="Z50" s="315"/>
+      <c r="AA50" s="315"/>
+      <c r="AB50" s="315"/>
+      <c r="AC50" s="315"/>
+      <c r="AD50" s="315"/>
+      <c r="AE50" s="315"/>
+      <c r="AF50" s="315"/>
+      <c r="AG50" s="315"/>
+      <c r="AH50" s="315"/>
+      <c r="AI50" s="315"/>
+      <c r="AJ50" s="315"/>
+      <c r="AK50" s="315"/>
+      <c r="AL50" s="315"/>
+      <c r="AM50" s="315"/>
     </row>
     <row r="51" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
-      <c r="AJ51" s="71"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="71"/>
-      <c r="AM51" s="71"/>
+      <c r="A51" s="304"/>
+      <c r="B51" s="304"/>
+      <c r="C51" s="304"/>
+      <c r="D51" s="284"/>
+      <c r="E51" s="284"/>
+      <c r="F51" s="284"/>
+      <c r="G51" s="284"/>
+      <c r="H51" s="284"/>
+      <c r="I51" s="284"/>
+      <c r="J51" s="284"/>
+      <c r="K51" s="284" t="s">
+        <v>84</v>
+      </c>
+      <c r="L51" s="284"/>
+      <c r="M51" s="284"/>
+      <c r="N51" s="284"/>
+      <c r="O51" s="284"/>
+      <c r="P51" s="284"/>
+      <c r="Q51" s="284"/>
+      <c r="R51" s="315"/>
+      <c r="S51" s="315"/>
+      <c r="T51" s="315"/>
+      <c r="U51" s="315"/>
+      <c r="V51" s="315"/>
+      <c r="W51" s="315"/>
+      <c r="X51" s="315"/>
+      <c r="Y51" s="315"/>
+      <c r="Z51" s="315"/>
+      <c r="AA51" s="315"/>
+      <c r="AB51" s="315"/>
+      <c r="AC51" s="315"/>
+      <c r="AD51" s="315"/>
+      <c r="AE51" s="315"/>
+      <c r="AF51" s="315"/>
+      <c r="AG51" s="315"/>
+      <c r="AH51" s="315"/>
+      <c r="AI51" s="315"/>
+      <c r="AJ51" s="315"/>
+      <c r="AK51" s="315"/>
+      <c r="AL51" s="315"/>
+      <c r="AM51" s="315"/>
     </row>
     <row r="52" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="71"/>
-      <c r="AA52" s="71"/>
-      <c r="AB52" s="71"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
-      <c r="AF52" s="71"/>
-      <c r="AG52" s="71"/>
-      <c r="AH52" s="71"/>
-      <c r="AI52" s="71"/>
-      <c r="AJ52" s="71"/>
-      <c r="AK52" s="71"/>
-      <c r="AL52" s="71"/>
-      <c r="AM52" s="71"/>
+      <c r="A52" s="304"/>
+      <c r="B52" s="304"/>
+      <c r="C52" s="304"/>
+      <c r="D52" s="284"/>
+      <c r="E52" s="284"/>
+      <c r="F52" s="284"/>
+      <c r="G52" s="284"/>
+      <c r="H52" s="284"/>
+      <c r="I52" s="284"/>
+      <c r="J52" s="284"/>
+      <c r="K52" s="284"/>
+      <c r="L52" s="284"/>
+      <c r="M52" s="284"/>
+      <c r="N52" s="284"/>
+      <c r="O52" s="284"/>
+      <c r="P52" s="284"/>
+      <c r="Q52" s="284"/>
+      <c r="R52" s="315"/>
+      <c r="S52" s="315"/>
+      <c r="T52" s="315"/>
+      <c r="U52" s="315"/>
+      <c r="V52" s="315"/>
+      <c r="W52" s="315"/>
+      <c r="X52" s="315"/>
+      <c r="Y52" s="315"/>
+      <c r="Z52" s="315"/>
+      <c r="AA52" s="315"/>
+      <c r="AB52" s="315"/>
+      <c r="AC52" s="315"/>
+      <c r="AD52" s="315"/>
+      <c r="AE52" s="315"/>
+      <c r="AF52" s="315"/>
+      <c r="AG52" s="315"/>
+      <c r="AH52" s="315"/>
+      <c r="AI52" s="315"/>
+      <c r="AJ52" s="315"/>
+      <c r="AK52" s="315"/>
+      <c r="AL52" s="315"/>
+      <c r="AM52" s="315"/>
     </row>
     <row r="53" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="62"/>
-      <c r="AA53" s="62"/>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="62"/>
-      <c r="AE53" s="62"/>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
-      <c r="AH53" s="62"/>
-      <c r="AI53" s="62"/>
-      <c r="AJ53" s="62"/>
-      <c r="AK53" s="62"/>
-      <c r="AL53" s="62"/>
-      <c r="AM53" s="64"/>
+      <c r="A53" s="304"/>
+      <c r="B53" s="304"/>
+      <c r="C53" s="304"/>
+      <c r="D53" s="288"/>
+      <c r="E53" s="288"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="288"/>
+      <c r="H53" s="288"/>
+      <c r="I53" s="288"/>
+      <c r="J53" s="288"/>
+      <c r="K53" s="288" t="s">
+        <v>85</v>
+      </c>
+      <c r="L53" s="288"/>
+      <c r="M53" s="288"/>
+      <c r="N53" s="288"/>
+      <c r="O53" s="288"/>
+      <c r="P53" s="288"/>
+      <c r="Q53" s="288"/>
+      <c r="R53" s="316"/>
+      <c r="S53" s="316"/>
+      <c r="T53" s="316"/>
+      <c r="U53" s="316"/>
+      <c r="V53" s="316"/>
+      <c r="W53" s="316"/>
+      <c r="X53" s="316"/>
+      <c r="Y53" s="316"/>
+      <c r="Z53" s="316"/>
+      <c r="AA53" s="316"/>
+      <c r="AB53" s="316"/>
+      <c r="AC53" s="316"/>
+      <c r="AD53" s="316"/>
+      <c r="AE53" s="316"/>
+      <c r="AF53" s="316"/>
+      <c r="AG53" s="316"/>
+      <c r="AH53" s="316"/>
+      <c r="AI53" s="316"/>
+      <c r="AJ53" s="316"/>
+      <c r="AK53" s="316"/>
+      <c r="AL53" s="316"/>
+      <c r="AM53" s="316"/>
     </row>
     <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="70" t="s">
+      <c r="A54" s="304"/>
+      <c r="B54" s="304"/>
+      <c r="C54" s="304"/>
+      <c r="D54" s="304" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="304"/>
+      <c r="F54" s="304"/>
+      <c r="G54" s="304"/>
+      <c r="H54" s="304"/>
+      <c r="I54" s="304"/>
+      <c r="J54" s="304"/>
+      <c r="K54" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="62"/>
-      <c r="AB54" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC54" s="63"/>
-      <c r="AD54" s="62"/>
-      <c r="AE54" s="62"/>
-      <c r="AF54" s="62"/>
-      <c r="AG54" s="62"/>
-      <c r="AH54" s="62"/>
-      <c r="AI54" s="62"/>
-      <c r="AJ54" s="62"/>
-      <c r="AK54" s="62"/>
-      <c r="AL54" s="62"/>
-      <c r="AM54" s="64"/>
+      <c r="L54" s="304"/>
+      <c r="M54" s="304"/>
+      <c r="N54" s="304"/>
+      <c r="O54" s="304"/>
+      <c r="P54" s="304"/>
+      <c r="Q54" s="304"/>
+      <c r="R54" s="336"/>
+      <c r="S54" s="337"/>
+      <c r="T54" s="337"/>
+      <c r="U54" s="337"/>
+      <c r="V54" s="337"/>
+      <c r="W54" s="337"/>
+      <c r="X54" s="337"/>
+      <c r="Y54" s="337"/>
+      <c r="Z54" s="337"/>
+      <c r="AA54" s="337"/>
+      <c r="AB54" s="337"/>
+      <c r="AC54" s="342"/>
+      <c r="AD54" s="337"/>
+      <c r="AE54" s="337"/>
+      <c r="AF54" s="337"/>
+      <c r="AG54" s="337"/>
+      <c r="AH54" s="337"/>
+      <c r="AI54" s="337"/>
+      <c r="AJ54" s="337"/>
+      <c r="AK54" s="337"/>
+      <c r="AL54" s="337"/>
+      <c r="AM54" s="338"/>
     </row>
     <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70" t="s">
+      <c r="A55" s="304"/>
+      <c r="B55" s="304"/>
+      <c r="C55" s="304"/>
+      <c r="D55" s="317" t="s">
         <v>88</v>
       </c>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="62"/>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="62"/>
-      <c r="AB55" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="62"/>
-      <c r="AE55" s="62"/>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="62"/>
-      <c r="AH55" s="62"/>
-      <c r="AI55" s="62"/>
-      <c r="AJ55" s="62"/>
-      <c r="AK55" s="62"/>
-      <c r="AL55" s="62"/>
-      <c r="AM55" s="64"/>
+      <c r="E55" s="318"/>
+      <c r="F55" s="318"/>
+      <c r="G55" s="318"/>
+      <c r="H55" s="318"/>
+      <c r="I55" s="318"/>
+      <c r="J55" s="289"/>
+      <c r="K55" s="314" t="s">
+        <v>87</v>
+      </c>
+      <c r="L55" s="314"/>
+      <c r="M55" s="314"/>
+      <c r="N55" s="314"/>
+      <c r="O55" s="314"/>
+      <c r="P55" s="314"/>
+      <c r="Q55" s="314"/>
+      <c r="R55" s="339"/>
+      <c r="S55" s="340"/>
+      <c r="T55" s="340"/>
+      <c r="U55" s="340"/>
+      <c r="V55" s="340"/>
+      <c r="W55" s="340"/>
+      <c r="X55" s="340"/>
+      <c r="Y55" s="340"/>
+      <c r="Z55" s="340"/>
+      <c r="AA55" s="340"/>
+      <c r="AB55" s="340"/>
+      <c r="AC55" s="343"/>
+      <c r="AD55" s="340"/>
+      <c r="AE55" s="340"/>
+      <c r="AF55" s="340"/>
+      <c r="AG55" s="340"/>
+      <c r="AH55" s="340"/>
+      <c r="AI55" s="340"/>
+      <c r="AJ55" s="340"/>
+      <c r="AK55" s="340"/>
+      <c r="AL55" s="340"/>
+      <c r="AM55" s="341"/>
     </row>
     <row r="56" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="62"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC56" s="63"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="62"/>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="62"/>
-      <c r="AI56" s="62"/>
-      <c r="AJ56" s="62"/>
-      <c r="AK56" s="62"/>
-      <c r="AL56" s="62"/>
-      <c r="AM56" s="64"/>
+      <c r="A56" s="304"/>
+      <c r="B56" s="304"/>
+      <c r="C56" s="304"/>
+      <c r="D56" s="292"/>
+      <c r="E56" s="319"/>
+      <c r="F56" s="319"/>
+      <c r="G56" s="319"/>
+      <c r="H56" s="319"/>
+      <c r="I56" s="319"/>
+      <c r="J56" s="293"/>
+      <c r="K56" s="288" t="s">
+        <v>85</v>
+      </c>
+      <c r="L56" s="288"/>
+      <c r="M56" s="288"/>
+      <c r="N56" s="288"/>
+      <c r="O56" s="288"/>
+      <c r="P56" s="288"/>
+      <c r="Q56" s="288"/>
+      <c r="R56" s="329"/>
+      <c r="S56" s="329"/>
+      <c r="T56" s="329"/>
+      <c r="U56" s="329"/>
+      <c r="V56" s="329"/>
+      <c r="W56" s="329"/>
+      <c r="X56" s="329"/>
+      <c r="Y56" s="329"/>
+      <c r="Z56" s="329"/>
+      <c r="AA56" s="329"/>
+      <c r="AB56" s="329"/>
+      <c r="AC56" s="329"/>
+      <c r="AD56" s="329"/>
+      <c r="AE56" s="329"/>
+      <c r="AF56" s="329"/>
+      <c r="AG56" s="329"/>
+      <c r="AH56" s="329"/>
+      <c r="AI56" s="329"/>
+      <c r="AJ56" s="329"/>
+      <c r="AK56" s="329"/>
+      <c r="AL56" s="329"/>
+      <c r="AM56" s="329"/>
     </row>
     <row r="57" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
-      <c r="Y57" s="62"/>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="62"/>
-      <c r="AB57" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC57" s="63"/>
-      <c r="AD57" s="62"/>
-      <c r="AE57" s="62"/>
-      <c r="AF57" s="62"/>
-      <c r="AG57" s="62"/>
-      <c r="AH57" s="62"/>
-      <c r="AI57" s="62"/>
-      <c r="AJ57" s="62"/>
-      <c r="AK57" s="62"/>
-      <c r="AL57" s="62"/>
-      <c r="AM57" s="64"/>
+      <c r="A57" s="304"/>
+      <c r="B57" s="304"/>
+      <c r="C57" s="304"/>
+      <c r="D57" s="317" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="318"/>
+      <c r="F57" s="318"/>
+      <c r="G57" s="318"/>
+      <c r="H57" s="318"/>
+      <c r="I57" s="318"/>
+      <c r="J57" s="289"/>
+      <c r="K57" s="314" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57" s="314"/>
+      <c r="M57" s="314"/>
+      <c r="N57" s="314"/>
+      <c r="O57" s="314"/>
+      <c r="P57" s="314"/>
+      <c r="Q57" s="314"/>
+      <c r="R57" s="339"/>
+      <c r="S57" s="340"/>
+      <c r="T57" s="340"/>
+      <c r="U57" s="340"/>
+      <c r="V57" s="340"/>
+      <c r="W57" s="340"/>
+      <c r="X57" s="340"/>
+      <c r="Y57" s="340"/>
+      <c r="Z57" s="340"/>
+      <c r="AA57" s="340"/>
+      <c r="AB57" s="340"/>
+      <c r="AC57" s="343"/>
+      <c r="AD57" s="340"/>
+      <c r="AE57" s="340"/>
+      <c r="AF57" s="340"/>
+      <c r="AG57" s="340"/>
+      <c r="AH57" s="340"/>
+      <c r="AI57" s="340"/>
+      <c r="AJ57" s="340"/>
+      <c r="AK57" s="340"/>
+      <c r="AL57" s="340"/>
+      <c r="AM57" s="341"/>
     </row>
     <row r="58" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="66"/>
-      <c r="T58" s="66"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="66"/>
-      <c r="W58" s="66"/>
-      <c r="X58" s="66"/>
-      <c r="Y58" s="66"/>
-      <c r="Z58" s="66"/>
-      <c r="AA58" s="66"/>
-      <c r="AB58" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC58" s="67"/>
-      <c r="AD58" s="66"/>
-      <c r="AE58" s="66"/>
-      <c r="AF58" s="66"/>
-      <c r="AG58" s="66"/>
-      <c r="AH58" s="66"/>
-      <c r="AI58" s="66"/>
-      <c r="AJ58" s="66"/>
-      <c r="AK58" s="66"/>
-      <c r="AL58" s="66"/>
-      <c r="AM58" s="68"/>
+      <c r="A58" s="304"/>
+      <c r="B58" s="304"/>
+      <c r="C58" s="304"/>
+      <c r="D58" s="292"/>
+      <c r="E58" s="319"/>
+      <c r="F58" s="319"/>
+      <c r="G58" s="319"/>
+      <c r="H58" s="319"/>
+      <c r="I58" s="319"/>
+      <c r="J58" s="293"/>
+      <c r="K58" s="288" t="s">
+        <v>85</v>
+      </c>
+      <c r="L58" s="288"/>
+      <c r="M58" s="288"/>
+      <c r="N58" s="288"/>
+      <c r="O58" s="288"/>
+      <c r="P58" s="288"/>
+      <c r="Q58" s="288"/>
+      <c r="R58" s="333"/>
+      <c r="S58" s="334"/>
+      <c r="T58" s="334"/>
+      <c r="U58" s="334"/>
+      <c r="V58" s="334"/>
+      <c r="W58" s="334"/>
+      <c r="X58" s="334"/>
+      <c r="Y58" s="334"/>
+      <c r="Z58" s="334"/>
+      <c r="AA58" s="334"/>
+      <c r="AB58" s="334"/>
+      <c r="AC58" s="334"/>
+      <c r="AD58" s="334"/>
+      <c r="AE58" s="334"/>
+      <c r="AF58" s="334"/>
+      <c r="AG58" s="334"/>
+      <c r="AH58" s="334"/>
+      <c r="AI58" s="334"/>
+      <c r="AJ58" s="334"/>
+      <c r="AK58" s="334"/>
+      <c r="AL58" s="334"/>
+      <c r="AM58" s="335"/>
     </row>
-    <row r="59" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
-      <c r="AK59" s="28"/>
-      <c r="AL59" s="28"/>
-      <c r="AM59" s="28"/>
+    <row r="59" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="304"/>
+      <c r="B59" s="304"/>
+      <c r="C59" s="304"/>
+      <c r="D59" s="317" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="318"/>
+      <c r="F59" s="318"/>
+      <c r="G59" s="318"/>
+      <c r="H59" s="318"/>
+      <c r="I59" s="318"/>
+      <c r="J59" s="289"/>
+      <c r="K59" s="314" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="314"/>
+      <c r="M59" s="314"/>
+      <c r="N59" s="314"/>
+      <c r="O59" s="314"/>
+      <c r="P59" s="314"/>
+      <c r="Q59" s="314"/>
+      <c r="R59" s="339"/>
+      <c r="S59" s="340"/>
+      <c r="T59" s="340"/>
+      <c r="U59" s="340"/>
+      <c r="V59" s="340"/>
+      <c r="W59" s="340"/>
+      <c r="X59" s="340"/>
+      <c r="Y59" s="340"/>
+      <c r="Z59" s="340"/>
+      <c r="AA59" s="340"/>
+      <c r="AB59" s="340"/>
+      <c r="AC59" s="343"/>
+      <c r="AD59" s="340"/>
+      <c r="AE59" s="340"/>
+      <c r="AF59" s="340"/>
+      <c r="AG59" s="340"/>
+      <c r="AH59" s="340"/>
+      <c r="AI59" s="340"/>
+      <c r="AJ59" s="340"/>
+      <c r="AK59" s="340"/>
+      <c r="AL59" s="340"/>
+      <c r="AM59" s="341"/>
     </row>
     <row r="60" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="U60" s="49"/>
-      <c r="V60" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="W60" s="51"/>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="51"/>
-      <c r="Z60" s="51"/>
-      <c r="AA60" s="51"/>
-      <c r="AB60" s="51"/>
-      <c r="AC60" s="51"/>
-      <c r="AD60" s="51"/>
-      <c r="AE60" s="51"/>
-      <c r="AF60" s="51"/>
-      <c r="AG60" s="51"/>
-      <c r="AH60" s="51"/>
-      <c r="AI60" s="51"/>
-      <c r="AJ60" s="51"/>
-      <c r="AK60" s="51"/>
-      <c r="AL60" s="51"/>
-      <c r="AM60" s="51"/>
+      <c r="A60" s="304"/>
+      <c r="B60" s="304"/>
+      <c r="C60" s="304"/>
+      <c r="D60" s="290"/>
+      <c r="E60" s="320"/>
+      <c r="F60" s="320"/>
+      <c r="G60" s="320"/>
+      <c r="H60" s="320"/>
+      <c r="I60" s="320"/>
+      <c r="J60" s="291"/>
+      <c r="K60" s="284" t="s">
+        <v>98</v>
+      </c>
+      <c r="L60" s="284"/>
+      <c r="M60" s="284"/>
+      <c r="N60" s="284"/>
+      <c r="O60" s="284"/>
+      <c r="P60" s="284"/>
+      <c r="Q60" s="284"/>
+      <c r="R60" s="330"/>
+      <c r="S60" s="331"/>
+      <c r="T60" s="331"/>
+      <c r="U60" s="331"/>
+      <c r="V60" s="331"/>
+      <c r="W60" s="331"/>
+      <c r="X60" s="331"/>
+      <c r="Y60" s="331"/>
+      <c r="Z60" s="331"/>
+      <c r="AA60" s="331"/>
+      <c r="AB60" s="331"/>
+      <c r="AC60" s="331"/>
+      <c r="AD60" s="331"/>
+      <c r="AE60" s="331"/>
+      <c r="AF60" s="331"/>
+      <c r="AG60" s="331"/>
+      <c r="AH60" s="331"/>
+      <c r="AI60" s="331"/>
+      <c r="AJ60" s="331"/>
+      <c r="AK60" s="331"/>
+      <c r="AL60" s="331"/>
+      <c r="AM60" s="332"/>
     </row>
     <row r="61" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="51"/>
-      <c r="X61" s="51"/>
-      <c r="Y61" s="51"/>
-      <c r="Z61" s="51"/>
-      <c r="AA61" s="51"/>
-      <c r="AB61" s="51"/>
-      <c r="AC61" s="51"/>
-      <c r="AD61" s="51"/>
-      <c r="AE61" s="51"/>
-      <c r="AF61" s="51"/>
-      <c r="AG61" s="51"/>
-      <c r="AH61" s="51"/>
-      <c r="AI61" s="51"/>
-      <c r="AJ61" s="51"/>
-      <c r="AK61" s="51"/>
-      <c r="AL61" s="51"/>
-      <c r="AM61" s="51"/>
+      <c r="A61" s="304"/>
+      <c r="B61" s="304"/>
+      <c r="C61" s="304"/>
+      <c r="D61" s="290"/>
+      <c r="E61" s="320"/>
+      <c r="F61" s="320"/>
+      <c r="G61" s="320"/>
+      <c r="H61" s="320"/>
+      <c r="I61" s="320"/>
+      <c r="J61" s="291"/>
+      <c r="K61" s="284" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" s="284"/>
+      <c r="M61" s="284"/>
+      <c r="N61" s="284"/>
+      <c r="O61" s="284"/>
+      <c r="P61" s="284"/>
+      <c r="Q61" s="284"/>
+      <c r="R61" s="285"/>
+      <c r="S61" s="286"/>
+      <c r="T61" s="286"/>
+      <c r="U61" s="286"/>
+      <c r="V61" s="286"/>
+      <c r="W61" s="286"/>
+      <c r="X61" s="286"/>
+      <c r="Y61" s="286"/>
+      <c r="Z61" s="286"/>
+      <c r="AA61" s="286"/>
+      <c r="AB61" s="286"/>
+      <c r="AC61" s="313"/>
+      <c r="AD61" s="286"/>
+      <c r="AE61" s="286"/>
+      <c r="AF61" s="286"/>
+      <c r="AG61" s="286"/>
+      <c r="AH61" s="286"/>
+      <c r="AI61" s="286"/>
+      <c r="AJ61" s="286"/>
+      <c r="AK61" s="286"/>
+      <c r="AL61" s="286"/>
+      <c r="AM61" s="287"/>
     </row>
     <row r="62" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="51"/>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
-      <c r="AE62" s="51"/>
-      <c r="AF62" s="51"/>
-      <c r="AG62" s="51"/>
-      <c r="AH62" s="51"/>
-      <c r="AI62" s="51"/>
-      <c r="AJ62" s="51"/>
-      <c r="AK62" s="51"/>
-      <c r="AL62" s="51"/>
-      <c r="AM62" s="51"/>
+      <c r="A62" s="304"/>
+      <c r="B62" s="304"/>
+      <c r="C62" s="304"/>
+      <c r="D62" s="292"/>
+      <c r="E62" s="319"/>
+      <c r="F62" s="319"/>
+      <c r="G62" s="319"/>
+      <c r="H62" s="319"/>
+      <c r="I62" s="319"/>
+      <c r="J62" s="293"/>
+      <c r="K62" s="288" t="s">
+        <v>99</v>
+      </c>
+      <c r="L62" s="288"/>
+      <c r="M62" s="288"/>
+      <c r="N62" s="288"/>
+      <c r="O62" s="288"/>
+      <c r="P62" s="288"/>
+      <c r="Q62" s="288"/>
+      <c r="R62" s="333"/>
+      <c r="S62" s="334"/>
+      <c r="T62" s="334"/>
+      <c r="U62" s="334"/>
+      <c r="V62" s="334"/>
+      <c r="W62" s="334"/>
+      <c r="X62" s="334"/>
+      <c r="Y62" s="334"/>
+      <c r="Z62" s="334"/>
+      <c r="AA62" s="334"/>
+      <c r="AB62" s="334"/>
+      <c r="AC62" s="334"/>
+      <c r="AD62" s="334"/>
+      <c r="AE62" s="334"/>
+      <c r="AF62" s="334"/>
+      <c r="AG62" s="334"/>
+      <c r="AH62" s="334"/>
+      <c r="AI62" s="334"/>
+      <c r="AJ62" s="334"/>
+      <c r="AK62" s="334"/>
+      <c r="AL62" s="334"/>
+      <c r="AM62" s="335"/>
     </row>
-    <row r="63" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="44"/>
+    <row r="63" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="28"/>
       <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="51"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="51"/>
-      <c r="Y63" s="51"/>
-      <c r="Z63" s="51"/>
-      <c r="AA63" s="51"/>
-      <c r="AB63" s="51"/>
-      <c r="AC63" s="51"/>
-      <c r="AD63" s="51"/>
-      <c r="AE63" s="51"/>
-      <c r="AF63" s="51"/>
-      <c r="AG63" s="51"/>
-      <c r="AH63" s="51"/>
-      <c r="AI63" s="51"/>
-      <c r="AJ63" s="51"/>
-      <c r="AK63" s="51"/>
-      <c r="AL63" s="51"/>
-      <c r="AM63" s="51"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
+      <c r="AD63" s="28"/>
+      <c r="AE63" s="28"/>
+      <c r="AF63" s="28"/>
+      <c r="AG63" s="28"/>
+      <c r="AH63" s="28"/>
+      <c r="AI63" s="28"/>
+      <c r="AJ63" s="28"/>
+      <c r="AK63" s="28"/>
+      <c r="AL63" s="28"/>
+      <c r="AM63" s="28"/>
     </row>
     <row r="64" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="44"/>
+      <c r="A64" s="321" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="322"/>
+      <c r="C64" s="294" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="295"/>
+      <c r="E64" s="295"/>
+      <c r="F64" s="295"/>
+      <c r="G64" s="295"/>
+      <c r="H64" s="295"/>
+      <c r="I64" s="295"/>
+      <c r="J64" s="295"/>
+      <c r="K64" s="295"/>
+      <c r="L64" s="295"/>
+      <c r="M64" s="295"/>
+      <c r="N64" s="295"/>
+      <c r="O64" s="295"/>
+      <c r="P64" s="295"/>
+      <c r="Q64" s="296"/>
       <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="51"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="51"/>
-      <c r="Y64" s="51"/>
-      <c r="Z64" s="51"/>
-      <c r="AA64" s="51"/>
-      <c r="AB64" s="51"/>
-      <c r="AC64" s="51"/>
-      <c r="AD64" s="51"/>
-      <c r="AE64" s="51"/>
-      <c r="AF64" s="51"/>
-      <c r="AG64" s="51"/>
-      <c r="AH64" s="51"/>
-      <c r="AI64" s="51"/>
-      <c r="AJ64" s="51"/>
-      <c r="AK64" s="51"/>
-      <c r="AL64" s="51"/>
-      <c r="AM64" s="51"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="323" t="s">
+        <v>94</v>
+      </c>
+      <c r="U64" s="324"/>
+      <c r="V64" s="305" t="s">
+        <v>100</v>
+      </c>
+      <c r="W64" s="305"/>
+      <c r="X64" s="305"/>
+      <c r="Y64" s="305"/>
+      <c r="Z64" s="305"/>
+      <c r="AA64" s="305"/>
+      <c r="AB64" s="305"/>
+      <c r="AC64" s="305"/>
+      <c r="AD64" s="305"/>
+      <c r="AE64" s="305"/>
+      <c r="AF64" s="305"/>
+      <c r="AG64" s="305"/>
+      <c r="AH64" s="305"/>
+      <c r="AI64" s="305"/>
+      <c r="AJ64" s="305"/>
+      <c r="AK64" s="305"/>
+      <c r="AL64" s="305"/>
+      <c r="AM64" s="305"/>
     </row>
     <row r="65" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="44"/>
+      <c r="A65" s="325"/>
+      <c r="B65" s="326"/>
+      <c r="C65" s="297"/>
+      <c r="D65" s="298"/>
+      <c r="E65" s="298"/>
+      <c r="F65" s="298"/>
+      <c r="G65" s="298"/>
+      <c r="H65" s="298"/>
+      <c r="I65" s="298"/>
+      <c r="J65" s="298"/>
+      <c r="K65" s="298"/>
+      <c r="L65" s="298"/>
+      <c r="M65" s="298"/>
+      <c r="N65" s="298"/>
+      <c r="O65" s="298"/>
+      <c r="P65" s="298"/>
+      <c r="Q65" s="299"/>
       <c r="R65" s="27"/>
       <c r="S65" s="27"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="51"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="51"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="51"/>
-      <c r="AC65" s="51"/>
-      <c r="AD65" s="51"/>
-      <c r="AE65" s="51"/>
-      <c r="AF65" s="51"/>
-      <c r="AG65" s="51"/>
-      <c r="AH65" s="51"/>
-      <c r="AI65" s="51"/>
-      <c r="AJ65" s="51"/>
-      <c r="AK65" s="51"/>
-      <c r="AL65" s="51"/>
-      <c r="AM65" s="51"/>
+      <c r="T65" s="324"/>
+      <c r="U65" s="324"/>
+      <c r="V65" s="305"/>
+      <c r="W65" s="305"/>
+      <c r="X65" s="305"/>
+      <c r="Y65" s="305"/>
+      <c r="Z65" s="305"/>
+      <c r="AA65" s="305"/>
+      <c r="AB65" s="305"/>
+      <c r="AC65" s="305"/>
+      <c r="AD65" s="305"/>
+      <c r="AE65" s="305"/>
+      <c r="AF65" s="305"/>
+      <c r="AG65" s="305"/>
+      <c r="AH65" s="305"/>
+      <c r="AI65" s="305"/>
+      <c r="AJ65" s="305"/>
+      <c r="AK65" s="305"/>
+      <c r="AL65" s="305"/>
+      <c r="AM65" s="305"/>
     </row>
     <row r="66" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="44"/>
+      <c r="A66" s="325"/>
+      <c r="B66" s="326"/>
+      <c r="C66" s="297"/>
+      <c r="D66" s="298"/>
+      <c r="E66" s="298"/>
+      <c r="F66" s="298"/>
+      <c r="G66" s="298"/>
+      <c r="H66" s="298"/>
+      <c r="I66" s="298"/>
+      <c r="J66" s="298"/>
+      <c r="K66" s="298"/>
+      <c r="L66" s="298"/>
+      <c r="M66" s="298"/>
+      <c r="N66" s="298"/>
+      <c r="O66" s="298"/>
+      <c r="P66" s="298"/>
+      <c r="Q66" s="299"/>
       <c r="R66" s="27"/>
       <c r="S66" s="27"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
-      <c r="Y66" s="51"/>
-      <c r="Z66" s="51"/>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="51"/>
-      <c r="AC66" s="51"/>
-      <c r="AD66" s="51"/>
-      <c r="AE66" s="51"/>
-      <c r="AF66" s="51"/>
-      <c r="AG66" s="51"/>
-      <c r="AH66" s="51"/>
-      <c r="AI66" s="51"/>
-      <c r="AJ66" s="51"/>
-      <c r="AK66" s="51"/>
-      <c r="AL66" s="51"/>
-      <c r="AM66" s="51"/>
+      <c r="T66" s="324"/>
+      <c r="U66" s="324"/>
+      <c r="V66" s="305"/>
+      <c r="W66" s="305"/>
+      <c r="X66" s="305"/>
+      <c r="Y66" s="305"/>
+      <c r="Z66" s="305"/>
+      <c r="AA66" s="305"/>
+      <c r="AB66" s="305"/>
+      <c r="AC66" s="305"/>
+      <c r="AD66" s="305"/>
+      <c r="AE66" s="305"/>
+      <c r="AF66" s="305"/>
+      <c r="AG66" s="305"/>
+      <c r="AH66" s="305"/>
+      <c r="AI66" s="305"/>
+      <c r="AJ66" s="305"/>
+      <c r="AK66" s="305"/>
+      <c r="AL66" s="305"/>
+      <c r="AM66" s="305"/>
     </row>
     <row r="67" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="37"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="47"/>
+      <c r="A67" s="325"/>
+      <c r="B67" s="326"/>
+      <c r="C67" s="297"/>
+      <c r="D67" s="298"/>
+      <c r="E67" s="298"/>
+      <c r="F67" s="298"/>
+      <c r="G67" s="298"/>
+      <c r="H67" s="298"/>
+      <c r="I67" s="298"/>
+      <c r="J67" s="298"/>
+      <c r="K67" s="298"/>
+      <c r="L67" s="298"/>
+      <c r="M67" s="298"/>
+      <c r="N67" s="298"/>
+      <c r="O67" s="298"/>
+      <c r="P67" s="298"/>
+      <c r="Q67" s="299"/>
       <c r="R67" s="27"/>
       <c r="S67" s="27"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="51"/>
-      <c r="Y67" s="51"/>
-      <c r="Z67" s="51"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="51"/>
-      <c r="AC67" s="51"/>
-      <c r="AD67" s="51"/>
-      <c r="AE67" s="51"/>
-      <c r="AF67" s="51"/>
-      <c r="AG67" s="51"/>
-      <c r="AH67" s="51"/>
-      <c r="AI67" s="51"/>
-      <c r="AJ67" s="51"/>
-      <c r="AK67" s="51"/>
-      <c r="AL67" s="51"/>
-      <c r="AM67" s="51"/>
+      <c r="T67" s="324"/>
+      <c r="U67" s="324"/>
+      <c r="V67" s="305"/>
+      <c r="W67" s="305"/>
+      <c r="X67" s="305"/>
+      <c r="Y67" s="305"/>
+      <c r="Z67" s="305"/>
+      <c r="AA67" s="305"/>
+      <c r="AB67" s="305"/>
+      <c r="AC67" s="305"/>
+      <c r="AD67" s="305"/>
+      <c r="AE67" s="305"/>
+      <c r="AF67" s="305"/>
+      <c r="AG67" s="305"/>
+      <c r="AH67" s="305"/>
+      <c r="AI67" s="305"/>
+      <c r="AJ67" s="305"/>
+      <c r="AK67" s="305"/>
+      <c r="AL67" s="305"/>
+      <c r="AM67" s="305"/>
+    </row>
+    <row r="68" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="325"/>
+      <c r="B68" s="326"/>
+      <c r="C68" s="297"/>
+      <c r="D68" s="298"/>
+      <c r="E68" s="298"/>
+      <c r="F68" s="298"/>
+      <c r="G68" s="298"/>
+      <c r="H68" s="298"/>
+      <c r="I68" s="298"/>
+      <c r="J68" s="298"/>
+      <c r="K68" s="298"/>
+      <c r="L68" s="298"/>
+      <c r="M68" s="298"/>
+      <c r="N68" s="298"/>
+      <c r="O68" s="298"/>
+      <c r="P68" s="298"/>
+      <c r="Q68" s="299"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="324"/>
+      <c r="U68" s="324"/>
+      <c r="V68" s="305"/>
+      <c r="W68" s="305"/>
+      <c r="X68" s="305"/>
+      <c r="Y68" s="305"/>
+      <c r="Z68" s="305"/>
+      <c r="AA68" s="305"/>
+      <c r="AB68" s="305"/>
+      <c r="AC68" s="305"/>
+      <c r="AD68" s="305"/>
+      <c r="AE68" s="305"/>
+      <c r="AF68" s="305"/>
+      <c r="AG68" s="305"/>
+      <c r="AH68" s="305"/>
+      <c r="AI68" s="305"/>
+      <c r="AJ68" s="305"/>
+      <c r="AK68" s="305"/>
+      <c r="AL68" s="305"/>
+      <c r="AM68" s="305"/>
+    </row>
+    <row r="69" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="325"/>
+      <c r="B69" s="326"/>
+      <c r="C69" s="297"/>
+      <c r="D69" s="298"/>
+      <c r="E69" s="298"/>
+      <c r="F69" s="298"/>
+      <c r="G69" s="298"/>
+      <c r="H69" s="298"/>
+      <c r="I69" s="298"/>
+      <c r="J69" s="298"/>
+      <c r="K69" s="298"/>
+      <c r="L69" s="298"/>
+      <c r="M69" s="298"/>
+      <c r="N69" s="298"/>
+      <c r="O69" s="298"/>
+      <c r="P69" s="298"/>
+      <c r="Q69" s="299"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="324"/>
+      <c r="U69" s="324"/>
+      <c r="V69" s="305"/>
+      <c r="W69" s="305"/>
+      <c r="X69" s="305"/>
+      <c r="Y69" s="305"/>
+      <c r="Z69" s="305"/>
+      <c r="AA69" s="305"/>
+      <c r="AB69" s="305"/>
+      <c r="AC69" s="305"/>
+      <c r="AD69" s="305"/>
+      <c r="AE69" s="305"/>
+      <c r="AF69" s="305"/>
+      <c r="AG69" s="305"/>
+      <c r="AH69" s="305"/>
+      <c r="AI69" s="305"/>
+      <c r="AJ69" s="305"/>
+      <c r="AK69" s="305"/>
+      <c r="AL69" s="305"/>
+      <c r="AM69" s="305"/>
+    </row>
+    <row r="70" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="325"/>
+      <c r="B70" s="326"/>
+      <c r="C70" s="297"/>
+      <c r="D70" s="298"/>
+      <c r="E70" s="298"/>
+      <c r="F70" s="298"/>
+      <c r="G70" s="298"/>
+      <c r="H70" s="298"/>
+      <c r="I70" s="298"/>
+      <c r="J70" s="298"/>
+      <c r="K70" s="298"/>
+      <c r="L70" s="298"/>
+      <c r="M70" s="298"/>
+      <c r="N70" s="298"/>
+      <c r="O70" s="298"/>
+      <c r="P70" s="298"/>
+      <c r="Q70" s="299"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="324"/>
+      <c r="U70" s="324"/>
+      <c r="V70" s="305"/>
+      <c r="W70" s="305"/>
+      <c r="X70" s="305"/>
+      <c r="Y70" s="305"/>
+      <c r="Z70" s="305"/>
+      <c r="AA70" s="305"/>
+      <c r="AB70" s="305"/>
+      <c r="AC70" s="305"/>
+      <c r="AD70" s="305"/>
+      <c r="AE70" s="305"/>
+      <c r="AF70" s="305"/>
+      <c r="AG70" s="305"/>
+      <c r="AH70" s="305"/>
+      <c r="AI70" s="305"/>
+      <c r="AJ70" s="305"/>
+      <c r="AK70" s="305"/>
+      <c r="AL70" s="305"/>
+      <c r="AM70" s="305"/>
+    </row>
+    <row r="71" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="327"/>
+      <c r="B71" s="328"/>
+      <c r="C71" s="300"/>
+      <c r="D71" s="301"/>
+      <c r="E71" s="301"/>
+      <c r="F71" s="301"/>
+      <c r="G71" s="301"/>
+      <c r="H71" s="301"/>
+      <c r="I71" s="301"/>
+      <c r="J71" s="301"/>
+      <c r="K71" s="301"/>
+      <c r="L71" s="301"/>
+      <c r="M71" s="301"/>
+      <c r="N71" s="301"/>
+      <c r="O71" s="301"/>
+      <c r="P71" s="301"/>
+      <c r="Q71" s="302"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="324"/>
+      <c r="U71" s="324"/>
+      <c r="V71" s="305"/>
+      <c r="W71" s="305"/>
+      <c r="X71" s="305"/>
+      <c r="Y71" s="305"/>
+      <c r="Z71" s="305"/>
+      <c r="AA71" s="305"/>
+      <c r="AB71" s="305"/>
+      <c r="AC71" s="305"/>
+      <c r="AD71" s="305"/>
+      <c r="AE71" s="305"/>
+      <c r="AF71" s="305"/>
+      <c r="AG71" s="305"/>
+      <c r="AH71" s="305"/>
+      <c r="AI71" s="305"/>
+      <c r="AJ71" s="305"/>
+      <c r="AK71" s="305"/>
+      <c r="AL71" s="305"/>
+      <c r="AM71" s="305"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
-    <mergeCell ref="AO21:AS21"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="AT22:AV22"/>
-    <mergeCell ref="AR25:AV25"/>
-    <mergeCell ref="AJ42:AM44"/>
-    <mergeCell ref="AG38:AM38"/>
-    <mergeCell ref="Z34:AF34"/>
-    <mergeCell ref="Z36:AF36"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="AG36:AM36"/>
-    <mergeCell ref="AG34:AM34"/>
-    <mergeCell ref="Z35:AF35"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AA42:AC42"/>
+  <mergeCells count="299">
+    <mergeCell ref="A64:B71"/>
+    <mergeCell ref="C64:Q71"/>
+    <mergeCell ref="T64:U71"/>
+    <mergeCell ref="V64:AM71"/>
+    <mergeCell ref="R47:AB48"/>
+    <mergeCell ref="R54:AB54"/>
+    <mergeCell ref="R55:AB55"/>
+    <mergeCell ref="R57:AB57"/>
+    <mergeCell ref="R59:AB59"/>
+    <mergeCell ref="AC59:AM59"/>
+    <mergeCell ref="R61:AB61"/>
+    <mergeCell ref="AC61:AM61"/>
+    <mergeCell ref="A47:C62"/>
+    <mergeCell ref="D55:J56"/>
+    <mergeCell ref="R56:AM56"/>
+    <mergeCell ref="R58:AM58"/>
+    <mergeCell ref="D59:J62"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="R60:AM60"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="R62:AM62"/>
+    <mergeCell ref="AC47:AM48"/>
+    <mergeCell ref="AC54:AM54"/>
+    <mergeCell ref="AC55:AM55"/>
+    <mergeCell ref="AC57:AM57"/>
+    <mergeCell ref="D47:J53"/>
+    <mergeCell ref="K47:Q48"/>
+    <mergeCell ref="K49:Q50"/>
+    <mergeCell ref="R49:AM50"/>
+    <mergeCell ref="K51:Q52"/>
+    <mergeCell ref="R51:AM52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:AM53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="D57:J58"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="AG39:AM39"/>
+    <mergeCell ref="AO18:AS18"/>
+    <mergeCell ref="AO19:AS19"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AR30:AV30"/>
+    <mergeCell ref="Z38:AF38"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AM10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="AG37:AM37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="T32:U39"/>
+    <mergeCell ref="AG35:AM35"/>
+    <mergeCell ref="Z32:AF32"/>
+    <mergeCell ref="Z31:AF31"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="G36:Q36"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="AO29:AV29"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G15:Q15"/>
+    <mergeCell ref="T24:U31"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="G27:Q27"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="Z4:AI4"/>
+    <mergeCell ref="Z5:AI5"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:Q46"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="G28:Q28"/>
+    <mergeCell ref="G19:Q19"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:B31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="A32:B39"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="G37:Q37"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="Z15:AI15"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="T18:U23"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AG18:AM18"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="Z24:AF24"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AF25"/>
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:AI6"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:B23"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="G18:Q18"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="AG23:AM23"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z14:AI14"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG19:AM19"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z7:AM7"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AG21:AM21"/>
+    <mergeCell ref="AG16:AM16"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AG8:AM8"/>
+    <mergeCell ref="Z3:AI3"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AJ3:AM6"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="AG20:AM20"/>
+    <mergeCell ref="AJ13:AM15"/>
     <mergeCell ref="AW21:AY21"/>
     <mergeCell ref="AW22:AY22"/>
     <mergeCell ref="Z33:AF33"/>
@@ -9612,256 +10109,30 @@
     <mergeCell ref="Z23:AF23"/>
     <mergeCell ref="AO26:AQ26"/>
     <mergeCell ref="AR26:AV26"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="AG23:AM23"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z14:AI14"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG19:AM19"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="Z7:AM7"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AG21:AM21"/>
-    <mergeCell ref="AG16:AM16"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="AG8:AM8"/>
-    <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AJ3:AM6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:AI6"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:B23"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="G18:Q18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="AO21:AS21"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="AT22:AV22"/>
+    <mergeCell ref="AR25:AV25"/>
+    <mergeCell ref="AJ42:AM44"/>
+    <mergeCell ref="AG38:AM38"/>
+    <mergeCell ref="Z34:AF34"/>
+    <mergeCell ref="Z36:AF36"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="AG36:AM36"/>
+    <mergeCell ref="AG34:AM34"/>
+    <mergeCell ref="Z35:AF35"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AA42:AC42"/>
     <mergeCell ref="AG25:AM25"/>
     <mergeCell ref="V27:Y27"/>
     <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="Z24:AF24"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z30:AF30"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AF25"/>
-    <mergeCell ref="G24:Q24"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="AG20:AM20"/>
-    <mergeCell ref="AJ13:AM15"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="Z15:AI15"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="T18:U23"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="AG18:AM18"/>
-    <mergeCell ref="Z16:AF16"/>
     <mergeCell ref="AB44:AE44"/>
     <mergeCell ref="X44:AA44"/>
     <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:B31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:Q46"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G39:Q39"/>
-    <mergeCell ref="G28:Q28"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="A32:B39"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G36:Q36"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="AO29:AV29"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G15:Q15"/>
-    <mergeCell ref="T24:U31"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="G27:Q27"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="Z4:AI4"/>
-    <mergeCell ref="Z5:AI5"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="AG37:AM37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="T32:U39"/>
-    <mergeCell ref="AG35:AM35"/>
-    <mergeCell ref="Z32:AF32"/>
-    <mergeCell ref="Z31:AF31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="AG39:AM39"/>
-    <mergeCell ref="AO18:AS18"/>
-    <mergeCell ref="AO19:AS19"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AR30:AV30"/>
-    <mergeCell ref="Z38:AF38"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AM10"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:AM53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="D57:J58"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="A60:B67"/>
-    <mergeCell ref="C60:Q67"/>
-    <mergeCell ref="T60:U67"/>
-    <mergeCell ref="V60:AM67"/>
-    <mergeCell ref="AC47:AM48"/>
-    <mergeCell ref="R47:AA48"/>
-    <mergeCell ref="AB47:AB48"/>
-    <mergeCell ref="R54:AA54"/>
-    <mergeCell ref="AC54:AM54"/>
-    <mergeCell ref="R55:AA55"/>
-    <mergeCell ref="AC55:AM55"/>
-    <mergeCell ref="R56:AA56"/>
-    <mergeCell ref="AC56:AM56"/>
-    <mergeCell ref="R57:AA57"/>
-    <mergeCell ref="AC57:AM57"/>
-    <mergeCell ref="R58:AA58"/>
-    <mergeCell ref="AC58:AM58"/>
-    <mergeCell ref="A47:C58"/>
-    <mergeCell ref="D47:J53"/>
-    <mergeCell ref="K47:Q48"/>
-    <mergeCell ref="K49:Q50"/>
-    <mergeCell ref="R49:AM50"/>
-    <mergeCell ref="K51:Q52"/>
-    <mergeCell ref="R51:AM52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Z8:AE8">

--- a/excel/contrcat_10102.xlsx
+++ b/excel/contrcat_10102.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="契約レポート" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">契約レポート!$A$1:$AM$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">契約レポート!$A$1:$AM$73</definedName>
     <definedName name="ありなし">[1]ダウンリスト!$L$1:$L$3</definedName>
     <definedName name="スキル">[1]ダウンリスト!$R$1:$R$4</definedName>
     <definedName name="下限時間">[1]ダウンリスト!$F$1:$F$7</definedName>
@@ -58,12 +58,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>㈱HAL</author>
   </authors>
   <commentList>
-    <comment ref="AG8" authorId="0" shapeId="0">
+    <comment ref="AG8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE11" authorId="0" shapeId="0">
+    <comment ref="AE11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ13" authorId="0" shapeId="0">
+    <comment ref="AJ13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG16" authorId="0" shapeId="0">
+    <comment ref="AG16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T43" authorId="0" shapeId="0">
+    <comment ref="T43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -2231,7 +2231,7 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2319,6 +2319,186 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2328,941 +2508,791 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -6029,14 +6059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN71"/>
+  <dimension ref="A1:BN73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection sqref="A1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6053,116 +6083,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
-      <c r="L1" s="283"/>
-      <c r="M1" s="283"/>
-      <c r="N1" s="283"/>
-      <c r="O1" s="283"/>
-      <c r="P1" s="283"/>
-      <c r="Q1" s="283"/>
-      <c r="R1" s="283"/>
-      <c r="S1" s="283"/>
-      <c r="T1" s="283"/>
-      <c r="U1" s="283"/>
-      <c r="V1" s="283"/>
-      <c r="W1" s="283"/>
-      <c r="X1" s="283"/>
-      <c r="Y1" s="283"/>
-      <c r="Z1" s="283"/>
-      <c r="AA1" s="283"/>
-      <c r="AB1" s="283"/>
-      <c r="AC1" s="283"/>
-      <c r="AD1" s="283"/>
-      <c r="AE1" s="283"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="283"/>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="283"/>
-      <c r="AJ1" s="283"/>
-      <c r="AK1" s="283"/>
-      <c r="AL1" s="283"/>
-      <c r="AM1" s="283"/>
-      <c r="AX1" s="267" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AX1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="267"/>
-      <c r="AZ1" s="267"/>
-      <c r="BA1" s="267"/>
-      <c r="BB1" s="267"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
       <c r="BC1" s="13"/>
-      <c r="BD1" s="267" t="s">
+      <c r="BD1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="BE1" s="267"/>
-      <c r="BF1" s="267"/>
-      <c r="BG1" s="267"/>
-      <c r="BH1" s="267"/>
-      <c r="BJ1" s="267" t="s">
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BJ1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="BK1" s="267"/>
-      <c r="BL1" s="267"/>
-      <c r="BM1" s="267"/>
-      <c r="BN1" s="267"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="81"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="282" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="70" t="s">
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="284"/>
+      <c r="T2" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="71" t="s">
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="106" t="s">
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="108"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="84"/>
       <c r="AX2" s="16"/>
       <c r="AY2" s="17"/>
       <c r="AZ2" s="17"/>
@@ -6195,47 +6225,47 @@
       </c>
     </row>
     <row r="3" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="111"/>
-      <c r="T3" s="95" t="s">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="176"/>
+      <c r="T3" s="242" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="38"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="308"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="308"/>
+      <c r="AC3" s="308"/>
+      <c r="AD3" s="308"/>
+      <c r="AE3" s="308"/>
+      <c r="AF3" s="308"/>
+      <c r="AG3" s="308"/>
+      <c r="AH3" s="308"/>
+      <c r="AI3" s="309"/>
+      <c r="AJ3" s="310"/>
+      <c r="AK3" s="311"/>
+      <c r="AL3" s="311"/>
+      <c r="AM3" s="312"/>
       <c r="AX3" s="20"/>
       <c r="AY3" s="21"/>
       <c r="AZ3" s="21"/>
@@ -6268,47 +6298,47 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="133"/>
-      <c r="T4" s="76" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="119"/>
+      <c r="T4" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="41"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="191"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="313"/>
+      <c r="AK4" s="314"/>
+      <c r="AL4" s="314"/>
+      <c r="AM4" s="315"/>
       <c r="AX4" s="20"/>
       <c r="AY4" s="21"/>
       <c r="AZ4" s="21"/>
@@ -6341,48 +6371,48 @@
       </c>
     </row>
     <row r="5" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="133"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="119"/>
       <c r="R5" s="3"/>
-      <c r="T5" s="82" t="s">
+      <c r="T5" s="224" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="262"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="41"/>
+      <c r="U5" s="193"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="193"/>
+      <c r="X5" s="193"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="192"/>
+      <c r="AA5" s="193"/>
+      <c r="AB5" s="193"/>
+      <c r="AC5" s="193"/>
+      <c r="AD5" s="193"/>
+      <c r="AE5" s="193"/>
+      <c r="AF5" s="193"/>
+      <c r="AG5" s="193"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="194"/>
+      <c r="AJ5" s="313"/>
+      <c r="AK5" s="314"/>
+      <c r="AL5" s="314"/>
+      <c r="AM5" s="315"/>
       <c r="AX5" s="20"/>
       <c r="AY5" s="21"/>
       <c r="AZ5" s="21"/>
@@ -6400,48 +6430,48 @@
       <c r="BN5" s="23"/>
     </row>
     <row r="6" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="273" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="120"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="168"/>
       <c r="R6" s="3"/>
-      <c r="T6" s="121" t="s">
+      <c r="T6" s="279" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="44"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="281"/>
+      <c r="AJ6" s="316"/>
+      <c r="AK6" s="317"/>
+      <c r="AL6" s="317"/>
+      <c r="AM6" s="318"/>
       <c r="AX6" s="20"/>
       <c r="AY6" s="21"/>
       <c r="AZ6" s="21"/>
@@ -6459,55 +6489,55 @@
       <c r="BN6" s="23"/>
     </row>
     <row r="7" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="86" t="s">
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="269" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="237" t="s">
+      <c r="H7" s="271"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="238"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="115">
+      <c r="M7" s="159"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="275">
         <f>I7-D7-O8</f>
         <v>0</v>
       </c>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="117"/>
+      <c r="P7" s="276"/>
+      <c r="Q7" s="277"/>
       <c r="R7" s="3"/>
-      <c r="T7" s="70" t="s">
+      <c r="T7" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="100"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="305"/>
+      <c r="AA7" s="306"/>
+      <c r="AB7" s="306"/>
+      <c r="AC7" s="306"/>
+      <c r="AD7" s="306"/>
+      <c r="AE7" s="306"/>
+      <c r="AF7" s="306"/>
+      <c r="AG7" s="306"/>
+      <c r="AH7" s="306"/>
+      <c r="AI7" s="306"/>
+      <c r="AJ7" s="306"/>
+      <c r="AK7" s="306"/>
+      <c r="AL7" s="306"/>
+      <c r="AM7" s="307"/>
       <c r="AX7" s="20"/>
       <c r="AY7" s="21"/>
       <c r="AZ7" s="21"/>
@@ -6525,57 +6555,57 @@
       <c r="BN7" s="23"/>
     </row>
     <row r="8" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="84" t="s">
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243" t="s">
+      <c r="H8" s="181"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="244"/>
-      <c r="N8" s="245"/>
-      <c r="O8" s="246">
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="177">
         <f>I8-D8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="248"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="179"/>
       <c r="R8" s="3"/>
-      <c r="T8" s="84" t="s">
+      <c r="T8" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
+      <c r="U8" s="300"/>
+      <c r="V8" s="300"/>
+      <c r="W8" s="300"/>
+      <c r="X8" s="300"/>
+      <c r="Y8" s="300"/>
+      <c r="Z8" s="224"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="193"/>
       <c r="AF8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="103"/>
+      <c r="AG8" s="193"/>
+      <c r="AH8" s="193"/>
+      <c r="AI8" s="193"/>
+      <c r="AJ8" s="193"/>
+      <c r="AK8" s="193"/>
+      <c r="AL8" s="193"/>
+      <c r="AM8" s="194"/>
       <c r="AR8" s="3"/>
       <c r="AX8" s="20"/>
       <c r="AY8" s="21"/>
@@ -6616,51 +6646,51 @@
       <c r="BN9" s="23"/>
     </row>
     <row r="10" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="111"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="176"/>
       <c r="R10" s="3"/>
-      <c r="T10" s="86" t="s">
+      <c r="T10" s="269" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="185">
+      <c r="U10" s="270"/>
+      <c r="V10" s="270"/>
+      <c r="W10" s="270"/>
+      <c r="X10" s="270"/>
+      <c r="Y10" s="271"/>
+      <c r="Z10" s="120">
         <f>Z8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="186"/>
-      <c r="AH10" s="186"/>
-      <c r="AI10" s="186"/>
-      <c r="AJ10" s="186"/>
-      <c r="AK10" s="186"/>
-      <c r="AL10" s="186"/>
-      <c r="AM10" s="282"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="121"/>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="121"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="122"/>
       <c r="AR10" s="3"/>
       <c r="AX10" s="20"/>
       <c r="AY10" s="21"/>
@@ -6679,52 +6709,52 @@
       <c r="BN10" s="23"/>
     </row>
     <row r="11" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="133"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="119"/>
       <c r="R11" s="3"/>
-      <c r="T11" s="76" t="s">
+      <c r="T11" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="131" t="s">
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="275" t="s">
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="277"/>
-      <c r="AE11" s="278"/>
-      <c r="AF11" s="279"/>
-      <c r="AG11" s="279"/>
-      <c r="AH11" s="279"/>
-      <c r="AI11" s="279"/>
-      <c r="AJ11" s="280"/>
-      <c r="AK11" s="280"/>
-      <c r="AL11" s="280"/>
-      <c r="AM11" s="281"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="115"/>
+      <c r="AG11" s="115"/>
+      <c r="AH11" s="115"/>
+      <c r="AI11" s="115"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="117"/>
       <c r="AR11" s="3"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="21"/>
@@ -6758,50 +6788,50 @@
       </c>
     </row>
     <row r="12" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="120"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="168"/>
       <c r="R12" s="3"/>
-      <c r="T12" s="175" t="s">
+      <c r="T12" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="176"/>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="178" t="s">
+      <c r="U12" s="240"/>
+      <c r="V12" s="240"/>
+      <c r="W12" s="240"/>
+      <c r="X12" s="240"/>
+      <c r="Y12" s="241"/>
+      <c r="Z12" s="319"/>
+      <c r="AA12" s="320"/>
+      <c r="AB12" s="320"/>
+      <c r="AC12" s="320"/>
+      <c r="AD12" s="320"/>
+      <c r="AE12" s="320"/>
+      <c r="AF12" s="320"/>
+      <c r="AG12" s="320"/>
+      <c r="AH12" s="320"/>
+      <c r="AI12" s="321"/>
+      <c r="AJ12" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="AK12" s="179"/>
-      <c r="AL12" s="179"/>
-      <c r="AM12" s="180"/>
+      <c r="AK12" s="249"/>
+      <c r="AL12" s="249"/>
+      <c r="AM12" s="250"/>
       <c r="AR12" s="11"/>
       <c r="AX12" s="20"/>
       <c r="AY12" s="21"/>
@@ -6835,58 +6865,58 @@
       </c>
     </row>
     <row r="13" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="133"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="119"/>
       <c r="R13" s="3"/>
-      <c r="T13" s="161" t="s">
+      <c r="T13" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="162"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="185" t="str">
+      <c r="U13" s="246"/>
+      <c r="V13" s="247"/>
+      <c r="W13" s="120" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="186"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="272" t="s">
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="243"/>
+      <c r="AA13" s="244"/>
+      <c r="AB13" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="AC13" s="273"/>
-      <c r="AD13" s="274"/>
-      <c r="AE13" s="95" t="str">
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="242" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正", Z11="契"),"有","無"))</f>
         <v>有</v>
       </c>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="167">
+      <c r="AF13" s="243"/>
+      <c r="AG13" s="243"/>
+      <c r="AH13" s="243"/>
+      <c r="AI13" s="244"/>
+      <c r="AJ13" s="322">
         <v>80</v>
       </c>
-      <c r="AK13" s="168"/>
-      <c r="AL13" s="168"/>
-      <c r="AM13" s="169"/>
+      <c r="AK13" s="323"/>
+      <c r="AL13" s="323"/>
+      <c r="AM13" s="324"/>
       <c r="AR13" s="3"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="21"/>
@@ -6920,51 +6950,51 @@
       </c>
     </row>
     <row r="14" spans="1:66" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="69"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="165"/>
       <c r="R14" s="3"/>
-      <c r="T14" s="196" t="s">
+      <c r="T14" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="189"/>
-      <c r="Z14" s="89" t="str">
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="256"/>
+      <c r="X14" s="256"/>
+      <c r="Y14" s="257"/>
+      <c r="Z14" s="302" t="str">
         <f>IF(G15&lt;&gt;"",G15,"")</f>
         <v/>
       </c>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="170"/>
-      <c r="AL14" s="170"/>
-      <c r="AM14" s="171"/>
+      <c r="AA14" s="303"/>
+      <c r="AB14" s="303"/>
+      <c r="AC14" s="303"/>
+      <c r="AD14" s="303"/>
+      <c r="AE14" s="303"/>
+      <c r="AF14" s="303"/>
+      <c r="AG14" s="303"/>
+      <c r="AH14" s="303"/>
+      <c r="AI14" s="304"/>
+      <c r="AJ14" s="322"/>
+      <c r="AK14" s="325"/>
+      <c r="AL14" s="325"/>
+      <c r="AM14" s="326"/>
       <c r="AR14" s="3"/>
       <c r="AX14" s="24"/>
       <c r="AY14" s="25"/>
@@ -6983,100 +7013,100 @@
       <c r="BN14" s="26"/>
     </row>
     <row r="15" spans="1:66" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="250"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="250"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="250"/>
-      <c r="N15" s="250"/>
-      <c r="O15" s="250"/>
-      <c r="P15" s="250"/>
-      <c r="Q15" s="251"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="183"/>
+      <c r="Q15" s="184"/>
       <c r="R15" s="3"/>
-      <c r="T15" s="84" t="s">
+      <c r="T15" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="181" t="str">
+      <c r="U15" s="300"/>
+      <c r="V15" s="300"/>
+      <c r="W15" s="300"/>
+      <c r="X15" s="300"/>
+      <c r="Y15" s="181"/>
+      <c r="Z15" s="251" t="str">
         <f>IF(G16&lt;&gt;"",G16,"")</f>
         <v/>
       </c>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="182"/>
-      <c r="AE15" s="182"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
-      <c r="AJ15" s="172"/>
-      <c r="AK15" s="173"/>
-      <c r="AL15" s="173"/>
-      <c r="AM15" s="174"/>
+      <c r="AA15" s="252"/>
+      <c r="AB15" s="252"/>
+      <c r="AC15" s="252"/>
+      <c r="AD15" s="252"/>
+      <c r="AE15" s="252"/>
+      <c r="AF15" s="252"/>
+      <c r="AG15" s="252"/>
+      <c r="AH15" s="252"/>
+      <c r="AI15" s="253"/>
+      <c r="AJ15" s="327"/>
+      <c r="AK15" s="328"/>
+      <c r="AL15" s="328"/>
+      <c r="AM15" s="329"/>
       <c r="AR15" s="10"/>
     </row>
     <row r="16" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="229"/>
-      <c r="I16" s="229"/>
-      <c r="J16" s="229"/>
-      <c r="K16" s="229"/>
-      <c r="L16" s="229"/>
-      <c r="M16" s="229"/>
-      <c r="N16" s="229"/>
-      <c r="O16" s="229"/>
-      <c r="P16" s="229"/>
-      <c r="Q16" s="230"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="202"/>
       <c r="R16" s="3"/>
-      <c r="T16" s="258" t="s">
+      <c r="T16" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="U16" s="259"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="259"/>
-      <c r="X16" s="259"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="101" t="s">
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="266" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101" t="s">
+      <c r="AA16" s="266"/>
+      <c r="AB16" s="266"/>
+      <c r="AC16" s="266"/>
+      <c r="AD16" s="266"/>
+      <c r="AE16" s="266"/>
+      <c r="AF16" s="266"/>
+      <c r="AG16" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="101"/>
-      <c r="AJ16" s="101"/>
-      <c r="AK16" s="101"/>
-      <c r="AL16" s="101"/>
-      <c r="AM16" s="101"/>
+      <c r="AH16" s="266"/>
+      <c r="AI16" s="266"/>
+      <c r="AJ16" s="266"/>
+      <c r="AK16" s="266"/>
+      <c r="AL16" s="266"/>
+      <c r="AM16" s="266"/>
       <c r="AR16" s="3"/>
     </row>
     <row r="17" spans="1:59" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7117,449 +7147,449 @@
       <c r="AR17" s="3"/>
     </row>
     <row r="18" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="285" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="286"/>
+      <c r="C18" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="72"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
       <c r="R18" s="3"/>
-      <c r="T18" s="190" t="s">
+      <c r="T18" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="191"/>
-      <c r="V18" s="187" t="s">
+      <c r="U18" s="259"/>
+      <c r="V18" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="189"/>
-      <c r="Z18" s="184" t="str">
+      <c r="W18" s="256"/>
+      <c r="X18" s="256"/>
+      <c r="Y18" s="257"/>
+      <c r="Z18" s="254" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="184"/>
-      <c r="AC18" s="184"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="184"/>
-      <c r="AG18" s="184" t="str">
+      <c r="AA18" s="254"/>
+      <c r="AB18" s="254"/>
+      <c r="AC18" s="254"/>
+      <c r="AD18" s="254"/>
+      <c r="AE18" s="254"/>
+      <c r="AF18" s="254"/>
+      <c r="AG18" s="254" t="str">
         <f>IF(G18="","",G18)</f>
         <v/>
       </c>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="184"/>
-      <c r="AJ18" s="184"/>
-      <c r="AK18" s="184"/>
-      <c r="AL18" s="184"/>
-      <c r="AM18" s="184"/>
+      <c r="AH18" s="254"/>
+      <c r="AI18" s="254"/>
+      <c r="AJ18" s="254"/>
+      <c r="AK18" s="254"/>
+      <c r="AL18" s="254"/>
+      <c r="AM18" s="254"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="31" t="s">
+      <c r="AO18" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AX18" s="268"/>
-      <c r="AY18" s="269"/>
-      <c r="AZ18" s="269"/>
-      <c r="BA18" s="269"/>
-      <c r="BB18" s="269"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="92"/>
+      <c r="AS18" s="92"/>
+      <c r="AX18" s="103"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="104"/>
+      <c r="BA18" s="104"/>
+      <c r="BB18" s="104"/>
     </row>
     <row r="19" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="140"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="214" t="s">
+      <c r="A19" s="287"/>
+      <c r="B19" s="288"/>
+      <c r="C19" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="99"/>
       <c r="R19" s="3"/>
-      <c r="T19" s="192"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="58" t="s">
+      <c r="T19" s="260"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="93" t="str">
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="267" t="str">
         <f>IF(G19&lt;&gt;"",G19*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="93" t="str">
+      <c r="AA19" s="268"/>
+      <c r="AB19" s="268"/>
+      <c r="AC19" s="268"/>
+      <c r="AD19" s="268"/>
+      <c r="AE19" s="268"/>
+      <c r="AF19" s="268"/>
+      <c r="AG19" s="267" t="str">
         <f>IF(G19&lt;&gt;"",G19*(((AJ13-20)/100)),"")</f>
         <v/>
       </c>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="94"/>
+      <c r="AH19" s="268"/>
+      <c r="AI19" s="268"/>
+      <c r="AJ19" s="268"/>
+      <c r="AK19" s="268"/>
+      <c r="AL19" s="268"/>
+      <c r="AM19" s="268"/>
       <c r="AN19" s="7"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AX19" s="270"/>
-      <c r="AY19" s="271"/>
-      <c r="AZ19" s="271"/>
-      <c r="BA19" s="271"/>
-      <c r="BB19" s="271"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="93"/>
+      <c r="AX19" s="105"/>
+      <c r="AY19" s="106"/>
+      <c r="AZ19" s="106"/>
+      <c r="BA19" s="106"/>
+      <c r="BB19" s="106"/>
     </row>
     <row r="20" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="214" t="s">
+      <c r="A20" s="287"/>
+      <c r="B20" s="288"/>
+      <c r="C20" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="78"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
       <c r="R20" s="3"/>
-      <c r="T20" s="192"/>
-      <c r="U20" s="193"/>
-      <c r="V20" s="58" t="s">
+      <c r="T20" s="260"/>
+      <c r="U20" s="261"/>
+      <c r="V20" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="92" t="str">
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="107" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92" t="str">
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107" t="str">
         <f>IF(G20="","",G20)</f>
         <v/>
       </c>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="107"/>
+      <c r="AJ20" s="107"/>
+      <c r="AK20" s="107"/>
+      <c r="AL20" s="107"/>
+      <c r="AM20" s="107"/>
       <c r="AN20" s="3"/>
       <c r="AR20" s="3"/>
     </row>
     <row r="21" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="140"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="214" t="s">
+      <c r="A21" s="287"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="78"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="125"/>
       <c r="R21" s="3"/>
-      <c r="T21" s="192"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="58" t="s">
+      <c r="T21" s="260"/>
+      <c r="U21" s="261"/>
+      <c r="V21" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="92" t="str">
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="107" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="92" t="str">
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107" t="str">
         <f>IF(G21="","",G21)</f>
         <v/>
       </c>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="92"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="107"/>
+      <c r="AK21" s="107"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="107"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="31" t="s">
+      <c r="AO21" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="31" t="s">
+      <c r="AP21" s="92"/>
+      <c r="AQ21" s="92"/>
+      <c r="AR21" s="92"/>
+      <c r="AS21" s="92"/>
+      <c r="AT21" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31" t="s">
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
     </row>
     <row r="22" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="140"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="214" t="s">
+      <c r="A22" s="287"/>
+      <c r="B22" s="288"/>
+      <c r="C22" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="150" t="s">
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="225" t="s">
+      <c r="H22" s="221"/>
+      <c r="I22" s="222"/>
+      <c r="J22" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="226"/>
-      <c r="L22" s="226"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="147" t="str">
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="199"/>
+      <c r="N22" s="294" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BA11:BB14,2,FALSE))=FALSE,VLOOKUP(J22,BA11:BB14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="149"/>
+      <c r="O22" s="295"/>
+      <c r="P22" s="295"/>
+      <c r="Q22" s="296"/>
       <c r="R22" s="3"/>
-      <c r="T22" s="192"/>
-      <c r="U22" s="193"/>
-      <c r="V22" s="58" t="s">
+      <c r="T22" s="260"/>
+      <c r="U22" s="261"/>
+      <c r="V22" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="75" t="str">
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="264" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BG11:BH14,2,FALSE))=FALSE,VLOOKUP(J22,BG11:BH14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="75" t="str">
+      <c r="AA22" s="264"/>
+      <c r="AB22" s="264"/>
+      <c r="AC22" s="264"/>
+      <c r="AD22" s="264"/>
+      <c r="AE22" s="264"/>
+      <c r="AF22" s="264"/>
+      <c r="AG22" s="264" t="str">
         <f>IF(ISERROR(VLOOKUP(J22,BM11:BN14,2,FALSE))=FALSE,VLOOKUP(J22,BM11:BN14,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="75"/>
+      <c r="AH22" s="264"/>
+      <c r="AI22" s="264"/>
+      <c r="AJ22" s="264"/>
+      <c r="AK22" s="264"/>
+      <c r="AL22" s="264"/>
+      <c r="AM22" s="264"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="33" t="s">
+      <c r="AO22" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="34" t="s">
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="332" t="s">
         <v>78</v>
       </c>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="66" t="s">
+      <c r="AU22" s="332"/>
+      <c r="AV22" s="332"/>
+      <c r="AW22" s="330" t="s">
         <v>78</v>
       </c>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
+      <c r="AX22" s="330"/>
+      <c r="AY22" s="330"/>
     </row>
     <row r="23" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="142"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="200" t="s">
+      <c r="A23" s="289"/>
+      <c r="B23" s="290"/>
+      <c r="C23" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="150" t="s">
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153" t="s">
+      <c r="H23" s="221"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="297" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="144" t="str">
+      <c r="K23" s="298"/>
+      <c r="L23" s="298"/>
+      <c r="M23" s="299"/>
+      <c r="N23" s="291" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BA2:BB5,2,FALSE))=FALSE,VLOOKUP(J23,BA2:BB5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="146"/>
+      <c r="O23" s="292"/>
+      <c r="P23" s="292"/>
+      <c r="Q23" s="293"/>
       <c r="R23" s="3"/>
-      <c r="T23" s="194"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="55" t="s">
+      <c r="T23" s="262"/>
+      <c r="U23" s="263"/>
+      <c r="V23" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="81" t="str">
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="301" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BG2:BH5,2,FALSE))=FALSE,VLOOKUP(J23,BG2:BH5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81" t="str">
+      <c r="AA23" s="301"/>
+      <c r="AB23" s="301"/>
+      <c r="AC23" s="301"/>
+      <c r="AD23" s="301"/>
+      <c r="AE23" s="301"/>
+      <c r="AF23" s="301"/>
+      <c r="AG23" s="301" t="str">
         <f>IF(ISERROR(VLOOKUP(J23,BM2:BN5,2,FALSE))=FALSE,VLOOKUP(J23,BM2:BN5,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
+      <c r="AH23" s="301"/>
+      <c r="AI23" s="301"/>
+      <c r="AJ23" s="301"/>
+      <c r="AK23" s="301"/>
+      <c r="AL23" s="301"/>
+      <c r="AM23" s="301"/>
       <c r="AN23" s="7"/>
     </row>
     <row r="24" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="218"/>
-      <c r="C24" s="70" t="s">
+      <c r="B24" s="226"/>
+      <c r="C24" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="72"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="136"/>
       <c r="R24" s="3"/>
-      <c r="T24" s="252" t="s">
+      <c r="T24" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="U24" s="253"/>
-      <c r="V24" s="86" t="s">
+      <c r="U24" s="146"/>
+      <c r="V24" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="70" t="str">
+      <c r="W24" s="270"/>
+      <c r="X24" s="270"/>
+      <c r="Y24" s="271"/>
+      <c r="Z24" s="134" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="70" t="str">
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="135"/>
+      <c r="AF24" s="136"/>
+      <c r="AG24" s="134" t="str">
         <f>IF(G24="","",G24)</f>
         <v/>
       </c>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="72"/>
-      <c r="AO24" s="79" t="s">
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="135"/>
+      <c r="AJ24" s="135"/>
+      <c r="AK24" s="135"/>
+      <c r="AL24" s="135"/>
+      <c r="AM24" s="136"/>
+      <c r="AO24" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="32"/>
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="92"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
       <c r="AW24" s="7"/>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
@@ -7573,67 +7603,67 @@
       <c r="BG24" s="7"/>
     </row>
     <row r="25" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="219"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="76" t="s">
+      <c r="A25" s="227"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="165"/>
       <c r="R25" s="3"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="255"/>
-      <c r="V25" s="161" t="s">
+      <c r="T25" s="147"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="67" t="str">
+      <c r="W25" s="246"/>
+      <c r="X25" s="246"/>
+      <c r="Y25" s="247"/>
+      <c r="Z25" s="219" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="76" t="str">
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="165"/>
+      <c r="AG25" s="123" t="str">
         <f>IF(G25="","",G25)</f>
         <v/>
       </c>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="78"/>
-      <c r="AO25" s="73" t="s">
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="125"/>
+      <c r="AO25" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="AP25" s="74"/>
-      <c r="AQ25" s="74"/>
-      <c r="AR25" s="35" t="str">
+      <c r="AP25" s="95"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="96" t="str">
         <f>IF(OR(G24="",G25=""),"",(G24/G25))</f>
         <v/>
       </c>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
+      <c r="AS25" s="96"/>
+      <c r="AT25" s="96"/>
+      <c r="AU25" s="96"/>
+      <c r="AV25" s="96"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
@@ -7647,64 +7677,64 @@
       <c r="BG25" s="3"/>
     </row>
     <row r="26" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="219"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="159" t="s">
+      <c r="A26" s="227"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="78"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="125"/>
       <c r="R26" s="3"/>
-      <c r="T26" s="254"/>
-      <c r="U26" s="255"/>
-      <c r="V26" s="156" t="s">
+      <c r="T26" s="147"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="48" t="str">
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="153"/>
+      <c r="Z26" s="140" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48" t="str">
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="140" t="str">
         <f>IF(G26="","",G26)</f>
         <v/>
       </c>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AO26" s="73" t="s">
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="140"/>
+      <c r="AJ26" s="140"/>
+      <c r="AK26" s="140"/>
+      <c r="AL26" s="140"/>
+      <c r="AM26" s="140"/>
+      <c r="AO26" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="80"/>
-      <c r="AS26" s="80"/>
-      <c r="AT26" s="80"/>
-      <c r="AU26" s="80"/>
-      <c r="AV26" s="80"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="331"/>
+      <c r="AS26" s="331"/>
+      <c r="AT26" s="331"/>
+      <c r="AU26" s="331"/>
+      <c r="AV26" s="331"/>
       <c r="AW26" s="7"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
@@ -7718,721 +7748,721 @@
       <c r="BG26" s="7"/>
     </row>
     <row r="27" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="219"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="214" t="s">
+      <c r="A27" s="227"/>
+      <c r="B27" s="228"/>
+      <c r="C27" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="45" t="str">
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="97" t="str">
         <f>IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G19*AR26,G19*AR25))</f>
         <v/>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="47"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="99"/>
       <c r="R27" s="3"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="255"/>
-      <c r="V27" s="58" t="s">
+      <c r="T27" s="147"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="45" t="str">
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="97" t="str">
         <f>IF(G27&lt;&gt;"",G27*(AJ13/100),"")</f>
         <v/>
       </c>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="45" t="str">
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="97" t="str">
         <f>IF(OR(AG24="",AR25=""),"",IF(AR26&lt;&gt;"",AG19*AR26,AG19*AR25))</f>
         <v/>
       </c>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="47"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+      <c r="AM27" s="99"/>
       <c r="AO27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="219"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="214" t="s">
+      <c r="A28" s="227"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="76" t="str">
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="123" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G20*AR26,G20*AR25))))</f>
         <v/>
       </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="125"/>
       <c r="R28" s="3"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="255"/>
-      <c r="V28" s="58" t="s">
+      <c r="T28" s="147"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="48" t="str">
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="140" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48" t="str">
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140" t="str">
         <f>IF(G28="","",G28)</f>
         <v/>
       </c>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
+      <c r="AH28" s="140"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="140"/>
+      <c r="AM28" s="140"/>
     </row>
     <row r="29" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="219"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="214" t="s">
+      <c r="A29" s="227"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="76" t="str">
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="123" t="str">
         <f>IF(G24="","",TRUNC(IF(OR(G24="",AR25=""),"",IF(AR26&lt;&gt;"",G21*AR26,G21*AR25))))</f>
         <v/>
       </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="78"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="125"/>
       <c r="R29" s="3"/>
-      <c r="T29" s="254"/>
-      <c r="U29" s="255"/>
-      <c r="V29" s="58" t="s">
+      <c r="T29" s="147"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="48" t="str">
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="140" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48" t="str">
+      <c r="AA29" s="140"/>
+      <c r="AB29" s="140"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="140" t="str">
         <f>IF(G29="","",G29)</f>
         <v/>
       </c>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AO29" s="79" t="s">
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="140"/>
+      <c r="AO29" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
+      <c r="AP29" s="92"/>
+      <c r="AQ29" s="92"/>
+      <c r="AR29" s="92"/>
+      <c r="AS29" s="92"/>
+      <c r="AT29" s="92"/>
+      <c r="AU29" s="92"/>
+      <c r="AV29" s="92"/>
     </row>
     <row r="30" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="219"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="214" t="s">
+      <c r="A30" s="227"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="234" t="str">
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="188" t="str">
         <f>IF(G24&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H30" s="235"/>
-      <c r="I30" s="235"/>
-      <c r="J30" s="235"/>
-      <c r="K30" s="235"/>
-      <c r="L30" s="235"/>
-      <c r="M30" s="235"/>
-      <c r="N30" s="235"/>
-      <c r="O30" s="235"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="236"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="189"/>
+      <c r="P30" s="189"/>
+      <c r="Q30" s="190"/>
       <c r="R30" s="3"/>
-      <c r="T30" s="254"/>
-      <c r="U30" s="255"/>
-      <c r="V30" s="58" t="s">
+      <c r="T30" s="147"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="45" t="str">
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="97" t="str">
         <f>IF(Z24&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="45" t="str">
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="97" t="str">
         <f>IF(AG24&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="47"/>
-      <c r="AO30" s="73" t="s">
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="99"/>
+      <c r="AO30" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="AP30" s="74"/>
-      <c r="AQ30" s="74"/>
-      <c r="AR30" s="35" t="str">
+      <c r="AP30" s="95"/>
+      <c r="AQ30" s="95"/>
+      <c r="AR30" s="96" t="str">
         <f>IF(OR(G32="",G33=""),"",(G32/G33))</f>
         <v/>
       </c>
-      <c r="AS30" s="35"/>
-      <c r="AT30" s="35"/>
-      <c r="AU30" s="35"/>
-      <c r="AV30" s="35"/>
+      <c r="AS30" s="96"/>
+      <c r="AT30" s="96"/>
+      <c r="AU30" s="96"/>
+      <c r="AV30" s="96"/>
     </row>
     <row r="31" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="221"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="200" t="s">
+      <c r="A31" s="229"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="124" t="str">
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="216" t="str">
         <f>IF(G24&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="217"/>
+      <c r="Q31" s="218"/>
       <c r="R31" s="3"/>
-      <c r="T31" s="256"/>
-      <c r="U31" s="257"/>
-      <c r="V31" s="55" t="s">
+      <c r="T31" s="149"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="52" t="str">
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="88" t="str">
         <f>IF(Z24&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="52" t="str">
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="88" t="str">
         <f>IF(AG24&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="54"/>
-      <c r="AO31" s="73" t="s">
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="89"/>
+      <c r="AJ31" s="89"/>
+      <c r="AK31" s="89"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="90"/>
+      <c r="AO31" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="80"/>
-      <c r="AS31" s="80"/>
-      <c r="AT31" s="80"/>
-      <c r="AU31" s="80"/>
-      <c r="AV31" s="80"/>
+      <c r="AP31" s="94"/>
+      <c r="AQ31" s="94"/>
+      <c r="AR31" s="331"/>
+      <c r="AS31" s="331"/>
+      <c r="AT31" s="331"/>
+      <c r="AU31" s="331"/>
+      <c r="AV31" s="331"/>
     </row>
     <row r="32" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="218"/>
-      <c r="C32" s="70" t="s">
+      <c r="B32" s="226"/>
+      <c r="C32" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="72"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="136"/>
       <c r="R32" s="3"/>
-      <c r="T32" s="252" t="s">
+      <c r="T32" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="253"/>
-      <c r="V32" s="86" t="s">
+      <c r="U32" s="146"/>
+      <c r="V32" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="70" t="str">
+      <c r="W32" s="270"/>
+      <c r="X32" s="270"/>
+      <c r="Y32" s="271"/>
+      <c r="Z32" s="134" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="70" t="str">
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="135"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="134" t="str">
         <f>IF(G32="","",G32)</f>
         <v/>
       </c>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="71"/>
-      <c r="AM32" s="72"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="135"/>
+      <c r="AJ32" s="135"/>
+      <c r="AK32" s="135"/>
+      <c r="AL32" s="135"/>
+      <c r="AM32" s="136"/>
       <c r="AO32" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="219"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="227"/>
+      <c r="B33" s="228"/>
+      <c r="C33" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="78"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="124"/>
+      <c r="Q33" s="125"/>
       <c r="R33" s="3"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="255"/>
-      <c r="V33" s="161" t="s">
+      <c r="T33" s="147"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="67" t="str">
+      <c r="W33" s="246"/>
+      <c r="X33" s="246"/>
+      <c r="Y33" s="247"/>
+      <c r="Z33" s="219" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="76" t="str">
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="164"/>
+      <c r="AF33" s="165"/>
+      <c r="AG33" s="123" t="str">
         <f>IF(G33="","",G33)</f>
         <v/>
       </c>
-      <c r="AH33" s="77"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="77"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="78"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="124"/>
+      <c r="AJ33" s="124"/>
+      <c r="AK33" s="124"/>
+      <c r="AL33" s="124"/>
+      <c r="AM33" s="125"/>
     </row>
     <row r="34" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="219"/>
-      <c r="B34" s="220"/>
-      <c r="C34" s="159" t="s">
+      <c r="A34" s="227"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="78"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="124"/>
+      <c r="P34" s="124"/>
+      <c r="Q34" s="125"/>
       <c r="R34" s="5"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="255"/>
-      <c r="V34" s="156" t="s">
+      <c r="T34" s="147"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="48" t="str">
+      <c r="W34" s="152"/>
+      <c r="X34" s="152"/>
+      <c r="Y34" s="153"/>
+      <c r="Z34" s="140" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48" t="str">
+      <c r="AA34" s="140"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="140"/>
+      <c r="AF34" s="140"/>
+      <c r="AG34" s="140" t="str">
         <f>IF(G34="","",G34)</f>
         <v/>
       </c>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
+      <c r="AH34" s="140"/>
+      <c r="AI34" s="140"/>
+      <c r="AJ34" s="140"/>
+      <c r="AK34" s="140"/>
+      <c r="AL34" s="140"/>
+      <c r="AM34" s="140"/>
     </row>
     <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="219"/>
-      <c r="B35" s="220"/>
-      <c r="C35" s="214" t="s">
+      <c r="A35" s="227"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="45" t="str">
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="97" t="str">
         <f>IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G19*AR31,G19*AR30))</f>
         <v/>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99"/>
       <c r="R35" s="5"/>
-      <c r="T35" s="254"/>
-      <c r="U35" s="255"/>
-      <c r="V35" s="58" t="s">
+      <c r="T35" s="147"/>
+      <c r="U35" s="148"/>
+      <c r="V35" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="47"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="98"/>
+      <c r="AC35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="97"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="99"/>
     </row>
     <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="214" t="s">
+      <c r="A36" s="227"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="76" t="str">
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="123" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G20*AR31,G20*AR30))))</f>
         <v/>
       </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="78"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="124"/>
+      <c r="Q36" s="125"/>
       <c r="R36" s="3"/>
-      <c r="T36" s="254"/>
-      <c r="U36" s="255"/>
-      <c r="V36" s="58" t="s">
+      <c r="T36" s="147"/>
+      <c r="U36" s="148"/>
+      <c r="V36" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="48" t="str">
+      <c r="W36" s="86"/>
+      <c r="X36" s="86"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="140" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48" t="str">
+      <c r="AA36" s="140"/>
+      <c r="AB36" s="140"/>
+      <c r="AC36" s="140"/>
+      <c r="AD36" s="140"/>
+      <c r="AE36" s="140"/>
+      <c r="AF36" s="140"/>
+      <c r="AG36" s="140" t="str">
         <f>IF(G36="","",G36)</f>
         <v/>
       </c>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="48"/>
+      <c r="AH36" s="140"/>
+      <c r="AI36" s="140"/>
+      <c r="AJ36" s="140"/>
+      <c r="AK36" s="140"/>
+      <c r="AL36" s="140"/>
+      <c r="AM36" s="140"/>
     </row>
     <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="219"/>
-      <c r="B37" s="220"/>
-      <c r="C37" s="214" t="s">
+      <c r="A37" s="227"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="76" t="str">
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="123" t="str">
         <f>IF(G32="","",TRUNC(IF(OR(G32="",AR30=""),"",IF(AR31&lt;&gt;"",G21*AR31,G21*AR30))))</f>
         <v/>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="78"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="125"/>
       <c r="R37" s="3"/>
-      <c r="T37" s="254"/>
-      <c r="U37" s="255"/>
-      <c r="V37" s="58" t="s">
+      <c r="T37" s="147"/>
+      <c r="U37" s="148"/>
+      <c r="V37" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="48" t="str">
+      <c r="W37" s="86"/>
+      <c r="X37" s="86"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="140" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48" t="str">
+      <c r="AA37" s="140"/>
+      <c r="AB37" s="140"/>
+      <c r="AC37" s="140"/>
+      <c r="AD37" s="140"/>
+      <c r="AE37" s="140"/>
+      <c r="AF37" s="140"/>
+      <c r="AG37" s="140" t="str">
         <f>IF(G37="","",G37)</f>
         <v/>
       </c>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="48"/>
+      <c r="AH37" s="140"/>
+      <c r="AI37" s="140"/>
+      <c r="AJ37" s="140"/>
+      <c r="AK37" s="140"/>
+      <c r="AL37" s="140"/>
+      <c r="AM37" s="140"/>
     </row>
     <row r="38" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="219"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="214" t="s">
+      <c r="A38" s="227"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="234" t="str">
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="188" t="str">
         <f>IF(G32&lt;&gt;"",N22,"")</f>
         <v/>
       </c>
-      <c r="H38" s="235"/>
-      <c r="I38" s="235"/>
-      <c r="J38" s="235"/>
-      <c r="K38" s="235"/>
-      <c r="L38" s="235"/>
-      <c r="M38" s="235"/>
-      <c r="N38" s="235"/>
-      <c r="O38" s="235"/>
-      <c r="P38" s="235"/>
-      <c r="Q38" s="236"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="190"/>
       <c r="R38" s="3"/>
-      <c r="T38" s="254"/>
-      <c r="U38" s="255"/>
-      <c r="V38" s="58" t="s">
+      <c r="T38" s="147"/>
+      <c r="U38" s="148"/>
+      <c r="V38" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="45" t="str">
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="97" t="str">
         <f>IF(Z32&lt;&gt;"",Z22,"")</f>
         <v/>
       </c>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="45" t="str">
+      <c r="AA38" s="98"/>
+      <c r="AB38" s="98"/>
+      <c r="AC38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="99"/>
+      <c r="AG38" s="97" t="str">
         <f>IF(AG32&lt;&gt;"",AG22,"")</f>
         <v/>
       </c>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46"/>
-      <c r="AL38" s="46"/>
-      <c r="AM38" s="47"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="99"/>
     </row>
     <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="221"/>
-      <c r="B39" s="222"/>
-      <c r="C39" s="200" t="s">
+      <c r="A39" s="229"/>
+      <c r="B39" s="230"/>
+      <c r="C39" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="124" t="str">
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="216" t="str">
         <f>IF(G32&lt;&gt;"",N23,"")</f>
         <v/>
       </c>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="126"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="217"/>
+      <c r="K39" s="217"/>
+      <c r="L39" s="217"/>
+      <c r="M39" s="217"/>
+      <c r="N39" s="217"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="217"/>
+      <c r="Q39" s="218"/>
       <c r="R39" s="3"/>
-      <c r="T39" s="256"/>
-      <c r="U39" s="257"/>
-      <c r="V39" s="55" t="s">
+      <c r="T39" s="149"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="52" t="str">
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="88" t="str">
         <f>IF(Z32&lt;&gt;"",Z23,"")</f>
         <v/>
       </c>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="52" t="str">
+      <c r="AA39" s="89"/>
+      <c r="AB39" s="89"/>
+      <c r="AC39" s="89"/>
+      <c r="AD39" s="89"/>
+      <c r="AE39" s="89"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="88" t="str">
         <f>IF(AG32&lt;&gt;"",AG23,"")</f>
         <v/>
       </c>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="54"/>
+      <c r="AH39" s="89"/>
+      <c r="AI39" s="89"/>
+      <c r="AJ39" s="89"/>
+      <c r="AK39" s="89"/>
+      <c r="AL39" s="89"/>
+      <c r="AM39" s="90"/>
     </row>
     <row r="40" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
@@ -8443,243 +8473,243 @@
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="231" t="s">
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="206"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="205">
+      <c r="G41" s="131"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="231">
         <v>30</v>
       </c>
-      <c r="J41" s="206"/>
-      <c r="K41" s="207"/>
-      <c r="L41" s="231" t="s">
+      <c r="J41" s="131"/>
+      <c r="K41" s="232"/>
+      <c r="L41" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="206"/>
-      <c r="N41" s="232"/>
-      <c r="O41" s="61">
+      <c r="M41" s="131"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="212">
         <v>15</v>
       </c>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="62"/>
+      <c r="P41" s="204"/>
+      <c r="Q41" s="205"/>
       <c r="R41" s="3"/>
-      <c r="T41" s="263" t="s">
+      <c r="T41" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="U41" s="264"/>
-      <c r="V41" s="264"/>
-      <c r="W41" s="266"/>
-      <c r="X41" s="263" t="s">
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
+      <c r="W41" s="144"/>
+      <c r="X41" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="Y41" s="264"/>
-      <c r="Z41" s="265"/>
-      <c r="AA41" s="205">
+      <c r="Y41" s="142"/>
+      <c r="Z41" s="143"/>
+      <c r="AA41" s="231">
         <v>30</v>
       </c>
-      <c r="AB41" s="206"/>
-      <c r="AC41" s="207"/>
-      <c r="AD41" s="263" t="s">
+      <c r="AB41" s="131"/>
+      <c r="AC41" s="232"/>
+      <c r="AD41" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="AE41" s="264"/>
-      <c r="AF41" s="265"/>
-      <c r="AG41" s="61">
+      <c r="AE41" s="142"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="212">
         <v>30</v>
       </c>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="62"/>
-      <c r="AJ41" s="106" t="s">
+      <c r="AH41" s="204"/>
+      <c r="AI41" s="205"/>
+      <c r="AJ41" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="AK41" s="107"/>
-      <c r="AL41" s="107"/>
-      <c r="AM41" s="108"/>
+      <c r="AK41" s="83"/>
+      <c r="AL41" s="83"/>
+      <c r="AM41" s="84"/>
     </row>
     <row r="42" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="63" t="s">
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="63" t="s">
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="63" t="s">
+      <c r="J42" s="128"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="202" t="s">
+      <c r="M42" s="128"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="203"/>
-      <c r="Q42" s="204"/>
+      <c r="P42" s="214"/>
+      <c r="Q42" s="215"/>
       <c r="R42" s="3"/>
-      <c r="T42" s="208" t="s">
+      <c r="T42" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="209"/>
-      <c r="V42" s="209"/>
-      <c r="W42" s="210"/>
-      <c r="X42" s="63" t="s">
+      <c r="U42" s="234"/>
+      <c r="V42" s="234"/>
+      <c r="W42" s="235"/>
+      <c r="X42" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="63" t="s">
+      <c r="Y42" s="128"/>
+      <c r="Z42" s="129"/>
+      <c r="AA42" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="63" t="s">
+      <c r="AB42" s="128"/>
+      <c r="AC42" s="129"/>
+      <c r="AD42" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="202" t="s">
+      <c r="AE42" s="128"/>
+      <c r="AF42" s="129"/>
+      <c r="AG42" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="AH42" s="203"/>
-      <c r="AI42" s="204"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="37"/>
-      <c r="AL42" s="37"/>
-      <c r="AM42" s="38"/>
+      <c r="AH42" s="214"/>
+      <c r="AI42" s="215"/>
+      <c r="AJ42" s="310"/>
+      <c r="AK42" s="311"/>
+      <c r="AL42" s="311"/>
+      <c r="AM42" s="312"/>
     </row>
     <row r="43" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="76" t="str">
+      <c r="A43" s="123" t="str">
         <f>IF(D5&lt;&gt;"派遣","見積依頼書","派遣個別契約書")</f>
         <v>見積依頼書</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="136" t="s">
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="233"/>
-      <c r="J43" s="136" t="s">
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="238"/>
+      <c r="J43" s="236" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="160"/>
-      <c r="N43" s="61" t="s">
+      <c r="K43" s="210"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="62"/>
+      <c r="O43" s="204"/>
+      <c r="P43" s="204"/>
+      <c r="Q43" s="205"/>
       <c r="R43" s="3"/>
-      <c r="T43" s="131" t="str">
+      <c r="T43" s="118" t="str">
         <f>IF(Z11="正","欠勤控除対象者",IF(Z11="契","有給対象者","-"))</f>
         <v>欠勤控除対象者</v>
       </c>
-      <c r="U43" s="132"/>
-      <c r="V43" s="132"/>
-      <c r="W43" s="133"/>
-      <c r="X43" s="49" t="s">
+      <c r="U43" s="166"/>
+      <c r="V43" s="166"/>
+      <c r="W43" s="119"/>
+      <c r="X43" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="61" t="s">
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="204"/>
+      <c r="AA43" s="333"/>
+      <c r="AB43" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="50"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="61" t="str">
+      <c r="AC43" s="204"/>
+      <c r="AD43" s="204"/>
+      <c r="AE43" s="205"/>
+      <c r="AF43" s="212" t="str">
         <f>IF(Z11="","",IF(OR(Z11="協力"),"","無"))</f>
         <v>無</v>
       </c>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="39"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="40"/>
-      <c r="AM43" s="41"/>
+      <c r="AG43" s="204"/>
+      <c r="AH43" s="204"/>
+      <c r="AI43" s="205"/>
+      <c r="AJ43" s="313"/>
+      <c r="AK43" s="314"/>
+      <c r="AL43" s="314"/>
+      <c r="AM43" s="315"/>
     </row>
     <row r="44" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="63" t="s">
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="193"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="201"/>
-      <c r="J44" s="197" t="s">
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="237"/>
+      <c r="J44" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="198"/>
-      <c r="L44" s="198"/>
-      <c r="M44" s="199"/>
-      <c r="N44" s="200" t="s">
+      <c r="K44" s="207"/>
+      <c r="L44" s="207"/>
+      <c r="M44" s="208"/>
+      <c r="N44" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="65"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="129"/>
       <c r="R44" s="3"/>
-      <c r="T44" s="63" t="str">
+      <c r="T44" s="127" t="str">
         <f>IF(Z11="","注文書",IF(Z11="契","契約書","注文書"))</f>
         <v>注文書</v>
       </c>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="200" t="str">
+      <c r="U44" s="128"/>
+      <c r="V44" s="128"/>
+      <c r="W44" s="129"/>
+      <c r="X44" s="133" t="str">
         <f>IF(Z11="","",IF(OR(Z11="正"),"無","有"))</f>
         <v>無</v>
       </c>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="201"/>
-      <c r="AB44" s="197" t="s">
+      <c r="Y44" s="128"/>
+      <c r="Z44" s="128"/>
+      <c r="AA44" s="237"/>
+      <c r="AB44" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="AC44" s="198"/>
-      <c r="AD44" s="198"/>
-      <c r="AE44" s="199"/>
-      <c r="AF44" s="63" t="s">
+      <c r="AC44" s="207"/>
+      <c r="AD44" s="207"/>
+      <c r="AE44" s="208"/>
+      <c r="AF44" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="AG44" s="64"/>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="42"/>
-      <c r="AK44" s="43"/>
-      <c r="AL44" s="43"/>
-      <c r="AM44" s="44"/>
+      <c r="AG44" s="128"/>
+      <c r="AH44" s="128"/>
+      <c r="AI44" s="129"/>
+      <c r="AJ44" s="316"/>
+      <c r="AK44" s="317"/>
+      <c r="AL44" s="317"/>
+      <c r="AM44" s="318"/>
     </row>
     <row r="45" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="3"/>
@@ -8715,29 +8745,29 @@
       <c r="AH45" s="2"/>
     </row>
     <row r="46" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="223" t="s">
+      <c r="A46" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="223"/>
-      <c r="C46" s="223"/>
-      <c r="D46" s="223" t="s">
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="223"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="224" t="s">
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="224"/>
-      <c r="J46" s="224"/>
-      <c r="K46" s="224"/>
-      <c r="L46" s="224"/>
-      <c r="M46" s="224"/>
-      <c r="N46" s="224"/>
-      <c r="O46" s="224"/>
-      <c r="P46" s="224"/>
-      <c r="Q46" s="224"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="196"/>
+      <c r="L46" s="196"/>
+      <c r="M46" s="196"/>
+      <c r="N46" s="196"/>
+      <c r="O46" s="196"/>
+      <c r="P46" s="196"/>
+      <c r="Q46" s="196"/>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
@@ -8762,698 +8792,698 @@
       <c r="AM46" s="27"/>
     </row>
     <row r="47" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="303" t="s">
+      <c r="A47" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="304"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="314" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="314"/>
-      <c r="F47" s="314"/>
-      <c r="G47" s="314"/>
-      <c r="H47" s="314"/>
-      <c r="I47" s="314"/>
-      <c r="J47" s="314"/>
-      <c r="K47" s="314" t="s">
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="L47" s="314"/>
-      <c r="M47" s="314"/>
-      <c r="N47" s="314"/>
-      <c r="O47" s="314"/>
-      <c r="P47" s="314"/>
-      <c r="Q47" s="314"/>
-      <c r="R47" s="311"/>
-      <c r="S47" s="307"/>
-      <c r="T47" s="307"/>
-      <c r="U47" s="307"/>
-      <c r="V47" s="307"/>
-      <c r="W47" s="307"/>
-      <c r="X47" s="307"/>
-      <c r="Y47" s="307"/>
-      <c r="Z47" s="307"/>
-      <c r="AA47" s="307"/>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="306"/>
-      <c r="AD47" s="307"/>
-      <c r="AE47" s="307"/>
-      <c r="AF47" s="307"/>
-      <c r="AG47" s="307"/>
-      <c r="AH47" s="307"/>
-      <c r="AI47" s="307"/>
-      <c r="AJ47" s="307"/>
-      <c r="AK47" s="307"/>
-      <c r="AL47" s="307"/>
-      <c r="AM47" s="308"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="74"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="75"/>
     </row>
     <row r="48" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="304"/>
-      <c r="B48" s="304"/>
-      <c r="C48" s="304"/>
-      <c r="D48" s="284"/>
-      <c r="E48" s="284"/>
-      <c r="F48" s="284"/>
-      <c r="G48" s="284"/>
-      <c r="H48" s="284"/>
-      <c r="I48" s="284"/>
-      <c r="J48" s="284"/>
-      <c r="K48" s="284"/>
-      <c r="L48" s="284"/>
-      <c r="M48" s="284"/>
-      <c r="N48" s="284"/>
-      <c r="O48" s="284"/>
-      <c r="P48" s="284"/>
-      <c r="Q48" s="284"/>
-      <c r="R48" s="312"/>
-      <c r="S48" s="309"/>
-      <c r="T48" s="309"/>
-      <c r="U48" s="309"/>
-      <c r="V48" s="309"/>
-      <c r="W48" s="309"/>
-      <c r="X48" s="309"/>
-      <c r="Y48" s="309"/>
-      <c r="Z48" s="309"/>
-      <c r="AA48" s="309"/>
-      <c r="AB48" s="309"/>
-      <c r="AC48" s="309"/>
-      <c r="AD48" s="309"/>
-      <c r="AE48" s="309"/>
-      <c r="AF48" s="309"/>
-      <c r="AG48" s="309"/>
-      <c r="AH48" s="309"/>
-      <c r="AI48" s="309"/>
-      <c r="AJ48" s="309"/>
-      <c r="AK48" s="309"/>
-      <c r="AL48" s="309"/>
-      <c r="AM48" s="310"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="76"/>
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="304"/>
-      <c r="B49" s="304"/>
-      <c r="C49" s="304"/>
-      <c r="D49" s="284"/>
-      <c r="E49" s="284"/>
-      <c r="F49" s="284"/>
-      <c r="G49" s="284"/>
-      <c r="H49" s="284"/>
-      <c r="I49" s="284"/>
-      <c r="J49" s="284"/>
-      <c r="K49" s="284" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="L49" s="284"/>
-      <c r="M49" s="284"/>
-      <c r="N49" s="284"/>
-      <c r="O49" s="284"/>
-      <c r="P49" s="284"/>
-      <c r="Q49" s="284"/>
-      <c r="R49" s="315"/>
-      <c r="S49" s="315"/>
-      <c r="T49" s="315"/>
-      <c r="U49" s="315"/>
-      <c r="V49" s="315"/>
-      <c r="W49" s="315"/>
-      <c r="X49" s="315"/>
-      <c r="Y49" s="315"/>
-      <c r="Z49" s="315"/>
-      <c r="AA49" s="315"/>
-      <c r="AB49" s="315"/>
-      <c r="AC49" s="315"/>
-      <c r="AD49" s="315"/>
-      <c r="AE49" s="315"/>
-      <c r="AF49" s="315"/>
-      <c r="AG49" s="315"/>
-      <c r="AH49" s="315"/>
-      <c r="AI49" s="315"/>
-      <c r="AJ49" s="315"/>
-      <c r="AK49" s="315"/>
-      <c r="AL49" s="315"/>
-      <c r="AM49" s="315"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="79"/>
+      <c r="V49" s="79"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="79"/>
+      <c r="AE49" s="79"/>
+      <c r="AF49" s="79"/>
+      <c r="AG49" s="79"/>
+      <c r="AH49" s="79"/>
+      <c r="AI49" s="79"/>
+      <c r="AJ49" s="79"/>
+      <c r="AK49" s="79"/>
+      <c r="AL49" s="79"/>
+      <c r="AM49" s="79"/>
     </row>
     <row r="50" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="304"/>
-      <c r="B50" s="304"/>
-      <c r="C50" s="304"/>
-      <c r="D50" s="284"/>
-      <c r="E50" s="284"/>
-      <c r="F50" s="284"/>
-      <c r="G50" s="284"/>
-      <c r="H50" s="284"/>
-      <c r="I50" s="284"/>
-      <c r="J50" s="284"/>
-      <c r="K50" s="284"/>
-      <c r="L50" s="284"/>
-      <c r="M50" s="284"/>
-      <c r="N50" s="284"/>
-      <c r="O50" s="284"/>
-      <c r="P50" s="284"/>
-      <c r="Q50" s="284"/>
-      <c r="R50" s="315"/>
-      <c r="S50" s="315"/>
-      <c r="T50" s="315"/>
-      <c r="U50" s="315"/>
-      <c r="V50" s="315"/>
-      <c r="W50" s="315"/>
-      <c r="X50" s="315"/>
-      <c r="Y50" s="315"/>
-      <c r="Z50" s="315"/>
-      <c r="AA50" s="315"/>
-      <c r="AB50" s="315"/>
-      <c r="AC50" s="315"/>
-      <c r="AD50" s="315"/>
-      <c r="AE50" s="315"/>
-      <c r="AF50" s="315"/>
-      <c r="AG50" s="315"/>
-      <c r="AH50" s="315"/>
-      <c r="AI50" s="315"/>
-      <c r="AJ50" s="315"/>
-      <c r="AK50" s="315"/>
-      <c r="AL50" s="315"/>
-      <c r="AM50" s="315"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79"/>
+      <c r="U50" s="79"/>
+      <c r="V50" s="79"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="79"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="79"/>
+      <c r="AA50" s="79"/>
+      <c r="AB50" s="79"/>
+      <c r="AC50" s="79"/>
+      <c r="AD50" s="79"/>
+      <c r="AE50" s="79"/>
+      <c r="AF50" s="79"/>
+      <c r="AG50" s="79"/>
+      <c r="AH50" s="79"/>
+      <c r="AI50" s="79"/>
+      <c r="AJ50" s="79"/>
+      <c r="AK50" s="79"/>
+      <c r="AL50" s="79"/>
+      <c r="AM50" s="79"/>
     </row>
     <row r="51" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="304"/>
-      <c r="B51" s="304"/>
-      <c r="C51" s="304"/>
-      <c r="D51" s="284"/>
-      <c r="E51" s="284"/>
-      <c r="F51" s="284"/>
-      <c r="G51" s="284"/>
-      <c r="H51" s="284"/>
-      <c r="I51" s="284"/>
-      <c r="J51" s="284"/>
-      <c r="K51" s="284" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="284"/>
-      <c r="M51" s="284"/>
-      <c r="N51" s="284"/>
-      <c r="O51" s="284"/>
-      <c r="P51" s="284"/>
-      <c r="Q51" s="284"/>
-      <c r="R51" s="315"/>
-      <c r="S51" s="315"/>
-      <c r="T51" s="315"/>
-      <c r="U51" s="315"/>
-      <c r="V51" s="315"/>
-      <c r="W51" s="315"/>
-      <c r="X51" s="315"/>
-      <c r="Y51" s="315"/>
-      <c r="Z51" s="315"/>
-      <c r="AA51" s="315"/>
-      <c r="AB51" s="315"/>
-      <c r="AC51" s="315"/>
-      <c r="AD51" s="315"/>
-      <c r="AE51" s="315"/>
-      <c r="AF51" s="315"/>
-      <c r="AG51" s="315"/>
-      <c r="AH51" s="315"/>
-      <c r="AI51" s="315"/>
-      <c r="AJ51" s="315"/>
-      <c r="AK51" s="315"/>
-      <c r="AL51" s="315"/>
-      <c r="AM51" s="315"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="79"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="79"/>
+      <c r="U51" s="79"/>
+      <c r="V51" s="79"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="79"/>
+      <c r="AB51" s="79"/>
+      <c r="AC51" s="79"/>
+      <c r="AD51" s="79"/>
+      <c r="AE51" s="79"/>
+      <c r="AF51" s="79"/>
+      <c r="AG51" s="79"/>
+      <c r="AH51" s="79"/>
+      <c r="AI51" s="79"/>
+      <c r="AJ51" s="79"/>
+      <c r="AK51" s="79"/>
+      <c r="AL51" s="79"/>
+      <c r="AM51" s="79"/>
     </row>
     <row r="52" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="304"/>
-      <c r="B52" s="304"/>
-      <c r="C52" s="304"/>
-      <c r="D52" s="284"/>
-      <c r="E52" s="284"/>
-      <c r="F52" s="284"/>
-      <c r="G52" s="284"/>
-      <c r="H52" s="284"/>
-      <c r="I52" s="284"/>
-      <c r="J52" s="284"/>
-      <c r="K52" s="284"/>
-      <c r="L52" s="284"/>
-      <c r="M52" s="284"/>
-      <c r="N52" s="284"/>
-      <c r="O52" s="284"/>
-      <c r="P52" s="284"/>
-      <c r="Q52" s="284"/>
-      <c r="R52" s="315"/>
-      <c r="S52" s="315"/>
-      <c r="T52" s="315"/>
-      <c r="U52" s="315"/>
-      <c r="V52" s="315"/>
-      <c r="W52" s="315"/>
-      <c r="X52" s="315"/>
-      <c r="Y52" s="315"/>
-      <c r="Z52" s="315"/>
-      <c r="AA52" s="315"/>
-      <c r="AB52" s="315"/>
-      <c r="AC52" s="315"/>
-      <c r="AD52" s="315"/>
-      <c r="AE52" s="315"/>
-      <c r="AF52" s="315"/>
-      <c r="AG52" s="315"/>
-      <c r="AH52" s="315"/>
-      <c r="AI52" s="315"/>
-      <c r="AJ52" s="315"/>
-      <c r="AK52" s="315"/>
-      <c r="AL52" s="315"/>
-      <c r="AM52" s="315"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="79"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="79"/>
+      <c r="AA52" s="79"/>
+      <c r="AB52" s="79"/>
+      <c r="AC52" s="79"/>
+      <c r="AD52" s="79"/>
+      <c r="AE52" s="79"/>
+      <c r="AF52" s="79"/>
+      <c r="AG52" s="79"/>
+      <c r="AH52" s="79"/>
+      <c r="AI52" s="79"/>
+      <c r="AJ52" s="79"/>
+      <c r="AK52" s="79"/>
+      <c r="AL52" s="79"/>
+      <c r="AM52" s="79"/>
     </row>
     <row r="53" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="304"/>
-      <c r="B53" s="304"/>
-      <c r="C53" s="304"/>
-      <c r="D53" s="288"/>
-      <c r="E53" s="288"/>
-      <c r="F53" s="288"/>
-      <c r="G53" s="288"/>
-      <c r="H53" s="288"/>
-      <c r="I53" s="288"/>
-      <c r="J53" s="288"/>
-      <c r="K53" s="288" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="L53" s="288"/>
-      <c r="M53" s="288"/>
-      <c r="N53" s="288"/>
-      <c r="O53" s="288"/>
-      <c r="P53" s="288"/>
-      <c r="Q53" s="288"/>
-      <c r="R53" s="316"/>
-      <c r="S53" s="316"/>
-      <c r="T53" s="316"/>
-      <c r="U53" s="316"/>
-      <c r="V53" s="316"/>
-      <c r="W53" s="316"/>
-      <c r="X53" s="316"/>
-      <c r="Y53" s="316"/>
-      <c r="Z53" s="316"/>
-      <c r="AA53" s="316"/>
-      <c r="AB53" s="316"/>
-      <c r="AC53" s="316"/>
-      <c r="AD53" s="316"/>
-      <c r="AE53" s="316"/>
-      <c r="AF53" s="316"/>
-      <c r="AG53" s="316"/>
-      <c r="AH53" s="316"/>
-      <c r="AI53" s="316"/>
-      <c r="AJ53" s="316"/>
-      <c r="AK53" s="316"/>
-      <c r="AL53" s="316"/>
-      <c r="AM53" s="316"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
+      <c r="AA53" s="80"/>
+      <c r="AB53" s="80"/>
+      <c r="AC53" s="80"/>
+      <c r="AD53" s="80"/>
+      <c r="AE53" s="80"/>
+      <c r="AF53" s="80"/>
+      <c r="AG53" s="80"/>
+      <c r="AH53" s="80"/>
+      <c r="AI53" s="80"/>
+      <c r="AJ53" s="80"/>
+      <c r="AK53" s="80"/>
+      <c r="AL53" s="80"/>
+      <c r="AM53" s="80"/>
     </row>
     <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="304"/>
-      <c r="B54" s="304"/>
-      <c r="C54" s="304"/>
-      <c r="D54" s="304" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="304"/>
-      <c r="F54" s="304"/>
-      <c r="G54" s="304"/>
-      <c r="H54" s="304"/>
-      <c r="I54" s="304"/>
-      <c r="J54" s="304"/>
-      <c r="K54" s="304" t="s">
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="304"/>
-      <c r="M54" s="304"/>
-      <c r="N54" s="304"/>
-      <c r="O54" s="304"/>
-      <c r="P54" s="304"/>
-      <c r="Q54" s="304"/>
-      <c r="R54" s="336"/>
-      <c r="S54" s="337"/>
-      <c r="T54" s="337"/>
-      <c r="U54" s="337"/>
-      <c r="V54" s="337"/>
-      <c r="W54" s="337"/>
-      <c r="X54" s="337"/>
-      <c r="Y54" s="337"/>
-      <c r="Z54" s="337"/>
-      <c r="AA54" s="337"/>
-      <c r="AB54" s="337"/>
-      <c r="AC54" s="342"/>
-      <c r="AD54" s="337"/>
-      <c r="AE54" s="337"/>
-      <c r="AF54" s="337"/>
-      <c r="AG54" s="337"/>
-      <c r="AH54" s="337"/>
-      <c r="AI54" s="337"/>
-      <c r="AJ54" s="337"/>
-      <c r="AK54" s="337"/>
-      <c r="AL54" s="337"/>
-      <c r="AM54" s="338"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="77"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="44"/>
+      <c r="AJ54" s="44"/>
+      <c r="AK54" s="44"/>
+      <c r="AL54" s="44"/>
+      <c r="AM54" s="78"/>
     </row>
     <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="304"/>
-      <c r="B55" s="304"/>
-      <c r="C55" s="304"/>
-      <c r="D55" s="317" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="318"/>
-      <c r="F55" s="318"/>
-      <c r="G55" s="318"/>
-      <c r="H55" s="318"/>
-      <c r="I55" s="318"/>
-      <c r="J55" s="289"/>
-      <c r="K55" s="314" t="s">
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="L55" s="314"/>
-      <c r="M55" s="314"/>
-      <c r="N55" s="314"/>
-      <c r="O55" s="314"/>
-      <c r="P55" s="314"/>
-      <c r="Q55" s="314"/>
-      <c r="R55" s="339"/>
-      <c r="S55" s="340"/>
-      <c r="T55" s="340"/>
-      <c r="U55" s="340"/>
-      <c r="V55" s="340"/>
-      <c r="W55" s="340"/>
-      <c r="X55" s="340"/>
-      <c r="Y55" s="340"/>
-      <c r="Z55" s="340"/>
-      <c r="AA55" s="340"/>
-      <c r="AB55" s="340"/>
-      <c r="AC55" s="343"/>
-      <c r="AD55" s="340"/>
-      <c r="AE55" s="340"/>
-      <c r="AF55" s="340"/>
-      <c r="AG55" s="340"/>
-      <c r="AH55" s="340"/>
-      <c r="AI55" s="340"/>
-      <c r="AJ55" s="340"/>
-      <c r="AK55" s="340"/>
-      <c r="AL55" s="340"/>
-      <c r="AM55" s="341"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="48"/>
     </row>
     <row r="56" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="304"/>
-      <c r="B56" s="304"/>
-      <c r="C56" s="304"/>
-      <c r="D56" s="292"/>
-      <c r="E56" s="319"/>
-      <c r="F56" s="319"/>
-      <c r="G56" s="319"/>
-      <c r="H56" s="319"/>
-      <c r="I56" s="319"/>
-      <c r="J56" s="293"/>
-      <c r="K56" s="288" t="s">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="L56" s="288"/>
-      <c r="M56" s="288"/>
-      <c r="N56" s="288"/>
-      <c r="O56" s="288"/>
-      <c r="P56" s="288"/>
-      <c r="Q56" s="288"/>
-      <c r="R56" s="329"/>
-      <c r="S56" s="329"/>
-      <c r="T56" s="329"/>
-      <c r="U56" s="329"/>
-      <c r="V56" s="329"/>
-      <c r="W56" s="329"/>
-      <c r="X56" s="329"/>
-      <c r="Y56" s="329"/>
-      <c r="Z56" s="329"/>
-      <c r="AA56" s="329"/>
-      <c r="AB56" s="329"/>
-      <c r="AC56" s="329"/>
-      <c r="AD56" s="329"/>
-      <c r="AE56" s="329"/>
-      <c r="AF56" s="329"/>
-      <c r="AG56" s="329"/>
-      <c r="AH56" s="329"/>
-      <c r="AI56" s="329"/>
-      <c r="AJ56" s="329"/>
-      <c r="AK56" s="329"/>
-      <c r="AL56" s="329"/>
-      <c r="AM56" s="329"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="61"/>
+      <c r="AL56" s="61"/>
+      <c r="AM56" s="61"/>
     </row>
     <row r="57" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="304"/>
-      <c r="B57" s="304"/>
-      <c r="C57" s="304"/>
-      <c r="D57" s="317" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="318"/>
-      <c r="F57" s="318"/>
-      <c r="G57" s="318"/>
-      <c r="H57" s="318"/>
-      <c r="I57" s="318"/>
-      <c r="J57" s="289"/>
-      <c r="K57" s="314" t="s">
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="314"/>
-      <c r="M57" s="314"/>
-      <c r="N57" s="314"/>
-      <c r="O57" s="314"/>
-      <c r="P57" s="314"/>
-      <c r="Q57" s="314"/>
-      <c r="R57" s="339"/>
-      <c r="S57" s="340"/>
-      <c r="T57" s="340"/>
-      <c r="U57" s="340"/>
-      <c r="V57" s="340"/>
-      <c r="W57" s="340"/>
-      <c r="X57" s="340"/>
-      <c r="Y57" s="340"/>
-      <c r="Z57" s="340"/>
-      <c r="AA57" s="340"/>
-      <c r="AB57" s="340"/>
-      <c r="AC57" s="343"/>
-      <c r="AD57" s="340"/>
-      <c r="AE57" s="340"/>
-      <c r="AF57" s="340"/>
-      <c r="AG57" s="340"/>
-      <c r="AH57" s="340"/>
-      <c r="AI57" s="340"/>
-      <c r="AJ57" s="340"/>
-      <c r="AK57" s="340"/>
-      <c r="AL57" s="340"/>
-      <c r="AM57" s="341"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="46"/>
+      <c r="AE57" s="46"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="46"/>
+      <c r="AH57" s="46"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="46"/>
+      <c r="AK57" s="46"/>
+      <c r="AL57" s="46"/>
+      <c r="AM57" s="48"/>
     </row>
     <row r="58" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="304"/>
-      <c r="B58" s="304"/>
-      <c r="C58" s="304"/>
-      <c r="D58" s="292"/>
-      <c r="E58" s="319"/>
-      <c r="F58" s="319"/>
-      <c r="G58" s="319"/>
-      <c r="H58" s="319"/>
-      <c r="I58" s="319"/>
-      <c r="J58" s="293"/>
-      <c r="K58" s="288" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="L58" s="288"/>
-      <c r="M58" s="288"/>
-      <c r="N58" s="288"/>
-      <c r="O58" s="288"/>
-      <c r="P58" s="288"/>
-      <c r="Q58" s="288"/>
-      <c r="R58" s="333"/>
-      <c r="S58" s="334"/>
-      <c r="T58" s="334"/>
-      <c r="U58" s="334"/>
-      <c r="V58" s="334"/>
-      <c r="W58" s="334"/>
-      <c r="X58" s="334"/>
-      <c r="Y58" s="334"/>
-      <c r="Z58" s="334"/>
-      <c r="AA58" s="334"/>
-      <c r="AB58" s="334"/>
-      <c r="AC58" s="334"/>
-      <c r="AD58" s="334"/>
-      <c r="AE58" s="334"/>
-      <c r="AF58" s="334"/>
-      <c r="AG58" s="334"/>
-      <c r="AH58" s="334"/>
-      <c r="AI58" s="334"/>
-      <c r="AJ58" s="334"/>
-      <c r="AK58" s="334"/>
-      <c r="AL58" s="334"/>
-      <c r="AM58" s="335"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="63"/>
+      <c r="V58" s="63"/>
+      <c r="W58" s="63"/>
+      <c r="X58" s="63"/>
+      <c r="Y58" s="63"/>
+      <c r="Z58" s="63"/>
+      <c r="AA58" s="63"/>
+      <c r="AB58" s="63"/>
+      <c r="AC58" s="63"/>
+      <c r="AD58" s="63"/>
+      <c r="AE58" s="63"/>
+      <c r="AF58" s="63"/>
+      <c r="AG58" s="63"/>
+      <c r="AH58" s="63"/>
+      <c r="AI58" s="63"/>
+      <c r="AJ58" s="63"/>
+      <c r="AK58" s="63"/>
+      <c r="AL58" s="63"/>
+      <c r="AM58" s="64"/>
     </row>
     <row r="59" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="304"/>
-      <c r="B59" s="304"/>
-      <c r="C59" s="304"/>
-      <c r="D59" s="317" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="318"/>
-      <c r="F59" s="318"/>
-      <c r="G59" s="318"/>
-      <c r="H59" s="318"/>
-      <c r="I59" s="318"/>
-      <c r="J59" s="289"/>
-      <c r="K59" s="314" t="s">
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="L59" s="314"/>
-      <c r="M59" s="314"/>
-      <c r="N59" s="314"/>
-      <c r="O59" s="314"/>
-      <c r="P59" s="314"/>
-      <c r="Q59" s="314"/>
-      <c r="R59" s="339"/>
-      <c r="S59" s="340"/>
-      <c r="T59" s="340"/>
-      <c r="U59" s="340"/>
-      <c r="V59" s="340"/>
-      <c r="W59" s="340"/>
-      <c r="X59" s="340"/>
-      <c r="Y59" s="340"/>
-      <c r="Z59" s="340"/>
-      <c r="AA59" s="340"/>
-      <c r="AB59" s="340"/>
-      <c r="AC59" s="343"/>
-      <c r="AD59" s="340"/>
-      <c r="AE59" s="340"/>
-      <c r="AF59" s="340"/>
-      <c r="AG59" s="340"/>
-      <c r="AH59" s="340"/>
-      <c r="AI59" s="340"/>
-      <c r="AJ59" s="340"/>
-      <c r="AK59" s="340"/>
-      <c r="AL59" s="340"/>
-      <c r="AM59" s="341"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="47"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="46"/>
+      <c r="AM59" s="48"/>
     </row>
     <row r="60" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="304"/>
-      <c r="B60" s="304"/>
-      <c r="C60" s="304"/>
-      <c r="D60" s="290"/>
-      <c r="E60" s="320"/>
-      <c r="F60" s="320"/>
-      <c r="G60" s="320"/>
-      <c r="H60" s="320"/>
-      <c r="I60" s="320"/>
-      <c r="J60" s="291"/>
-      <c r="K60" s="284" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="284"/>
-      <c r="M60" s="284"/>
-      <c r="N60" s="284"/>
-      <c r="O60" s="284"/>
-      <c r="P60" s="284"/>
-      <c r="Q60" s="284"/>
-      <c r="R60" s="330"/>
-      <c r="S60" s="331"/>
-      <c r="T60" s="331"/>
-      <c r="U60" s="331"/>
-      <c r="V60" s="331"/>
-      <c r="W60" s="331"/>
-      <c r="X60" s="331"/>
-      <c r="Y60" s="331"/>
-      <c r="Z60" s="331"/>
-      <c r="AA60" s="331"/>
-      <c r="AB60" s="331"/>
-      <c r="AC60" s="331"/>
-      <c r="AD60" s="331"/>
-      <c r="AE60" s="331"/>
-      <c r="AF60" s="331"/>
-      <c r="AG60" s="331"/>
-      <c r="AH60" s="331"/>
-      <c r="AI60" s="331"/>
-      <c r="AJ60" s="331"/>
-      <c r="AK60" s="331"/>
-      <c r="AL60" s="331"/>
-      <c r="AM60" s="332"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="71"/>
+      <c r="AH60" s="71"/>
+      <c r="AI60" s="71"/>
+      <c r="AJ60" s="71"/>
+      <c r="AK60" s="71"/>
+      <c r="AL60" s="71"/>
+      <c r="AM60" s="72"/>
     </row>
     <row r="61" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="304"/>
-      <c r="B61" s="304"/>
-      <c r="C61" s="304"/>
-      <c r="D61" s="290"/>
-      <c r="E61" s="320"/>
-      <c r="F61" s="320"/>
-      <c r="G61" s="320"/>
-      <c r="H61" s="320"/>
-      <c r="I61" s="320"/>
-      <c r="J61" s="291"/>
-      <c r="K61" s="284" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="284"/>
-      <c r="M61" s="284"/>
-      <c r="N61" s="284"/>
-      <c r="O61" s="284"/>
-      <c r="P61" s="284"/>
-      <c r="Q61" s="284"/>
-      <c r="R61" s="285"/>
-      <c r="S61" s="286"/>
-      <c r="T61" s="286"/>
-      <c r="U61" s="286"/>
-      <c r="V61" s="286"/>
-      <c r="W61" s="286"/>
-      <c r="X61" s="286"/>
-      <c r="Y61" s="286"/>
-      <c r="Z61" s="286"/>
-      <c r="AA61" s="286"/>
-      <c r="AB61" s="286"/>
-      <c r="AC61" s="313"/>
-      <c r="AD61" s="286"/>
-      <c r="AE61" s="286"/>
-      <c r="AF61" s="286"/>
-      <c r="AG61" s="286"/>
-      <c r="AH61" s="286"/>
-      <c r="AI61" s="286"/>
-      <c r="AJ61" s="286"/>
-      <c r="AK61" s="286"/>
-      <c r="AL61" s="286"/>
-      <c r="AM61" s="287"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="50"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="50"/>
+      <c r="AF61" s="50"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="50"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="50"/>
+      <c r="AL61" s="50"/>
+      <c r="AM61" s="52"/>
     </row>
     <row r="62" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="304"/>
-      <c r="B62" s="304"/>
-      <c r="C62" s="304"/>
-      <c r="D62" s="292"/>
-      <c r="E62" s="319"/>
-      <c r="F62" s="319"/>
-      <c r="G62" s="319"/>
-      <c r="H62" s="319"/>
-      <c r="I62" s="319"/>
-      <c r="J62" s="293"/>
-      <c r="K62" s="288" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="L62" s="288"/>
-      <c r="M62" s="288"/>
-      <c r="N62" s="288"/>
-      <c r="O62" s="288"/>
-      <c r="P62" s="288"/>
-      <c r="Q62" s="288"/>
-      <c r="R62" s="333"/>
-      <c r="S62" s="334"/>
-      <c r="T62" s="334"/>
-      <c r="U62" s="334"/>
-      <c r="V62" s="334"/>
-      <c r="W62" s="334"/>
-      <c r="X62" s="334"/>
-      <c r="Y62" s="334"/>
-      <c r="Z62" s="334"/>
-      <c r="AA62" s="334"/>
-      <c r="AB62" s="334"/>
-      <c r="AC62" s="334"/>
-      <c r="AD62" s="334"/>
-      <c r="AE62" s="334"/>
-      <c r="AF62" s="334"/>
-      <c r="AG62" s="334"/>
-      <c r="AH62" s="334"/>
-      <c r="AI62" s="334"/>
-      <c r="AJ62" s="334"/>
-      <c r="AK62" s="334"/>
-      <c r="AL62" s="334"/>
-      <c r="AM62" s="335"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="63"/>
+      <c r="X62" s="63"/>
+      <c r="Y62" s="63"/>
+      <c r="Z62" s="63"/>
+      <c r="AA62" s="63"/>
+      <c r="AB62" s="63"/>
+      <c r="AC62" s="63"/>
+      <c r="AD62" s="63"/>
+      <c r="AE62" s="63"/>
+      <c r="AF62" s="63"/>
+      <c r="AG62" s="63"/>
+      <c r="AH62" s="63"/>
+      <c r="AI62" s="63"/>
+      <c r="AJ62" s="63"/>
+      <c r="AK62" s="63"/>
+      <c r="AL62" s="63"/>
+      <c r="AM62" s="64"/>
     </row>
     <row r="63" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27"/>
@@ -9497,385 +9527,662 @@
       <c r="AM63" s="28"/>
     </row>
     <row r="64" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="321" t="s">
+      <c r="A64" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="322"/>
-      <c r="C64" s="294" t="s">
+      <c r="B64" s="32"/>
+      <c r="C64" s="351" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="295"/>
-      <c r="E64" s="295"/>
-      <c r="F64" s="295"/>
-      <c r="G64" s="295"/>
-      <c r="H64" s="295"/>
-      <c r="I64" s="295"/>
-      <c r="J64" s="295"/>
-      <c r="K64" s="295"/>
-      <c r="L64" s="295"/>
-      <c r="M64" s="295"/>
-      <c r="N64" s="295"/>
-      <c r="O64" s="295"/>
-      <c r="P64" s="295"/>
-      <c r="Q64" s="296"/>
-      <c r="R64" s="27"/>
+      <c r="D64" s="352"/>
+      <c r="E64" s="352"/>
+      <c r="F64" s="352"/>
+      <c r="G64" s="352"/>
+      <c r="H64" s="352"/>
+      <c r="I64" s="352"/>
+      <c r="J64" s="352"/>
+      <c r="K64" s="352"/>
+      <c r="L64" s="352"/>
+      <c r="M64" s="352"/>
+      <c r="N64" s="352"/>
+      <c r="O64" s="352"/>
+      <c r="P64" s="352"/>
+      <c r="Q64" s="352"/>
+      <c r="R64" s="353"/>
       <c r="S64" s="30"/>
-      <c r="T64" s="323" t="s">
+      <c r="T64" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="U64" s="324"/>
-      <c r="V64" s="305" t="s">
+      <c r="U64" s="38"/>
+      <c r="V64" s="334" t="s">
         <v>100</v>
       </c>
-      <c r="W64" s="305"/>
-      <c r="X64" s="305"/>
-      <c r="Y64" s="305"/>
-      <c r="Z64" s="305"/>
-      <c r="AA64" s="305"/>
-      <c r="AB64" s="305"/>
-      <c r="AC64" s="305"/>
-      <c r="AD64" s="305"/>
-      <c r="AE64" s="305"/>
-      <c r="AF64" s="305"/>
-      <c r="AG64" s="305"/>
-      <c r="AH64" s="305"/>
-      <c r="AI64" s="305"/>
-      <c r="AJ64" s="305"/>
-      <c r="AK64" s="305"/>
-      <c r="AL64" s="305"/>
-      <c r="AM64" s="305"/>
+      <c r="W64" s="335"/>
+      <c r="X64" s="335"/>
+      <c r="Y64" s="335"/>
+      <c r="Z64" s="335"/>
+      <c r="AA64" s="335"/>
+      <c r="AB64" s="335"/>
+      <c r="AC64" s="335"/>
+      <c r="AD64" s="335"/>
+      <c r="AE64" s="335"/>
+      <c r="AF64" s="335"/>
+      <c r="AG64" s="335"/>
+      <c r="AH64" s="335"/>
+      <c r="AI64" s="335"/>
+      <c r="AJ64" s="335"/>
+      <c r="AK64" s="335"/>
+      <c r="AL64" s="335"/>
+      <c r="AM64" s="336"/>
     </row>
     <row r="65" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="325"/>
-      <c r="B65" s="326"/>
-      <c r="C65" s="297"/>
-      <c r="D65" s="298"/>
-      <c r="E65" s="298"/>
-      <c r="F65" s="298"/>
-      <c r="G65" s="298"/>
-      <c r="H65" s="298"/>
-      <c r="I65" s="298"/>
-      <c r="J65" s="298"/>
-      <c r="K65" s="298"/>
-      <c r="L65" s="298"/>
-      <c r="M65" s="298"/>
-      <c r="N65" s="298"/>
-      <c r="O65" s="298"/>
-      <c r="P65" s="298"/>
-      <c r="Q65" s="299"/>
-      <c r="R65" s="27"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="351"/>
+      <c r="D65" s="352"/>
+      <c r="E65" s="352"/>
+      <c r="F65" s="352"/>
+      <c r="G65" s="352"/>
+      <c r="H65" s="352"/>
+      <c r="I65" s="352"/>
+      <c r="J65" s="352"/>
+      <c r="K65" s="352"/>
+      <c r="L65" s="352"/>
+      <c r="M65" s="352"/>
+      <c r="N65" s="352"/>
+      <c r="O65" s="352"/>
+      <c r="P65" s="352"/>
+      <c r="Q65" s="352"/>
+      <c r="R65" s="353"/>
       <c r="S65" s="27"/>
-      <c r="T65" s="324"/>
-      <c r="U65" s="324"/>
-      <c r="V65" s="305"/>
-      <c r="W65" s="305"/>
-      <c r="X65" s="305"/>
-      <c r="Y65" s="305"/>
-      <c r="Z65" s="305"/>
-      <c r="AA65" s="305"/>
-      <c r="AB65" s="305"/>
-      <c r="AC65" s="305"/>
-      <c r="AD65" s="305"/>
-      <c r="AE65" s="305"/>
-      <c r="AF65" s="305"/>
-      <c r="AG65" s="305"/>
-      <c r="AH65" s="305"/>
-      <c r="AI65" s="305"/>
-      <c r="AJ65" s="305"/>
-      <c r="AK65" s="305"/>
-      <c r="AL65" s="305"/>
-      <c r="AM65" s="305"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="337"/>
+      <c r="W65" s="338"/>
+      <c r="X65" s="338"/>
+      <c r="Y65" s="338"/>
+      <c r="Z65" s="338"/>
+      <c r="AA65" s="338"/>
+      <c r="AB65" s="338"/>
+      <c r="AC65" s="338"/>
+      <c r="AD65" s="338"/>
+      <c r="AE65" s="338"/>
+      <c r="AF65" s="338"/>
+      <c r="AG65" s="338"/>
+      <c r="AH65" s="338"/>
+      <c r="AI65" s="338"/>
+      <c r="AJ65" s="338"/>
+      <c r="AK65" s="338"/>
+      <c r="AL65" s="338"/>
+      <c r="AM65" s="339"/>
     </row>
     <row r="66" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="325"/>
-      <c r="B66" s="326"/>
-      <c r="C66" s="297"/>
-      <c r="D66" s="298"/>
-      <c r="E66" s="298"/>
-      <c r="F66" s="298"/>
-      <c r="G66" s="298"/>
-      <c r="H66" s="298"/>
-      <c r="I66" s="298"/>
-      <c r="J66" s="298"/>
-      <c r="K66" s="298"/>
-      <c r="L66" s="298"/>
-      <c r="M66" s="298"/>
-      <c r="N66" s="298"/>
-      <c r="O66" s="298"/>
-      <c r="P66" s="298"/>
-      <c r="Q66" s="299"/>
-      <c r="R66" s="27"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="351"/>
+      <c r="D66" s="352"/>
+      <c r="E66" s="352"/>
+      <c r="F66" s="352"/>
+      <c r="G66" s="352"/>
+      <c r="H66" s="352"/>
+      <c r="I66" s="352"/>
+      <c r="J66" s="352"/>
+      <c r="K66" s="352"/>
+      <c r="L66" s="352"/>
+      <c r="M66" s="352"/>
+      <c r="N66" s="352"/>
+      <c r="O66" s="352"/>
+      <c r="P66" s="352"/>
+      <c r="Q66" s="352"/>
+      <c r="R66" s="353"/>
       <c r="S66" s="27"/>
-      <c r="T66" s="324"/>
-      <c r="U66" s="324"/>
-      <c r="V66" s="305"/>
-      <c r="W66" s="305"/>
-      <c r="X66" s="305"/>
-      <c r="Y66" s="305"/>
-      <c r="Z66" s="305"/>
-      <c r="AA66" s="305"/>
-      <c r="AB66" s="305"/>
-      <c r="AC66" s="305"/>
-      <c r="AD66" s="305"/>
-      <c r="AE66" s="305"/>
-      <c r="AF66" s="305"/>
-      <c r="AG66" s="305"/>
-      <c r="AH66" s="305"/>
-      <c r="AI66" s="305"/>
-      <c r="AJ66" s="305"/>
-      <c r="AK66" s="305"/>
-      <c r="AL66" s="305"/>
-      <c r="AM66" s="305"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="337"/>
+      <c r="W66" s="338"/>
+      <c r="X66" s="338"/>
+      <c r="Y66" s="338"/>
+      <c r="Z66" s="338"/>
+      <c r="AA66" s="338"/>
+      <c r="AB66" s="338"/>
+      <c r="AC66" s="338"/>
+      <c r="AD66" s="338"/>
+      <c r="AE66" s="338"/>
+      <c r="AF66" s="338"/>
+      <c r="AG66" s="338"/>
+      <c r="AH66" s="338"/>
+      <c r="AI66" s="338"/>
+      <c r="AJ66" s="338"/>
+      <c r="AK66" s="338"/>
+      <c r="AL66" s="338"/>
+      <c r="AM66" s="339"/>
     </row>
     <row r="67" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="325"/>
-      <c r="B67" s="326"/>
-      <c r="C67" s="297"/>
-      <c r="D67" s="298"/>
-      <c r="E67" s="298"/>
-      <c r="F67" s="298"/>
-      <c r="G67" s="298"/>
-      <c r="H67" s="298"/>
-      <c r="I67" s="298"/>
-      <c r="J67" s="298"/>
-      <c r="K67" s="298"/>
-      <c r="L67" s="298"/>
-      <c r="M67" s="298"/>
-      <c r="N67" s="298"/>
-      <c r="O67" s="298"/>
-      <c r="P67" s="298"/>
-      <c r="Q67" s="299"/>
-      <c r="R67" s="27"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="351"/>
+      <c r="D67" s="352"/>
+      <c r="E67" s="352"/>
+      <c r="F67" s="352"/>
+      <c r="G67" s="352"/>
+      <c r="H67" s="352"/>
+      <c r="I67" s="352"/>
+      <c r="J67" s="352"/>
+      <c r="K67" s="352"/>
+      <c r="L67" s="352"/>
+      <c r="M67" s="352"/>
+      <c r="N67" s="352"/>
+      <c r="O67" s="352"/>
+      <c r="P67" s="352"/>
+      <c r="Q67" s="352"/>
+      <c r="R67" s="353"/>
       <c r="S67" s="27"/>
-      <c r="T67" s="324"/>
-      <c r="U67" s="324"/>
-      <c r="V67" s="305"/>
-      <c r="W67" s="305"/>
-      <c r="X67" s="305"/>
-      <c r="Y67" s="305"/>
-      <c r="Z67" s="305"/>
-      <c r="AA67" s="305"/>
-      <c r="AB67" s="305"/>
-      <c r="AC67" s="305"/>
-      <c r="AD67" s="305"/>
-      <c r="AE67" s="305"/>
-      <c r="AF67" s="305"/>
-      <c r="AG67" s="305"/>
-      <c r="AH67" s="305"/>
-      <c r="AI67" s="305"/>
-      <c r="AJ67" s="305"/>
-      <c r="AK67" s="305"/>
-      <c r="AL67" s="305"/>
-      <c r="AM67" s="305"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="337"/>
+      <c r="W67" s="338"/>
+      <c r="X67" s="338"/>
+      <c r="Y67" s="338"/>
+      <c r="Z67" s="338"/>
+      <c r="AA67" s="338"/>
+      <c r="AB67" s="338"/>
+      <c r="AC67" s="338"/>
+      <c r="AD67" s="338"/>
+      <c r="AE67" s="338"/>
+      <c r="AF67" s="338"/>
+      <c r="AG67" s="338"/>
+      <c r="AH67" s="338"/>
+      <c r="AI67" s="338"/>
+      <c r="AJ67" s="338"/>
+      <c r="AK67" s="338"/>
+      <c r="AL67" s="338"/>
+      <c r="AM67" s="339"/>
     </row>
     <row r="68" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="325"/>
-      <c r="B68" s="326"/>
-      <c r="C68" s="297"/>
-      <c r="D68" s="298"/>
-      <c r="E68" s="298"/>
-      <c r="F68" s="298"/>
-      <c r="G68" s="298"/>
-      <c r="H68" s="298"/>
-      <c r="I68" s="298"/>
-      <c r="J68" s="298"/>
-      <c r="K68" s="298"/>
-      <c r="L68" s="298"/>
-      <c r="M68" s="298"/>
-      <c r="N68" s="298"/>
-      <c r="O68" s="298"/>
-      <c r="P68" s="298"/>
-      <c r="Q68" s="299"/>
-      <c r="R68" s="27"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="351"/>
+      <c r="D68" s="352"/>
+      <c r="E68" s="352"/>
+      <c r="F68" s="352"/>
+      <c r="G68" s="352"/>
+      <c r="H68" s="352"/>
+      <c r="I68" s="352"/>
+      <c r="J68" s="352"/>
+      <c r="K68" s="352"/>
+      <c r="L68" s="352"/>
+      <c r="M68" s="352"/>
+      <c r="N68" s="352"/>
+      <c r="O68" s="352"/>
+      <c r="P68" s="352"/>
+      <c r="Q68" s="352"/>
+      <c r="R68" s="353"/>
       <c r="S68" s="27"/>
-      <c r="T68" s="324"/>
-      <c r="U68" s="324"/>
-      <c r="V68" s="305"/>
-      <c r="W68" s="305"/>
-      <c r="X68" s="305"/>
-      <c r="Y68" s="305"/>
-      <c r="Z68" s="305"/>
-      <c r="AA68" s="305"/>
-      <c r="AB68" s="305"/>
-      <c r="AC68" s="305"/>
-      <c r="AD68" s="305"/>
-      <c r="AE68" s="305"/>
-      <c r="AF68" s="305"/>
-      <c r="AG68" s="305"/>
-      <c r="AH68" s="305"/>
-      <c r="AI68" s="305"/>
-      <c r="AJ68" s="305"/>
-      <c r="AK68" s="305"/>
-      <c r="AL68" s="305"/>
-      <c r="AM68" s="305"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="347"/>
+      <c r="W68" s="348"/>
+      <c r="X68" s="348"/>
+      <c r="Y68" s="348"/>
+      <c r="Z68" s="348"/>
+      <c r="AA68" s="348"/>
+      <c r="AB68" s="348"/>
+      <c r="AC68" s="348"/>
+      <c r="AD68" s="348"/>
+      <c r="AE68" s="348"/>
+      <c r="AF68" s="348"/>
+      <c r="AG68" s="348"/>
+      <c r="AH68" s="348"/>
+      <c r="AI68" s="348"/>
+      <c r="AJ68" s="348"/>
+      <c r="AK68" s="348"/>
+      <c r="AL68" s="348"/>
+      <c r="AM68" s="349"/>
     </row>
     <row r="69" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="325"/>
-      <c r="B69" s="326"/>
-      <c r="C69" s="297"/>
-      <c r="D69" s="298"/>
-      <c r="E69" s="298"/>
-      <c r="F69" s="298"/>
-      <c r="G69" s="298"/>
-      <c r="H69" s="298"/>
-      <c r="I69" s="298"/>
-      <c r="J69" s="298"/>
-      <c r="K69" s="298"/>
-      <c r="L69" s="298"/>
-      <c r="M69" s="298"/>
-      <c r="N69" s="298"/>
-      <c r="O69" s="298"/>
-      <c r="P69" s="298"/>
-      <c r="Q69" s="299"/>
-      <c r="R69" s="27"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="351"/>
+      <c r="D69" s="352"/>
+      <c r="E69" s="352"/>
+      <c r="F69" s="352"/>
+      <c r="G69" s="352"/>
+      <c r="H69" s="352"/>
+      <c r="I69" s="352"/>
+      <c r="J69" s="352"/>
+      <c r="K69" s="352"/>
+      <c r="L69" s="352"/>
+      <c r="M69" s="352"/>
+      <c r="N69" s="352"/>
+      <c r="O69" s="352"/>
+      <c r="P69" s="352"/>
+      <c r="Q69" s="352"/>
+      <c r="R69" s="353"/>
       <c r="S69" s="27"/>
-      <c r="T69" s="324"/>
-      <c r="U69" s="324"/>
-      <c r="V69" s="305"/>
-      <c r="W69" s="305"/>
-      <c r="X69" s="305"/>
-      <c r="Y69" s="305"/>
-      <c r="Z69" s="305"/>
-      <c r="AA69" s="305"/>
-      <c r="AB69" s="305"/>
-      <c r="AC69" s="305"/>
-      <c r="AD69" s="305"/>
-      <c r="AE69" s="305"/>
-      <c r="AF69" s="305"/>
-      <c r="AG69" s="305"/>
-      <c r="AH69" s="305"/>
-      <c r="AI69" s="305"/>
-      <c r="AJ69" s="305"/>
-      <c r="AK69" s="305"/>
-      <c r="AL69" s="305"/>
-      <c r="AM69" s="305"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="334"/>
+      <c r="W69" s="340"/>
+      <c r="X69" s="340"/>
+      <c r="Y69" s="340"/>
+      <c r="Z69" s="340"/>
+      <c r="AA69" s="340"/>
+      <c r="AB69" s="340"/>
+      <c r="AC69" s="340"/>
+      <c r="AD69" s="340"/>
+      <c r="AE69" s="340"/>
+      <c r="AF69" s="340"/>
+      <c r="AG69" s="340"/>
+      <c r="AH69" s="340"/>
+      <c r="AI69" s="340"/>
+      <c r="AJ69" s="340"/>
+      <c r="AK69" s="340"/>
+      <c r="AL69" s="340"/>
+      <c r="AM69" s="341"/>
     </row>
     <row r="70" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="325"/>
-      <c r="B70" s="326"/>
-      <c r="C70" s="297"/>
-      <c r="D70" s="298"/>
-      <c r="E70" s="298"/>
-      <c r="F70" s="298"/>
-      <c r="G70" s="298"/>
-      <c r="H70" s="298"/>
-      <c r="I70" s="298"/>
-      <c r="J70" s="298"/>
-      <c r="K70" s="298"/>
-      <c r="L70" s="298"/>
-      <c r="M70" s="298"/>
-      <c r="N70" s="298"/>
-      <c r="O70" s="298"/>
-      <c r="P70" s="298"/>
-      <c r="Q70" s="299"/>
-      <c r="R70" s="27"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="351"/>
+      <c r="D70" s="352"/>
+      <c r="E70" s="352"/>
+      <c r="F70" s="352"/>
+      <c r="G70" s="352"/>
+      <c r="H70" s="352"/>
+      <c r="I70" s="352"/>
+      <c r="J70" s="352"/>
+      <c r="K70" s="352"/>
+      <c r="L70" s="352"/>
+      <c r="M70" s="352"/>
+      <c r="N70" s="352"/>
+      <c r="O70" s="352"/>
+      <c r="P70" s="352"/>
+      <c r="Q70" s="352"/>
+      <c r="R70" s="353"/>
       <c r="S70" s="27"/>
-      <c r="T70" s="324"/>
-      <c r="U70" s="324"/>
-      <c r="V70" s="305"/>
-      <c r="W70" s="305"/>
-      <c r="X70" s="305"/>
-      <c r="Y70" s="305"/>
-      <c r="Z70" s="305"/>
-      <c r="AA70" s="305"/>
-      <c r="AB70" s="305"/>
-      <c r="AC70" s="305"/>
-      <c r="AD70" s="305"/>
-      <c r="AE70" s="305"/>
-      <c r="AF70" s="305"/>
-      <c r="AG70" s="305"/>
-      <c r="AH70" s="305"/>
-      <c r="AI70" s="305"/>
-      <c r="AJ70" s="305"/>
-      <c r="AK70" s="305"/>
-      <c r="AL70" s="305"/>
-      <c r="AM70" s="305"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="342"/>
+      <c r="W70" s="350"/>
+      <c r="X70" s="350"/>
+      <c r="Y70" s="350"/>
+      <c r="Z70" s="350"/>
+      <c r="AA70" s="350"/>
+      <c r="AB70" s="350"/>
+      <c r="AC70" s="350"/>
+      <c r="AD70" s="350"/>
+      <c r="AE70" s="350"/>
+      <c r="AF70" s="350"/>
+      <c r="AG70" s="350"/>
+      <c r="AH70" s="350"/>
+      <c r="AI70" s="350"/>
+      <c r="AJ70" s="350"/>
+      <c r="AK70" s="350"/>
+      <c r="AL70" s="350"/>
+      <c r="AM70" s="343"/>
     </row>
     <row r="71" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="327"/>
-      <c r="B71" s="328"/>
-      <c r="C71" s="300"/>
-      <c r="D71" s="301"/>
-      <c r="E71" s="301"/>
-      <c r="F71" s="301"/>
-      <c r="G71" s="301"/>
-      <c r="H71" s="301"/>
-      <c r="I71" s="301"/>
-      <c r="J71" s="301"/>
-      <c r="K71" s="301"/>
-      <c r="L71" s="301"/>
-      <c r="M71" s="301"/>
-      <c r="N71" s="301"/>
-      <c r="O71" s="301"/>
-      <c r="P71" s="301"/>
-      <c r="Q71" s="302"/>
-      <c r="R71" s="27"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="351"/>
+      <c r="D71" s="352"/>
+      <c r="E71" s="352"/>
+      <c r="F71" s="352"/>
+      <c r="G71" s="352"/>
+      <c r="H71" s="352"/>
+      <c r="I71" s="352"/>
+      <c r="J71" s="352"/>
+      <c r="K71" s="352"/>
+      <c r="L71" s="352"/>
+      <c r="M71" s="352"/>
+      <c r="N71" s="352"/>
+      <c r="O71" s="352"/>
+      <c r="P71" s="352"/>
+      <c r="Q71" s="352"/>
+      <c r="R71" s="353"/>
       <c r="S71" s="27"/>
-      <c r="T71" s="324"/>
-      <c r="U71" s="324"/>
-      <c r="V71" s="305"/>
-      <c r="W71" s="305"/>
-      <c r="X71" s="305"/>
-      <c r="Y71" s="305"/>
-      <c r="Z71" s="305"/>
-      <c r="AA71" s="305"/>
-      <c r="AB71" s="305"/>
-      <c r="AC71" s="305"/>
-      <c r="AD71" s="305"/>
-      <c r="AE71" s="305"/>
-      <c r="AF71" s="305"/>
-      <c r="AG71" s="305"/>
-      <c r="AH71" s="305"/>
-      <c r="AI71" s="305"/>
-      <c r="AJ71" s="305"/>
-      <c r="AK71" s="305"/>
-      <c r="AL71" s="305"/>
-      <c r="AM71" s="305"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="342"/>
+      <c r="W71" s="350"/>
+      <c r="X71" s="350"/>
+      <c r="Y71" s="350"/>
+      <c r="Z71" s="350"/>
+      <c r="AA71" s="350"/>
+      <c r="AB71" s="350"/>
+      <c r="AC71" s="350"/>
+      <c r="AD71" s="350"/>
+      <c r="AE71" s="350"/>
+      <c r="AF71" s="350"/>
+      <c r="AG71" s="350"/>
+      <c r="AH71" s="350"/>
+      <c r="AI71" s="350"/>
+      <c r="AJ71" s="350"/>
+      <c r="AK71" s="350"/>
+      <c r="AL71" s="350"/>
+      <c r="AM71" s="343"/>
+    </row>
+    <row r="72" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="351"/>
+      <c r="D72" s="352"/>
+      <c r="E72" s="352"/>
+      <c r="F72" s="352"/>
+      <c r="G72" s="352"/>
+      <c r="H72" s="352"/>
+      <c r="I72" s="352"/>
+      <c r="J72" s="352"/>
+      <c r="K72" s="352"/>
+      <c r="L72" s="352"/>
+      <c r="M72" s="352"/>
+      <c r="N72" s="352"/>
+      <c r="O72" s="352"/>
+      <c r="P72" s="352"/>
+      <c r="Q72" s="352"/>
+      <c r="R72" s="353"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="342"/>
+      <c r="W72" s="350"/>
+      <c r="X72" s="350"/>
+      <c r="Y72" s="350"/>
+      <c r="Z72" s="350"/>
+      <c r="AA72" s="350"/>
+      <c r="AB72" s="350"/>
+      <c r="AC72" s="350"/>
+      <c r="AD72" s="350"/>
+      <c r="AE72" s="350"/>
+      <c r="AF72" s="350"/>
+      <c r="AG72" s="350"/>
+      <c r="AH72" s="350"/>
+      <c r="AI72" s="350"/>
+      <c r="AJ72" s="350"/>
+      <c r="AK72" s="350"/>
+      <c r="AL72" s="350"/>
+      <c r="AM72" s="343"/>
+    </row>
+    <row r="73" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="351"/>
+      <c r="D73" s="352"/>
+      <c r="E73" s="352"/>
+      <c r="F73" s="352"/>
+      <c r="G73" s="352"/>
+      <c r="H73" s="352"/>
+      <c r="I73" s="352"/>
+      <c r="J73" s="352"/>
+      <c r="K73" s="352"/>
+      <c r="L73" s="352"/>
+      <c r="M73" s="352"/>
+      <c r="N73" s="352"/>
+      <c r="O73" s="352"/>
+      <c r="P73" s="352"/>
+      <c r="Q73" s="352"/>
+      <c r="R73" s="353"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="344"/>
+      <c r="W73" s="345"/>
+      <c r="X73" s="345"/>
+      <c r="Y73" s="345"/>
+      <c r="Z73" s="345"/>
+      <c r="AA73" s="345"/>
+      <c r="AB73" s="345"/>
+      <c r="AC73" s="345"/>
+      <c r="AD73" s="345"/>
+      <c r="AE73" s="345"/>
+      <c r="AF73" s="345"/>
+      <c r="AG73" s="345"/>
+      <c r="AH73" s="345"/>
+      <c r="AI73" s="345"/>
+      <c r="AJ73" s="345"/>
+      <c r="AK73" s="345"/>
+      <c r="AL73" s="345"/>
+      <c r="AM73" s="346"/>
     </row>
   </sheetData>
-  <mergeCells count="299">
-    <mergeCell ref="A64:B71"/>
-    <mergeCell ref="C64:Q71"/>
-    <mergeCell ref="T64:U71"/>
-    <mergeCell ref="V64:AM71"/>
-    <mergeCell ref="R47:AB48"/>
-    <mergeCell ref="R54:AB54"/>
-    <mergeCell ref="R55:AB55"/>
-    <mergeCell ref="R57:AB57"/>
-    <mergeCell ref="R59:AB59"/>
-    <mergeCell ref="AC59:AM59"/>
-    <mergeCell ref="R61:AB61"/>
-    <mergeCell ref="AC61:AM61"/>
-    <mergeCell ref="A47:C62"/>
-    <mergeCell ref="D55:J56"/>
-    <mergeCell ref="R56:AM56"/>
-    <mergeCell ref="R58:AM58"/>
-    <mergeCell ref="D59:J62"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="R60:AM60"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="R62:AM62"/>
-    <mergeCell ref="AC47:AM48"/>
-    <mergeCell ref="AC54:AM54"/>
-    <mergeCell ref="AC55:AM55"/>
-    <mergeCell ref="AC57:AM57"/>
-    <mergeCell ref="D47:J53"/>
-    <mergeCell ref="K47:Q48"/>
-    <mergeCell ref="K49:Q50"/>
-    <mergeCell ref="R49:AM50"/>
-    <mergeCell ref="K51:Q52"/>
-    <mergeCell ref="R51:AM52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="R53:AM53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="D57:J58"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
+  <mergeCells count="301">
+    <mergeCell ref="V64:AM68"/>
+    <mergeCell ref="V69:AM73"/>
+    <mergeCell ref="C64:R68"/>
+    <mergeCell ref="C69:R73"/>
+    <mergeCell ref="AO21:AS21"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="AT22:AV22"/>
+    <mergeCell ref="AR25:AV25"/>
+    <mergeCell ref="AJ42:AM44"/>
+    <mergeCell ref="AG38:AM38"/>
+    <mergeCell ref="Z34:AF34"/>
+    <mergeCell ref="Z36:AF36"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="AG36:AM36"/>
+    <mergeCell ref="AG34:AM34"/>
+    <mergeCell ref="Z35:AF35"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AG25:AM25"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="X44:AA44"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AW21:AY21"/>
+    <mergeCell ref="AW22:AY22"/>
+    <mergeCell ref="Z33:AF33"/>
+    <mergeCell ref="AG32:AM32"/>
+    <mergeCell ref="Z29:AF29"/>
+    <mergeCell ref="AG27:AM27"/>
+    <mergeCell ref="AG26:AM26"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AG22:AM22"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="AG28:AM28"/>
+    <mergeCell ref="Z27:AF27"/>
+    <mergeCell ref="Z26:AF26"/>
+    <mergeCell ref="AG24:AM24"/>
+    <mergeCell ref="AG30:AM30"/>
+    <mergeCell ref="AG29:AM29"/>
+    <mergeCell ref="AG31:AM31"/>
+    <mergeCell ref="AG33:AM33"/>
+    <mergeCell ref="AO24:AV24"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AR31:AV31"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="AR26:AV26"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="AG23:AM23"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z14:AI14"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG19:AM19"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z7:AM7"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AG21:AM21"/>
+    <mergeCell ref="AG16:AM16"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AG8:AM8"/>
+    <mergeCell ref="Z3:AI3"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AJ3:AM6"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="AG20:AM20"/>
+    <mergeCell ref="AJ13:AM15"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:AI6"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:B23"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="G18:Q18"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="Z24:AF24"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AF25"/>
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="Z15:AI15"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="T18:U23"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AG18:AM18"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="A32:B39"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="G37:Q37"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:B31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:Q46"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="G28:Q28"/>
+    <mergeCell ref="G19:Q19"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="G36:Q36"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="AO29:AV29"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G15:Q15"/>
+    <mergeCell ref="T24:U31"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="G27:Q27"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="Z4:AI4"/>
+    <mergeCell ref="Z5:AI5"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="AG37:AM37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="T32:U39"/>
+    <mergeCell ref="AG35:AM35"/>
+    <mergeCell ref="Z32:AF32"/>
+    <mergeCell ref="Z31:AF31"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="I42:K42"/>
     <mergeCell ref="BJ1:BN1"/>
     <mergeCell ref="AJ41:AM41"/>
     <mergeCell ref="V37:Y37"/>
@@ -9900,239 +10207,46 @@
     <mergeCell ref="Z10:AM10"/>
     <mergeCell ref="T11:Y11"/>
     <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="AG37:AM37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="T32:U39"/>
-    <mergeCell ref="AG35:AM35"/>
-    <mergeCell ref="Z32:AF32"/>
-    <mergeCell ref="Z31:AF31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="G36:Q36"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="AO29:AV29"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G15:Q15"/>
-    <mergeCell ref="T24:U31"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="G27:Q27"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="Z4:AI4"/>
-    <mergeCell ref="Z5:AI5"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:Q46"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G39:Q39"/>
-    <mergeCell ref="G28:Q28"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:B31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="A32:B39"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="Z15:AI15"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="T18:U23"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="AG18:AM18"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="Z24:AF24"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z30:AF30"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AF25"/>
-    <mergeCell ref="G24:Q24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:AI6"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:B23"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="G18:Q18"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="AG23:AM23"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z14:AI14"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG19:AM19"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="Z7:AM7"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AG21:AM21"/>
-    <mergeCell ref="AG16:AM16"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="AG8:AM8"/>
-    <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AJ3:AM6"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="AG20:AM20"/>
-    <mergeCell ref="AJ13:AM15"/>
-    <mergeCell ref="AW21:AY21"/>
-    <mergeCell ref="AW22:AY22"/>
-    <mergeCell ref="Z33:AF33"/>
-    <mergeCell ref="AG32:AM32"/>
-    <mergeCell ref="Z29:AF29"/>
-    <mergeCell ref="AG27:AM27"/>
-    <mergeCell ref="AG26:AM26"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AG22:AM22"/>
-    <mergeCell ref="Z28:AF28"/>
-    <mergeCell ref="AG28:AM28"/>
-    <mergeCell ref="Z27:AF27"/>
-    <mergeCell ref="Z26:AF26"/>
-    <mergeCell ref="AG24:AM24"/>
-    <mergeCell ref="AG30:AM30"/>
-    <mergeCell ref="AG29:AM29"/>
-    <mergeCell ref="AG31:AM31"/>
-    <mergeCell ref="AG33:AM33"/>
-    <mergeCell ref="AO24:AV24"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AR31:AV31"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AR26:AV26"/>
-    <mergeCell ref="AO21:AS21"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="AT22:AV22"/>
-    <mergeCell ref="AR25:AV25"/>
-    <mergeCell ref="AJ42:AM44"/>
-    <mergeCell ref="AG38:AM38"/>
-    <mergeCell ref="Z34:AF34"/>
-    <mergeCell ref="Z36:AF36"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="AG36:AM36"/>
-    <mergeCell ref="AG34:AM34"/>
-    <mergeCell ref="Z35:AF35"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AG25:AM25"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="X44:AA44"/>
-    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AC54:AM54"/>
+    <mergeCell ref="AC55:AM55"/>
+    <mergeCell ref="AC57:AM57"/>
+    <mergeCell ref="D47:J53"/>
+    <mergeCell ref="K47:Q48"/>
+    <mergeCell ref="K49:Q50"/>
+    <mergeCell ref="R49:AM50"/>
+    <mergeCell ref="K51:Q52"/>
+    <mergeCell ref="R51:AM52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="R53:AM53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="D57:J58"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A64:B73"/>
+    <mergeCell ref="T64:U73"/>
+    <mergeCell ref="R47:AB48"/>
+    <mergeCell ref="R54:AB54"/>
+    <mergeCell ref="R55:AB55"/>
+    <mergeCell ref="R57:AB57"/>
+    <mergeCell ref="R59:AB59"/>
+    <mergeCell ref="AC59:AM59"/>
+    <mergeCell ref="R61:AB61"/>
+    <mergeCell ref="AC61:AM61"/>
+    <mergeCell ref="A47:C62"/>
+    <mergeCell ref="D55:J56"/>
+    <mergeCell ref="R56:AM56"/>
+    <mergeCell ref="R58:AM58"/>
+    <mergeCell ref="D59:J62"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="R60:AM60"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="R62:AM62"/>
+    <mergeCell ref="AC47:AM48"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Z8:AE8">
@@ -10211,67 +10325,67 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AA41:AC41 AG41:AI41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AA41:AC41 AG41:AI41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>時間刻み</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" sqref="D5:Q5">
+    <dataValidation type="list" showInputMessage="1" sqref="D5:Q5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>客先契約</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="自動計算します入力しないでください。_x000a_入力の必要（イレギュラー処理）がある場合は、_x000a_フォーマットはイレギュラー処理用で対応すること" sqref="Z19:AM19"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ13:AM15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="自動計算します入力しないでください。_x000a_入力の必要（イレギュラー処理）がある場合は、_x000a_フォーマットはイレギュラー処理用で対応すること" sqref="Z19:AM19" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ13:AM15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>還元率</formula1>
     </dataValidation>
-    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="入力規制" error="半角カナのみを入力してください。" sqref="AE11:AM11">
+    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="入力規制" error="半角カナのみを入力してください。" sqref="AE11:AM11" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>AND(LEN(AE11)=LENB(AE11))</formula1>
     </dataValidation>
-    <dataValidation imeMode="halfKatakana" allowBlank="1" showInputMessage="1" sqref="AG8:AM8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="計算式がありますが入力しても良いです_x000a_但し自動計算はできなくなります" sqref="N22:Q23 Z22:AM23"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O42:Q42">
+    <dataValidation imeMode="halfKatakana" allowBlank="1" showInputMessage="1" sqref="AG8:AM8" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="計算式がありますが入力しても良いです_x000a_但し自動計算はできなくなります" sqref="N22:Q23 Z22:AM23" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O42:Q42" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>請求ｻｲﾄﾞ支払日</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="Z8:AF8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="入力、変更等しないでください" sqref="AX2:BB14 BD2:BH14 BJ2:BN14"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J22:M23">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="Z8:AF8" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="入力、変更等しないでください" sqref="AX2:BB14 BD2:BH14 BJ2:BN14" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J22:M23" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$BA$11:$BA$14</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="入力しないでください" sqref="O7:Q8"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Z2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="入力しないでください" sqref="O7:Q8" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>契約種類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29 Z37 Z21 Z29 G21 G37 AG21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29 Z37 Z21 Z29 G21 G37 AG21" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>上限時間</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28 AG36:AG37 Z36 AG28:AG29 Z20 G36 Z28 G20 AG20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28 AG36:AG37 Z36 AG28:AG29 Z20 G36 Z28 G20 AG20" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>下限時間</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G34 AG34 Z34 AG26 Z26 AG18 Z18 G26 G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G34 AG34 Z34 AG26 Z26 AG18 Z18 G26 G18" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>計算方法</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Z11">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Z11" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>契約形態</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" sqref="AE13:AI13 W13:AA13">
+    <dataValidation type="list" showInputMessage="1" sqref="AE13:AI13 W13:AA13" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>ありなし</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" sqref="X43:AA43">
+    <dataValidation type="list" showInputMessage="1" sqref="X43:AA43" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>消費税区分</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N43:Q44 X44:AA44 AF43:AI44 F43:I44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N43:Q44 X44:AA44 AF43:AI44 F43:I44" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>ありなし</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG42:AI42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG42:AI42" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>支払い日</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I42:K42 AA42:AC42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I42:K42 AA42:AC42" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1>締め</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:K41 O41:Q41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:K41 O41:Q41" xr:uid="{00000000-0002-0000-0000-000016000000}">
       <formula1>時間刻み</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
